--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-2.1-500-14 (Брест колоски)/Брест колоски от 13.11.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-2.1-500-14 (Брест колоски)/Брест колоски от 13.11.2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="15" r:id="rId1"/>
@@ -28,9 +28,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Акт приемки'!$A$1:$J$57</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'Горл. кольцо'!$A$1:$S$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'Горл. кольцо'!$A$1:$S$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Паспорт!$A$1:$I$38</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">Плунжер!$A$1:$S$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">Плунжер!$A$1:$S$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'Финиш. кольцо'!$A$1:$S$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Черн. поддон'!$A$1:$S$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Черн. форма'!$A$1:$R$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Чист.  поддон'!$A$1:$S$16</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="141">
   <si>
     <t>+ Tol.</t>
   </si>
@@ -461,6 +462,9 @@
   </si>
   <si>
     <t>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</t>
+  </si>
+  <si>
+    <t>Слесарь-инструментальщик</t>
   </si>
 </sst>
 </file>
@@ -2152,7 +2156,7 @@
     <xf numFmtId="43" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="633">
+  <cellXfs count="635">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" shrinkToFit="1"/>
@@ -3538,12 +3542,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3588,189 +3586,123 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -3822,73 +3754,76 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3912,6 +3847,75 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3938,19 +3942,19 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3968,6 +3972,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -5166,52 +5176,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>23283</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>565150</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>968375</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 4" descr="NR-02.TIF"/>
-        <xdr:cNvPicPr preferRelativeResize="0">
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect r="6522"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6314016" y="260350"/>
-          <a:ext cx="3589867" cy="2062692"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>91441</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -5231,7 +5195,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5246,6 +5210,132 @@
         <a:xfrm>
           <a:off x="586741" y="121920"/>
           <a:ext cx="571500" cy="701993"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>50801</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>592667</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>330200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Прямая соединительная линия 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6392333" y="2599268"/>
+          <a:ext cx="3539067" cy="3725332"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>33867</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>33866</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>567267</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>347133</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Прямая соединительная линия 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6324600" y="2582333"/>
+          <a:ext cx="3581400" cy="3759200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>42333</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>135467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>530319</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>969276</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Рисунок 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6333066" y="237067"/>
+          <a:ext cx="3535986" cy="2086876"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5349,6 +5439,94 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>42333</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>601133</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>270934</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Прямая соединительная линия 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6248400" y="2302933"/>
+          <a:ext cx="3649133" cy="2599268"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>59266</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>2347</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>250921</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Прямая соединительная линия 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6265333" y="2328333"/>
+          <a:ext cx="3651481" cy="2553855"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5402,8 +5580,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
@@ -5411,7 +5589,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
+      <xdr:rowOff>245534</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5419,9 +5597,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="6677025" y="2466975"/>
-          <a:ext cx="3333750" cy="2952750"/>
+        <a:xfrm flipV="1">
+          <a:off x="5291667" y="2237317"/>
+          <a:ext cx="4821766" cy="3206750"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5446,10 +5624,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>50803</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>33869</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
@@ -5463,9 +5641,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="6672262" y="2462212"/>
-          <a:ext cx="3314700" cy="2962275"/>
+        <a:xfrm>
+          <a:off x="5266270" y="2252136"/>
+          <a:ext cx="4837637" cy="3222622"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6190,7 +6368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -6203,25 +6381,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="489" t="s">
+      <c r="A1" s="487" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="493"/>
-      <c r="C1" s="493"/>
-      <c r="D1" s="493"/>
-      <c r="E1" s="493"/>
+      <c r="B1" s="491"/>
+      <c r="C1" s="491"/>
+      <c r="D1" s="491"/>
+      <c r="E1" s="491"/>
       <c r="G1" s="371" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="490" t="s">
+      <c r="A2" s="488" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="491"/>
-      <c r="C2" s="491"/>
-      <c r="D2" s="491"/>
-      <c r="E2" s="492"/>
+      <c r="B2" s="489"/>
+      <c r="C2" s="489"/>
+      <c r="D2" s="489"/>
+      <c r="E2" s="490"/>
       <c r="G2" s="370" t="s">
         <v>79</v>
       </c>
@@ -6232,45 +6410,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="494" t="s">
+      <c r="A4" s="492" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="495"/>
-      <c r="C4" s="495"/>
-      <c r="D4" s="495"/>
-      <c r="E4" s="495"/>
+      <c r="B4" s="493"/>
+      <c r="C4" s="493"/>
+      <c r="D4" s="493"/>
+      <c r="E4" s="493"/>
     </row>
     <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="496" t="s">
+      <c r="A5" s="494" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="497"/>
-      <c r="C5" s="497"/>
-      <c r="D5" s="497"/>
-      <c r="E5" s="498"/>
+      <c r="B5" s="495"/>
+      <c r="C5" s="495"/>
+      <c r="D5" s="495"/>
+      <c r="E5" s="496"/>
     </row>
     <row r="6" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="489" t="s">
+      <c r="A7" s="487" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="493"/>
-      <c r="C7" s="493"/>
-      <c r="D7" s="493"/>
-      <c r="E7" s="493"/>
+      <c r="B7" s="491"/>
+      <c r="C7" s="491"/>
+      <c r="D7" s="491"/>
+      <c r="E7" s="491"/>
     </row>
     <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="499"/>
-      <c r="B8" s="500"/>
-      <c r="C8" s="500"/>
-      <c r="D8" s="500"/>
-      <c r="E8" s="501"/>
+      <c r="A8" s="497"/>
+      <c r="B8" s="498"/>
+      <c r="C8" s="498"/>
+      <c r="D8" s="498"/>
+      <c r="E8" s="499"/>
     </row>
     <row r="10" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="489" t="s">
+      <c r="A10" s="487" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="489"/>
+      <c r="B10" s="487"/>
       <c r="C10" s="372"/>
       <c r="D10" s="380" t="s">
         <v>94</v>
@@ -6281,33 +6459,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="487"/>
-      <c r="B11" s="488"/>
+      <c r="A11" s="485"/>
+      <c r="B11" s="486"/>
       <c r="D11" s="379">
         <v>43782</v>
       </c>
-      <c r="F11" s="484" t="s">
+      <c r="F11" s="500" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="484"/>
-      <c r="H11" s="484"/>
-      <c r="I11" s="484"/>
-      <c r="J11" s="485" t="s">
+      <c r="G11" s="500"/>
+      <c r="H11" s="500"/>
+      <c r="I11" s="500"/>
+      <c r="J11" s="501" t="s">
         <v>99</v>
       </c>
-      <c r="K11" s="485"/>
+      <c r="K11" s="501"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="484" t="s">
+      <c r="F12" s="500" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="484"/>
-      <c r="H12" s="484"/>
-      <c r="I12" s="484"/>
-      <c r="J12" s="485" t="s">
+      <c r="G12" s="500"/>
+      <c r="H12" s="500"/>
+      <c r="I12" s="500"/>
+      <c r="J12" s="501" t="s">
         <v>100</v>
       </c>
-      <c r="K12" s="485"/>
+      <c r="K12" s="501"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="373" t="s">
@@ -6319,16 +6497,16 @@
       <c r="C13" s="384" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="484" t="s">
+      <c r="F13" s="500" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="484"/>
-      <c r="H13" s="484"/>
-      <c r="I13" s="484"/>
-      <c r="J13" s="485" t="s">
+      <c r="G13" s="500"/>
+      <c r="H13" s="500"/>
+      <c r="I13" s="500"/>
+      <c r="J13" s="501" t="s">
         <v>101</v>
       </c>
-      <c r="K13" s="485"/>
+      <c r="K13" s="501"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="375" t="s">
@@ -6480,11 +6658,11 @@
       <c r="A28" s="381"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="486" t="s">
+      <c r="A29" s="484" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="486"/>
-      <c r="C29" s="486"/>
+      <c r="B29" s="484"/>
+      <c r="C29" s="484"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="371" t="s">
@@ -6493,6 +6671,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -6502,12 +6686,6 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -6516,10 +6694,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane xSplit="7" ySplit="8" topLeftCell="J9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
@@ -6561,24 +6739,24 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="170"/>
-      <c r="B2" s="584"/>
-      <c r="C2" s="585"/>
-      <c r="D2" s="586"/>
-      <c r="E2" s="593" t="s">
+      <c r="B2" s="591"/>
+      <c r="C2" s="592"/>
+      <c r="D2" s="593"/>
+      <c r="E2" s="600" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="594"/>
-      <c r="G2" s="594"/>
-      <c r="H2" s="595"/>
-      <c r="I2" s="599" t="s">
+      <c r="F2" s="601"/>
+      <c r="G2" s="601"/>
+      <c r="H2" s="602"/>
+      <c r="I2" s="606" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="600"/>
-      <c r="K2" s="603">
+      <c r="J2" s="607"/>
+      <c r="K2" s="610">
         <f>Данные!B20</f>
         <v>50</v>
       </c>
-      <c r="L2" s="604"/>
+      <c r="L2" s="611"/>
       <c r="M2" s="171"/>
       <c r="N2" s="172"/>
       <c r="O2" s="173"/>
@@ -6589,19 +6767,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="170"/>
-      <c r="B3" s="587"/>
-      <c r="C3" s="588"/>
-      <c r="D3" s="589"/>
-      <c r="E3" s="596" t="s">
+      <c r="B3" s="594"/>
+      <c r="C3" s="595"/>
+      <c r="D3" s="596"/>
+      <c r="E3" s="603" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="597"/>
-      <c r="G3" s="597"/>
-      <c r="H3" s="598"/>
-      <c r="I3" s="601"/>
-      <c r="J3" s="602"/>
-      <c r="K3" s="605"/>
-      <c r="L3" s="606"/>
+      <c r="F3" s="604"/>
+      <c r="G3" s="604"/>
+      <c r="H3" s="605"/>
+      <c r="I3" s="608"/>
+      <c r="J3" s="609"/>
+      <c r="K3" s="612"/>
+      <c r="L3" s="613"/>
       <c r="M3" s="176"/>
       <c r="N3" s="177"/>
       <c r="O3" s="177"/>
@@ -6612,9 +6790,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="170"/>
-      <c r="B4" s="590"/>
-      <c r="C4" s="591"/>
-      <c r="D4" s="592"/>
+      <c r="B4" s="597"/>
+      <c r="C4" s="598"/>
+      <c r="D4" s="599"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -6633,22 +6811,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="170"/>
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="545" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="607"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="584"/>
+      <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="608"/>
-      <c r="J5" s="609"/>
-      <c r="K5" s="610"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="495"/>
+      <c r="F5" s="495"/>
+      <c r="G5" s="495"/>
+      <c r="H5" s="496"/>
+      <c r="I5" s="585"/>
+      <c r="J5" s="586"/>
+      <c r="K5" s="587"/>
+      <c r="L5" s="496"/>
       <c r="M5" s="179"/>
       <c r="N5" s="177"/>
       <c r="O5" s="177"/>
@@ -6659,22 +6837,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="170"/>
-      <c r="B6" s="569" t="s">
+      <c r="B6" s="545" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="607"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="584"/>
+      <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="574"/>
-      <c r="F6" s="574"/>
-      <c r="G6" s="574"/>
-      <c r="H6" s="575"/>
-      <c r="I6" s="608"/>
-      <c r="J6" s="609"/>
-      <c r="K6" s="610"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="550"/>
+      <c r="F6" s="550"/>
+      <c r="G6" s="550"/>
+      <c r="H6" s="551"/>
+      <c r="I6" s="585"/>
+      <c r="J6" s="586"/>
+      <c r="K6" s="587"/>
+      <c r="L6" s="496"/>
       <c r="M6" s="176"/>
       <c r="N6" s="177"/>
       <c r="O6" s="177"/>
@@ -6685,27 +6863,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="170"/>
-      <c r="B7" s="576" t="s">
+      <c r="B7" s="552" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="611"/>
-      <c r="D7" s="499">
+      <c r="C7" s="588"/>
+      <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="578"/>
-      <c r="F7" s="578"/>
-      <c r="G7" s="578"/>
-      <c r="H7" s="579"/>
-      <c r="I7" s="612" t="s">
+      <c r="E7" s="554"/>
+      <c r="F7" s="554"/>
+      <c r="G7" s="554"/>
+      <c r="H7" s="555"/>
+      <c r="I7" s="589" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="611"/>
-      <c r="K7" s="487">
+      <c r="J7" s="588"/>
+      <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="486"/>
       <c r="M7" s="179"/>
       <c r="N7" s="177"/>
       <c r="O7" s="177"/>
@@ -6774,7 +6952,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="190">
-        <v>74.75</v>
+        <v>70.319999999999993</v>
       </c>
       <c r="D10" s="190">
         <v>0.05</v>
@@ -6809,7 +6987,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="192">
-        <v>21.1</v>
+        <v>20.6</v>
       </c>
       <c r="D11" s="192">
         <v>0.02</v>
@@ -7007,7 +7185,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="192">
-        <v>32.950000000000003</v>
+        <v>30.67</v>
       </c>
       <c r="D17" s="192">
         <v>0.05</v>
@@ -7089,19 +7267,18 @@
       <c r="S19" s="196"/>
     </row>
     <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L21" s="634" t="s">
+        <v>140</v>
+      </c>
+      <c r="M21" s="634"/>
+      <c r="N21" s="634"/>
+      <c r="O21" s="633"/>
+      <c r="P21" s="633"/>
+    </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
+  <mergeCells count="19">
+    <mergeCell ref="L21:N21"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -7109,6 +7286,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
@@ -7174,47 +7362,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="209"/>
-      <c r="B2" s="584"/>
-      <c r="C2" s="585"/>
-      <c r="D2" s="586"/>
-      <c r="E2" s="593" t="s">
+      <c r="B2" s="591"/>
+      <c r="C2" s="592"/>
+      <c r="D2" s="593"/>
+      <c r="E2" s="600" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="594"/>
-      <c r="G2" s="594"/>
-      <c r="H2" s="595"/>
-      <c r="I2" s="599" t="s">
+      <c r="F2" s="601"/>
+      <c r="G2" s="601"/>
+      <c r="H2" s="602"/>
+      <c r="I2" s="606" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="600"/>
-      <c r="K2" s="603">
+      <c r="J2" s="607"/>
+      <c r="K2" s="610">
         <f>Данные!B21</f>
         <v>24</v>
       </c>
-      <c r="L2" s="604"/>
+      <c r="L2" s="611"/>
       <c r="M2" s="210"/>
       <c r="N2" s="211"/>
       <c r="O2" s="212"/>
-      <c r="P2" s="623"/>
-      <c r="Q2" s="623"/>
+      <c r="P2" s="626"/>
+      <c r="Q2" s="626"/>
       <c r="R2" s="213"/>
       <c r="S2" s="214"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="209"/>
-      <c r="B3" s="587"/>
-      <c r="C3" s="588"/>
-      <c r="D3" s="589"/>
-      <c r="E3" s="596" t="s">
+      <c r="B3" s="594"/>
+      <c r="C3" s="595"/>
+      <c r="D3" s="596"/>
+      <c r="E3" s="603" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="597"/>
-      <c r="G3" s="597"/>
-      <c r="H3" s="598"/>
-      <c r="I3" s="601"/>
-      <c r="J3" s="602"/>
-      <c r="K3" s="605"/>
-      <c r="L3" s="606"/>
+      <c r="F3" s="604"/>
+      <c r="G3" s="604"/>
+      <c r="H3" s="605"/>
+      <c r="I3" s="608"/>
+      <c r="J3" s="609"/>
+      <c r="K3" s="612"/>
+      <c r="L3" s="613"/>
       <c r="M3" s="215"/>
       <c r="N3" s="216"/>
       <c r="O3" s="216"/>
@@ -7225,9 +7413,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="209"/>
-      <c r="B4" s="590"/>
-      <c r="C4" s="591"/>
-      <c r="D4" s="592"/>
+      <c r="B4" s="597"/>
+      <c r="C4" s="598"/>
+      <c r="D4" s="599"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -7246,22 +7434,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="209"/>
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="545" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="607"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="584"/>
+      <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="608"/>
-      <c r="J5" s="609"/>
-      <c r="K5" s="610"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="495"/>
+      <c r="F5" s="495"/>
+      <c r="G5" s="495"/>
+      <c r="H5" s="496"/>
+      <c r="I5" s="585"/>
+      <c r="J5" s="586"/>
+      <c r="K5" s="587"/>
+      <c r="L5" s="496"/>
       <c r="M5" s="218"/>
       <c r="N5" s="216"/>
       <c r="O5" s="216"/>
@@ -7272,22 +7460,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="209"/>
-      <c r="B6" s="569" t="s">
+      <c r="B6" s="545" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="607"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="584"/>
+      <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="574"/>
-      <c r="F6" s="574"/>
-      <c r="G6" s="574"/>
-      <c r="H6" s="575"/>
-      <c r="I6" s="608"/>
-      <c r="J6" s="609"/>
-      <c r="K6" s="610"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="550"/>
+      <c r="F6" s="550"/>
+      <c r="G6" s="550"/>
+      <c r="H6" s="551"/>
+      <c r="I6" s="585"/>
+      <c r="J6" s="586"/>
+      <c r="K6" s="587"/>
+      <c r="L6" s="496"/>
       <c r="M6" s="215"/>
       <c r="N6" s="216"/>
       <c r="O6" s="216"/>
@@ -7298,27 +7486,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="209"/>
-      <c r="B7" s="576" t="s">
+      <c r="B7" s="552" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="611"/>
-      <c r="D7" s="499">
+      <c r="C7" s="588"/>
+      <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="578"/>
-      <c r="F7" s="578"/>
-      <c r="G7" s="578"/>
-      <c r="H7" s="579"/>
-      <c r="I7" s="612" t="s">
+      <c r="E7" s="554"/>
+      <c r="F7" s="554"/>
+      <c r="G7" s="554"/>
+      <c r="H7" s="555"/>
+      <c r="I7" s="589" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="611"/>
-      <c r="K7" s="487">
+      <c r="J7" s="588"/>
+      <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="486"/>
       <c r="M7" s="218"/>
       <c r="N7" s="216"/>
       <c r="O7" s="216"/>
@@ -7647,12 +7835,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="219"/>
-      <c r="B18" s="624" t="s">
+      <c r="B18" s="623" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="625"/>
-      <c r="D18" s="625"/>
-      <c r="E18" s="626"/>
+      <c r="C18" s="624"/>
+      <c r="D18" s="624"/>
+      <c r="E18" s="625"/>
       <c r="F18" s="116" t="s">
         <v>16</v>
       </c>
@@ -7696,6 +7884,14 @@
     <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
@@ -7707,14 +7903,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -7800,24 +7988,24 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="133"/>
-      <c r="B2" s="584"/>
-      <c r="C2" s="585"/>
-      <c r="D2" s="586"/>
-      <c r="E2" s="593" t="s">
+      <c r="B2" s="591"/>
+      <c r="C2" s="592"/>
+      <c r="D2" s="593"/>
+      <c r="E2" s="600" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="594"/>
-      <c r="G2" s="594"/>
-      <c r="H2" s="595"/>
-      <c r="I2" s="599" t="s">
+      <c r="F2" s="601"/>
+      <c r="G2" s="601"/>
+      <c r="H2" s="602"/>
+      <c r="I2" s="606" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="600"/>
-      <c r="K2" s="603">
+      <c r="J2" s="607"/>
+      <c r="K2" s="610">
         <f>Данные!B26</f>
         <v>22</v>
       </c>
-      <c r="L2" s="604"/>
+      <c r="L2" s="611"/>
       <c r="M2" s="134"/>
       <c r="N2" s="135"/>
       <c r="O2" s="136"/>
@@ -7828,19 +8016,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="133"/>
-      <c r="B3" s="587"/>
-      <c r="C3" s="588"/>
-      <c r="D3" s="589"/>
-      <c r="E3" s="596" t="s">
+      <c r="B3" s="594"/>
+      <c r="C3" s="595"/>
+      <c r="D3" s="596"/>
+      <c r="E3" s="603" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="597"/>
-      <c r="G3" s="597"/>
-      <c r="H3" s="598"/>
-      <c r="I3" s="601"/>
-      <c r="J3" s="602"/>
-      <c r="K3" s="605"/>
-      <c r="L3" s="606"/>
+      <c r="F3" s="604"/>
+      <c r="G3" s="604"/>
+      <c r="H3" s="605"/>
+      <c r="I3" s="608"/>
+      <c r="J3" s="609"/>
+      <c r="K3" s="612"/>
+      <c r="L3" s="613"/>
       <c r="M3" s="139"/>
       <c r="N3" s="140"/>
       <c r="O3" s="140"/>
@@ -7851,9 +8039,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="133"/>
-      <c r="B4" s="590"/>
-      <c r="C4" s="591"/>
-      <c r="D4" s="592"/>
+      <c r="B4" s="597"/>
+      <c r="C4" s="598"/>
+      <c r="D4" s="599"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -7872,22 +8060,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="133"/>
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="545" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="607"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="584"/>
+      <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="608"/>
-      <c r="J5" s="609"/>
-      <c r="K5" s="610"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="495"/>
+      <c r="F5" s="495"/>
+      <c r="G5" s="495"/>
+      <c r="H5" s="496"/>
+      <c r="I5" s="585"/>
+      <c r="J5" s="586"/>
+      <c r="K5" s="587"/>
+      <c r="L5" s="496"/>
       <c r="M5" s="142"/>
       <c r="N5" s="140"/>
       <c r="O5" s="140"/>
@@ -7898,22 +8086,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="133"/>
-      <c r="B6" s="569" t="s">
+      <c r="B6" s="545" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="607"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="584"/>
+      <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="574"/>
-      <c r="F6" s="574"/>
-      <c r="G6" s="574"/>
-      <c r="H6" s="575"/>
-      <c r="I6" s="608"/>
-      <c r="J6" s="609"/>
-      <c r="K6" s="610"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="550"/>
+      <c r="F6" s="550"/>
+      <c r="G6" s="550"/>
+      <c r="H6" s="551"/>
+      <c r="I6" s="585"/>
+      <c r="J6" s="586"/>
+      <c r="K6" s="587"/>
+      <c r="L6" s="496"/>
       <c r="M6" s="139"/>
       <c r="N6" s="140"/>
       <c r="O6" s="140"/>
@@ -7924,27 +8112,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="133"/>
-      <c r="B7" s="576" t="s">
+      <c r="B7" s="552" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="611"/>
-      <c r="D7" s="499">
+      <c r="C7" s="588"/>
+      <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="578"/>
-      <c r="F7" s="578"/>
-      <c r="G7" s="578"/>
-      <c r="H7" s="579"/>
-      <c r="I7" s="612" t="s">
+      <c r="E7" s="554"/>
+      <c r="F7" s="554"/>
+      <c r="G7" s="554"/>
+      <c r="H7" s="555"/>
+      <c r="I7" s="589" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="611"/>
-      <c r="K7" s="487">
+      <c r="J7" s="588"/>
+      <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="486"/>
       <c r="M7" s="142"/>
       <c r="N7" s="140"/>
       <c r="O7" s="140"/>
@@ -8325,17 +8513,6 @@
     <row r="21" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -8343,6 +8520,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H17:R19">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -8408,19 +8596,19 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="266"/>
-      <c r="B2" s="584"/>
-      <c r="C2" s="585"/>
-      <c r="D2" s="586"/>
-      <c r="E2" s="593" t="s">
+      <c r="B2" s="591"/>
+      <c r="C2" s="592"/>
+      <c r="D2" s="593"/>
+      <c r="E2" s="600" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="594"/>
-      <c r="G2" s="594"/>
-      <c r="H2" s="595"/>
-      <c r="I2" s="599" t="s">
+      <c r="F2" s="601"/>
+      <c r="G2" s="601"/>
+      <c r="H2" s="602"/>
+      <c r="I2" s="606" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="600"/>
+      <c r="J2" s="607"/>
       <c r="K2" s="629">
         <f>Данные!B23</f>
         <v>20</v>
@@ -8436,17 +8624,17 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="266"/>
-      <c r="B3" s="587"/>
-      <c r="C3" s="588"/>
-      <c r="D3" s="589"/>
-      <c r="E3" s="596" t="s">
+      <c r="B3" s="594"/>
+      <c r="C3" s="595"/>
+      <c r="D3" s="596"/>
+      <c r="E3" s="603" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="597"/>
-      <c r="G3" s="597"/>
-      <c r="H3" s="598"/>
-      <c r="I3" s="601"/>
-      <c r="J3" s="602"/>
+      <c r="F3" s="604"/>
+      <c r="G3" s="604"/>
+      <c r="H3" s="605"/>
+      <c r="I3" s="608"/>
+      <c r="J3" s="609"/>
       <c r="K3" s="631"/>
       <c r="L3" s="632"/>
       <c r="M3" s="272"/>
@@ -8459,9 +8647,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="266"/>
-      <c r="B4" s="590"/>
-      <c r="C4" s="591"/>
-      <c r="D4" s="592"/>
+      <c r="B4" s="597"/>
+      <c r="C4" s="598"/>
+      <c r="D4" s="599"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -8480,22 +8668,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="266"/>
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="545" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="607"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="584"/>
+      <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="608"/>
-      <c r="J5" s="609"/>
-      <c r="K5" s="610"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="495"/>
+      <c r="F5" s="495"/>
+      <c r="G5" s="495"/>
+      <c r="H5" s="496"/>
+      <c r="I5" s="585"/>
+      <c r="J5" s="586"/>
+      <c r="K5" s="587"/>
+      <c r="L5" s="496"/>
       <c r="M5" s="275"/>
       <c r="N5" s="273"/>
       <c r="O5" s="273"/>
@@ -8506,22 +8694,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="266"/>
-      <c r="B6" s="569" t="s">
+      <c r="B6" s="545" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="607"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="584"/>
+      <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="574"/>
-      <c r="F6" s="574"/>
-      <c r="G6" s="574"/>
-      <c r="H6" s="575"/>
-      <c r="I6" s="608"/>
-      <c r="J6" s="609"/>
-      <c r="K6" s="610"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="550"/>
+      <c r="F6" s="550"/>
+      <c r="G6" s="550"/>
+      <c r="H6" s="551"/>
+      <c r="I6" s="585"/>
+      <c r="J6" s="586"/>
+      <c r="K6" s="587"/>
+      <c r="L6" s="496"/>
       <c r="M6" s="272"/>
       <c r="N6" s="273"/>
       <c r="O6" s="273"/>
@@ -8532,27 +8720,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="266"/>
-      <c r="B7" s="576" t="s">
+      <c r="B7" s="552" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="611"/>
-      <c r="D7" s="499">
+      <c r="C7" s="588"/>
+      <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="578"/>
-      <c r="F7" s="578"/>
-      <c r="G7" s="578"/>
-      <c r="H7" s="579"/>
-      <c r="I7" s="612" t="s">
+      <c r="E7" s="554"/>
+      <c r="F7" s="554"/>
+      <c r="G7" s="554"/>
+      <c r="H7" s="555"/>
+      <c r="I7" s="589" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="611"/>
-      <c r="K7" s="487">
+      <c r="J7" s="588"/>
+      <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="486"/>
       <c r="M7" s="275"/>
       <c r="N7" s="273"/>
       <c r="O7" s="273"/>
@@ -8825,6 +9013,8 @@
     <row r="17" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="B2:D4"/>
@@ -8841,8 +9031,6 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -8927,17 +9115,17 @@
       <c r="L2" s="391"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="507" t="s">
+      <c r="A3" s="504" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="507"/>
-      <c r="C3" s="507"/>
-      <c r="D3" s="507"/>
-      <c r="E3" s="507"/>
-      <c r="F3" s="507"/>
-      <c r="G3" s="507"/>
-      <c r="H3" s="507"/>
-      <c r="I3" s="507"/>
+      <c r="B3" s="504"/>
+      <c r="C3" s="504"/>
+      <c r="D3" s="504"/>
+      <c r="E3" s="504"/>
+      <c r="F3" s="504"/>
+      <c r="G3" s="504"/>
+      <c r="H3" s="504"/>
+      <c r="I3" s="504"/>
       <c r="K3" s="392"/>
       <c r="L3" s="392"/>
       <c r="M3" s="393"/>
@@ -9648,12 +9836,12 @@
       <c r="J35" s="393"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="508" t="s">
+      <c r="A36" s="505" t="s">
         <v>132</v>
       </c>
-      <c r="B36" s="508"/>
-      <c r="C36" s="508"/>
-      <c r="D36" s="508"/>
+      <c r="B36" s="505"/>
+      <c r="C36" s="505"/>
+      <c r="D36" s="505"/>
       <c r="E36" s="393"/>
       <c r="F36" s="393"/>
       <c r="G36" s="393"/>
@@ -9662,10 +9850,10 @@
       <c r="J36" s="393"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="509" t="s">
+      <c r="A37" s="506" t="s">
         <v>133</v>
       </c>
-      <c r="B37" s="509"/>
+      <c r="B37" s="506"/>
       <c r="C37" s="472" t="s">
         <v>134</v>
       </c>
@@ -9680,11 +9868,11 @@
       <c r="J37" s="393"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="510">
+      <c r="A38" s="507">
         <f>A21-F32</f>
         <v>15768085</v>
       </c>
-      <c r="B38" s="511"/>
+      <c r="B38" s="508"/>
       <c r="C38" s="473">
         <f>1-G32</f>
         <v>0.93857648809523808</v>
@@ -9746,8 +9934,8 @@
       <c r="F42" s="477"/>
       <c r="G42" s="477"/>
       <c r="H42" s="477"/>
-      <c r="I42" s="502"/>
-      <c r="J42" s="503"/>
+      <c r="I42" s="509"/>
+      <c r="J42" s="510"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="478"/>
@@ -9841,9 +10029,9 @@
     </row>
     <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="393"/>
-      <c r="B52" s="505"/>
-      <c r="C52" s="505"/>
-      <c r="D52" s="506"/>
+      <c r="B52" s="502"/>
+      <c r="C52" s="502"/>
+      <c r="D52" s="503"/>
       <c r="E52" s="475"/>
       <c r="F52" s="393"/>
       <c r="G52" s="393"/>
@@ -9860,8 +10048,8 @@
       <c r="F53" s="477"/>
       <c r="G53" s="477"/>
       <c r="H53" s="477"/>
-      <c r="I53" s="502"/>
-      <c r="J53" s="503"/>
+      <c r="I53" s="509"/>
+      <c r="J53" s="510"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="478"/>
@@ -9872,8 +10060,8 @@
       <c r="F54" s="423"/>
       <c r="G54" s="423"/>
       <c r="H54" s="479"/>
-      <c r="I54" s="504"/>
-      <c r="J54" s="504"/>
+      <c r="I54" s="511"/>
+      <c r="J54" s="511"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="478"/>
@@ -9884,8 +10072,8 @@
       <c r="F55" s="413"/>
       <c r="G55" s="413"/>
       <c r="H55" s="413"/>
-      <c r="I55" s="504"/>
-      <c r="J55" s="504"/>
+      <c r="I55" s="511"/>
+      <c r="J55" s="511"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="393"/>
@@ -9898,26 +10086,26 @@
       <c r="H56" s="393"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="502"/>
-      <c r="C61" s="503"/>
+      <c r="B61" s="509"/>
+      <c r="C61" s="510"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="502"/>
-      <c r="C68" s="503"/>
+      <c r="B68" s="509"/>
+      <c r="C68" s="510"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B68:C68"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B68:C68"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9932,7 +10120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K57"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B31" sqref="B31:D31"/>
     </sheetView>
   </sheetViews>
@@ -9940,7 +10128,8 @@
   <cols>
     <col min="1" max="3" width="9.109375" style="307"/>
     <col min="4" max="4" width="8" style="307" customWidth="1"/>
-    <col min="5" max="6" width="9.109375" style="307"/>
+    <col min="5" max="5" width="9.109375" style="307"/>
+    <col min="6" max="6" width="9.77734375" style="307" customWidth="1"/>
     <col min="7" max="7" width="9.109375" style="307" customWidth="1"/>
     <col min="8" max="8" width="16.5546875" style="307" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.6640625" style="307" bestFit="1" customWidth="1"/>
@@ -9999,47 +10188,47 @@
       <c r="J8" s="317"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="537" t="s">
+      <c r="A11" s="513" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="537"/>
-      <c r="C11" s="537"/>
-      <c r="D11" s="537"/>
-      <c r="E11" s="537"/>
-      <c r="F11" s="537"/>
-      <c r="G11" s="537"/>
-      <c r="H11" s="537"/>
-      <c r="I11" s="537"/>
-      <c r="J11" s="537"/>
+      <c r="B11" s="513"/>
+      <c r="C11" s="513"/>
+      <c r="D11" s="513"/>
+      <c r="E11" s="513"/>
+      <c r="F11" s="513"/>
+      <c r="G11" s="513"/>
+      <c r="H11" s="513"/>
+      <c r="I11" s="513"/>
+      <c r="J11" s="513"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="536" t="s">
+      <c r="A12" s="512" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="536"/>
-      <c r="C12" s="536"/>
-      <c r="D12" s="536"/>
-      <c r="E12" s="536"/>
-      <c r="F12" s="536"/>
-      <c r="G12" s="536"/>
-      <c r="H12" s="536"/>
-      <c r="I12" s="536"/>
-      <c r="J12" s="536"/>
+      <c r="B12" s="512"/>
+      <c r="C12" s="512"/>
+      <c r="D12" s="512"/>
+      <c r="E12" s="512"/>
+      <c r="F12" s="512"/>
+      <c r="G12" s="512"/>
+      <c r="H12" s="512"/>
+      <c r="I12" s="512"/>
+      <c r="J12" s="512"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="538" t="str">
+      <c r="A13" s="514" t="str">
         <f>Данные!A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="B13" s="537"/>
-      <c r="C13" s="537"/>
-      <c r="D13" s="537"/>
-      <c r="E13" s="537"/>
-      <c r="F13" s="537"/>
-      <c r="G13" s="537"/>
-      <c r="H13" s="537"/>
-      <c r="I13" s="537"/>
-      <c r="J13" s="537"/>
+      <c r="B13" s="513"/>
+      <c r="C13" s="513"/>
+      <c r="D13" s="513"/>
+      <c r="E13" s="513"/>
+      <c r="F13" s="513"/>
+      <c r="G13" s="513"/>
+      <c r="H13" s="513"/>
+      <c r="I13" s="513"/>
+      <c r="J13" s="513"/>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="311" t="s">
@@ -10164,482 +10353,482 @@
       <c r="J21" s="312"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="534" t="s">
+      <c r="A22" s="518" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="534" t="s">
+      <c r="B22" s="518" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="534"/>
-      <c r="D22" s="534"/>
-      <c r="E22" s="534" t="s">
+      <c r="C22" s="518"/>
+      <c r="D22" s="518"/>
+      <c r="E22" s="518" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="534"/>
-      <c r="G22" s="535" t="s">
+      <c r="F22" s="518"/>
+      <c r="G22" s="536" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="534" t="s">
+      <c r="H22" s="518" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="534"/>
-      <c r="J22" s="534"/>
+      <c r="I22" s="518"/>
+      <c r="J22" s="518"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="534"/>
-      <c r="B23" s="534"/>
-      <c r="C23" s="534"/>
-      <c r="D23" s="534"/>
-      <c r="E23" s="534"/>
-      <c r="F23" s="534"/>
-      <c r="G23" s="535"/>
-      <c r="H23" s="534"/>
-      <c r="I23" s="534"/>
-      <c r="J23" s="534"/>
+      <c r="A23" s="518"/>
+      <c r="B23" s="518"/>
+      <c r="C23" s="518"/>
+      <c r="D23" s="518"/>
+      <c r="E23" s="518"/>
+      <c r="F23" s="518"/>
+      <c r="G23" s="536"/>
+      <c r="H23" s="518"/>
+      <c r="I23" s="518"/>
+      <c r="J23" s="518"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="512">
+      <c r="A24" s="519">
         <v>1</v>
       </c>
-      <c r="B24" s="539" t="s">
+      <c r="B24" s="533" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="540"/>
-      <c r="D24" s="541"/>
-      <c r="E24" s="517" t="str">
+      <c r="C24" s="534"/>
+      <c r="D24" s="535"/>
+      <c r="E24" s="521" t="str">
         <f>Данные!C14</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F24" s="518"/>
-      <c r="G24" s="521">
+      <c r="F24" s="522"/>
+      <c r="G24" s="525">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="H24" s="523"/>
-      <c r="I24" s="524"/>
-      <c r="J24" s="525"/>
+      <c r="H24" s="527"/>
+      <c r="I24" s="528"/>
+      <c r="J24" s="529"/>
     </row>
     <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="532"/>
-      <c r="B25" s="529" t="str">
+      <c r="A25" s="520"/>
+      <c r="B25" s="515" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C25" s="530"/>
-      <c r="D25" s="531"/>
-      <c r="E25" s="533"/>
-      <c r="F25" s="520"/>
-      <c r="G25" s="522"/>
-      <c r="H25" s="526"/>
-      <c r="I25" s="527"/>
-      <c r="J25" s="528"/>
+      <c r="C25" s="516"/>
+      <c r="D25" s="517"/>
+      <c r="E25" s="523"/>
+      <c r="F25" s="524"/>
+      <c r="G25" s="526"/>
+      <c r="H25" s="530"/>
+      <c r="I25" s="531"/>
+      <c r="J25" s="532"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="512">
+      <c r="A26" s="519">
         <v>1</v>
       </c>
-      <c r="B26" s="514" t="s">
+      <c r="B26" s="537" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="515"/>
-      <c r="D26" s="516"/>
-      <c r="E26" s="517" t="str">
+      <c r="C26" s="538"/>
+      <c r="D26" s="539"/>
+      <c r="E26" s="521" t="str">
         <f>Данные!C15</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F26" s="518"/>
-      <c r="G26" s="521">
+      <c r="F26" s="522"/>
+      <c r="G26" s="525">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="H26" s="523"/>
-      <c r="I26" s="524"/>
-      <c r="J26" s="525"/>
+      <c r="H26" s="527"/>
+      <c r="I26" s="528"/>
+      <c r="J26" s="529"/>
     </row>
     <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="532"/>
-      <c r="B27" s="529" t="str">
+      <c r="A27" s="520"/>
+      <c r="B27" s="515" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C27" s="530"/>
-      <c r="D27" s="531"/>
-      <c r="E27" s="533"/>
-      <c r="F27" s="520"/>
-      <c r="G27" s="522"/>
-      <c r="H27" s="526"/>
-      <c r="I27" s="527"/>
-      <c r="J27" s="528"/>
+      <c r="C27" s="516"/>
+      <c r="D27" s="517"/>
+      <c r="E27" s="523"/>
+      <c r="F27" s="524"/>
+      <c r="G27" s="526"/>
+      <c r="H27" s="530"/>
+      <c r="I27" s="531"/>
+      <c r="J27" s="532"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="512">
+      <c r="A28" s="519">
         <v>1</v>
       </c>
-      <c r="B28" s="514" t="s">
+      <c r="B28" s="537" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="515"/>
-      <c r="D28" s="516"/>
-      <c r="E28" s="517" t="str">
+      <c r="C28" s="538"/>
+      <c r="D28" s="539"/>
+      <c r="E28" s="521" t="str">
         <f>Данные!C16</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F28" s="518"/>
-      <c r="G28" s="521">
+      <c r="F28" s="522"/>
+      <c r="G28" s="525">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="H28" s="523"/>
-      <c r="I28" s="524"/>
-      <c r="J28" s="525"/>
+      <c r="H28" s="527"/>
+      <c r="I28" s="528"/>
+      <c r="J28" s="529"/>
     </row>
     <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="532"/>
-      <c r="B29" s="529" t="str">
+      <c r="A29" s="520"/>
+      <c r="B29" s="515" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C29" s="530"/>
-      <c r="D29" s="531"/>
-      <c r="E29" s="533"/>
-      <c r="F29" s="520"/>
-      <c r="G29" s="522"/>
-      <c r="H29" s="526"/>
-      <c r="I29" s="527"/>
-      <c r="J29" s="528"/>
+      <c r="C29" s="516"/>
+      <c r="D29" s="517"/>
+      <c r="E29" s="523"/>
+      <c r="F29" s="524"/>
+      <c r="G29" s="526"/>
+      <c r="H29" s="530"/>
+      <c r="I29" s="531"/>
+      <c r="J29" s="532"/>
     </row>
     <row r="30" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="512">
+      <c r="A30" s="519">
         <v>1</v>
       </c>
-      <c r="B30" s="514" t="s">
+      <c r="B30" s="537" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="515"/>
-      <c r="D30" s="516"/>
-      <c r="E30" s="517" t="str">
+      <c r="C30" s="538"/>
+      <c r="D30" s="539"/>
+      <c r="E30" s="521" t="str">
         <f>Данные!C17</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F30" s="518"/>
-      <c r="G30" s="521">
+      <c r="F30" s="522"/>
+      <c r="G30" s="525">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="H30" s="523"/>
-      <c r="I30" s="524"/>
-      <c r="J30" s="525"/>
+      <c r="H30" s="527"/>
+      <c r="I30" s="528"/>
+      <c r="J30" s="529"/>
     </row>
     <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="513"/>
-      <c r="B31" s="529" t="str">
+      <c r="A31" s="540"/>
+      <c r="B31" s="515" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C31" s="530"/>
-      <c r="D31" s="531"/>
-      <c r="E31" s="519"/>
-      <c r="F31" s="520"/>
-      <c r="G31" s="522"/>
-      <c r="H31" s="526"/>
-      <c r="I31" s="527"/>
-      <c r="J31" s="528"/>
+      <c r="C31" s="516"/>
+      <c r="D31" s="517"/>
+      <c r="E31" s="541"/>
+      <c r="F31" s="524"/>
+      <c r="G31" s="526"/>
+      <c r="H31" s="530"/>
+      <c r="I31" s="531"/>
+      <c r="J31" s="532"/>
     </row>
     <row r="32" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="512">
+      <c r="A32" s="519">
         <v>1</v>
       </c>
-      <c r="B32" s="514" t="s">
+      <c r="B32" s="537" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="515"/>
-      <c r="D32" s="516"/>
-      <c r="E32" s="517" t="str">
+      <c r="C32" s="538"/>
+      <c r="D32" s="539"/>
+      <c r="E32" s="521" t="str">
         <f>Данные!C18</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F32" s="518"/>
-      <c r="G32" s="521">
+      <c r="F32" s="522"/>
+      <c r="G32" s="525">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="H32" s="523"/>
-      <c r="I32" s="524"/>
-      <c r="J32" s="525"/>
+      <c r="H32" s="527"/>
+      <c r="I32" s="528"/>
+      <c r="J32" s="529"/>
     </row>
     <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="513"/>
-      <c r="B33" s="529" t="str">
+      <c r="A33" s="540"/>
+      <c r="B33" s="515" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C33" s="530"/>
-      <c r="D33" s="531"/>
-      <c r="E33" s="519"/>
-      <c r="F33" s="520"/>
-      <c r="G33" s="522"/>
-      <c r="H33" s="526"/>
-      <c r="I33" s="527"/>
-      <c r="J33" s="528"/>
+      <c r="C33" s="516"/>
+      <c r="D33" s="517"/>
+      <c r="E33" s="541"/>
+      <c r="F33" s="524"/>
+      <c r="G33" s="526"/>
+      <c r="H33" s="530"/>
+      <c r="I33" s="531"/>
+      <c r="J33" s="532"/>
     </row>
     <row r="34" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="512">
+      <c r="A34" s="519">
         <v>1</v>
       </c>
-      <c r="B34" s="514" t="s">
+      <c r="B34" s="537" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="515"/>
-      <c r="D34" s="516"/>
-      <c r="E34" s="517" t="str">
+      <c r="C34" s="538"/>
+      <c r="D34" s="539"/>
+      <c r="E34" s="521" t="str">
         <f>Данные!C19</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F34" s="518"/>
-      <c r="G34" s="521">
+      <c r="F34" s="522"/>
+      <c r="G34" s="525">
         <f>Данные!B19</f>
         <v>60</v>
       </c>
-      <c r="H34" s="523"/>
-      <c r="I34" s="524"/>
-      <c r="J34" s="525"/>
+      <c r="H34" s="527"/>
+      <c r="I34" s="528"/>
+      <c r="J34" s="529"/>
     </row>
     <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="513"/>
-      <c r="B35" s="529" t="str">
+      <c r="A35" s="540"/>
+      <c r="B35" s="515" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C35" s="530"/>
-      <c r="D35" s="531"/>
-      <c r="E35" s="519"/>
-      <c r="F35" s="520"/>
-      <c r="G35" s="522"/>
-      <c r="H35" s="526"/>
-      <c r="I35" s="527"/>
-      <c r="J35" s="528"/>
+      <c r="C35" s="516"/>
+      <c r="D35" s="517"/>
+      <c r="E35" s="541"/>
+      <c r="F35" s="524"/>
+      <c r="G35" s="526"/>
+      <c r="H35" s="530"/>
+      <c r="I35" s="531"/>
+      <c r="J35" s="532"/>
     </row>
     <row r="36" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="512">
+      <c r="A36" s="519">
         <v>1</v>
       </c>
-      <c r="B36" s="514" t="s">
+      <c r="B36" s="537" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="515"/>
-      <c r="D36" s="516"/>
-      <c r="E36" s="517" t="str">
+      <c r="C36" s="538"/>
+      <c r="D36" s="539"/>
+      <c r="E36" s="521" t="str">
         <f>Данные!C20</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F36" s="518"/>
-      <c r="G36" s="521">
+      <c r="F36" s="522"/>
+      <c r="G36" s="525">
         <f>Данные!B20</f>
         <v>50</v>
       </c>
-      <c r="H36" s="523"/>
-      <c r="I36" s="524"/>
-      <c r="J36" s="525"/>
+      <c r="H36" s="527"/>
+      <c r="I36" s="528"/>
+      <c r="J36" s="529"/>
     </row>
     <row r="37" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="513"/>
-      <c r="B37" s="529" t="str">
+      <c r="A37" s="540"/>
+      <c r="B37" s="515" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C37" s="530"/>
-      <c r="D37" s="531"/>
-      <c r="E37" s="519"/>
-      <c r="F37" s="520"/>
-      <c r="G37" s="522"/>
-      <c r="H37" s="526"/>
-      <c r="I37" s="527"/>
-      <c r="J37" s="528"/>
+      <c r="C37" s="516"/>
+      <c r="D37" s="517"/>
+      <c r="E37" s="541"/>
+      <c r="F37" s="524"/>
+      <c r="G37" s="526"/>
+      <c r="H37" s="530"/>
+      <c r="I37" s="531"/>
+      <c r="J37" s="532"/>
     </row>
     <row r="38" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="512">
+      <c r="A38" s="519">
         <v>1</v>
       </c>
-      <c r="B38" s="514" t="s">
+      <c r="B38" s="537" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="515"/>
-      <c r="D38" s="516"/>
-      <c r="E38" s="517" t="str">
+      <c r="C38" s="538"/>
+      <c r="D38" s="539"/>
+      <c r="E38" s="521" t="str">
         <f>Данные!C21</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F38" s="518"/>
-      <c r="G38" s="521">
+      <c r="F38" s="522"/>
+      <c r="G38" s="525">
         <f>Данные!B21</f>
         <v>24</v>
       </c>
-      <c r="H38" s="523"/>
-      <c r="I38" s="524"/>
-      <c r="J38" s="525"/>
+      <c r="H38" s="527"/>
+      <c r="I38" s="528"/>
+      <c r="J38" s="529"/>
     </row>
     <row r="39" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="513"/>
-      <c r="B39" s="529" t="str">
+      <c r="A39" s="540"/>
+      <c r="B39" s="515" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C39" s="530"/>
-      <c r="D39" s="531"/>
-      <c r="E39" s="519"/>
-      <c r="F39" s="520"/>
-      <c r="G39" s="522"/>
-      <c r="H39" s="526"/>
-      <c r="I39" s="527"/>
-      <c r="J39" s="528"/>
+      <c r="C39" s="516"/>
+      <c r="D39" s="517"/>
+      <c r="E39" s="541"/>
+      <c r="F39" s="524"/>
+      <c r="G39" s="526"/>
+      <c r="H39" s="530"/>
+      <c r="I39" s="531"/>
+      <c r="J39" s="532"/>
     </row>
     <row r="40" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="512">
+      <c r="A40" s="519">
         <v>1</v>
       </c>
-      <c r="B40" s="514" t="s">
+      <c r="B40" s="537" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="515"/>
-      <c r="D40" s="516"/>
-      <c r="E40" s="517" t="str">
+      <c r="C40" s="538"/>
+      <c r="D40" s="539"/>
+      <c r="E40" s="521" t="str">
         <f>Данные!C23</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F40" s="518"/>
-      <c r="G40" s="521">
+      <c r="F40" s="522"/>
+      <c r="G40" s="525">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="H40" s="523"/>
-      <c r="I40" s="524"/>
-      <c r="J40" s="525"/>
+      <c r="H40" s="527"/>
+      <c r="I40" s="528"/>
+      <c r="J40" s="529"/>
     </row>
     <row r="41" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="513"/>
-      <c r="B41" s="529" t="str">
+      <c r="A41" s="540"/>
+      <c r="B41" s="515" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C41" s="530"/>
-      <c r="D41" s="531"/>
-      <c r="E41" s="519"/>
-      <c r="F41" s="520"/>
-      <c r="G41" s="522"/>
-      <c r="H41" s="526"/>
-      <c r="I41" s="527"/>
-      <c r="J41" s="528"/>
+      <c r="C41" s="516"/>
+      <c r="D41" s="517"/>
+      <c r="E41" s="541"/>
+      <c r="F41" s="524"/>
+      <c r="G41" s="526"/>
+      <c r="H41" s="530"/>
+      <c r="I41" s="531"/>
+      <c r="J41" s="532"/>
     </row>
     <row r="42" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="512">
+      <c r="A42" s="519">
         <v>1</v>
       </c>
-      <c r="B42" s="514" t="s">
+      <c r="B42" s="537" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="515"/>
-      <c r="D42" s="516"/>
-      <c r="E42" s="517" t="str">
+      <c r="C42" s="538"/>
+      <c r="D42" s="539"/>
+      <c r="E42" s="521" t="str">
         <f>Данные!C26</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F42" s="518"/>
-      <c r="G42" s="521">
+      <c r="F42" s="522"/>
+      <c r="G42" s="525">
         <f>Данные!B26</f>
         <v>22</v>
       </c>
-      <c r="H42" s="523"/>
-      <c r="I42" s="524"/>
-      <c r="J42" s="525"/>
+      <c r="H42" s="527"/>
+      <c r="I42" s="528"/>
+      <c r="J42" s="529"/>
     </row>
     <row r="43" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="513"/>
-      <c r="B43" s="529" t="str">
+      <c r="A43" s="540"/>
+      <c r="B43" s="515" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C43" s="530"/>
-      <c r="D43" s="531"/>
-      <c r="E43" s="519"/>
-      <c r="F43" s="520"/>
-      <c r="G43" s="522"/>
-      <c r="H43" s="526"/>
-      <c r="I43" s="527"/>
-      <c r="J43" s="528"/>
+      <c r="C43" s="516"/>
+      <c r="D43" s="517"/>
+      <c r="E43" s="541"/>
+      <c r="F43" s="524"/>
+      <c r="G43" s="526"/>
+      <c r="H43" s="530"/>
+      <c r="I43" s="531"/>
+      <c r="J43" s="532"/>
     </row>
     <row r="44" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="512">
+      <c r="A44" s="519">
         <v>1</v>
       </c>
-      <c r="B44" s="514" t="s">
+      <c r="B44" s="537" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="515"/>
-      <c r="D44" s="516"/>
-      <c r="E44" s="517">
+      <c r="C44" s="538"/>
+      <c r="D44" s="539"/>
+      <c r="E44" s="521">
         <f>Данные!C27</f>
         <v>0</v>
       </c>
-      <c r="F44" s="518"/>
-      <c r="G44" s="521">
+      <c r="F44" s="522"/>
+      <c r="G44" s="525">
         <f>Данные!B27</f>
         <v>22</v>
       </c>
-      <c r="H44" s="523"/>
-      <c r="I44" s="524"/>
-      <c r="J44" s="525"/>
+      <c r="H44" s="527"/>
+      <c r="I44" s="528"/>
+      <c r="J44" s="529"/>
     </row>
     <row r="45" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="513"/>
-      <c r="B45" s="529" t="str">
+      <c r="A45" s="540"/>
+      <c r="B45" s="515" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C45" s="530"/>
-      <c r="D45" s="531"/>
-      <c r="E45" s="519"/>
-      <c r="F45" s="520"/>
-      <c r="G45" s="522"/>
-      <c r="H45" s="526"/>
-      <c r="I45" s="527"/>
-      <c r="J45" s="528"/>
+      <c r="C45" s="516"/>
+      <c r="D45" s="517"/>
+      <c r="E45" s="541"/>
+      <c r="F45" s="524"/>
+      <c r="G45" s="526"/>
+      <c r="H45" s="530"/>
+      <c r="I45" s="531"/>
+      <c r="J45" s="532"/>
     </row>
     <row r="46" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="512">
+      <c r="A46" s="519">
         <v>1</v>
       </c>
-      <c r="B46" s="514" t="s">
+      <c r="B46" s="537" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="515"/>
-      <c r="D46" s="516"/>
-      <c r="E46" s="517">
+      <c r="C46" s="538"/>
+      <c r="D46" s="539"/>
+      <c r="E46" s="521">
         <f>Данные!C24</f>
         <v>0</v>
       </c>
-      <c r="F46" s="518"/>
-      <c r="G46" s="521" t="str">
+      <c r="F46" s="522"/>
+      <c r="G46" s="525" t="str">
         <f>Данные!B24</f>
         <v>-</v>
       </c>
-      <c r="H46" s="523"/>
-      <c r="I46" s="524"/>
-      <c r="J46" s="525"/>
+      <c r="H46" s="527"/>
+      <c r="I46" s="528"/>
+      <c r="J46" s="529"/>
     </row>
     <row r="47" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="513"/>
-      <c r="B47" s="529" t="str">
+      <c r="A47" s="540"/>
+      <c r="B47" s="515" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C47" s="530"/>
-      <c r="D47" s="531"/>
-      <c r="E47" s="519"/>
-      <c r="F47" s="520"/>
-      <c r="G47" s="522"/>
-      <c r="H47" s="526"/>
-      <c r="I47" s="527"/>
-      <c r="J47" s="528"/>
+      <c r="C47" s="516"/>
+      <c r="D47" s="517"/>
+      <c r="E47" s="541"/>
+      <c r="F47" s="524"/>
+      <c r="G47" s="526"/>
+      <c r="H47" s="530"/>
+      <c r="I47" s="531"/>
+      <c r="J47" s="532"/>
     </row>
     <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="311"/>
@@ -10768,6 +10957,70 @@
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -10784,70 +11037,6 @@
     <mergeCell ref="H24:J25"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10860,7 +11049,7 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight" activeCell="C10" sqref="C10:C22"/>
@@ -10902,47 +11091,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="542"/>
-      <c r="C2" s="543"/>
-      <c r="D2" s="544"/>
-      <c r="E2" s="551" t="s">
+      <c r="B2" s="560"/>
+      <c r="C2" s="561"/>
+      <c r="D2" s="562"/>
+      <c r="E2" s="569" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="552"/>
-      <c r="G2" s="552"/>
-      <c r="H2" s="553"/>
-      <c r="I2" s="558" t="s">
+      <c r="F2" s="570"/>
+      <c r="G2" s="570"/>
+      <c r="H2" s="571"/>
+      <c r="I2" s="576" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="559"/>
-      <c r="K2" s="562">
+      <c r="J2" s="577"/>
+      <c r="K2" s="580">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="563"/>
+      <c r="L2" s="581"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="554"/>
-      <c r="Q2" s="554"/>
+      <c r="P2" s="572"/>
+      <c r="Q2" s="572"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="545"/>
-      <c r="C3" s="546"/>
-      <c r="D3" s="547"/>
-      <c r="E3" s="555" t="s">
+      <c r="B3" s="563"/>
+      <c r="C3" s="564"/>
+      <c r="D3" s="565"/>
+      <c r="E3" s="573" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="556"/>
-      <c r="G3" s="556"/>
-      <c r="H3" s="557"/>
-      <c r="I3" s="560"/>
-      <c r="J3" s="561"/>
-      <c r="K3" s="564"/>
-      <c r="L3" s="565"/>
+      <c r="F3" s="574"/>
+      <c r="G3" s="574"/>
+      <c r="H3" s="575"/>
+      <c r="I3" s="578"/>
+      <c r="J3" s="579"/>
+      <c r="K3" s="582"/>
+      <c r="L3" s="583"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -10953,9 +11142,9 @@
     </row>
     <row r="4" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="548"/>
-      <c r="C4" s="549"/>
-      <c r="D4" s="550"/>
+      <c r="B4" s="566"/>
+      <c r="C4" s="567"/>
+      <c r="D4" s="568"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -10974,22 +11163,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="545" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="570"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="546"/>
+      <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="571"/>
-      <c r="J5" s="572"/>
-      <c r="K5" s="497"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="495"/>
+      <c r="F5" s="495"/>
+      <c r="G5" s="495"/>
+      <c r="H5" s="496"/>
+      <c r="I5" s="547"/>
+      <c r="J5" s="548"/>
+      <c r="K5" s="495"/>
+      <c r="L5" s="496"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11000,22 +11189,22 @@
     </row>
     <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="569" t="s">
+      <c r="B6" s="545" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="573"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="549"/>
+      <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="574"/>
-      <c r="F6" s="574"/>
-      <c r="G6" s="574"/>
-      <c r="H6" s="575"/>
-      <c r="I6" s="571"/>
-      <c r="J6" s="572"/>
-      <c r="K6" s="497"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="550"/>
+      <c r="F6" s="550"/>
+      <c r="G6" s="550"/>
+      <c r="H6" s="551"/>
+      <c r="I6" s="547"/>
+      <c r="J6" s="548"/>
+      <c r="K6" s="495"/>
+      <c r="L6" s="496"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11026,27 +11215,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="576" t="s">
+      <c r="B7" s="552" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="577"/>
-      <c r="D7" s="499">
+      <c r="C7" s="553"/>
+      <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="578"/>
-      <c r="F7" s="578"/>
-      <c r="G7" s="578"/>
-      <c r="H7" s="579"/>
-      <c r="I7" s="576" t="s">
+      <c r="E7" s="554"/>
+      <c r="F7" s="554"/>
+      <c r="G7" s="554"/>
+      <c r="H7" s="555"/>
+      <c r="I7" s="552" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="580"/>
-      <c r="K7" s="487">
+      <c r="J7" s="556"/>
+      <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="486"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -11540,12 +11729,12 @@
     </row>
     <row r="23" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="78"/>
-      <c r="B23" s="581" t="s">
+      <c r="B23" s="557" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="582"/>
-      <c r="D23" s="582"/>
-      <c r="E23" s="583"/>
+      <c r="C23" s="558"/>
+      <c r="D23" s="558"/>
+      <c r="E23" s="559"/>
       <c r="F23" s="116" t="s">
         <v>16</v>
       </c>
@@ -11567,12 +11756,12 @@
     </row>
     <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="78"/>
-      <c r="B24" s="566" t="s">
+      <c r="B24" s="542" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="567"/>
-      <c r="D24" s="567"/>
-      <c r="E24" s="568"/>
+      <c r="C24" s="543"/>
+      <c r="D24" s="543"/>
+      <c r="E24" s="544"/>
       <c r="F24" s="116" t="s">
         <v>16</v>
       </c>
@@ -11616,6 +11805,12 @@
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -11630,12 +11825,6 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
@@ -11701,50 +11890,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="584">
+      <c r="B2" s="591">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="585"/>
-      <c r="D2" s="586"/>
-      <c r="E2" s="593" t="s">
+      <c r="C2" s="592"/>
+      <c r="D2" s="593"/>
+      <c r="E2" s="600" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="594"/>
-      <c r="G2" s="594"/>
-      <c r="H2" s="595"/>
-      <c r="I2" s="599" t="s">
+      <c r="F2" s="601"/>
+      <c r="G2" s="601"/>
+      <c r="H2" s="602"/>
+      <c r="I2" s="606" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="600"/>
-      <c r="K2" s="603">
+      <c r="J2" s="607"/>
+      <c r="K2" s="610">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="604"/>
+      <c r="L2" s="611"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="554"/>
-      <c r="Q2" s="554"/>
+      <c r="P2" s="572"/>
+      <c r="Q2" s="572"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="587"/>
-      <c r="C3" s="588"/>
-      <c r="D3" s="589"/>
-      <c r="E3" s="596" t="s">
+      <c r="B3" s="594"/>
+      <c r="C3" s="595"/>
+      <c r="D3" s="596"/>
+      <c r="E3" s="603" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="597"/>
-      <c r="G3" s="597"/>
-      <c r="H3" s="598"/>
-      <c r="I3" s="601"/>
-      <c r="J3" s="602"/>
-      <c r="K3" s="605"/>
-      <c r="L3" s="606"/>
+      <c r="F3" s="604"/>
+      <c r="G3" s="604"/>
+      <c r="H3" s="605"/>
+      <c r="I3" s="608"/>
+      <c r="J3" s="609"/>
+      <c r="K3" s="612"/>
+      <c r="L3" s="613"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11755,9 +11944,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="590"/>
-      <c r="C4" s="591"/>
-      <c r="D4" s="592"/>
+      <c r="B4" s="597"/>
+      <c r="C4" s="598"/>
+      <c r="D4" s="599"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -11776,22 +11965,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="545" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="607"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="584"/>
+      <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="608"/>
-      <c r="J5" s="609"/>
-      <c r="K5" s="610"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="495"/>
+      <c r="F5" s="495"/>
+      <c r="G5" s="495"/>
+      <c r="H5" s="496"/>
+      <c r="I5" s="585"/>
+      <c r="J5" s="586"/>
+      <c r="K5" s="587"/>
+      <c r="L5" s="496"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11802,22 +11991,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="569" t="s">
+      <c r="B6" s="545" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="607"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="584"/>
+      <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="574"/>
-      <c r="F6" s="574"/>
-      <c r="G6" s="574"/>
-      <c r="H6" s="575"/>
-      <c r="I6" s="608"/>
-      <c r="J6" s="609"/>
-      <c r="K6" s="610"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="550"/>
+      <c r="F6" s="550"/>
+      <c r="G6" s="550"/>
+      <c r="H6" s="551"/>
+      <c r="I6" s="585"/>
+      <c r="J6" s="586"/>
+      <c r="K6" s="587"/>
+      <c r="L6" s="496"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11828,27 +12017,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="576" t="s">
+      <c r="B7" s="552" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="611"/>
-      <c r="D7" s="499">
+      <c r="C7" s="588"/>
+      <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="578"/>
-      <c r="F7" s="578"/>
-      <c r="G7" s="578"/>
-      <c r="H7" s="579"/>
-      <c r="I7" s="612" t="s">
+      <c r="E7" s="554"/>
+      <c r="F7" s="554"/>
+      <c r="G7" s="554"/>
+      <c r="H7" s="555"/>
+      <c r="I7" s="589" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="611"/>
-      <c r="K7" s="487">
+      <c r="J7" s="588"/>
+      <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="486"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12045,13 +12234,13 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78"/>
-      <c r="B14" s="581" t="s">
+      <c r="B14" s="557" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="582"/>
-      <c r="D14" s="582"/>
-      <c r="E14" s="582"/>
-      <c r="F14" s="613"/>
+      <c r="C14" s="558"/>
+      <c r="D14" s="558"/>
+      <c r="E14" s="558"/>
+      <c r="F14" s="590"/>
       <c r="G14" s="56" t="s">
         <v>77</v>
       </c>
@@ -12070,12 +12259,12 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="78"/>
-      <c r="B15" s="566" t="s">
+      <c r="B15" s="542" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="567"/>
-      <c r="D15" s="567"/>
-      <c r="E15" s="568"/>
+      <c r="C15" s="543"/>
+      <c r="D15" s="543"/>
+      <c r="E15" s="544"/>
       <c r="F15" s="116" t="s">
         <v>16</v>
       </c>
@@ -12126,6 +12315,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -12140,12 +12335,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="notBetween">
@@ -12219,47 +12408,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="542"/>
-      <c r="C2" s="543"/>
-      <c r="D2" s="544"/>
-      <c r="E2" s="551" t="s">
+      <c r="B2" s="560"/>
+      <c r="C2" s="561"/>
+      <c r="D2" s="562"/>
+      <c r="E2" s="569" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="552"/>
-      <c r="G2" s="552"/>
-      <c r="H2" s="553"/>
-      <c r="I2" s="558" t="s">
+      <c r="F2" s="570"/>
+      <c r="G2" s="570"/>
+      <c r="H2" s="571"/>
+      <c r="I2" s="576" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="559"/>
-      <c r="K2" s="562">
+      <c r="J2" s="577"/>
+      <c r="K2" s="580">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="L2" s="563"/>
+      <c r="L2" s="581"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="554"/>
-      <c r="Q2" s="554"/>
+      <c r="P2" s="572"/>
+      <c r="Q2" s="572"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="545"/>
-      <c r="C3" s="546"/>
-      <c r="D3" s="547"/>
-      <c r="E3" s="555" t="s">
+      <c r="B3" s="563"/>
+      <c r="C3" s="564"/>
+      <c r="D3" s="565"/>
+      <c r="E3" s="573" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="556"/>
-      <c r="G3" s="556"/>
-      <c r="H3" s="557"/>
-      <c r="I3" s="560"/>
-      <c r="J3" s="561"/>
-      <c r="K3" s="564"/>
-      <c r="L3" s="565"/>
+      <c r="F3" s="574"/>
+      <c r="G3" s="574"/>
+      <c r="H3" s="575"/>
+      <c r="I3" s="578"/>
+      <c r="J3" s="579"/>
+      <c r="K3" s="582"/>
+      <c r="L3" s="583"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12270,9 +12459,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="548"/>
-      <c r="C4" s="549"/>
-      <c r="D4" s="550"/>
+      <c r="B4" s="566"/>
+      <c r="C4" s="567"/>
+      <c r="D4" s="568"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12291,22 +12480,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="545" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="570"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="546"/>
+      <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="571"/>
-      <c r="J5" s="572"/>
-      <c r="K5" s="497"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="495"/>
+      <c r="F5" s="495"/>
+      <c r="G5" s="495"/>
+      <c r="H5" s="496"/>
+      <c r="I5" s="547"/>
+      <c r="J5" s="548"/>
+      <c r="K5" s="495"/>
+      <c r="L5" s="496"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12317,22 +12506,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="569" t="s">
+      <c r="B6" s="545" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="573"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="549"/>
+      <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="574"/>
-      <c r="F6" s="574"/>
-      <c r="G6" s="574"/>
-      <c r="H6" s="575"/>
-      <c r="I6" s="571"/>
-      <c r="J6" s="572"/>
-      <c r="K6" s="497"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="550"/>
+      <c r="F6" s="550"/>
+      <c r="G6" s="550"/>
+      <c r="H6" s="551"/>
+      <c r="I6" s="547"/>
+      <c r="J6" s="548"/>
+      <c r="K6" s="495"/>
+      <c r="L6" s="496"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12343,27 +12532,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="576" t="s">
+      <c r="B7" s="552" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="577"/>
-      <c r="D7" s="499">
+      <c r="C7" s="553"/>
+      <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="578"/>
-      <c r="F7" s="578"/>
-      <c r="G7" s="578"/>
-      <c r="H7" s="579"/>
-      <c r="I7" s="576" t="s">
+      <c r="E7" s="554"/>
+      <c r="F7" s="554"/>
+      <c r="G7" s="554"/>
+      <c r="H7" s="555"/>
+      <c r="I7" s="552" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="580"/>
-      <c r="K7" s="487">
+      <c r="J7" s="556"/>
+      <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="486"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12846,11 +13035,6 @@
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="B2:D4"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
@@ -12864,6 +13048,11 @@
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="B2:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -12888,7 +13077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
@@ -12931,24 +13120,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="542"/>
-      <c r="C2" s="543"/>
-      <c r="D2" s="544"/>
-      <c r="E2" s="551" t="s">
+      <c r="B2" s="560"/>
+      <c r="C2" s="561"/>
+      <c r="D2" s="562"/>
+      <c r="E2" s="569" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="552"/>
-      <c r="G2" s="552"/>
-      <c r="H2" s="553"/>
-      <c r="I2" s="558" t="s">
+      <c r="F2" s="570"/>
+      <c r="G2" s="570"/>
+      <c r="H2" s="571"/>
+      <c r="I2" s="576" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="559"/>
-      <c r="K2" s="562">
+      <c r="J2" s="577"/>
+      <c r="K2" s="580">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="L2" s="563"/>
+      <c r="L2" s="581"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
@@ -12959,19 +13148,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
-      <c r="B3" s="545"/>
-      <c r="C3" s="546"/>
-      <c r="D3" s="547"/>
-      <c r="E3" s="555" t="s">
+      <c r="B3" s="563"/>
+      <c r="C3" s="564"/>
+      <c r="D3" s="565"/>
+      <c r="E3" s="573" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="556"/>
-      <c r="G3" s="556"/>
-      <c r="H3" s="557"/>
-      <c r="I3" s="560"/>
-      <c r="J3" s="561"/>
-      <c r="K3" s="564"/>
-      <c r="L3" s="565"/>
+      <c r="F3" s="574"/>
+      <c r="G3" s="574"/>
+      <c r="H3" s="575"/>
+      <c r="I3" s="578"/>
+      <c r="J3" s="579"/>
+      <c r="K3" s="582"/>
+      <c r="L3" s="583"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -12982,9 +13171,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="548"/>
-      <c r="C4" s="549"/>
-      <c r="D4" s="550"/>
+      <c r="B4" s="566"/>
+      <c r="C4" s="567"/>
+      <c r="D4" s="568"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13003,22 +13192,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="545" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="570"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="546"/>
+      <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="571"/>
-      <c r="J5" s="572"/>
-      <c r="K5" s="497"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="495"/>
+      <c r="F5" s="495"/>
+      <c r="G5" s="495"/>
+      <c r="H5" s="496"/>
+      <c r="I5" s="547"/>
+      <c r="J5" s="548"/>
+      <c r="K5" s="495"/>
+      <c r="L5" s="496"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13029,22 +13218,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="569" t="s">
+      <c r="B6" s="545" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="573"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="549"/>
+      <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="574"/>
-      <c r="F6" s="574"/>
-      <c r="G6" s="574"/>
-      <c r="H6" s="575"/>
-      <c r="I6" s="571"/>
-      <c r="J6" s="572"/>
-      <c r="K6" s="497"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="550"/>
+      <c r="F6" s="550"/>
+      <c r="G6" s="550"/>
+      <c r="H6" s="551"/>
+      <c r="I6" s="547"/>
+      <c r="J6" s="548"/>
+      <c r="K6" s="495"/>
+      <c r="L6" s="496"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13055,27 +13244,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="576" t="s">
+      <c r="B7" s="552" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="577"/>
-      <c r="D7" s="499">
+      <c r="C7" s="553"/>
+      <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="578"/>
-      <c r="F7" s="578"/>
-      <c r="G7" s="578"/>
-      <c r="H7" s="579"/>
-      <c r="I7" s="576" t="s">
+      <c r="E7" s="554"/>
+      <c r="F7" s="554"/>
+      <c r="G7" s="554"/>
+      <c r="H7" s="555"/>
+      <c r="I7" s="552" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="580"/>
-      <c r="K7" s="487">
+      <c r="J7" s="556"/>
+      <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="486"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -13360,6 +13549,17 @@
     <row r="17" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -13367,17 +13567,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="B2:D4"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -13404,13 +13593,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="H12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="8" topLeftCell="J15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomRight" activeCell="L24" sqref="L24:P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -13449,24 +13638,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="584"/>
-      <c r="C2" s="585"/>
-      <c r="D2" s="586"/>
-      <c r="E2" s="593" t="s">
+      <c r="B2" s="591"/>
+      <c r="C2" s="592"/>
+      <c r="D2" s="593"/>
+      <c r="E2" s="600" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="594"/>
-      <c r="G2" s="594"/>
-      <c r="H2" s="595"/>
-      <c r="I2" s="599" t="s">
+      <c r="F2" s="601"/>
+      <c r="G2" s="601"/>
+      <c r="H2" s="602"/>
+      <c r="I2" s="606" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="600"/>
-      <c r="K2" s="603">
+      <c r="J2" s="607"/>
+      <c r="K2" s="610">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="L2" s="604"/>
+      <c r="L2" s="611"/>
       <c r="M2" s="615"/>
       <c r="N2" s="616"/>
       <c r="O2" s="616"/>
@@ -13477,19 +13666,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="587"/>
-      <c r="C3" s="588"/>
-      <c r="D3" s="589"/>
-      <c r="E3" s="596" t="s">
+      <c r="B3" s="594"/>
+      <c r="C3" s="595"/>
+      <c r="D3" s="596"/>
+      <c r="E3" s="603" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="597"/>
-      <c r="G3" s="597"/>
-      <c r="H3" s="598"/>
-      <c r="I3" s="601"/>
-      <c r="J3" s="602"/>
-      <c r="K3" s="605"/>
-      <c r="L3" s="606"/>
+      <c r="F3" s="604"/>
+      <c r="G3" s="604"/>
+      <c r="H3" s="605"/>
+      <c r="I3" s="608"/>
+      <c r="J3" s="609"/>
+      <c r="K3" s="612"/>
+      <c r="L3" s="613"/>
       <c r="M3" s="618"/>
       <c r="N3" s="619"/>
       <c r="O3" s="619"/>
@@ -13500,9 +13689,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="590"/>
-      <c r="C4" s="591"/>
-      <c r="D4" s="592"/>
+      <c r="B4" s="597"/>
+      <c r="C4" s="598"/>
+      <c r="D4" s="599"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -13521,22 +13710,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="545" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="607"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="584"/>
+      <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="608"/>
-      <c r="J5" s="609"/>
-      <c r="K5" s="610"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="495"/>
+      <c r="F5" s="495"/>
+      <c r="G5" s="495"/>
+      <c r="H5" s="496"/>
+      <c r="I5" s="585"/>
+      <c r="J5" s="586"/>
+      <c r="K5" s="587"/>
+      <c r="L5" s="496"/>
       <c r="M5" s="618"/>
       <c r="N5" s="619"/>
       <c r="O5" s="619"/>
@@ -13547,22 +13736,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="569" t="s">
+      <c r="B6" s="545" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="607"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="584"/>
+      <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="574"/>
-      <c r="F6" s="574"/>
-      <c r="G6" s="574"/>
-      <c r="H6" s="575"/>
-      <c r="I6" s="608"/>
-      <c r="J6" s="609"/>
-      <c r="K6" s="610"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="550"/>
+      <c r="F6" s="550"/>
+      <c r="G6" s="550"/>
+      <c r="H6" s="551"/>
+      <c r="I6" s="585"/>
+      <c r="J6" s="586"/>
+      <c r="K6" s="587"/>
+      <c r="L6" s="496"/>
       <c r="M6" s="618"/>
       <c r="N6" s="619"/>
       <c r="O6" s="619"/>
@@ -13573,27 +13762,27 @@
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="576" t="s">
+      <c r="B7" s="552" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="611"/>
-      <c r="D7" s="499">
+      <c r="C7" s="588"/>
+      <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="578"/>
-      <c r="F7" s="578"/>
-      <c r="G7" s="578"/>
-      <c r="H7" s="579"/>
-      <c r="I7" s="612" t="s">
+      <c r="E7" s="554"/>
+      <c r="F7" s="554"/>
+      <c r="G7" s="554"/>
+      <c r="H7" s="555"/>
+      <c r="I7" s="589" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="611"/>
-      <c r="K7" s="487">
+      <c r="J7" s="588"/>
+      <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="486"/>
       <c r="M7" s="618"/>
       <c r="N7" s="619"/>
       <c r="O7" s="619"/>
@@ -13695,7 +13884,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="131">
-        <v>25.5</v>
+        <v>25</v>
       </c>
       <c r="D11" s="131">
         <v>0.05</v>
@@ -13728,7 +13917,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="131">
-        <v>28.1</v>
+        <v>24.9</v>
       </c>
       <c r="D12" s="131">
         <v>0.05</v>
@@ -13827,7 +14016,7 @@
         <v>28</v>
       </c>
       <c r="C15" s="98">
-        <v>3.12</v>
+        <v>3.15</v>
       </c>
       <c r="D15" s="98">
         <v>0.04</v>
@@ -13860,7 +14049,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="98">
-        <v>47.8</v>
+        <v>50.8</v>
       </c>
       <c r="D16" s="98">
         <v>0.1</v>
@@ -13893,7 +14082,7 @@
         <v>29</v>
       </c>
       <c r="C17" s="98">
-        <v>17.7</v>
+        <v>23.6</v>
       </c>
       <c r="D17" s="98">
         <v>0.05</v>
@@ -13956,20 +14145,12 @@
     <row r="19" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="78"/>
       <c r="B19" s="97" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="98">
-        <v>29.5</v>
-      </c>
-      <c r="D19" s="98">
-        <v>0.05</v>
-      </c>
-      <c r="E19" s="103">
-        <v>-0.05</v>
-      </c>
-      <c r="F19" s="51" t="s">
-        <v>19</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C19" s="322"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="116"/>
       <c r="G19" s="55" t="s">
         <v>22</v>
       </c>
@@ -13986,66 +14167,102 @@
       <c r="R19" s="100"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="78"/>
-      <c r="B20" s="566" t="s">
+      <c r="B20" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="98">
+        <v>27.1</v>
+      </c>
+      <c r="D20" s="98">
+        <v>0.05</v>
+      </c>
+      <c r="E20" s="103">
+        <v>-0.05</v>
+      </c>
+      <c r="F20" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="99"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="98"/>
+      <c r="L20" s="98"/>
+      <c r="M20" s="98"/>
+      <c r="N20" s="98"/>
+      <c r="O20" s="98"/>
+      <c r="P20" s="98"/>
+      <c r="Q20" s="98"/>
+      <c r="R20" s="100"/>
+      <c r="S20" s="86"/>
+    </row>
+    <row r="21" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="78"/>
+      <c r="B21" s="542" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="567"/>
-      <c r="D20" s="567"/>
-      <c r="E20" s="568"/>
-      <c r="F20" s="116" t="s">
+      <c r="C21" s="543"/>
+      <c r="D21" s="543"/>
+      <c r="E21" s="544"/>
+      <c r="F21" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="59" t="s">
+      <c r="G21" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="107"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="108"/>
-      <c r="K20" s="108"/>
-      <c r="L20" s="108"/>
-      <c r="M20" s="108"/>
-      <c r="N20" s="108"/>
-      <c r="O20" s="108"/>
-      <c r="P20" s="108"/>
-      <c r="Q20" s="108"/>
-      <c r="R20" s="109"/>
-      <c r="S20" s="86"/>
-    </row>
-    <row r="21" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="110"/>
-      <c r="B21" s="111"/>
-      <c r="C21" s="111"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="111"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="113"/>
-      <c r="L21" s="113"/>
-      <c r="M21" s="113"/>
-      <c r="N21" s="113"/>
-      <c r="O21" s="113"/>
-      <c r="P21" s="113"/>
-      <c r="Q21" s="113"/>
-      <c r="R21" s="113"/>
-      <c r="S21" s="114"/>
-    </row>
-    <row r="22" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="123"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="108"/>
+      <c r="J21" s="108"/>
+      <c r="K21" s="108"/>
+      <c r="L21" s="108"/>
+      <c r="M21" s="108"/>
+      <c r="N21" s="108"/>
+      <c r="O21" s="108"/>
+      <c r="P21" s="108"/>
+      <c r="Q21" s="108"/>
+      <c r="R21" s="109"/>
+      <c r="S21" s="86"/>
+    </row>
+    <row r="22" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="110"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="113"/>
+      <c r="K22" s="113"/>
+      <c r="L22" s="113"/>
+      <c r="M22" s="113"/>
+      <c r="N22" s="113"/>
+      <c r="O22" s="113"/>
+      <c r="P22" s="113"/>
+      <c r="Q22" s="113"/>
+      <c r="R22" s="113"/>
+      <c r="S22" s="114"/>
+    </row>
+    <row r="23" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="123"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L24" s="634" t="s">
+        <v>140</v>
+      </c>
+      <c r="M24" s="634"/>
+      <c r="N24" s="634"/>
+      <c r="O24" s="633"/>
+      <c r="P24" s="633"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
+  <mergeCells count="20">
+    <mergeCell ref="L24:N24"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="M2:R7"/>
     <mergeCell ref="E2:H2"/>
@@ -14058,8 +14275,15 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
-  <conditionalFormatting sqref="H10:R20">
+  <conditionalFormatting sqref="H10:R21">
     <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
@@ -14078,10 +14302,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="8" topLeftCell="J9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
@@ -14122,24 +14346,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="584"/>
-      <c r="C2" s="585"/>
-      <c r="D2" s="586"/>
-      <c r="E2" s="593" t="s">
+      <c r="B2" s="591"/>
+      <c r="C2" s="592"/>
+      <c r="D2" s="593"/>
+      <c r="E2" s="600" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="594"/>
-      <c r="G2" s="594"/>
-      <c r="H2" s="595"/>
-      <c r="I2" s="599" t="s">
+      <c r="F2" s="601"/>
+      <c r="G2" s="601"/>
+      <c r="H2" s="602"/>
+      <c r="I2" s="606" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="600"/>
-      <c r="K2" s="603">
+      <c r="J2" s="607"/>
+      <c r="K2" s="610">
         <f>Данные!B19</f>
         <v>60</v>
       </c>
-      <c r="L2" s="604"/>
+      <c r="L2" s="611"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
@@ -14150,19 +14374,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="587"/>
-      <c r="C3" s="588"/>
-      <c r="D3" s="589"/>
-      <c r="E3" s="596" t="s">
+      <c r="B3" s="594"/>
+      <c r="C3" s="595"/>
+      <c r="D3" s="596"/>
+      <c r="E3" s="603" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="597"/>
-      <c r="G3" s="597"/>
-      <c r="H3" s="598"/>
-      <c r="I3" s="601"/>
-      <c r="J3" s="602"/>
-      <c r="K3" s="605"/>
-      <c r="L3" s="606"/>
+      <c r="F3" s="604"/>
+      <c r="G3" s="604"/>
+      <c r="H3" s="605"/>
+      <c r="I3" s="608"/>
+      <c r="J3" s="609"/>
+      <c r="K3" s="612"/>
+      <c r="L3" s="613"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -14173,9 +14397,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="590"/>
-      <c r="C4" s="591"/>
-      <c r="D4" s="592"/>
+      <c r="B4" s="597"/>
+      <c r="C4" s="598"/>
+      <c r="D4" s="599"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -14194,22 +14418,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="545" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="607"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="584"/>
+      <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="608"/>
-      <c r="J5" s="609"/>
-      <c r="K5" s="610"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="495"/>
+      <c r="F5" s="495"/>
+      <c r="G5" s="495"/>
+      <c r="H5" s="496"/>
+      <c r="I5" s="585"/>
+      <c r="J5" s="586"/>
+      <c r="K5" s="587"/>
+      <c r="L5" s="496"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -14220,22 +14444,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="569" t="s">
+      <c r="B6" s="545" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="607"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="584"/>
+      <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="574"/>
-      <c r="F6" s="574"/>
-      <c r="G6" s="574"/>
-      <c r="H6" s="575"/>
-      <c r="I6" s="608"/>
-      <c r="J6" s="609"/>
-      <c r="K6" s="610"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="550"/>
+      <c r="F6" s="550"/>
+      <c r="G6" s="550"/>
+      <c r="H6" s="551"/>
+      <c r="I6" s="585"/>
+      <c r="J6" s="586"/>
+      <c r="K6" s="587"/>
+      <c r="L6" s="496"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -14246,27 +14470,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="576" t="s">
+      <c r="B7" s="552" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="611"/>
-      <c r="D7" s="499">
+      <c r="C7" s="588"/>
+      <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="578"/>
-      <c r="F7" s="578"/>
-      <c r="G7" s="578"/>
-      <c r="H7" s="579"/>
-      <c r="I7" s="612" t="s">
+      <c r="E7" s="554"/>
+      <c r="F7" s="554"/>
+      <c r="G7" s="554"/>
+      <c r="H7" s="555"/>
+      <c r="I7" s="589" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="611"/>
-      <c r="K7" s="487">
+      <c r="J7" s="588"/>
+      <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="486"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -14335,7 +14559,7 @@
         <v>26</v>
       </c>
       <c r="C10" s="98">
-        <v>28.02</v>
+        <v>24.7</v>
       </c>
       <c r="D10" s="98">
         <v>0.05</v>
@@ -14368,7 +14592,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="98">
-        <v>21.18</v>
+        <v>20.7</v>
       </c>
       <c r="D11" s="98">
         <v>0.02</v>
@@ -14467,7 +14691,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="98">
-        <v>15.8</v>
+        <v>12.9</v>
       </c>
       <c r="D14" s="98">
         <v>0</v>
@@ -14529,12 +14753,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78"/>
-      <c r="B16" s="566" t="s">
+      <c r="B16" s="542" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="567"/>
-      <c r="D16" s="567"/>
-      <c r="E16" s="568"/>
+      <c r="C16" s="543"/>
+      <c r="D16" s="543"/>
+      <c r="E16" s="544"/>
       <c r="F16" s="259" t="s">
         <v>16</v>
       </c>
@@ -14578,17 +14802,18 @@
     <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B18" s="123"/>
     </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K19" s="634" t="s">
+        <v>140</v>
+      </c>
+      <c r="L19" s="634"/>
+      <c r="M19" s="634"/>
+      <c r="N19" s="633"/>
+      <c r="O19" s="633"/>
+    </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
+  <mergeCells count="20">
+    <mergeCell ref="K19:M19"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
@@ -14599,6 +14824,15 @@
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-2.1-500-14 (Брест колоски)/Брест колоски от 13.11.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-2.1-500-14 (Брест колоски)/Брест колоски от 13.11.2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="15" r:id="rId1"/>
@@ -38,6 +38,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Чист. форма'!$A$1:$S$25</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -2156,7 +2157,7 @@
     <xf numFmtId="43" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="635">
+  <cellXfs count="632">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" shrinkToFit="1"/>
@@ -3427,13 +3428,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="59" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3542,6 +3536,9 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3919,6 +3916,9 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3972,12 +3972,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6381,25 +6375,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="487" t="s">
+      <c r="A1" s="485" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="491"/>
-      <c r="C1" s="491"/>
-      <c r="D1" s="491"/>
-      <c r="E1" s="491"/>
+      <c r="B1" s="489"/>
+      <c r="C1" s="489"/>
+      <c r="D1" s="489"/>
+      <c r="E1" s="489"/>
       <c r="G1" s="371" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="488" t="s">
+      <c r="A2" s="486" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="489"/>
-      <c r="C2" s="489"/>
-      <c r="D2" s="489"/>
-      <c r="E2" s="490"/>
+      <c r="B2" s="487"/>
+      <c r="C2" s="487"/>
+      <c r="D2" s="487"/>
+      <c r="E2" s="488"/>
       <c r="G2" s="370" t="s">
         <v>79</v>
       </c>
@@ -6410,45 +6404,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="492" t="s">
+      <c r="A4" s="490" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="493"/>
-      <c r="C4" s="493"/>
-      <c r="D4" s="493"/>
-      <c r="E4" s="493"/>
+      <c r="B4" s="491"/>
+      <c r="C4" s="491"/>
+      <c r="D4" s="491"/>
+      <c r="E4" s="491"/>
     </row>
     <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="494" t="s">
+      <c r="A5" s="492" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="495"/>
-      <c r="C5" s="495"/>
-      <c r="D5" s="495"/>
-      <c r="E5" s="496"/>
+      <c r="B5" s="493"/>
+      <c r="C5" s="493"/>
+      <c r="D5" s="493"/>
+      <c r="E5" s="494"/>
     </row>
     <row r="6" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="487" t="s">
+      <c r="A7" s="485" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="491"/>
-      <c r="C7" s="491"/>
-      <c r="D7" s="491"/>
-      <c r="E7" s="491"/>
+      <c r="B7" s="489"/>
+      <c r="C7" s="489"/>
+      <c r="D7" s="489"/>
+      <c r="E7" s="489"/>
     </row>
     <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="497"/>
-      <c r="B8" s="498"/>
-      <c r="C8" s="498"/>
-      <c r="D8" s="498"/>
-      <c r="E8" s="499"/>
+      <c r="A8" s="495"/>
+      <c r="B8" s="496"/>
+      <c r="C8" s="496"/>
+      <c r="D8" s="496"/>
+      <c r="E8" s="497"/>
     </row>
     <row r="10" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="487" t="s">
+      <c r="A10" s="485" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="487"/>
+      <c r="B10" s="485"/>
       <c r="C10" s="372"/>
       <c r="D10" s="380" t="s">
         <v>94</v>
@@ -6459,33 +6453,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="485"/>
-      <c r="B11" s="486"/>
+      <c r="A11" s="483"/>
+      <c r="B11" s="484"/>
       <c r="D11" s="379">
         <v>43782</v>
       </c>
-      <c r="F11" s="500" t="s">
+      <c r="F11" s="498" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="500"/>
-      <c r="H11" s="500"/>
-      <c r="I11" s="500"/>
-      <c r="J11" s="501" t="s">
+      <c r="G11" s="498"/>
+      <c r="H11" s="498"/>
+      <c r="I11" s="498"/>
+      <c r="J11" s="499" t="s">
         <v>99</v>
       </c>
-      <c r="K11" s="501"/>
+      <c r="K11" s="499"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="500" t="s">
+      <c r="F12" s="498" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="500"/>
-      <c r="H12" s="500"/>
-      <c r="I12" s="500"/>
-      <c r="J12" s="501" t="s">
+      <c r="G12" s="498"/>
+      <c r="H12" s="498"/>
+      <c r="I12" s="498"/>
+      <c r="J12" s="499" t="s">
         <v>100</v>
       </c>
-      <c r="K12" s="501"/>
+      <c r="K12" s="499"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="373" t="s">
@@ -6497,16 +6491,16 @@
       <c r="C13" s="384" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="500" t="s">
+      <c r="F13" s="498" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="500"/>
-      <c r="H13" s="500"/>
-      <c r="I13" s="500"/>
-      <c r="J13" s="501" t="s">
+      <c r="G13" s="498"/>
+      <c r="H13" s="498"/>
+      <c r="I13" s="498"/>
+      <c r="J13" s="499" t="s">
         <v>101</v>
       </c>
-      <c r="K13" s="501"/>
+      <c r="K13" s="499"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="375" t="s">
@@ -6658,11 +6652,11 @@
       <c r="A28" s="381"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="484" t="s">
+      <c r="A29" s="482" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="484"/>
-      <c r="C29" s="484"/>
+      <c r="B29" s="482"/>
+      <c r="C29" s="482"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="371" t="s">
@@ -6696,7 +6690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane xSplit="7" ySplit="8" topLeftCell="J9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
@@ -6739,47 +6733,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="170"/>
-      <c r="B2" s="591"/>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="B2" s="589"/>
+      <c r="C2" s="590"/>
+      <c r="D2" s="591"/>
+      <c r="E2" s="598" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="599"/>
+      <c r="G2" s="599"/>
+      <c r="H2" s="600"/>
+      <c r="I2" s="604" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="610">
+      <c r="J2" s="605"/>
+      <c r="K2" s="608">
         <f>Данные!B20</f>
         <v>50</v>
       </c>
-      <c r="L2" s="611"/>
+      <c r="L2" s="609"/>
       <c r="M2" s="171"/>
       <c r="N2" s="172"/>
       <c r="O2" s="173"/>
-      <c r="P2" s="622"/>
-      <c r="Q2" s="622"/>
+      <c r="P2" s="621"/>
+      <c r="Q2" s="621"/>
       <c r="R2" s="174"/>
       <c r="S2" s="175"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="170"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="592"/>
+      <c r="C3" s="593"/>
+      <c r="D3" s="594"/>
+      <c r="E3" s="601" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="612"/>
-      <c r="L3" s="613"/>
+      <c r="F3" s="602"/>
+      <c r="G3" s="602"/>
+      <c r="H3" s="603"/>
+      <c r="I3" s="606"/>
+      <c r="J3" s="607"/>
+      <c r="K3" s="610"/>
+      <c r="L3" s="611"/>
       <c r="M3" s="176"/>
       <c r="N3" s="177"/>
       <c r="O3" s="177"/>
@@ -6790,9 +6784,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="170"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="595"/>
+      <c r="C4" s="596"/>
+      <c r="D4" s="597"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -6811,22 +6805,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="170"/>
-      <c r="B5" s="545" t="s">
+      <c r="B5" s="543" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="584"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="582"/>
+      <c r="D5" s="492" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="585"/>
-      <c r="J5" s="586"/>
-      <c r="K5" s="587"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="493"/>
+      <c r="F5" s="493"/>
+      <c r="G5" s="493"/>
+      <c r="H5" s="494"/>
+      <c r="I5" s="583"/>
+      <c r="J5" s="584"/>
+      <c r="K5" s="585"/>
+      <c r="L5" s="494"/>
       <c r="M5" s="179"/>
       <c r="N5" s="177"/>
       <c r="O5" s="177"/>
@@ -6837,22 +6831,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="170"/>
-      <c r="B6" s="545" t="s">
+      <c r="B6" s="543" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="584"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="582"/>
+      <c r="D6" s="486" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="550"/>
-      <c r="F6" s="550"/>
-      <c r="G6" s="550"/>
-      <c r="H6" s="551"/>
-      <c r="I6" s="585"/>
-      <c r="J6" s="586"/>
-      <c r="K6" s="587"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="548"/>
+      <c r="F6" s="548"/>
+      <c r="G6" s="548"/>
+      <c r="H6" s="549"/>
+      <c r="I6" s="583"/>
+      <c r="J6" s="584"/>
+      <c r="K6" s="585"/>
+      <c r="L6" s="494"/>
       <c r="M6" s="176"/>
       <c r="N6" s="177"/>
       <c r="O6" s="177"/>
@@ -6863,27 +6857,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="170"/>
-      <c r="B7" s="552" t="s">
+      <c r="B7" s="550" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="588"/>
-      <c r="D7" s="497">
+      <c r="C7" s="586"/>
+      <c r="D7" s="495">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="554"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="554"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="589" t="s">
+      <c r="E7" s="552"/>
+      <c r="F7" s="552"/>
+      <c r="G7" s="552"/>
+      <c r="H7" s="553"/>
+      <c r="I7" s="587" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="588"/>
-      <c r="K7" s="485">
+      <c r="J7" s="586"/>
+      <c r="K7" s="483">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="484"/>
       <c r="M7" s="179"/>
       <c r="N7" s="177"/>
       <c r="O7" s="177"/>
@@ -7268,17 +7262,16 @@
     </row>
     <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L21" s="634" t="s">
+      <c r="L21" s="613" t="s">
         <v>140</v>
       </c>
-      <c r="M21" s="634"/>
-      <c r="N21" s="634"/>
-      <c r="O21" s="633"/>
-      <c r="P21" s="633"/>
+      <c r="M21" s="613"/>
+      <c r="N21" s="613"/>
+      <c r="O21" s="481"/>
+      <c r="P21" s="481"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="L21:N21"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -7286,17 +7279,18 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
@@ -7362,47 +7356,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="209"/>
-      <c r="B2" s="591"/>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="B2" s="589"/>
+      <c r="C2" s="590"/>
+      <c r="D2" s="591"/>
+      <c r="E2" s="598" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="599"/>
+      <c r="G2" s="599"/>
+      <c r="H2" s="600"/>
+      <c r="I2" s="604" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="610">
+      <c r="J2" s="605"/>
+      <c r="K2" s="608">
         <f>Данные!B21</f>
         <v>24</v>
       </c>
-      <c r="L2" s="611"/>
+      <c r="L2" s="609"/>
       <c r="M2" s="210"/>
       <c r="N2" s="211"/>
       <c r="O2" s="212"/>
-      <c r="P2" s="626"/>
-      <c r="Q2" s="626"/>
+      <c r="P2" s="625"/>
+      <c r="Q2" s="625"/>
       <c r="R2" s="213"/>
       <c r="S2" s="214"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="209"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="592"/>
+      <c r="C3" s="593"/>
+      <c r="D3" s="594"/>
+      <c r="E3" s="601" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="612"/>
-      <c r="L3" s="613"/>
+      <c r="F3" s="602"/>
+      <c r="G3" s="602"/>
+      <c r="H3" s="603"/>
+      <c r="I3" s="606"/>
+      <c r="J3" s="607"/>
+      <c r="K3" s="610"/>
+      <c r="L3" s="611"/>
       <c r="M3" s="215"/>
       <c r="N3" s="216"/>
       <c r="O3" s="216"/>
@@ -7413,9 +7407,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="209"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="595"/>
+      <c r="C4" s="596"/>
+      <c r="D4" s="597"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -7434,22 +7428,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="209"/>
-      <c r="B5" s="545" t="s">
+      <c r="B5" s="543" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="584"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="582"/>
+      <c r="D5" s="492" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="585"/>
-      <c r="J5" s="586"/>
-      <c r="K5" s="587"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="493"/>
+      <c r="F5" s="493"/>
+      <c r="G5" s="493"/>
+      <c r="H5" s="494"/>
+      <c r="I5" s="583"/>
+      <c r="J5" s="584"/>
+      <c r="K5" s="585"/>
+      <c r="L5" s="494"/>
       <c r="M5" s="218"/>
       <c r="N5" s="216"/>
       <c r="O5" s="216"/>
@@ -7460,22 +7454,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="209"/>
-      <c r="B6" s="545" t="s">
+      <c r="B6" s="543" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="584"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="582"/>
+      <c r="D6" s="486" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="550"/>
-      <c r="F6" s="550"/>
-      <c r="G6" s="550"/>
-      <c r="H6" s="551"/>
-      <c r="I6" s="585"/>
-      <c r="J6" s="586"/>
-      <c r="K6" s="587"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="548"/>
+      <c r="F6" s="548"/>
+      <c r="G6" s="548"/>
+      <c r="H6" s="549"/>
+      <c r="I6" s="583"/>
+      <c r="J6" s="584"/>
+      <c r="K6" s="585"/>
+      <c r="L6" s="494"/>
       <c r="M6" s="215"/>
       <c r="N6" s="216"/>
       <c r="O6" s="216"/>
@@ -7486,27 +7480,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="209"/>
-      <c r="B7" s="552" t="s">
+      <c r="B7" s="550" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="588"/>
-      <c r="D7" s="497">
+      <c r="C7" s="586"/>
+      <c r="D7" s="495">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="554"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="554"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="589" t="s">
+      <c r="E7" s="552"/>
+      <c r="F7" s="552"/>
+      <c r="G7" s="552"/>
+      <c r="H7" s="553"/>
+      <c r="I7" s="587" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="588"/>
-      <c r="K7" s="485">
+      <c r="J7" s="586"/>
+      <c r="K7" s="483">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="484"/>
       <c r="M7" s="218"/>
       <c r="N7" s="216"/>
       <c r="O7" s="216"/>
@@ -7835,12 +7829,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="219"/>
-      <c r="B18" s="623" t="s">
+      <c r="B18" s="622" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="624"/>
-      <c r="D18" s="624"/>
-      <c r="E18" s="625"/>
+      <c r="C18" s="623"/>
+      <c r="D18" s="623"/>
+      <c r="E18" s="624"/>
       <c r="F18" s="116" t="s">
         <v>16</v>
       </c>
@@ -7988,47 +7982,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="133"/>
-      <c r="B2" s="591"/>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="B2" s="589"/>
+      <c r="C2" s="590"/>
+      <c r="D2" s="591"/>
+      <c r="E2" s="598" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="599"/>
+      <c r="G2" s="599"/>
+      <c r="H2" s="600"/>
+      <c r="I2" s="604" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="610">
+      <c r="J2" s="605"/>
+      <c r="K2" s="608">
         <f>Данные!B26</f>
         <v>22</v>
       </c>
-      <c r="L2" s="611"/>
+      <c r="L2" s="609"/>
       <c r="M2" s="134"/>
       <c r="N2" s="135"/>
       <c r="O2" s="136"/>
-      <c r="P2" s="627"/>
-      <c r="Q2" s="627"/>
+      <c r="P2" s="626"/>
+      <c r="Q2" s="626"/>
       <c r="R2" s="137"/>
       <c r="S2" s="138"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="133"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="592"/>
+      <c r="C3" s="593"/>
+      <c r="D3" s="594"/>
+      <c r="E3" s="601" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="612"/>
-      <c r="L3" s="613"/>
+      <c r="F3" s="602"/>
+      <c r="G3" s="602"/>
+      <c r="H3" s="603"/>
+      <c r="I3" s="606"/>
+      <c r="J3" s="607"/>
+      <c r="K3" s="610"/>
+      <c r="L3" s="611"/>
       <c r="M3" s="139"/>
       <c r="N3" s="140"/>
       <c r="O3" s="140"/>
@@ -8039,9 +8033,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="133"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="595"/>
+      <c r="C4" s="596"/>
+      <c r="D4" s="597"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -8060,22 +8054,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="133"/>
-      <c r="B5" s="545" t="s">
+      <c r="B5" s="543" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="584"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="582"/>
+      <c r="D5" s="492" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="585"/>
-      <c r="J5" s="586"/>
-      <c r="K5" s="587"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="493"/>
+      <c r="F5" s="493"/>
+      <c r="G5" s="493"/>
+      <c r="H5" s="494"/>
+      <c r="I5" s="583"/>
+      <c r="J5" s="584"/>
+      <c r="K5" s="585"/>
+      <c r="L5" s="494"/>
       <c r="M5" s="142"/>
       <c r="N5" s="140"/>
       <c r="O5" s="140"/>
@@ -8086,22 +8080,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="133"/>
-      <c r="B6" s="545" t="s">
+      <c r="B6" s="543" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="584"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="582"/>
+      <c r="D6" s="486" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="550"/>
-      <c r="F6" s="550"/>
-      <c r="G6" s="550"/>
-      <c r="H6" s="551"/>
-      <c r="I6" s="585"/>
-      <c r="J6" s="586"/>
-      <c r="K6" s="587"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="548"/>
+      <c r="F6" s="548"/>
+      <c r="G6" s="548"/>
+      <c r="H6" s="549"/>
+      <c r="I6" s="583"/>
+      <c r="J6" s="584"/>
+      <c r="K6" s="585"/>
+      <c r="L6" s="494"/>
       <c r="M6" s="139"/>
       <c r="N6" s="140"/>
       <c r="O6" s="140"/>
@@ -8112,27 +8106,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="133"/>
-      <c r="B7" s="552" t="s">
+      <c r="B7" s="550" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="588"/>
-      <c r="D7" s="497">
+      <c r="C7" s="586"/>
+      <c r="D7" s="495">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="554"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="554"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="589" t="s">
+      <c r="E7" s="552"/>
+      <c r="F7" s="552"/>
+      <c r="G7" s="552"/>
+      <c r="H7" s="553"/>
+      <c r="I7" s="587" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="588"/>
-      <c r="K7" s="485">
+      <c r="J7" s="586"/>
+      <c r="K7" s="483">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="484"/>
       <c r="M7" s="142"/>
       <c r="N7" s="140"/>
       <c r="O7" s="140"/>
@@ -8596,47 +8590,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="266"/>
-      <c r="B2" s="591"/>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="B2" s="589"/>
+      <c r="C2" s="590"/>
+      <c r="D2" s="591"/>
+      <c r="E2" s="598" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="599"/>
+      <c r="G2" s="599"/>
+      <c r="H2" s="600"/>
+      <c r="I2" s="604" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="629">
+      <c r="J2" s="605"/>
+      <c r="K2" s="628">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="L2" s="630"/>
+      <c r="L2" s="629"/>
       <c r="M2" s="267"/>
       <c r="N2" s="268"/>
       <c r="O2" s="269"/>
-      <c r="P2" s="628"/>
-      <c r="Q2" s="628"/>
+      <c r="P2" s="627"/>
+      <c r="Q2" s="627"/>
       <c r="R2" s="270"/>
       <c r="S2" s="271"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="266"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="592"/>
+      <c r="C3" s="593"/>
+      <c r="D3" s="594"/>
+      <c r="E3" s="601" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="631"/>
-      <c r="L3" s="632"/>
+      <c r="F3" s="602"/>
+      <c r="G3" s="602"/>
+      <c r="H3" s="603"/>
+      <c r="I3" s="606"/>
+      <c r="J3" s="607"/>
+      <c r="K3" s="630"/>
+      <c r="L3" s="631"/>
       <c r="M3" s="272"/>
       <c r="N3" s="273"/>
       <c r="O3" s="273"/>
@@ -8647,9 +8641,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="266"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="595"/>
+      <c r="C4" s="596"/>
+      <c r="D4" s="597"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -8668,22 +8662,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="266"/>
-      <c r="B5" s="545" t="s">
+      <c r="B5" s="543" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="584"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="582"/>
+      <c r="D5" s="492" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="585"/>
-      <c r="J5" s="586"/>
-      <c r="K5" s="587"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="493"/>
+      <c r="F5" s="493"/>
+      <c r="G5" s="493"/>
+      <c r="H5" s="494"/>
+      <c r="I5" s="583"/>
+      <c r="J5" s="584"/>
+      <c r="K5" s="585"/>
+      <c r="L5" s="494"/>
       <c r="M5" s="275"/>
       <c r="N5" s="273"/>
       <c r="O5" s="273"/>
@@ -8694,22 +8688,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="266"/>
-      <c r="B6" s="545" t="s">
+      <c r="B6" s="543" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="584"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="582"/>
+      <c r="D6" s="486" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="550"/>
-      <c r="F6" s="550"/>
-      <c r="G6" s="550"/>
-      <c r="H6" s="551"/>
-      <c r="I6" s="585"/>
-      <c r="J6" s="586"/>
-      <c r="K6" s="587"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="548"/>
+      <c r="F6" s="548"/>
+      <c r="G6" s="548"/>
+      <c r="H6" s="549"/>
+      <c r="I6" s="583"/>
+      <c r="J6" s="584"/>
+      <c r="K6" s="585"/>
+      <c r="L6" s="494"/>
       <c r="M6" s="272"/>
       <c r="N6" s="273"/>
       <c r="O6" s="273"/>
@@ -8720,27 +8714,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="266"/>
-      <c r="B7" s="552" t="s">
+      <c r="B7" s="550" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="588"/>
-      <c r="D7" s="497">
+      <c r="C7" s="586"/>
+      <c r="D7" s="495">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="554"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="554"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="589" t="s">
+      <c r="E7" s="552"/>
+      <c r="F7" s="552"/>
+      <c r="G7" s="552"/>
+      <c r="H7" s="553"/>
+      <c r="I7" s="587" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="588"/>
-      <c r="K7" s="485">
+      <c r="J7" s="586"/>
+      <c r="K7" s="483">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="484"/>
       <c r="M7" s="275"/>
       <c r="N7" s="273"/>
       <c r="O7" s="273"/>
@@ -9013,9 +9007,6 @@
     <row r="17" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="P2:Q2"/>
@@ -9031,6 +9022,9 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -9059,8 +9053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9081,11 +9075,11 @@
   <sheetData>
     <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="390"/>
-      <c r="B1" s="483" t="s">
+      <c r="B1" s="480" t="s">
         <v>111</v>
       </c>
       <c r="C1" s="390"/>
-      <c r="D1" s="482" t="str">
+      <c r="D1" s="479" t="str">
         <f>Данные!A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
@@ -9115,17 +9109,17 @@
       <c r="L2" s="391"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="504" t="s">
+      <c r="A3" s="502" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="504"/>
-      <c r="C3" s="504"/>
-      <c r="D3" s="504"/>
-      <c r="E3" s="504"/>
-      <c r="F3" s="504"/>
-      <c r="G3" s="504"/>
-      <c r="H3" s="504"/>
-      <c r="I3" s="504"/>
+      <c r="B3" s="502"/>
+      <c r="C3" s="502"/>
+      <c r="D3" s="502"/>
+      <c r="E3" s="502"/>
+      <c r="F3" s="502"/>
+      <c r="G3" s="502"/>
+      <c r="H3" s="502"/>
+      <c r="I3" s="502"/>
       <c r="K3" s="392"/>
       <c r="L3" s="392"/>
       <c r="M3" s="393"/>
@@ -9438,7 +9432,7 @@
         <f>Данные!$B22</f>
         <v>нет</v>
       </c>
-      <c r="E14" s="481" t="s">
+      <c r="E14" s="478" t="s">
         <v>93</v>
       </c>
       <c r="F14" s="389"/>
@@ -9612,76 +9606,76 @@
         <f>D6*700000</f>
         <v>16800000</v>
       </c>
-      <c r="B21" s="433">
-        <v>43759</v>
-      </c>
-      <c r="C21" s="434">
-        <v>43765</v>
-      </c>
-      <c r="D21" s="433">
-        <v>43769</v>
-      </c>
-      <c r="E21" s="435">
-        <v>948096</v>
-      </c>
-      <c r="F21" s="435">
-        <v>1031915</v>
-      </c>
-      <c r="G21" s="436">
+      <c r="B21" s="438">
+        <v>43825</v>
+      </c>
+      <c r="C21" s="438">
+        <v>43830</v>
+      </c>
+      <c r="D21" s="438">
+        <v>43468</v>
+      </c>
+      <c r="E21" s="439">
+        <v>1017372</v>
+      </c>
+      <c r="F21" s="439">
+        <v>1082706</v>
+      </c>
+      <c r="G21" s="433">
         <f>F21/A$21</f>
-        <v>6.1423511904761904E-2</v>
-      </c>
-      <c r="H21" s="437">
+        <v>6.444678571428572E-2</v>
+      </c>
+      <c r="H21" s="434">
         <f>A21-F21</f>
-        <v>15768085</v>
-      </c>
-      <c r="I21" s="438">
+        <v>15717294</v>
+      </c>
+      <c r="I21" s="435">
         <f>1-G21</f>
-        <v>0.93857648809523808</v>
-      </c>
-      <c r="J21" s="439"/>
+        <v>0.93555321428571425</v>
+      </c>
+      <c r="J21" s="436"/>
       <c r="K21" s="413"/>
       <c r="L21" s="413"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="440"/>
-      <c r="B22" s="441"/>
-      <c r="C22" s="441"/>
-      <c r="D22" s="441"/>
-      <c r="E22" s="442"/>
-      <c r="F22" s="442"/>
-      <c r="G22" s="436">
+      <c r="A22" s="437"/>
+      <c r="B22" s="438"/>
+      <c r="C22" s="438"/>
+      <c r="D22" s="438"/>
+      <c r="E22" s="439"/>
+      <c r="F22" s="439"/>
+      <c r="G22" s="433">
         <f>F22/A$21</f>
         <v>0</v>
       </c>
-      <c r="H22" s="443">
+      <c r="H22" s="440">
         <f>H21-F22</f>
-        <v>15768085</v>
-      </c>
-      <c r="I22" s="444">
+        <v>15717294</v>
+      </c>
+      <c r="I22" s="441">
         <f>I21-G22</f>
-        <v>0.93857648809523808</v>
+        <v>0.93555321428571425</v>
       </c>
       <c r="J22" s="393"/>
       <c r="K22" s="393"/>
       <c r="L22" s="393"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="445"/>
-      <c r="B23" s="446"/>
-      <c r="C23" s="446"/>
-      <c r="D23" s="446"/>
-      <c r="E23" s="447"/>
-      <c r="F23" s="447"/>
-      <c r="G23" s="448"/>
-      <c r="H23" s="449"/>
-      <c r="I23" s="450"/>
-      <c r="J23" s="439"/>
+      <c r="A23" s="442"/>
+      <c r="B23" s="443"/>
+      <c r="C23" s="443"/>
+      <c r="D23" s="443"/>
+      <c r="E23" s="444"/>
+      <c r="F23" s="444"/>
+      <c r="G23" s="445"/>
+      <c r="H23" s="446"/>
+      <c r="I23" s="447"/>
+      <c r="J23" s="436"/>
       <c r="K23" s="413"/>
       <c r="L23" s="413"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="445"/>
+      <c r="A24" s="442"/>
       <c r="B24" s="385"/>
       <c r="C24" s="385"/>
       <c r="D24" s="385"/>
@@ -9689,139 +9683,139 @@
       <c r="F24" s="385"/>
       <c r="G24" s="385"/>
       <c r="H24" s="385"/>
-      <c r="I24" s="451"/>
-      <c r="J24" s="439"/>
-      <c r="K24" s="439"/>
+      <c r="I24" s="448"/>
+      <c r="J24" s="436"/>
+      <c r="K24" s="436"/>
       <c r="L24" s="393"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="445"/>
-      <c r="B25" s="446"/>
-      <c r="C25" s="446"/>
-      <c r="D25" s="446"/>
-      <c r="E25" s="447"/>
-      <c r="F25" s="447"/>
-      <c r="G25" s="452"/>
-      <c r="H25" s="449"/>
-      <c r="I25" s="450"/>
-      <c r="J25" s="439"/>
-      <c r="K25" s="453"/>
+      <c r="A25" s="442"/>
+      <c r="B25" s="443"/>
+      <c r="C25" s="443"/>
+      <c r="D25" s="443"/>
+      <c r="E25" s="444"/>
+      <c r="F25" s="444"/>
+      <c r="G25" s="449"/>
+      <c r="H25" s="446"/>
+      <c r="I25" s="447"/>
+      <c r="J25" s="436"/>
+      <c r="K25" s="450"/>
       <c r="L25" s="393"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="445"/>
-      <c r="B26" s="446"/>
-      <c r="C26" s="446"/>
-      <c r="D26" s="446"/>
-      <c r="E26" s="447"/>
-      <c r="F26" s="447"/>
-      <c r="G26" s="452"/>
-      <c r="H26" s="449"/>
-      <c r="I26" s="450"/>
-      <c r="J26" s="439"/>
-      <c r="K26" s="439"/>
+      <c r="A26" s="442"/>
+      <c r="B26" s="443"/>
+      <c r="C26" s="443"/>
+      <c r="D26" s="443"/>
+      <c r="E26" s="444"/>
+      <c r="F26" s="444"/>
+      <c r="G26" s="449"/>
+      <c r="H26" s="446"/>
+      <c r="I26" s="447"/>
+      <c r="J26" s="436"/>
+      <c r="K26" s="436"/>
       <c r="L26" s="393"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="445"/>
-      <c r="B27" s="446"/>
-      <c r="C27" s="446"/>
-      <c r="D27" s="446"/>
-      <c r="E27" s="449"/>
-      <c r="F27" s="447"/>
-      <c r="G27" s="452"/>
-      <c r="H27" s="449"/>
-      <c r="I27" s="450"/>
-      <c r="J27" s="439"/>
-      <c r="K27" s="439"/>
+      <c r="A27" s="442"/>
+      <c r="B27" s="443"/>
+      <c r="C27" s="443"/>
+      <c r="D27" s="443"/>
+      <c r="E27" s="446"/>
+      <c r="F27" s="444"/>
+      <c r="G27" s="449"/>
+      <c r="H27" s="446"/>
+      <c r="I27" s="447"/>
+      <c r="J27" s="436"/>
+      <c r="K27" s="436"/>
       <c r="L27" s="393"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="445"/>
-      <c r="B28" s="446"/>
-      <c r="C28" s="446"/>
-      <c r="D28" s="446"/>
-      <c r="E28" s="449"/>
-      <c r="F28" s="447"/>
-      <c r="G28" s="452"/>
-      <c r="H28" s="449"/>
-      <c r="I28" s="450"/>
-      <c r="J28" s="439"/>
-      <c r="K28" s="439"/>
+      <c r="A28" s="442"/>
+      <c r="B28" s="443"/>
+      <c r="C28" s="443"/>
+      <c r="D28" s="443"/>
+      <c r="E28" s="446"/>
+      <c r="F28" s="444"/>
+      <c r="G28" s="449"/>
+      <c r="H28" s="446"/>
+      <c r="I28" s="447"/>
+      <c r="J28" s="436"/>
+      <c r="K28" s="436"/>
       <c r="L28" s="393"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="445"/>
-      <c r="B29" s="446"/>
-      <c r="C29" s="446"/>
+      <c r="A29" s="442"/>
+      <c r="B29" s="443"/>
+      <c r="C29" s="443"/>
       <c r="D29" s="385"/>
       <c r="E29" s="385"/>
-      <c r="F29" s="447"/>
-      <c r="G29" s="454"/>
-      <c r="H29" s="449"/>
-      <c r="I29" s="455"/>
-      <c r="J29" s="439"/>
-      <c r="K29" s="439"/>
+      <c r="F29" s="444"/>
+      <c r="G29" s="451"/>
+      <c r="H29" s="446"/>
+      <c r="I29" s="452"/>
+      <c r="J29" s="436"/>
+      <c r="K29" s="436"/>
       <c r="L29" s="393"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="445"/>
-      <c r="B30" s="446"/>
-      <c r="C30" s="446"/>
+      <c r="A30" s="442"/>
+      <c r="B30" s="443"/>
+      <c r="C30" s="443"/>
       <c r="D30" s="385"/>
       <c r="E30" s="385"/>
-      <c r="F30" s="447"/>
-      <c r="G30" s="452"/>
-      <c r="H30" s="449"/>
-      <c r="I30" s="455"/>
-      <c r="J30" s="439"/>
-      <c r="K30" s="439"/>
+      <c r="F30" s="444"/>
+      <c r="G30" s="449"/>
+      <c r="H30" s="446"/>
+      <c r="I30" s="452"/>
+      <c r="J30" s="436"/>
+      <c r="K30" s="436"/>
       <c r="L30" s="393"/>
     </row>
     <row r="31" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="456"/>
-      <c r="B31" s="457"/>
-      <c r="C31" s="457"/>
-      <c r="D31" s="458"/>
-      <c r="E31" s="458"/>
-      <c r="F31" s="459"/>
-      <c r="G31" s="460"/>
-      <c r="H31" s="461"/>
-      <c r="I31" s="462"/>
+      <c r="A31" s="453"/>
+      <c r="B31" s="454"/>
+      <c r="C31" s="454"/>
+      <c r="D31" s="455"/>
+      <c r="E31" s="455"/>
+      <c r="F31" s="456"/>
+      <c r="G31" s="457"/>
+      <c r="H31" s="458"/>
+      <c r="I31" s="459"/>
       <c r="J31" s="393"/>
       <c r="K31" s="393"/>
       <c r="L31" s="393"/>
     </row>
     <row r="32" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="463" t="s">
+      <c r="A32" s="460" t="s">
         <v>131</v>
       </c>
-      <c r="B32" s="464"/>
-      <c r="C32" s="464"/>
-      <c r="D32" s="465"/>
-      <c r="E32" s="466">
+      <c r="B32" s="461"/>
+      <c r="C32" s="461"/>
+      <c r="D32" s="462"/>
+      <c r="E32" s="463">
         <f>SUM(E21:E31)</f>
-        <v>948096</v>
-      </c>
-      <c r="F32" s="467">
+        <v>1017372</v>
+      </c>
+      <c r="F32" s="464">
         <f>SUM(F21:F31)</f>
-        <v>1031915</v>
-      </c>
-      <c r="G32" s="468">
+        <v>1082706</v>
+      </c>
+      <c r="G32" s="465">
         <f>SUM(G21:G31)</f>
-        <v>6.1423511904761904E-2</v>
-      </c>
-      <c r="H32" s="469">
+        <v>6.444678571428572E-2</v>
+      </c>
+      <c r="H32" s="466">
         <f>A21-F32</f>
-        <v>15768085</v>
-      </c>
-      <c r="I32" s="470">
+        <v>15717294</v>
+      </c>
+      <c r="I32" s="467">
         <f>1-G32</f>
-        <v>0.93857648809523808</v>
-      </c>
-      <c r="J32" s="471"/>
-      <c r="K32" s="471"/>
-      <c r="L32" s="471"/>
+        <v>0.93555321428571425</v>
+      </c>
+      <c r="J32" s="468"/>
+      <c r="K32" s="468"/>
+      <c r="L32" s="468"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="393"/>
@@ -9836,12 +9830,12 @@
       <c r="J35" s="393"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="505" t="s">
+      <c r="A36" s="503" t="s">
         <v>132</v>
       </c>
-      <c r="B36" s="505"/>
-      <c r="C36" s="505"/>
-      <c r="D36" s="505"/>
+      <c r="B36" s="503"/>
+      <c r="C36" s="503"/>
+      <c r="D36" s="503"/>
       <c r="E36" s="393"/>
       <c r="F36" s="393"/>
       <c r="G36" s="393"/>
@@ -9850,14 +9844,14 @@
       <c r="J36" s="393"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="506" t="s">
+      <c r="A37" s="504" t="s">
         <v>133</v>
       </c>
-      <c r="B37" s="506"/>
-      <c r="C37" s="472" t="s">
+      <c r="B37" s="504"/>
+      <c r="C37" s="469" t="s">
         <v>134</v>
       </c>
-      <c r="D37" s="472" t="s">
+      <c r="D37" s="469" t="s">
         <v>135</v>
       </c>
       <c r="E37" s="393"/>
@@ -9868,27 +9862,27 @@
       <c r="J37" s="393"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="507">
+      <c r="A38" s="505">
         <f>A21-F32</f>
-        <v>15768085</v>
-      </c>
-      <c r="B38" s="508"/>
-      <c r="C38" s="473">
+        <v>15717294</v>
+      </c>
+      <c r="B38" s="506"/>
+      <c r="C38" s="470">
         <f>1-G32</f>
-        <v>0.93857648809523808</v>
-      </c>
-      <c r="D38" s="474">
+        <v>0.93555321428571425</v>
+      </c>
+      <c r="D38" s="471">
         <f>(C38/0.8)*100</f>
-        <v>117.32206101190474</v>
-      </c>
-      <c r="E38" s="475" t="s">
+        <v>116.94415178571427</v>
+      </c>
+      <c r="E38" s="472" t="s">
         <v>136</v>
       </c>
-      <c r="F38" s="475"/>
-      <c r="G38" s="475"/>
-      <c r="H38" s="475"/>
-      <c r="I38" s="475"/>
-      <c r="J38" s="475"/>
+      <c r="F38" s="472"/>
+      <c r="G38" s="472"/>
+      <c r="H38" s="472"/>
+      <c r="I38" s="472"/>
+      <c r="J38" s="472"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="393"/>
@@ -9915,8 +9909,8 @@
     </row>
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="393"/>
-      <c r="B41" s="476"/>
-      <c r="C41" s="476"/>
+      <c r="B41" s="473"/>
+      <c r="C41" s="473"/>
       <c r="D41" s="393"/>
       <c r="E41" s="393"/>
       <c r="F41" s="393"/>
@@ -9926,113 +9920,113 @@
       <c r="J41" s="393"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="477"/>
-      <c r="B42" s="477"/>
-      <c r="C42" s="477"/>
-      <c r="D42" s="477"/>
-      <c r="E42" s="477"/>
-      <c r="F42" s="477"/>
-      <c r="G42" s="477"/>
-      <c r="H42" s="477"/>
-      <c r="I42" s="509"/>
-      <c r="J42" s="510"/>
+      <c r="A42" s="474"/>
+      <c r="B42" s="474"/>
+      <c r="C42" s="474"/>
+      <c r="D42" s="474"/>
+      <c r="E42" s="474"/>
+      <c r="F42" s="474"/>
+      <c r="G42" s="474"/>
+      <c r="H42" s="474"/>
+      <c r="I42" s="507"/>
+      <c r="J42" s="508"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="478"/>
-      <c r="B43" s="479"/>
-      <c r="C43" s="479"/>
+      <c r="A43" s="475"/>
+      <c r="B43" s="476"/>
+      <c r="C43" s="476"/>
       <c r="D43" s="393"/>
       <c r="E43" s="393"/>
-      <c r="F43" s="479"/>
+      <c r="F43" s="476"/>
       <c r="G43" s="423"/>
-      <c r="H43" s="479"/>
+      <c r="H43" s="476"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="478"/>
-      <c r="B44" s="479"/>
-      <c r="C44" s="479"/>
-      <c r="D44" s="479"/>
-      <c r="E44" s="479"/>
-      <c r="F44" s="479"/>
+      <c r="A44" s="475"/>
+      <c r="B44" s="476"/>
+      <c r="C44" s="476"/>
+      <c r="D44" s="476"/>
+      <c r="E44" s="476"/>
+      <c r="F44" s="476"/>
       <c r="G44" s="423"/>
-      <c r="H44" s="479"/>
+      <c r="H44" s="476"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="478"/>
-      <c r="B45" s="479"/>
-      <c r="C45" s="479"/>
+      <c r="A45" s="475"/>
+      <c r="B45" s="476"/>
+      <c r="C45" s="476"/>
       <c r="D45" s="393"/>
       <c r="E45" s="393"/>
-      <c r="F45" s="479"/>
+      <c r="F45" s="476"/>
       <c r="G45" s="423"/>
-      <c r="H45" s="479"/>
+      <c r="H45" s="476"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="478"/>
-      <c r="B46" s="479"/>
-      <c r="C46" s="479"/>
-      <c r="D46" s="479"/>
-      <c r="E46" s="479"/>
-      <c r="F46" s="479"/>
+      <c r="A46" s="475"/>
+      <c r="B46" s="476"/>
+      <c r="C46" s="476"/>
+      <c r="D46" s="476"/>
+      <c r="E46" s="476"/>
+      <c r="F46" s="476"/>
       <c r="G46" s="423"/>
-      <c r="H46" s="479"/>
+      <c r="H46" s="476"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="478"/>
-      <c r="B47" s="479"/>
-      <c r="C47" s="479"/>
+      <c r="A47" s="475"/>
+      <c r="B47" s="476"/>
+      <c r="C47" s="476"/>
       <c r="D47" s="393"/>
       <c r="E47" s="393"/>
-      <c r="F47" s="479"/>
+      <c r="F47" s="476"/>
       <c r="G47" s="423"/>
-      <c r="H47" s="479"/>
+      <c r="H47" s="476"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="478"/>
-      <c r="B48" s="479"/>
+      <c r="A48" s="475"/>
+      <c r="B48" s="476"/>
       <c r="C48" s="413"/>
-      <c r="D48" s="480"/>
-      <c r="E48" s="480"/>
+      <c r="D48" s="477"/>
+      <c r="E48" s="477"/>
       <c r="F48" s="413"/>
       <c r="G48" s="413"/>
       <c r="H48" s="413"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="478"/>
-      <c r="B49" s="479"/>
-      <c r="C49" s="479"/>
-      <c r="D49" s="479"/>
-      <c r="E49" s="479"/>
-      <c r="F49" s="479"/>
+      <c r="A49" s="475"/>
+      <c r="B49" s="476"/>
+      <c r="C49" s="476"/>
+      <c r="D49" s="476"/>
+      <c r="E49" s="476"/>
+      <c r="F49" s="476"/>
       <c r="G49" s="423"/>
-      <c r="H49" s="479"/>
+      <c r="H49" s="476"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="478"/>
-      <c r="B50" s="479"/>
-      <c r="C50" s="479"/>
-      <c r="D50" s="479"/>
-      <c r="E50" s="479"/>
-      <c r="F50" s="479"/>
+      <c r="A50" s="475"/>
+      <c r="B50" s="476"/>
+      <c r="C50" s="476"/>
+      <c r="D50" s="476"/>
+      <c r="E50" s="476"/>
+      <c r="F50" s="476"/>
       <c r="G50" s="423"/>
-      <c r="H50" s="479"/>
+      <c r="H50" s="476"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="478"/>
-      <c r="B51" s="479"/>
-      <c r="C51" s="479"/>
+      <c r="A51" s="475"/>
+      <c r="B51" s="476"/>
+      <c r="C51" s="476"/>
       <c r="D51" s="393"/>
       <c r="E51" s="393"/>
-      <c r="F51" s="479"/>
+      <c r="F51" s="476"/>
       <c r="G51" s="423"/>
-      <c r="H51" s="479"/>
+      <c r="H51" s="476"/>
     </row>
     <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="393"/>
-      <c r="B52" s="502"/>
-      <c r="C52" s="502"/>
-      <c r="D52" s="503"/>
-      <c r="E52" s="475"/>
+      <c r="B52" s="500"/>
+      <c r="C52" s="500"/>
+      <c r="D52" s="501"/>
+      <c r="E52" s="472"/>
       <c r="F52" s="393"/>
       <c r="G52" s="393"/>
       <c r="H52" s="393"/>
@@ -10040,31 +10034,31 @@
       <c r="J52" s="393"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="477"/>
-      <c r="B53" s="477"/>
-      <c r="C53" s="477"/>
-      <c r="D53" s="477"/>
-      <c r="E53" s="477"/>
-      <c r="F53" s="477"/>
-      <c r="G53" s="477"/>
-      <c r="H53" s="477"/>
-      <c r="I53" s="509"/>
-      <c r="J53" s="510"/>
+      <c r="A53" s="474"/>
+      <c r="B53" s="474"/>
+      <c r="C53" s="474"/>
+      <c r="D53" s="474"/>
+      <c r="E53" s="474"/>
+      <c r="F53" s="474"/>
+      <c r="G53" s="474"/>
+      <c r="H53" s="474"/>
+      <c r="I53" s="507"/>
+      <c r="J53" s="508"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="478"/>
+      <c r="A54" s="475"/>
       <c r="B54" s="393"/>
       <c r="C54" s="393"/>
       <c r="D54" s="393"/>
       <c r="E54" s="393"/>
       <c r="F54" s="423"/>
       <c r="G54" s="423"/>
-      <c r="H54" s="479"/>
-      <c r="I54" s="511"/>
-      <c r="J54" s="511"/>
+      <c r="H54" s="476"/>
+      <c r="I54" s="509"/>
+      <c r="J54" s="509"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="478"/>
+      <c r="A55" s="475"/>
       <c r="B55" s="393"/>
       <c r="C55" s="393"/>
       <c r="D55" s="413"/>
@@ -10072,8 +10066,8 @@
       <c r="F55" s="413"/>
       <c r="G55" s="413"/>
       <c r="H55" s="413"/>
-      <c r="I55" s="511"/>
-      <c r="J55" s="511"/>
+      <c r="I55" s="509"/>
+      <c r="J55" s="509"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="393"/>
@@ -10086,12 +10080,12 @@
       <c r="H56" s="393"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="509"/>
-      <c r="C61" s="510"/>
+      <c r="B61" s="507"/>
+      <c r="C61" s="508"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="509"/>
-      <c r="C68" s="510"/>
+      <c r="B68" s="507"/>
+      <c r="C68" s="508"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -10188,47 +10182,47 @@
       <c r="J8" s="317"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="513" t="s">
+      <c r="A11" s="511" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="513"/>
-      <c r="C11" s="513"/>
-      <c r="D11" s="513"/>
-      <c r="E11" s="513"/>
-      <c r="F11" s="513"/>
-      <c r="G11" s="513"/>
-      <c r="H11" s="513"/>
-      <c r="I11" s="513"/>
-      <c r="J11" s="513"/>
+      <c r="B11" s="511"/>
+      <c r="C11" s="511"/>
+      <c r="D11" s="511"/>
+      <c r="E11" s="511"/>
+      <c r="F11" s="511"/>
+      <c r="G11" s="511"/>
+      <c r="H11" s="511"/>
+      <c r="I11" s="511"/>
+      <c r="J11" s="511"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="512" t="s">
+      <c r="A12" s="510" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="512"/>
-      <c r="C12" s="512"/>
-      <c r="D12" s="512"/>
-      <c r="E12" s="512"/>
-      <c r="F12" s="512"/>
-      <c r="G12" s="512"/>
-      <c r="H12" s="512"/>
-      <c r="I12" s="512"/>
-      <c r="J12" s="512"/>
+      <c r="B12" s="510"/>
+      <c r="C12" s="510"/>
+      <c r="D12" s="510"/>
+      <c r="E12" s="510"/>
+      <c r="F12" s="510"/>
+      <c r="G12" s="510"/>
+      <c r="H12" s="510"/>
+      <c r="I12" s="510"/>
+      <c r="J12" s="510"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="514" t="str">
+      <c r="A13" s="512" t="str">
         <f>Данные!A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="B13" s="513"/>
-      <c r="C13" s="513"/>
-      <c r="D13" s="513"/>
-      <c r="E13" s="513"/>
-      <c r="F13" s="513"/>
-      <c r="G13" s="513"/>
-      <c r="H13" s="513"/>
-      <c r="I13" s="513"/>
-      <c r="J13" s="513"/>
+      <c r="B13" s="511"/>
+      <c r="C13" s="511"/>
+      <c r="D13" s="511"/>
+      <c r="E13" s="511"/>
+      <c r="F13" s="511"/>
+      <c r="G13" s="511"/>
+      <c r="H13" s="511"/>
+      <c r="I13" s="511"/>
+      <c r="J13" s="511"/>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="311" t="s">
@@ -10353,482 +10347,482 @@
       <c r="J21" s="312"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="518" t="s">
+      <c r="A22" s="516" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="518" t="s">
+      <c r="B22" s="516" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="518"/>
-      <c r="D22" s="518"/>
-      <c r="E22" s="518" t="s">
+      <c r="C22" s="516"/>
+      <c r="D22" s="516"/>
+      <c r="E22" s="516" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="518"/>
-      <c r="G22" s="536" t="s">
+      <c r="F22" s="516"/>
+      <c r="G22" s="534" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="518" t="s">
+      <c r="H22" s="516" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="518"/>
-      <c r="J22" s="518"/>
+      <c r="I22" s="516"/>
+      <c r="J22" s="516"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="518"/>
-      <c r="B23" s="518"/>
-      <c r="C23" s="518"/>
-      <c r="D23" s="518"/>
-      <c r="E23" s="518"/>
-      <c r="F23" s="518"/>
-      <c r="G23" s="536"/>
-      <c r="H23" s="518"/>
-      <c r="I23" s="518"/>
-      <c r="J23" s="518"/>
+      <c r="A23" s="516"/>
+      <c r="B23" s="516"/>
+      <c r="C23" s="516"/>
+      <c r="D23" s="516"/>
+      <c r="E23" s="516"/>
+      <c r="F23" s="516"/>
+      <c r="G23" s="534"/>
+      <c r="H23" s="516"/>
+      <c r="I23" s="516"/>
+      <c r="J23" s="516"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="519">
+      <c r="A24" s="517">
         <v>1</v>
       </c>
-      <c r="B24" s="533" t="s">
+      <c r="B24" s="531" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="534"/>
-      <c r="D24" s="535"/>
-      <c r="E24" s="521" t="str">
+      <c r="C24" s="532"/>
+      <c r="D24" s="533"/>
+      <c r="E24" s="519" t="str">
         <f>Данные!C14</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F24" s="522"/>
-      <c r="G24" s="525">
+      <c r="F24" s="520"/>
+      <c r="G24" s="523">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="H24" s="527"/>
-      <c r="I24" s="528"/>
-      <c r="J24" s="529"/>
+      <c r="H24" s="525"/>
+      <c r="I24" s="526"/>
+      <c r="J24" s="527"/>
     </row>
     <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="520"/>
-      <c r="B25" s="515" t="str">
+      <c r="A25" s="518"/>
+      <c r="B25" s="513" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C25" s="516"/>
-      <c r="D25" s="517"/>
-      <c r="E25" s="523"/>
-      <c r="F25" s="524"/>
-      <c r="G25" s="526"/>
-      <c r="H25" s="530"/>
-      <c r="I25" s="531"/>
-      <c r="J25" s="532"/>
+      <c r="C25" s="514"/>
+      <c r="D25" s="515"/>
+      <c r="E25" s="521"/>
+      <c r="F25" s="522"/>
+      <c r="G25" s="524"/>
+      <c r="H25" s="528"/>
+      <c r="I25" s="529"/>
+      <c r="J25" s="530"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="519">
+      <c r="A26" s="517">
         <v>1</v>
       </c>
-      <c r="B26" s="537" t="s">
+      <c r="B26" s="535" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="538"/>
-      <c r="D26" s="539"/>
-      <c r="E26" s="521" t="str">
+      <c r="C26" s="536"/>
+      <c r="D26" s="537"/>
+      <c r="E26" s="519" t="str">
         <f>Данные!C15</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F26" s="522"/>
-      <c r="G26" s="525">
+      <c r="F26" s="520"/>
+      <c r="G26" s="523">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="H26" s="527"/>
-      <c r="I26" s="528"/>
-      <c r="J26" s="529"/>
+      <c r="H26" s="525"/>
+      <c r="I26" s="526"/>
+      <c r="J26" s="527"/>
     </row>
     <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="520"/>
-      <c r="B27" s="515" t="str">
+      <c r="A27" s="518"/>
+      <c r="B27" s="513" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C27" s="516"/>
-      <c r="D27" s="517"/>
-      <c r="E27" s="523"/>
-      <c r="F27" s="524"/>
-      <c r="G27" s="526"/>
-      <c r="H27" s="530"/>
-      <c r="I27" s="531"/>
-      <c r="J27" s="532"/>
+      <c r="C27" s="514"/>
+      <c r="D27" s="515"/>
+      <c r="E27" s="521"/>
+      <c r="F27" s="522"/>
+      <c r="G27" s="524"/>
+      <c r="H27" s="528"/>
+      <c r="I27" s="529"/>
+      <c r="J27" s="530"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="519">
+      <c r="A28" s="517">
         <v>1</v>
       </c>
-      <c r="B28" s="537" t="s">
+      <c r="B28" s="535" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="538"/>
-      <c r="D28" s="539"/>
-      <c r="E28" s="521" t="str">
+      <c r="C28" s="536"/>
+      <c r="D28" s="537"/>
+      <c r="E28" s="519" t="str">
         <f>Данные!C16</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F28" s="522"/>
-      <c r="G28" s="525">
+      <c r="F28" s="520"/>
+      <c r="G28" s="523">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="H28" s="527"/>
-      <c r="I28" s="528"/>
-      <c r="J28" s="529"/>
+      <c r="H28" s="525"/>
+      <c r="I28" s="526"/>
+      <c r="J28" s="527"/>
     </row>
     <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="520"/>
-      <c r="B29" s="515" t="str">
+      <c r="A29" s="518"/>
+      <c r="B29" s="513" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C29" s="516"/>
-      <c r="D29" s="517"/>
-      <c r="E29" s="523"/>
-      <c r="F29" s="524"/>
-      <c r="G29" s="526"/>
-      <c r="H29" s="530"/>
-      <c r="I29" s="531"/>
-      <c r="J29" s="532"/>
+      <c r="C29" s="514"/>
+      <c r="D29" s="515"/>
+      <c r="E29" s="521"/>
+      <c r="F29" s="522"/>
+      <c r="G29" s="524"/>
+      <c r="H29" s="528"/>
+      <c r="I29" s="529"/>
+      <c r="J29" s="530"/>
     </row>
     <row r="30" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="519">
+      <c r="A30" s="517">
         <v>1</v>
       </c>
-      <c r="B30" s="537" t="s">
+      <c r="B30" s="535" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="538"/>
-      <c r="D30" s="539"/>
-      <c r="E30" s="521" t="str">
+      <c r="C30" s="536"/>
+      <c r="D30" s="537"/>
+      <c r="E30" s="519" t="str">
         <f>Данные!C17</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F30" s="522"/>
-      <c r="G30" s="525">
+      <c r="F30" s="520"/>
+      <c r="G30" s="523">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="H30" s="527"/>
-      <c r="I30" s="528"/>
-      <c r="J30" s="529"/>
+      <c r="H30" s="525"/>
+      <c r="I30" s="526"/>
+      <c r="J30" s="527"/>
     </row>
     <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="540"/>
-      <c r="B31" s="515" t="str">
+      <c r="A31" s="538"/>
+      <c r="B31" s="513" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C31" s="516"/>
-      <c r="D31" s="517"/>
-      <c r="E31" s="541"/>
-      <c r="F31" s="524"/>
-      <c r="G31" s="526"/>
-      <c r="H31" s="530"/>
-      <c r="I31" s="531"/>
-      <c r="J31" s="532"/>
+      <c r="C31" s="514"/>
+      <c r="D31" s="515"/>
+      <c r="E31" s="539"/>
+      <c r="F31" s="522"/>
+      <c r="G31" s="524"/>
+      <c r="H31" s="528"/>
+      <c r="I31" s="529"/>
+      <c r="J31" s="530"/>
     </row>
     <row r="32" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="519">
+      <c r="A32" s="517">
         <v>1</v>
       </c>
-      <c r="B32" s="537" t="s">
+      <c r="B32" s="535" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="538"/>
-      <c r="D32" s="539"/>
-      <c r="E32" s="521" t="str">
+      <c r="C32" s="536"/>
+      <c r="D32" s="537"/>
+      <c r="E32" s="519" t="str">
         <f>Данные!C18</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F32" s="522"/>
-      <c r="G32" s="525">
+      <c r="F32" s="520"/>
+      <c r="G32" s="523">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="H32" s="527"/>
-      <c r="I32" s="528"/>
-      <c r="J32" s="529"/>
+      <c r="H32" s="525"/>
+      <c r="I32" s="526"/>
+      <c r="J32" s="527"/>
     </row>
     <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="540"/>
-      <c r="B33" s="515" t="str">
+      <c r="A33" s="538"/>
+      <c r="B33" s="513" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C33" s="516"/>
-      <c r="D33" s="517"/>
-      <c r="E33" s="541"/>
-      <c r="F33" s="524"/>
-      <c r="G33" s="526"/>
-      <c r="H33" s="530"/>
-      <c r="I33" s="531"/>
-      <c r="J33" s="532"/>
+      <c r="C33" s="514"/>
+      <c r="D33" s="515"/>
+      <c r="E33" s="539"/>
+      <c r="F33" s="522"/>
+      <c r="G33" s="524"/>
+      <c r="H33" s="528"/>
+      <c r="I33" s="529"/>
+      <c r="J33" s="530"/>
     </row>
     <row r="34" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="519">
+      <c r="A34" s="517">
         <v>1</v>
       </c>
-      <c r="B34" s="537" t="s">
+      <c r="B34" s="535" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="538"/>
-      <c r="D34" s="539"/>
-      <c r="E34" s="521" t="str">
+      <c r="C34" s="536"/>
+      <c r="D34" s="537"/>
+      <c r="E34" s="519" t="str">
         <f>Данные!C19</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F34" s="522"/>
-      <c r="G34" s="525">
+      <c r="F34" s="520"/>
+      <c r="G34" s="523">
         <f>Данные!B19</f>
         <v>60</v>
       </c>
-      <c r="H34" s="527"/>
-      <c r="I34" s="528"/>
-      <c r="J34" s="529"/>
+      <c r="H34" s="525"/>
+      <c r="I34" s="526"/>
+      <c r="J34" s="527"/>
     </row>
     <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="540"/>
-      <c r="B35" s="515" t="str">
+      <c r="A35" s="538"/>
+      <c r="B35" s="513" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C35" s="516"/>
-      <c r="D35" s="517"/>
-      <c r="E35" s="541"/>
-      <c r="F35" s="524"/>
-      <c r="G35" s="526"/>
-      <c r="H35" s="530"/>
-      <c r="I35" s="531"/>
-      <c r="J35" s="532"/>
+      <c r="C35" s="514"/>
+      <c r="D35" s="515"/>
+      <c r="E35" s="539"/>
+      <c r="F35" s="522"/>
+      <c r="G35" s="524"/>
+      <c r="H35" s="528"/>
+      <c r="I35" s="529"/>
+      <c r="J35" s="530"/>
     </row>
     <row r="36" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="519">
+      <c r="A36" s="517">
         <v>1</v>
       </c>
-      <c r="B36" s="537" t="s">
+      <c r="B36" s="535" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="538"/>
-      <c r="D36" s="539"/>
-      <c r="E36" s="521" t="str">
+      <c r="C36" s="536"/>
+      <c r="D36" s="537"/>
+      <c r="E36" s="519" t="str">
         <f>Данные!C20</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F36" s="522"/>
-      <c r="G36" s="525">
+      <c r="F36" s="520"/>
+      <c r="G36" s="523">
         <f>Данные!B20</f>
         <v>50</v>
       </c>
-      <c r="H36" s="527"/>
-      <c r="I36" s="528"/>
-      <c r="J36" s="529"/>
+      <c r="H36" s="525"/>
+      <c r="I36" s="526"/>
+      <c r="J36" s="527"/>
     </row>
     <row r="37" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="540"/>
-      <c r="B37" s="515" t="str">
+      <c r="A37" s="538"/>
+      <c r="B37" s="513" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C37" s="516"/>
-      <c r="D37" s="517"/>
-      <c r="E37" s="541"/>
-      <c r="F37" s="524"/>
-      <c r="G37" s="526"/>
-      <c r="H37" s="530"/>
-      <c r="I37" s="531"/>
-      <c r="J37" s="532"/>
+      <c r="C37" s="514"/>
+      <c r="D37" s="515"/>
+      <c r="E37" s="539"/>
+      <c r="F37" s="522"/>
+      <c r="G37" s="524"/>
+      <c r="H37" s="528"/>
+      <c r="I37" s="529"/>
+      <c r="J37" s="530"/>
     </row>
     <row r="38" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="519">
+      <c r="A38" s="517">
         <v>1</v>
       </c>
-      <c r="B38" s="537" t="s">
+      <c r="B38" s="535" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="538"/>
-      <c r="D38" s="539"/>
-      <c r="E38" s="521" t="str">
+      <c r="C38" s="536"/>
+      <c r="D38" s="537"/>
+      <c r="E38" s="519" t="str">
         <f>Данные!C21</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F38" s="522"/>
-      <c r="G38" s="525">
+      <c r="F38" s="520"/>
+      <c r="G38" s="523">
         <f>Данные!B21</f>
         <v>24</v>
       </c>
-      <c r="H38" s="527"/>
-      <c r="I38" s="528"/>
-      <c r="J38" s="529"/>
+      <c r="H38" s="525"/>
+      <c r="I38" s="526"/>
+      <c r="J38" s="527"/>
     </row>
     <row r="39" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="540"/>
-      <c r="B39" s="515" t="str">
+      <c r="A39" s="538"/>
+      <c r="B39" s="513" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C39" s="516"/>
-      <c r="D39" s="517"/>
-      <c r="E39" s="541"/>
-      <c r="F39" s="524"/>
-      <c r="G39" s="526"/>
-      <c r="H39" s="530"/>
-      <c r="I39" s="531"/>
-      <c r="J39" s="532"/>
+      <c r="C39" s="514"/>
+      <c r="D39" s="515"/>
+      <c r="E39" s="539"/>
+      <c r="F39" s="522"/>
+      <c r="G39" s="524"/>
+      <c r="H39" s="528"/>
+      <c r="I39" s="529"/>
+      <c r="J39" s="530"/>
     </row>
     <row r="40" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="519">
+      <c r="A40" s="517">
         <v>1</v>
       </c>
-      <c r="B40" s="537" t="s">
+      <c r="B40" s="535" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="538"/>
-      <c r="D40" s="539"/>
-      <c r="E40" s="521" t="str">
+      <c r="C40" s="536"/>
+      <c r="D40" s="537"/>
+      <c r="E40" s="519" t="str">
         <f>Данные!C23</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F40" s="522"/>
-      <c r="G40" s="525">
+      <c r="F40" s="520"/>
+      <c r="G40" s="523">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="H40" s="527"/>
-      <c r="I40" s="528"/>
-      <c r="J40" s="529"/>
+      <c r="H40" s="525"/>
+      <c r="I40" s="526"/>
+      <c r="J40" s="527"/>
     </row>
     <row r="41" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="540"/>
-      <c r="B41" s="515" t="str">
+      <c r="A41" s="538"/>
+      <c r="B41" s="513" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C41" s="516"/>
-      <c r="D41" s="517"/>
-      <c r="E41" s="541"/>
-      <c r="F41" s="524"/>
-      <c r="G41" s="526"/>
-      <c r="H41" s="530"/>
-      <c r="I41" s="531"/>
-      <c r="J41" s="532"/>
+      <c r="C41" s="514"/>
+      <c r="D41" s="515"/>
+      <c r="E41" s="539"/>
+      <c r="F41" s="522"/>
+      <c r="G41" s="524"/>
+      <c r="H41" s="528"/>
+      <c r="I41" s="529"/>
+      <c r="J41" s="530"/>
     </row>
     <row r="42" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="519">
+      <c r="A42" s="517">
         <v>1</v>
       </c>
-      <c r="B42" s="537" t="s">
+      <c r="B42" s="535" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="538"/>
-      <c r="D42" s="539"/>
-      <c r="E42" s="521" t="str">
+      <c r="C42" s="536"/>
+      <c r="D42" s="537"/>
+      <c r="E42" s="519" t="str">
         <f>Данные!C26</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F42" s="522"/>
-      <c r="G42" s="525">
+      <c r="F42" s="520"/>
+      <c r="G42" s="523">
         <f>Данные!B26</f>
         <v>22</v>
       </c>
-      <c r="H42" s="527"/>
-      <c r="I42" s="528"/>
-      <c r="J42" s="529"/>
+      <c r="H42" s="525"/>
+      <c r="I42" s="526"/>
+      <c r="J42" s="527"/>
     </row>
     <row r="43" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="540"/>
-      <c r="B43" s="515" t="str">
+      <c r="A43" s="538"/>
+      <c r="B43" s="513" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C43" s="516"/>
-      <c r="D43" s="517"/>
-      <c r="E43" s="541"/>
-      <c r="F43" s="524"/>
-      <c r="G43" s="526"/>
-      <c r="H43" s="530"/>
-      <c r="I43" s="531"/>
-      <c r="J43" s="532"/>
+      <c r="C43" s="514"/>
+      <c r="D43" s="515"/>
+      <c r="E43" s="539"/>
+      <c r="F43" s="522"/>
+      <c r="G43" s="524"/>
+      <c r="H43" s="528"/>
+      <c r="I43" s="529"/>
+      <c r="J43" s="530"/>
     </row>
     <row r="44" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="519">
+      <c r="A44" s="517">
         <v>1</v>
       </c>
-      <c r="B44" s="537" t="s">
+      <c r="B44" s="535" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="538"/>
-      <c r="D44" s="539"/>
-      <c r="E44" s="521">
+      <c r="C44" s="536"/>
+      <c r="D44" s="537"/>
+      <c r="E44" s="519">
         <f>Данные!C27</f>
         <v>0</v>
       </c>
-      <c r="F44" s="522"/>
-      <c r="G44" s="525">
+      <c r="F44" s="520"/>
+      <c r="G44" s="523">
         <f>Данные!B27</f>
         <v>22</v>
       </c>
-      <c r="H44" s="527"/>
-      <c r="I44" s="528"/>
-      <c r="J44" s="529"/>
+      <c r="H44" s="525"/>
+      <c r="I44" s="526"/>
+      <c r="J44" s="527"/>
     </row>
     <row r="45" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="540"/>
-      <c r="B45" s="515" t="str">
+      <c r="A45" s="538"/>
+      <c r="B45" s="513" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C45" s="516"/>
-      <c r="D45" s="517"/>
-      <c r="E45" s="541"/>
-      <c r="F45" s="524"/>
-      <c r="G45" s="526"/>
-      <c r="H45" s="530"/>
-      <c r="I45" s="531"/>
-      <c r="J45" s="532"/>
+      <c r="C45" s="514"/>
+      <c r="D45" s="515"/>
+      <c r="E45" s="539"/>
+      <c r="F45" s="522"/>
+      <c r="G45" s="524"/>
+      <c r="H45" s="528"/>
+      <c r="I45" s="529"/>
+      <c r="J45" s="530"/>
     </row>
     <row r="46" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="519">
+      <c r="A46" s="517">
         <v>1</v>
       </c>
-      <c r="B46" s="537" t="s">
+      <c r="B46" s="535" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="538"/>
-      <c r="D46" s="539"/>
-      <c r="E46" s="521">
+      <c r="C46" s="536"/>
+      <c r="D46" s="537"/>
+      <c r="E46" s="519">
         <f>Данные!C24</f>
         <v>0</v>
       </c>
-      <c r="F46" s="522"/>
-      <c r="G46" s="525" t="str">
+      <c r="F46" s="520"/>
+      <c r="G46" s="523" t="str">
         <f>Данные!B24</f>
         <v>-</v>
       </c>
-      <c r="H46" s="527"/>
-      <c r="I46" s="528"/>
-      <c r="J46" s="529"/>
+      <c r="H46" s="525"/>
+      <c r="I46" s="526"/>
+      <c r="J46" s="527"/>
     </row>
     <row r="47" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="540"/>
-      <c r="B47" s="515" t="str">
+      <c r="A47" s="538"/>
+      <c r="B47" s="513" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C47" s="516"/>
-      <c r="D47" s="517"/>
-      <c r="E47" s="541"/>
-      <c r="F47" s="524"/>
-      <c r="G47" s="526"/>
-      <c r="H47" s="530"/>
-      <c r="I47" s="531"/>
-      <c r="J47" s="532"/>
+      <c r="C47" s="514"/>
+      <c r="D47" s="515"/>
+      <c r="E47" s="539"/>
+      <c r="F47" s="522"/>
+      <c r="G47" s="524"/>
+      <c r="H47" s="528"/>
+      <c r="I47" s="529"/>
+      <c r="J47" s="530"/>
     </row>
     <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="311"/>
@@ -11091,47 +11085,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="560"/>
-      <c r="C2" s="561"/>
-      <c r="D2" s="562"/>
-      <c r="E2" s="569" t="s">
+      <c r="B2" s="558"/>
+      <c r="C2" s="559"/>
+      <c r="D2" s="560"/>
+      <c r="E2" s="567" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="570"/>
-      <c r="G2" s="570"/>
-      <c r="H2" s="571"/>
-      <c r="I2" s="576" t="s">
+      <c r="F2" s="568"/>
+      <c r="G2" s="568"/>
+      <c r="H2" s="569"/>
+      <c r="I2" s="574" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="577"/>
-      <c r="K2" s="580">
+      <c r="J2" s="575"/>
+      <c r="K2" s="578">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="581"/>
+      <c r="L2" s="579"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="572"/>
-      <c r="Q2" s="572"/>
+      <c r="P2" s="570"/>
+      <c r="Q2" s="570"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="563"/>
-      <c r="C3" s="564"/>
-      <c r="D3" s="565"/>
-      <c r="E3" s="573" t="s">
+      <c r="B3" s="561"/>
+      <c r="C3" s="562"/>
+      <c r="D3" s="563"/>
+      <c r="E3" s="571" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="574"/>
-      <c r="G3" s="574"/>
-      <c r="H3" s="575"/>
-      <c r="I3" s="578"/>
-      <c r="J3" s="579"/>
-      <c r="K3" s="582"/>
-      <c r="L3" s="583"/>
+      <c r="F3" s="572"/>
+      <c r="G3" s="572"/>
+      <c r="H3" s="573"/>
+      <c r="I3" s="576"/>
+      <c r="J3" s="577"/>
+      <c r="K3" s="580"/>
+      <c r="L3" s="581"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11142,9 +11136,9 @@
     </row>
     <row r="4" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="566"/>
-      <c r="C4" s="567"/>
-      <c r="D4" s="568"/>
+      <c r="B4" s="564"/>
+      <c r="C4" s="565"/>
+      <c r="D4" s="566"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11163,22 +11157,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="545" t="s">
+      <c r="B5" s="543" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="546"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="544"/>
+      <c r="D5" s="492" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="547"/>
-      <c r="J5" s="548"/>
-      <c r="K5" s="495"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="493"/>
+      <c r="F5" s="493"/>
+      <c r="G5" s="493"/>
+      <c r="H5" s="494"/>
+      <c r="I5" s="545"/>
+      <c r="J5" s="546"/>
+      <c r="K5" s="493"/>
+      <c r="L5" s="494"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11189,22 +11183,22 @@
     </row>
     <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="545" t="s">
+      <c r="B6" s="543" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="549"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="547"/>
+      <c r="D6" s="486" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="550"/>
-      <c r="F6" s="550"/>
-      <c r="G6" s="550"/>
-      <c r="H6" s="551"/>
-      <c r="I6" s="547"/>
-      <c r="J6" s="548"/>
-      <c r="K6" s="495"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="548"/>
+      <c r="F6" s="548"/>
+      <c r="G6" s="548"/>
+      <c r="H6" s="549"/>
+      <c r="I6" s="545"/>
+      <c r="J6" s="546"/>
+      <c r="K6" s="493"/>
+      <c r="L6" s="494"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11215,27 +11209,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="552" t="s">
+      <c r="B7" s="550" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="553"/>
-      <c r="D7" s="497">
+      <c r="C7" s="551"/>
+      <c r="D7" s="495">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="554"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="554"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="552" t="s">
+      <c r="E7" s="552"/>
+      <c r="F7" s="552"/>
+      <c r="G7" s="552"/>
+      <c r="H7" s="553"/>
+      <c r="I7" s="550" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="556"/>
-      <c r="K7" s="485">
+      <c r="J7" s="554"/>
+      <c r="K7" s="483">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="484"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -11729,12 +11723,12 @@
     </row>
     <row r="23" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="78"/>
-      <c r="B23" s="557" t="s">
+      <c r="B23" s="555" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="558"/>
-      <c r="D23" s="558"/>
-      <c r="E23" s="559"/>
+      <c r="C23" s="556"/>
+      <c r="D23" s="556"/>
+      <c r="E23" s="557"/>
       <c r="F23" s="116" t="s">
         <v>16</v>
       </c>
@@ -11756,12 +11750,12 @@
     </row>
     <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="78"/>
-      <c r="B24" s="542" t="s">
+      <c r="B24" s="540" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="543"/>
-      <c r="D24" s="543"/>
-      <c r="E24" s="544"/>
+      <c r="C24" s="541"/>
+      <c r="D24" s="541"/>
+      <c r="E24" s="542"/>
       <c r="F24" s="116" t="s">
         <v>16</v>
       </c>
@@ -11890,50 +11884,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="591">
+      <c r="B2" s="589">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="C2" s="590"/>
+      <c r="D2" s="591"/>
+      <c r="E2" s="598" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="599"/>
+      <c r="G2" s="599"/>
+      <c r="H2" s="600"/>
+      <c r="I2" s="604" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="610">
+      <c r="J2" s="605"/>
+      <c r="K2" s="608">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="611"/>
+      <c r="L2" s="609"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="572"/>
-      <c r="Q2" s="572"/>
+      <c r="P2" s="570"/>
+      <c r="Q2" s="570"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="592"/>
+      <c r="C3" s="593"/>
+      <c r="D3" s="594"/>
+      <c r="E3" s="601" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="612"/>
-      <c r="L3" s="613"/>
+      <c r="F3" s="602"/>
+      <c r="G3" s="602"/>
+      <c r="H3" s="603"/>
+      <c r="I3" s="606"/>
+      <c r="J3" s="607"/>
+      <c r="K3" s="610"/>
+      <c r="L3" s="611"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11944,9 +11938,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="595"/>
+      <c r="C4" s="596"/>
+      <c r="D4" s="597"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -11965,22 +11959,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="545" t="s">
+      <c r="B5" s="543" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="584"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="582"/>
+      <c r="D5" s="492" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="585"/>
-      <c r="J5" s="586"/>
-      <c r="K5" s="587"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="493"/>
+      <c r="F5" s="493"/>
+      <c r="G5" s="493"/>
+      <c r="H5" s="494"/>
+      <c r="I5" s="583"/>
+      <c r="J5" s="584"/>
+      <c r="K5" s="585"/>
+      <c r="L5" s="494"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11991,22 +11985,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="545" t="s">
+      <c r="B6" s="543" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="584"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="582"/>
+      <c r="D6" s="486" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="550"/>
-      <c r="F6" s="550"/>
-      <c r="G6" s="550"/>
-      <c r="H6" s="551"/>
-      <c r="I6" s="585"/>
-      <c r="J6" s="586"/>
-      <c r="K6" s="587"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="548"/>
+      <c r="F6" s="548"/>
+      <c r="G6" s="548"/>
+      <c r="H6" s="549"/>
+      <c r="I6" s="583"/>
+      <c r="J6" s="584"/>
+      <c r="K6" s="585"/>
+      <c r="L6" s="494"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12017,27 +12011,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="552" t="s">
+      <c r="B7" s="550" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="588"/>
-      <c r="D7" s="497">
+      <c r="C7" s="586"/>
+      <c r="D7" s="495">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="554"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="554"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="589" t="s">
+      <c r="E7" s="552"/>
+      <c r="F7" s="552"/>
+      <c r="G7" s="552"/>
+      <c r="H7" s="553"/>
+      <c r="I7" s="587" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="588"/>
-      <c r="K7" s="485">
+      <c r="J7" s="586"/>
+      <c r="K7" s="483">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="484"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12234,13 +12228,13 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78"/>
-      <c r="B14" s="557" t="s">
+      <c r="B14" s="555" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="558"/>
-      <c r="D14" s="558"/>
-      <c r="E14" s="558"/>
-      <c r="F14" s="590"/>
+      <c r="C14" s="556"/>
+      <c r="D14" s="556"/>
+      <c r="E14" s="556"/>
+      <c r="F14" s="588"/>
       <c r="G14" s="56" t="s">
         <v>77</v>
       </c>
@@ -12259,12 +12253,12 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="78"/>
-      <c r="B15" s="542" t="s">
+      <c r="B15" s="540" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="543"/>
-      <c r="D15" s="543"/>
-      <c r="E15" s="544"/>
+      <c r="C15" s="541"/>
+      <c r="D15" s="541"/>
+      <c r="E15" s="542"/>
       <c r="F15" s="116" t="s">
         <v>16</v>
       </c>
@@ -12408,47 +12402,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="560"/>
-      <c r="C2" s="561"/>
-      <c r="D2" s="562"/>
-      <c r="E2" s="569" t="s">
+      <c r="B2" s="558"/>
+      <c r="C2" s="559"/>
+      <c r="D2" s="560"/>
+      <c r="E2" s="567" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="570"/>
-      <c r="G2" s="570"/>
-      <c r="H2" s="571"/>
-      <c r="I2" s="576" t="s">
+      <c r="F2" s="568"/>
+      <c r="G2" s="568"/>
+      <c r="H2" s="569"/>
+      <c r="I2" s="574" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="577"/>
-      <c r="K2" s="580">
+      <c r="J2" s="575"/>
+      <c r="K2" s="578">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="L2" s="581"/>
+      <c r="L2" s="579"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="572"/>
-      <c r="Q2" s="572"/>
+      <c r="P2" s="570"/>
+      <c r="Q2" s="570"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="563"/>
-      <c r="C3" s="564"/>
-      <c r="D3" s="565"/>
-      <c r="E3" s="573" t="s">
+      <c r="B3" s="561"/>
+      <c r="C3" s="562"/>
+      <c r="D3" s="563"/>
+      <c r="E3" s="571" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="574"/>
-      <c r="G3" s="574"/>
-      <c r="H3" s="575"/>
-      <c r="I3" s="578"/>
-      <c r="J3" s="579"/>
-      <c r="K3" s="582"/>
-      <c r="L3" s="583"/>
+      <c r="F3" s="572"/>
+      <c r="G3" s="572"/>
+      <c r="H3" s="573"/>
+      <c r="I3" s="576"/>
+      <c r="J3" s="577"/>
+      <c r="K3" s="580"/>
+      <c r="L3" s="581"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12459,9 +12453,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="566"/>
-      <c r="C4" s="567"/>
-      <c r="D4" s="568"/>
+      <c r="B4" s="564"/>
+      <c r="C4" s="565"/>
+      <c r="D4" s="566"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12480,22 +12474,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="545" t="s">
+      <c r="B5" s="543" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="546"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="544"/>
+      <c r="D5" s="492" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="547"/>
-      <c r="J5" s="548"/>
-      <c r="K5" s="495"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="493"/>
+      <c r="F5" s="493"/>
+      <c r="G5" s="493"/>
+      <c r="H5" s="494"/>
+      <c r="I5" s="545"/>
+      <c r="J5" s="546"/>
+      <c r="K5" s="493"/>
+      <c r="L5" s="494"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12506,22 +12500,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="545" t="s">
+      <c r="B6" s="543" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="549"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="547"/>
+      <c r="D6" s="486" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="550"/>
-      <c r="F6" s="550"/>
-      <c r="G6" s="550"/>
-      <c r="H6" s="551"/>
-      <c r="I6" s="547"/>
-      <c r="J6" s="548"/>
-      <c r="K6" s="495"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="548"/>
+      <c r="F6" s="548"/>
+      <c r="G6" s="548"/>
+      <c r="H6" s="549"/>
+      <c r="I6" s="545"/>
+      <c r="J6" s="546"/>
+      <c r="K6" s="493"/>
+      <c r="L6" s="494"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12532,27 +12526,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="552" t="s">
+      <c r="B7" s="550" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="553"/>
-      <c r="D7" s="497">
+      <c r="C7" s="551"/>
+      <c r="D7" s="495">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="554"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="554"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="552" t="s">
+      <c r="E7" s="552"/>
+      <c r="F7" s="552"/>
+      <c r="G7" s="552"/>
+      <c r="H7" s="553"/>
+      <c r="I7" s="550" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="556"/>
-      <c r="K7" s="485">
+      <c r="J7" s="554"/>
+      <c r="K7" s="483">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="484"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -13035,6 +13029,10 @@
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="B2:D4"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
@@ -13049,10 +13047,6 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="B2:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -13120,47 +13114,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="560"/>
-      <c r="C2" s="561"/>
-      <c r="D2" s="562"/>
-      <c r="E2" s="569" t="s">
+      <c r="B2" s="558"/>
+      <c r="C2" s="559"/>
+      <c r="D2" s="560"/>
+      <c r="E2" s="567" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="570"/>
-      <c r="G2" s="570"/>
-      <c r="H2" s="571"/>
-      <c r="I2" s="576" t="s">
+      <c r="F2" s="568"/>
+      <c r="G2" s="568"/>
+      <c r="H2" s="569"/>
+      <c r="I2" s="574" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="577"/>
-      <c r="K2" s="580">
+      <c r="J2" s="575"/>
+      <c r="K2" s="578">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="L2" s="581"/>
+      <c r="L2" s="579"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="614"/>
-      <c r="Q2" s="614"/>
+      <c r="P2" s="612"/>
+      <c r="Q2" s="612"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
-      <c r="B3" s="563"/>
-      <c r="C3" s="564"/>
-      <c r="D3" s="565"/>
-      <c r="E3" s="573" t="s">
+      <c r="B3" s="561"/>
+      <c r="C3" s="562"/>
+      <c r="D3" s="563"/>
+      <c r="E3" s="571" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="574"/>
-      <c r="G3" s="574"/>
-      <c r="H3" s="575"/>
-      <c r="I3" s="578"/>
-      <c r="J3" s="579"/>
-      <c r="K3" s="582"/>
-      <c r="L3" s="583"/>
+      <c r="F3" s="572"/>
+      <c r="G3" s="572"/>
+      <c r="H3" s="573"/>
+      <c r="I3" s="576"/>
+      <c r="J3" s="577"/>
+      <c r="K3" s="580"/>
+      <c r="L3" s="581"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13171,9 +13165,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="566"/>
-      <c r="C4" s="567"/>
-      <c r="D4" s="568"/>
+      <c r="B4" s="564"/>
+      <c r="C4" s="565"/>
+      <c r="D4" s="566"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13192,22 +13186,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="545" t="s">
+      <c r="B5" s="543" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="546"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="544"/>
+      <c r="D5" s="492" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="547"/>
-      <c r="J5" s="548"/>
-      <c r="K5" s="495"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="493"/>
+      <c r="F5" s="493"/>
+      <c r="G5" s="493"/>
+      <c r="H5" s="494"/>
+      <c r="I5" s="545"/>
+      <c r="J5" s="546"/>
+      <c r="K5" s="493"/>
+      <c r="L5" s="494"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13218,22 +13212,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="545" t="s">
+      <c r="B6" s="543" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="549"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="547"/>
+      <c r="D6" s="486" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="550"/>
-      <c r="F6" s="550"/>
-      <c r="G6" s="550"/>
-      <c r="H6" s="551"/>
-      <c r="I6" s="547"/>
-      <c r="J6" s="548"/>
-      <c r="K6" s="495"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="548"/>
+      <c r="F6" s="548"/>
+      <c r="G6" s="548"/>
+      <c r="H6" s="549"/>
+      <c r="I6" s="545"/>
+      <c r="J6" s="546"/>
+      <c r="K6" s="493"/>
+      <c r="L6" s="494"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13244,27 +13238,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="552" t="s">
+      <c r="B7" s="550" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="553"/>
-      <c r="D7" s="497">
+      <c r="C7" s="551"/>
+      <c r="D7" s="495">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="554"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="554"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="552" t="s">
+      <c r="E7" s="552"/>
+      <c r="F7" s="552"/>
+      <c r="G7" s="552"/>
+      <c r="H7" s="553"/>
+      <c r="I7" s="550" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="556"/>
-      <c r="K7" s="485">
+      <c r="J7" s="554"/>
+      <c r="K7" s="483">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="484"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -13638,60 +13632,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="591"/>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="B2" s="589"/>
+      <c r="C2" s="590"/>
+      <c r="D2" s="591"/>
+      <c r="E2" s="598" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="599"/>
+      <c r="G2" s="599"/>
+      <c r="H2" s="600"/>
+      <c r="I2" s="604" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="610">
+      <c r="J2" s="605"/>
+      <c r="K2" s="608">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="L2" s="611"/>
-      <c r="M2" s="615"/>
-      <c r="N2" s="616"/>
-      <c r="O2" s="616"/>
-      <c r="P2" s="616"/>
-      <c r="Q2" s="616"/>
-      <c r="R2" s="617"/>
+      <c r="L2" s="609"/>
+      <c r="M2" s="614"/>
+      <c r="N2" s="615"/>
+      <c r="O2" s="615"/>
+      <c r="P2" s="615"/>
+      <c r="Q2" s="615"/>
+      <c r="R2" s="616"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="592"/>
+      <c r="C3" s="593"/>
+      <c r="D3" s="594"/>
+      <c r="E3" s="601" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="612"/>
-      <c r="L3" s="613"/>
-      <c r="M3" s="618"/>
-      <c r="N3" s="619"/>
-      <c r="O3" s="619"/>
-      <c r="P3" s="619"/>
-      <c r="Q3" s="619"/>
-      <c r="R3" s="620"/>
+      <c r="F3" s="602"/>
+      <c r="G3" s="602"/>
+      <c r="H3" s="603"/>
+      <c r="I3" s="606"/>
+      <c r="J3" s="607"/>
+      <c r="K3" s="610"/>
+      <c r="L3" s="611"/>
+      <c r="M3" s="617"/>
+      <c r="N3" s="618"/>
+      <c r="O3" s="618"/>
+      <c r="P3" s="618"/>
+      <c r="Q3" s="618"/>
+      <c r="R3" s="619"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="595"/>
+      <c r="C4" s="596"/>
+      <c r="D4" s="597"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -13700,95 +13694,95 @@
       <c r="J4" s="249"/>
       <c r="K4" s="252"/>
       <c r="L4" s="253"/>
-      <c r="M4" s="618"/>
-      <c r="N4" s="619"/>
-      <c r="O4" s="619"/>
-      <c r="P4" s="619"/>
-      <c r="Q4" s="619"/>
-      <c r="R4" s="620"/>
+      <c r="M4" s="617"/>
+      <c r="N4" s="618"/>
+      <c r="O4" s="618"/>
+      <c r="P4" s="618"/>
+      <c r="Q4" s="618"/>
+      <c r="R4" s="619"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="545" t="s">
+      <c r="B5" s="543" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="584"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="582"/>
+      <c r="D5" s="492" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="585"/>
-      <c r="J5" s="586"/>
-      <c r="K5" s="587"/>
-      <c r="L5" s="496"/>
-      <c r="M5" s="618"/>
-      <c r="N5" s="619"/>
-      <c r="O5" s="619"/>
-      <c r="P5" s="619"/>
-      <c r="Q5" s="619"/>
-      <c r="R5" s="620"/>
+      <c r="E5" s="493"/>
+      <c r="F5" s="493"/>
+      <c r="G5" s="493"/>
+      <c r="H5" s="494"/>
+      <c r="I5" s="583"/>
+      <c r="J5" s="584"/>
+      <c r="K5" s="585"/>
+      <c r="L5" s="494"/>
+      <c r="M5" s="617"/>
+      <c r="N5" s="618"/>
+      <c r="O5" s="618"/>
+      <c r="P5" s="618"/>
+      <c r="Q5" s="618"/>
+      <c r="R5" s="619"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="545" t="s">
+      <c r="B6" s="543" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="584"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="582"/>
+      <c r="D6" s="486" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="550"/>
-      <c r="F6" s="550"/>
-      <c r="G6" s="550"/>
-      <c r="H6" s="551"/>
-      <c r="I6" s="585"/>
-      <c r="J6" s="586"/>
-      <c r="K6" s="587"/>
-      <c r="L6" s="496"/>
-      <c r="M6" s="618"/>
-      <c r="N6" s="619"/>
-      <c r="O6" s="619"/>
-      <c r="P6" s="619"/>
-      <c r="Q6" s="619"/>
-      <c r="R6" s="620"/>
+      <c r="E6" s="548"/>
+      <c r="F6" s="548"/>
+      <c r="G6" s="548"/>
+      <c r="H6" s="549"/>
+      <c r="I6" s="583"/>
+      <c r="J6" s="584"/>
+      <c r="K6" s="585"/>
+      <c r="L6" s="494"/>
+      <c r="M6" s="617"/>
+      <c r="N6" s="618"/>
+      <c r="O6" s="618"/>
+      <c r="P6" s="618"/>
+      <c r="Q6" s="618"/>
+      <c r="R6" s="619"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="552" t="s">
+      <c r="B7" s="550" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="588"/>
-      <c r="D7" s="497">
+      <c r="C7" s="586"/>
+      <c r="D7" s="495">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="554"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="554"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="589" t="s">
+      <c r="E7" s="552"/>
+      <c r="F7" s="552"/>
+      <c r="G7" s="552"/>
+      <c r="H7" s="553"/>
+      <c r="I7" s="587" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="588"/>
-      <c r="K7" s="485">
+      <c r="J7" s="586"/>
+      <c r="K7" s="483">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
-      <c r="M7" s="618"/>
-      <c r="N7" s="619"/>
-      <c r="O7" s="619"/>
-      <c r="P7" s="619"/>
-      <c r="Q7" s="619"/>
-      <c r="R7" s="620"/>
+      <c r="L7" s="484"/>
+      <c r="M7" s="617"/>
+      <c r="N7" s="618"/>
+      <c r="O7" s="618"/>
+      <c r="P7" s="618"/>
+      <c r="Q7" s="618"/>
+      <c r="R7" s="619"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14202,12 +14196,12 @@
     </row>
     <row r="21" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="78"/>
-      <c r="B21" s="542" t="s">
+      <c r="B21" s="540" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="543"/>
-      <c r="D21" s="543"/>
-      <c r="E21" s="544"/>
+      <c r="C21" s="541"/>
+      <c r="D21" s="541"/>
+      <c r="E21" s="542"/>
       <c r="F21" s="116" t="s">
         <v>16</v>
       </c>
@@ -14252,17 +14246,16 @@
       <c r="B23" s="123"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L24" s="634" t="s">
+      <c r="L24" s="613" t="s">
         <v>140</v>
       </c>
-      <c r="M24" s="634"/>
-      <c r="N24" s="634"/>
-      <c r="O24" s="633"/>
-      <c r="P24" s="633"/>
+      <c r="M24" s="613"/>
+      <c r="N24" s="613"/>
+      <c r="O24" s="481"/>
+      <c r="P24" s="481"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="L24:N24"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="M2:R7"/>
     <mergeCell ref="E2:H2"/>
@@ -14275,13 +14268,14 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B21:E21"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="B21:E21"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R21">
     <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
@@ -14346,47 +14340,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="591"/>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="B2" s="589"/>
+      <c r="C2" s="590"/>
+      <c r="D2" s="591"/>
+      <c r="E2" s="598" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="599"/>
+      <c r="G2" s="599"/>
+      <c r="H2" s="600"/>
+      <c r="I2" s="604" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="610">
+      <c r="J2" s="605"/>
+      <c r="K2" s="608">
         <f>Данные!B19</f>
         <v>60</v>
       </c>
-      <c r="L2" s="611"/>
+      <c r="L2" s="609"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="621"/>
-      <c r="Q2" s="621"/>
+      <c r="P2" s="620"/>
+      <c r="Q2" s="620"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="592"/>
+      <c r="C3" s="593"/>
+      <c r="D3" s="594"/>
+      <c r="E3" s="601" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="612"/>
-      <c r="L3" s="613"/>
+      <c r="F3" s="602"/>
+      <c r="G3" s="602"/>
+      <c r="H3" s="603"/>
+      <c r="I3" s="606"/>
+      <c r="J3" s="607"/>
+      <c r="K3" s="610"/>
+      <c r="L3" s="611"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -14397,9 +14391,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="595"/>
+      <c r="C4" s="596"/>
+      <c r="D4" s="597"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -14418,22 +14412,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="545" t="s">
+      <c r="B5" s="543" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="584"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="582"/>
+      <c r="D5" s="492" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="585"/>
-      <c r="J5" s="586"/>
-      <c r="K5" s="587"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="493"/>
+      <c r="F5" s="493"/>
+      <c r="G5" s="493"/>
+      <c r="H5" s="494"/>
+      <c r="I5" s="583"/>
+      <c r="J5" s="584"/>
+      <c r="K5" s="585"/>
+      <c r="L5" s="494"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -14444,22 +14438,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="545" t="s">
+      <c r="B6" s="543" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="584"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="582"/>
+      <c r="D6" s="486" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="550"/>
-      <c r="F6" s="550"/>
-      <c r="G6" s="550"/>
-      <c r="H6" s="551"/>
-      <c r="I6" s="585"/>
-      <c r="J6" s="586"/>
-      <c r="K6" s="587"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="548"/>
+      <c r="F6" s="548"/>
+      <c r="G6" s="548"/>
+      <c r="H6" s="549"/>
+      <c r="I6" s="583"/>
+      <c r="J6" s="584"/>
+      <c r="K6" s="585"/>
+      <c r="L6" s="494"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -14470,27 +14464,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="552" t="s">
+      <c r="B7" s="550" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="588"/>
-      <c r="D7" s="497">
+      <c r="C7" s="586"/>
+      <c r="D7" s="495">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="554"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="554"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="589" t="s">
+      <c r="E7" s="552"/>
+      <c r="F7" s="552"/>
+      <c r="G7" s="552"/>
+      <c r="H7" s="553"/>
+      <c r="I7" s="587" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="588"/>
-      <c r="K7" s="485">
+      <c r="J7" s="586"/>
+      <c r="K7" s="483">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="484"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -14753,12 +14747,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78"/>
-      <c r="B16" s="542" t="s">
+      <c r="B16" s="540" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="543"/>
-      <c r="D16" s="543"/>
-      <c r="E16" s="544"/>
+      <c r="C16" s="541"/>
+      <c r="D16" s="541"/>
+      <c r="E16" s="542"/>
       <c r="F16" s="259" t="s">
         <v>16</v>
       </c>
@@ -14803,17 +14797,20 @@
       <c r="B18" s="123"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K19" s="634" t="s">
+      <c r="K19" s="613" t="s">
         <v>140</v>
       </c>
-      <c r="L19" s="634"/>
-      <c r="M19" s="634"/>
-      <c r="N19" s="633"/>
-      <c r="O19" s="633"/>
+      <c r="L19" s="613"/>
+      <c r="M19" s="613"/>
+      <c r="N19" s="481"/>
+      <c r="O19" s="481"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
@@ -14824,15 +14821,12 @@
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="B16:E16"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-2.1-500-14 (Брест колоски)/Брест колоски от 13.11.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-2.1-500-14 (Брест колоски)/Брест колоски от 13.11.2019.xlsx
@@ -29,7 +29,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Акт приемки'!$A$1:$J$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Горл. кольцо'!$A$1:$S$24</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Паспорт!$A$1:$I$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Паспорт!$A$1:$J$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Плунжер!$A$1:$S$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Финиш. кольцо'!$A$1:$S$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Черн. поддон'!$A$1:$S$16</definedName>
@@ -38,12 +38,11 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Чист. форма'!$A$1:$S$25</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="143">
   <si>
     <t>+ Tol.</t>
   </si>
@@ -466,6 +465,12 @@
   </si>
   <si>
     <t>Слесарь-инструментальщик</t>
+  </si>
+  <si>
+    <t>Вес, гр. (ном. 355 гр.)</t>
+  </si>
+  <si>
+    <t>стоит</t>
   </si>
 </sst>
 </file>
@@ -2157,7 +2162,7 @@
     <xf numFmtId="43" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="632">
+  <cellXfs count="640">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" shrinkToFit="1"/>
@@ -3539,6 +3544,12 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3583,11 +3594,10 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -3606,10 +3616,77 @@
     <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3620,60 +3697,6 @@
     <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -3683,23 +3706,77 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -3751,76 +3828,73 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3844,104 +3918,38 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3952,9 +3960,6 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3972,6 +3977,24 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6375,25 +6398,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="485" t="s">
+      <c r="A1" s="487" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="489"/>
-      <c r="C1" s="489"/>
-      <c r="D1" s="489"/>
-      <c r="E1" s="489"/>
+      <c r="B1" s="491"/>
+      <c r="C1" s="491"/>
+      <c r="D1" s="491"/>
+      <c r="E1" s="491"/>
       <c r="G1" s="371" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="486" t="s">
+      <c r="A2" s="488" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="487"/>
-      <c r="C2" s="487"/>
-      <c r="D2" s="487"/>
-      <c r="E2" s="488"/>
+      <c r="B2" s="489"/>
+      <c r="C2" s="489"/>
+      <c r="D2" s="489"/>
+      <c r="E2" s="490"/>
       <c r="G2" s="370" t="s">
         <v>79</v>
       </c>
@@ -6404,45 +6427,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="490" t="s">
+      <c r="A4" s="492" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="491"/>
-      <c r="C4" s="491"/>
-      <c r="D4" s="491"/>
-      <c r="E4" s="491"/>
+      <c r="B4" s="493"/>
+      <c r="C4" s="493"/>
+      <c r="D4" s="493"/>
+      <c r="E4" s="493"/>
     </row>
     <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="492" t="s">
+      <c r="A5" s="494" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="493"/>
-      <c r="C5" s="493"/>
-      <c r="D5" s="493"/>
-      <c r="E5" s="494"/>
+      <c r="B5" s="495"/>
+      <c r="C5" s="495"/>
+      <c r="D5" s="495"/>
+      <c r="E5" s="496"/>
     </row>
     <row r="6" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="485" t="s">
+      <c r="A7" s="487" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="489"/>
-      <c r="C7" s="489"/>
-      <c r="D7" s="489"/>
-      <c r="E7" s="489"/>
+      <c r="B7" s="491"/>
+      <c r="C7" s="491"/>
+      <c r="D7" s="491"/>
+      <c r="E7" s="491"/>
     </row>
     <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="495"/>
-      <c r="B8" s="496"/>
-      <c r="C8" s="496"/>
-      <c r="D8" s="496"/>
-      <c r="E8" s="497"/>
+      <c r="A8" s="497"/>
+      <c r="B8" s="498"/>
+      <c r="C8" s="498"/>
+      <c r="D8" s="498"/>
+      <c r="E8" s="499"/>
     </row>
     <row r="10" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="485" t="s">
+      <c r="A10" s="487" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="485"/>
+      <c r="B10" s="487"/>
       <c r="C10" s="372"/>
       <c r="D10" s="380" t="s">
         <v>94</v>
@@ -6453,33 +6476,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="483"/>
-      <c r="B11" s="484"/>
+      <c r="A11" s="485"/>
+      <c r="B11" s="486"/>
       <c r="D11" s="379">
         <v>43782</v>
       </c>
-      <c r="F11" s="498" t="s">
+      <c r="F11" s="482" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="498"/>
-      <c r="H11" s="498"/>
-      <c r="I11" s="498"/>
-      <c r="J11" s="499" t="s">
+      <c r="G11" s="482"/>
+      <c r="H11" s="482"/>
+      <c r="I11" s="482"/>
+      <c r="J11" s="483" t="s">
         <v>99</v>
       </c>
-      <c r="K11" s="499"/>
+      <c r="K11" s="483"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="498" t="s">
+      <c r="F12" s="482" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="498"/>
-      <c r="H12" s="498"/>
-      <c r="I12" s="498"/>
-      <c r="J12" s="499" t="s">
+      <c r="G12" s="482"/>
+      <c r="H12" s="482"/>
+      <c r="I12" s="482"/>
+      <c r="J12" s="483" t="s">
         <v>100</v>
       </c>
-      <c r="K12" s="499"/>
+      <c r="K12" s="483"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="373" t="s">
@@ -6491,16 +6514,16 @@
       <c r="C13" s="384" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="498" t="s">
+      <c r="F13" s="482" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="498"/>
-      <c r="H13" s="498"/>
-      <c r="I13" s="498"/>
-      <c r="J13" s="499" t="s">
+      <c r="G13" s="482"/>
+      <c r="H13" s="482"/>
+      <c r="I13" s="482"/>
+      <c r="J13" s="483" t="s">
         <v>101</v>
       </c>
-      <c r="K13" s="499"/>
+      <c r="K13" s="483"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="375" t="s">
@@ -6652,11 +6675,11 @@
       <c r="A28" s="381"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="482" t="s">
+      <c r="A29" s="484" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="482"/>
-      <c r="C29" s="482"/>
+      <c r="B29" s="484"/>
+      <c r="C29" s="484"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="371" t="s">
@@ -6665,12 +6688,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -6680,6 +6697,12 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -6733,24 +6756,24 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="170"/>
-      <c r="B2" s="589"/>
-      <c r="C2" s="590"/>
-      <c r="D2" s="591"/>
-      <c r="E2" s="598" t="s">
+      <c r="B2" s="582"/>
+      <c r="C2" s="583"/>
+      <c r="D2" s="584"/>
+      <c r="E2" s="591" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="599"/>
-      <c r="G2" s="599"/>
-      <c r="H2" s="600"/>
-      <c r="I2" s="604" t="s">
+      <c r="F2" s="592"/>
+      <c r="G2" s="592"/>
+      <c r="H2" s="593"/>
+      <c r="I2" s="597" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="605"/>
-      <c r="K2" s="608">
+      <c r="J2" s="598"/>
+      <c r="K2" s="601">
         <f>Данные!B20</f>
         <v>50</v>
       </c>
-      <c r="L2" s="609"/>
+      <c r="L2" s="602"/>
       <c r="M2" s="171"/>
       <c r="N2" s="172"/>
       <c r="O2" s="173"/>
@@ -6761,19 +6784,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="170"/>
-      <c r="B3" s="592"/>
-      <c r="C3" s="593"/>
-      <c r="D3" s="594"/>
-      <c r="E3" s="601" t="s">
+      <c r="B3" s="585"/>
+      <c r="C3" s="586"/>
+      <c r="D3" s="587"/>
+      <c r="E3" s="594" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="602"/>
-      <c r="G3" s="602"/>
-      <c r="H3" s="603"/>
-      <c r="I3" s="606"/>
-      <c r="J3" s="607"/>
-      <c r="K3" s="610"/>
-      <c r="L3" s="611"/>
+      <c r="F3" s="595"/>
+      <c r="G3" s="595"/>
+      <c r="H3" s="596"/>
+      <c r="I3" s="599"/>
+      <c r="J3" s="600"/>
+      <c r="K3" s="603"/>
+      <c r="L3" s="604"/>
       <c r="M3" s="176"/>
       <c r="N3" s="177"/>
       <c r="O3" s="177"/>
@@ -6784,9 +6807,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="170"/>
-      <c r="B4" s="595"/>
-      <c r="C4" s="596"/>
-      <c r="D4" s="597"/>
+      <c r="B4" s="588"/>
+      <c r="C4" s="589"/>
+      <c r="D4" s="590"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -6805,22 +6828,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="170"/>
-      <c r="B5" s="543" t="s">
+      <c r="B5" s="567" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="582"/>
-      <c r="D5" s="492" t="str">
+      <c r="C5" s="605"/>
+      <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="493"/>
-      <c r="F5" s="493"/>
-      <c r="G5" s="493"/>
-      <c r="H5" s="494"/>
-      <c r="I5" s="583"/>
-      <c r="J5" s="584"/>
-      <c r="K5" s="585"/>
-      <c r="L5" s="494"/>
+      <c r="E5" s="495"/>
+      <c r="F5" s="495"/>
+      <c r="G5" s="495"/>
+      <c r="H5" s="496"/>
+      <c r="I5" s="606"/>
+      <c r="J5" s="607"/>
+      <c r="K5" s="608"/>
+      <c r="L5" s="496"/>
       <c r="M5" s="179"/>
       <c r="N5" s="177"/>
       <c r="O5" s="177"/>
@@ -6831,22 +6854,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="170"/>
-      <c r="B6" s="543" t="s">
+      <c r="B6" s="567" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="582"/>
-      <c r="D6" s="486" t="str">
+      <c r="C6" s="605"/>
+      <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="548"/>
-      <c r="F6" s="548"/>
-      <c r="G6" s="548"/>
-      <c r="H6" s="549"/>
-      <c r="I6" s="583"/>
-      <c r="J6" s="584"/>
-      <c r="K6" s="585"/>
-      <c r="L6" s="494"/>
+      <c r="E6" s="572"/>
+      <c r="F6" s="572"/>
+      <c r="G6" s="572"/>
+      <c r="H6" s="573"/>
+      <c r="I6" s="606"/>
+      <c r="J6" s="607"/>
+      <c r="K6" s="608"/>
+      <c r="L6" s="496"/>
       <c r="M6" s="176"/>
       <c r="N6" s="177"/>
       <c r="O6" s="177"/>
@@ -6857,27 +6880,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="170"/>
-      <c r="B7" s="550" t="s">
+      <c r="B7" s="574" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="586"/>
-      <c r="D7" s="495">
+      <c r="C7" s="609"/>
+      <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="552"/>
-      <c r="F7" s="552"/>
-      <c r="G7" s="552"/>
-      <c r="H7" s="553"/>
-      <c r="I7" s="587" t="s">
+      <c r="E7" s="576"/>
+      <c r="F7" s="576"/>
+      <c r="G7" s="576"/>
+      <c r="H7" s="577"/>
+      <c r="I7" s="610" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="586"/>
-      <c r="K7" s="483">
+      <c r="J7" s="609"/>
+      <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="484"/>
+      <c r="L7" s="486"/>
       <c r="M7" s="179"/>
       <c r="N7" s="177"/>
       <c r="O7" s="177"/>
@@ -7262,16 +7285,24 @@
     </row>
     <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L21" s="613" t="s">
+      <c r="L21" s="619" t="s">
         <v>140</v>
       </c>
-      <c r="M21" s="613"/>
-      <c r="N21" s="613"/>
+      <c r="M21" s="619"/>
+      <c r="N21" s="619"/>
       <c r="O21" s="481"/>
       <c r="P21" s="481"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -7283,14 +7314,6 @@
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
@@ -7356,47 +7379,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="209"/>
-      <c r="B2" s="589"/>
-      <c r="C2" s="590"/>
-      <c r="D2" s="591"/>
-      <c r="E2" s="598" t="s">
+      <c r="B2" s="582"/>
+      <c r="C2" s="583"/>
+      <c r="D2" s="584"/>
+      <c r="E2" s="591" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="599"/>
-      <c r="G2" s="599"/>
-      <c r="H2" s="600"/>
-      <c r="I2" s="604" t="s">
+      <c r="F2" s="592"/>
+      <c r="G2" s="592"/>
+      <c r="H2" s="593"/>
+      <c r="I2" s="597" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="605"/>
-      <c r="K2" s="608">
+      <c r="J2" s="598"/>
+      <c r="K2" s="601">
         <f>Данные!B21</f>
         <v>24</v>
       </c>
-      <c r="L2" s="609"/>
+      <c r="L2" s="602"/>
       <c r="M2" s="210"/>
       <c r="N2" s="211"/>
       <c r="O2" s="212"/>
-      <c r="P2" s="625"/>
-      <c r="Q2" s="625"/>
+      <c r="P2" s="622"/>
+      <c r="Q2" s="622"/>
       <c r="R2" s="213"/>
       <c r="S2" s="214"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="209"/>
-      <c r="B3" s="592"/>
-      <c r="C3" s="593"/>
-      <c r="D3" s="594"/>
-      <c r="E3" s="601" t="s">
+      <c r="B3" s="585"/>
+      <c r="C3" s="586"/>
+      <c r="D3" s="587"/>
+      <c r="E3" s="594" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="602"/>
-      <c r="G3" s="602"/>
-      <c r="H3" s="603"/>
-      <c r="I3" s="606"/>
-      <c r="J3" s="607"/>
-      <c r="K3" s="610"/>
-      <c r="L3" s="611"/>
+      <c r="F3" s="595"/>
+      <c r="G3" s="595"/>
+      <c r="H3" s="596"/>
+      <c r="I3" s="599"/>
+      <c r="J3" s="600"/>
+      <c r="K3" s="603"/>
+      <c r="L3" s="604"/>
       <c r="M3" s="215"/>
       <c r="N3" s="216"/>
       <c r="O3" s="216"/>
@@ -7407,9 +7430,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="209"/>
-      <c r="B4" s="595"/>
-      <c r="C4" s="596"/>
-      <c r="D4" s="597"/>
+      <c r="B4" s="588"/>
+      <c r="C4" s="589"/>
+      <c r="D4" s="590"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -7428,22 +7451,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="209"/>
-      <c r="B5" s="543" t="s">
+      <c r="B5" s="567" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="582"/>
-      <c r="D5" s="492" t="str">
+      <c r="C5" s="605"/>
+      <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="493"/>
-      <c r="F5" s="493"/>
-      <c r="G5" s="493"/>
-      <c r="H5" s="494"/>
-      <c r="I5" s="583"/>
-      <c r="J5" s="584"/>
-      <c r="K5" s="585"/>
-      <c r="L5" s="494"/>
+      <c r="E5" s="495"/>
+      <c r="F5" s="495"/>
+      <c r="G5" s="495"/>
+      <c r="H5" s="496"/>
+      <c r="I5" s="606"/>
+      <c r="J5" s="607"/>
+      <c r="K5" s="608"/>
+      <c r="L5" s="496"/>
       <c r="M5" s="218"/>
       <c r="N5" s="216"/>
       <c r="O5" s="216"/>
@@ -7454,22 +7477,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="209"/>
-      <c r="B6" s="543" t="s">
+      <c r="B6" s="567" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="582"/>
-      <c r="D6" s="486" t="str">
+      <c r="C6" s="605"/>
+      <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="548"/>
-      <c r="F6" s="548"/>
-      <c r="G6" s="548"/>
-      <c r="H6" s="549"/>
-      <c r="I6" s="583"/>
-      <c r="J6" s="584"/>
-      <c r="K6" s="585"/>
-      <c r="L6" s="494"/>
+      <c r="E6" s="572"/>
+      <c r="F6" s="572"/>
+      <c r="G6" s="572"/>
+      <c r="H6" s="573"/>
+      <c r="I6" s="606"/>
+      <c r="J6" s="607"/>
+      <c r="K6" s="608"/>
+      <c r="L6" s="496"/>
       <c r="M6" s="215"/>
       <c r="N6" s="216"/>
       <c r="O6" s="216"/>
@@ -7480,27 +7503,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="209"/>
-      <c r="B7" s="550" t="s">
+      <c r="B7" s="574" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="586"/>
-      <c r="D7" s="495">
+      <c r="C7" s="609"/>
+      <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="552"/>
-      <c r="F7" s="552"/>
-      <c r="G7" s="552"/>
-      <c r="H7" s="553"/>
-      <c r="I7" s="587" t="s">
+      <c r="E7" s="576"/>
+      <c r="F7" s="576"/>
+      <c r="G7" s="576"/>
+      <c r="H7" s="577"/>
+      <c r="I7" s="610" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="586"/>
-      <c r="K7" s="483">
+      <c r="J7" s="609"/>
+      <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="484"/>
+      <c r="L7" s="486"/>
       <c r="M7" s="218"/>
       <c r="N7" s="216"/>
       <c r="O7" s="216"/>
@@ -7829,12 +7852,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="219"/>
-      <c r="B18" s="622" t="s">
+      <c r="B18" s="623" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="623"/>
-      <c r="D18" s="623"/>
-      <c r="E18" s="624"/>
+      <c r="C18" s="624"/>
+      <c r="D18" s="624"/>
+      <c r="E18" s="625"/>
       <c r="F18" s="116" t="s">
         <v>16</v>
       </c>
@@ -7878,14 +7901,6 @@
     <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
@@ -7897,6 +7912,14 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -7982,24 +8005,24 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="133"/>
-      <c r="B2" s="589"/>
-      <c r="C2" s="590"/>
-      <c r="D2" s="591"/>
-      <c r="E2" s="598" t="s">
+      <c r="B2" s="582"/>
+      <c r="C2" s="583"/>
+      <c r="D2" s="584"/>
+      <c r="E2" s="591" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="599"/>
-      <c r="G2" s="599"/>
-      <c r="H2" s="600"/>
-      <c r="I2" s="604" t="s">
+      <c r="F2" s="592"/>
+      <c r="G2" s="592"/>
+      <c r="H2" s="593"/>
+      <c r="I2" s="597" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="605"/>
-      <c r="K2" s="608">
+      <c r="J2" s="598"/>
+      <c r="K2" s="601">
         <f>Данные!B26</f>
         <v>22</v>
       </c>
-      <c r="L2" s="609"/>
+      <c r="L2" s="602"/>
       <c r="M2" s="134"/>
       <c r="N2" s="135"/>
       <c r="O2" s="136"/>
@@ -8010,19 +8033,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="133"/>
-      <c r="B3" s="592"/>
-      <c r="C3" s="593"/>
-      <c r="D3" s="594"/>
-      <c r="E3" s="601" t="s">
+      <c r="B3" s="585"/>
+      <c r="C3" s="586"/>
+      <c r="D3" s="587"/>
+      <c r="E3" s="594" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="602"/>
-      <c r="G3" s="602"/>
-      <c r="H3" s="603"/>
-      <c r="I3" s="606"/>
-      <c r="J3" s="607"/>
-      <c r="K3" s="610"/>
-      <c r="L3" s="611"/>
+      <c r="F3" s="595"/>
+      <c r="G3" s="595"/>
+      <c r="H3" s="596"/>
+      <c r="I3" s="599"/>
+      <c r="J3" s="600"/>
+      <c r="K3" s="603"/>
+      <c r="L3" s="604"/>
       <c r="M3" s="139"/>
       <c r="N3" s="140"/>
       <c r="O3" s="140"/>
@@ -8033,9 +8056,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="133"/>
-      <c r="B4" s="595"/>
-      <c r="C4" s="596"/>
-      <c r="D4" s="597"/>
+      <c r="B4" s="588"/>
+      <c r="C4" s="589"/>
+      <c r="D4" s="590"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -8054,22 +8077,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="133"/>
-      <c r="B5" s="543" t="s">
+      <c r="B5" s="567" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="582"/>
-      <c r="D5" s="492" t="str">
+      <c r="C5" s="605"/>
+      <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="493"/>
-      <c r="F5" s="493"/>
-      <c r="G5" s="493"/>
-      <c r="H5" s="494"/>
-      <c r="I5" s="583"/>
-      <c r="J5" s="584"/>
-      <c r="K5" s="585"/>
-      <c r="L5" s="494"/>
+      <c r="E5" s="495"/>
+      <c r="F5" s="495"/>
+      <c r="G5" s="495"/>
+      <c r="H5" s="496"/>
+      <c r="I5" s="606"/>
+      <c r="J5" s="607"/>
+      <c r="K5" s="608"/>
+      <c r="L5" s="496"/>
       <c r="M5" s="142"/>
       <c r="N5" s="140"/>
       <c r="O5" s="140"/>
@@ -8080,22 +8103,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="133"/>
-      <c r="B6" s="543" t="s">
+      <c r="B6" s="567" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="582"/>
-      <c r="D6" s="486" t="str">
+      <c r="C6" s="605"/>
+      <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="548"/>
-      <c r="F6" s="548"/>
-      <c r="G6" s="548"/>
-      <c r="H6" s="549"/>
-      <c r="I6" s="583"/>
-      <c r="J6" s="584"/>
-      <c r="K6" s="585"/>
-      <c r="L6" s="494"/>
+      <c r="E6" s="572"/>
+      <c r="F6" s="572"/>
+      <c r="G6" s="572"/>
+      <c r="H6" s="573"/>
+      <c r="I6" s="606"/>
+      <c r="J6" s="607"/>
+      <c r="K6" s="608"/>
+      <c r="L6" s="496"/>
       <c r="M6" s="139"/>
       <c r="N6" s="140"/>
       <c r="O6" s="140"/>
@@ -8106,27 +8129,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="133"/>
-      <c r="B7" s="550" t="s">
+      <c r="B7" s="574" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="586"/>
-      <c r="D7" s="495">
+      <c r="C7" s="609"/>
+      <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="552"/>
-      <c r="F7" s="552"/>
-      <c r="G7" s="552"/>
-      <c r="H7" s="553"/>
-      <c r="I7" s="587" t="s">
+      <c r="E7" s="576"/>
+      <c r="F7" s="576"/>
+      <c r="G7" s="576"/>
+      <c r="H7" s="577"/>
+      <c r="I7" s="610" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="586"/>
-      <c r="K7" s="483">
+      <c r="J7" s="609"/>
+      <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="484"/>
+      <c r="L7" s="486"/>
       <c r="M7" s="142"/>
       <c r="N7" s="140"/>
       <c r="O7" s="140"/>
@@ -8507,6 +8530,17 @@
     <row r="21" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -8514,17 +8548,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H17:R19">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -8590,19 +8613,19 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="266"/>
-      <c r="B2" s="589"/>
-      <c r="C2" s="590"/>
-      <c r="D2" s="591"/>
-      <c r="E2" s="598" t="s">
+      <c r="B2" s="582"/>
+      <c r="C2" s="583"/>
+      <c r="D2" s="584"/>
+      <c r="E2" s="591" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="599"/>
-      <c r="G2" s="599"/>
-      <c r="H2" s="600"/>
-      <c r="I2" s="604" t="s">
+      <c r="F2" s="592"/>
+      <c r="G2" s="592"/>
+      <c r="H2" s="593"/>
+      <c r="I2" s="597" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="605"/>
+      <c r="J2" s="598"/>
       <c r="K2" s="628">
         <f>Данные!B23</f>
         <v>20</v>
@@ -8618,17 +8641,17 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="266"/>
-      <c r="B3" s="592"/>
-      <c r="C3" s="593"/>
-      <c r="D3" s="594"/>
-      <c r="E3" s="601" t="s">
+      <c r="B3" s="585"/>
+      <c r="C3" s="586"/>
+      <c r="D3" s="587"/>
+      <c r="E3" s="594" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="602"/>
-      <c r="G3" s="602"/>
-      <c r="H3" s="603"/>
-      <c r="I3" s="606"/>
-      <c r="J3" s="607"/>
+      <c r="F3" s="595"/>
+      <c r="G3" s="595"/>
+      <c r="H3" s="596"/>
+      <c r="I3" s="599"/>
+      <c r="J3" s="600"/>
       <c r="K3" s="630"/>
       <c r="L3" s="631"/>
       <c r="M3" s="272"/>
@@ -8641,9 +8664,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="266"/>
-      <c r="B4" s="595"/>
-      <c r="C4" s="596"/>
-      <c r="D4" s="597"/>
+      <c r="B4" s="588"/>
+      <c r="C4" s="589"/>
+      <c r="D4" s="590"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -8662,22 +8685,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="266"/>
-      <c r="B5" s="543" t="s">
+      <c r="B5" s="567" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="582"/>
-      <c r="D5" s="492" t="str">
+      <c r="C5" s="605"/>
+      <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="493"/>
-      <c r="F5" s="493"/>
-      <c r="G5" s="493"/>
-      <c r="H5" s="494"/>
-      <c r="I5" s="583"/>
-      <c r="J5" s="584"/>
-      <c r="K5" s="585"/>
-      <c r="L5" s="494"/>
+      <c r="E5" s="495"/>
+      <c r="F5" s="495"/>
+      <c r="G5" s="495"/>
+      <c r="H5" s="496"/>
+      <c r="I5" s="606"/>
+      <c r="J5" s="607"/>
+      <c r="K5" s="608"/>
+      <c r="L5" s="496"/>
       <c r="M5" s="275"/>
       <c r="N5" s="273"/>
       <c r="O5" s="273"/>
@@ -8688,22 +8711,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="266"/>
-      <c r="B6" s="543" t="s">
+      <c r="B6" s="567" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="582"/>
-      <c r="D6" s="486" t="str">
+      <c r="C6" s="605"/>
+      <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="548"/>
-      <c r="F6" s="548"/>
-      <c r="G6" s="548"/>
-      <c r="H6" s="549"/>
-      <c r="I6" s="583"/>
-      <c r="J6" s="584"/>
-      <c r="K6" s="585"/>
-      <c r="L6" s="494"/>
+      <c r="E6" s="572"/>
+      <c r="F6" s="572"/>
+      <c r="G6" s="572"/>
+      <c r="H6" s="573"/>
+      <c r="I6" s="606"/>
+      <c r="J6" s="607"/>
+      <c r="K6" s="608"/>
+      <c r="L6" s="496"/>
       <c r="M6" s="272"/>
       <c r="N6" s="273"/>
       <c r="O6" s="273"/>
@@ -8714,27 +8737,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="266"/>
-      <c r="B7" s="550" t="s">
+      <c r="B7" s="574" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="586"/>
-      <c r="D7" s="495">
+      <c r="C7" s="609"/>
+      <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="552"/>
-      <c r="F7" s="552"/>
-      <c r="G7" s="552"/>
-      <c r="H7" s="553"/>
-      <c r="I7" s="587" t="s">
+      <c r="E7" s="576"/>
+      <c r="F7" s="576"/>
+      <c r="G7" s="576"/>
+      <c r="H7" s="577"/>
+      <c r="I7" s="610" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="586"/>
-      <c r="K7" s="483">
+      <c r="J7" s="609"/>
+      <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="484"/>
+      <c r="L7" s="486"/>
       <c r="M7" s="275"/>
       <c r="N7" s="273"/>
       <c r="O7" s="273"/>
@@ -9007,6 +9030,8 @@
     <row r="17" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="P2:Q2"/>
@@ -9023,8 +9048,6 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -9053,8 +9076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9109,17 +9132,17 @@
       <c r="L2" s="391"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="502" t="s">
+      <c r="A3" s="505" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="502"/>
-      <c r="C3" s="502"/>
-      <c r="D3" s="502"/>
-      <c r="E3" s="502"/>
-      <c r="F3" s="502"/>
-      <c r="G3" s="502"/>
-      <c r="H3" s="502"/>
-      <c r="I3" s="502"/>
+      <c r="B3" s="505"/>
+      <c r="C3" s="505"/>
+      <c r="D3" s="505"/>
+      <c r="E3" s="505"/>
+      <c r="F3" s="505"/>
+      <c r="G3" s="505"/>
+      <c r="H3" s="505"/>
+      <c r="I3" s="505"/>
       <c r="K3" s="392"/>
       <c r="L3" s="392"/>
       <c r="M3" s="393"/>
@@ -9597,7 +9620,9 @@
       <c r="I20" s="431" t="s">
         <v>130</v>
       </c>
-      <c r="J20" s="401"/>
+      <c r="J20" s="431" t="s">
+        <v>141</v>
+      </c>
       <c r="K20" s="401"/>
       <c r="L20" s="401"/>
     </row>
@@ -9609,8 +9634,8 @@
       <c r="B21" s="438">
         <v>43825</v>
       </c>
-      <c r="C21" s="438">
-        <v>43830</v>
+      <c r="C21" s="639" t="s">
+        <v>142</v>
       </c>
       <c r="D21" s="438">
         <v>43468</v>
@@ -9633,30 +9658,42 @@
         <f>1-G21</f>
         <v>0.93555321428571425</v>
       </c>
-      <c r="J21" s="436"/>
+      <c r="J21" s="632"/>
       <c r="K21" s="413"/>
       <c r="L21" s="413"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="437"/>
-      <c r="B22" s="438"/>
-      <c r="C22" s="438"/>
-      <c r="D22" s="438"/>
-      <c r="E22" s="439"/>
-      <c r="F22" s="439"/>
+      <c r="B22" s="639" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="438">
+        <v>43833</v>
+      </c>
+      <c r="D22" s="438">
+        <v>43857</v>
+      </c>
+      <c r="E22" s="439">
+        <v>532824</v>
+      </c>
+      <c r="F22" s="439">
+        <v>549478</v>
+      </c>
       <c r="G22" s="433">
         <f>F22/A$21</f>
-        <v>0</v>
+        <v>3.2707023809523811E-2</v>
       </c>
       <c r="H22" s="440">
         <f>H21-F22</f>
-        <v>15717294</v>
+        <v>15167816</v>
       </c>
       <c r="I22" s="441">
         <f>I21-G22</f>
-        <v>0.93555321428571425</v>
-      </c>
-      <c r="J22" s="393"/>
+        <v>0.90284619047619041</v>
+      </c>
+      <c r="J22" s="633">
+        <v>354</v>
+      </c>
       <c r="K22" s="393"/>
       <c r="L22" s="393"/>
     </row>
@@ -9670,7 +9707,7 @@
       <c r="G23" s="445"/>
       <c r="H23" s="446"/>
       <c r="I23" s="447"/>
-      <c r="J23" s="436"/>
+      <c r="J23" s="634"/>
       <c r="K23" s="413"/>
       <c r="L23" s="413"/>
     </row>
@@ -9684,7 +9721,7 @@
       <c r="G24" s="385"/>
       <c r="H24" s="385"/>
       <c r="I24" s="448"/>
-      <c r="J24" s="436"/>
+      <c r="J24" s="635"/>
       <c r="K24" s="436"/>
       <c r="L24" s="393"/>
     </row>
@@ -9698,7 +9735,7 @@
       <c r="G25" s="449"/>
       <c r="H25" s="446"/>
       <c r="I25" s="447"/>
-      <c r="J25" s="436"/>
+      <c r="J25" s="634"/>
       <c r="K25" s="450"/>
       <c r="L25" s="393"/>
     </row>
@@ -9712,7 +9749,7 @@
       <c r="G26" s="449"/>
       <c r="H26" s="446"/>
       <c r="I26" s="447"/>
-      <c r="J26" s="436"/>
+      <c r="J26" s="634"/>
       <c r="K26" s="436"/>
       <c r="L26" s="393"/>
     </row>
@@ -9726,7 +9763,7 @@
       <c r="G27" s="449"/>
       <c r="H27" s="446"/>
       <c r="I27" s="447"/>
-      <c r="J27" s="436"/>
+      <c r="J27" s="634"/>
       <c r="K27" s="436"/>
       <c r="L27" s="393"/>
     </row>
@@ -9740,7 +9777,7 @@
       <c r="G28" s="449"/>
       <c r="H28" s="446"/>
       <c r="I28" s="447"/>
-      <c r="J28" s="436"/>
+      <c r="J28" s="634"/>
       <c r="K28" s="436"/>
       <c r="L28" s="393"/>
     </row>
@@ -9754,7 +9791,7 @@
       <c r="G29" s="451"/>
       <c r="H29" s="446"/>
       <c r="I29" s="452"/>
-      <c r="J29" s="436"/>
+      <c r="J29" s="636"/>
       <c r="K29" s="436"/>
       <c r="L29" s="393"/>
     </row>
@@ -9768,7 +9805,7 @@
       <c r="G30" s="449"/>
       <c r="H30" s="446"/>
       <c r="I30" s="452"/>
-      <c r="J30" s="436"/>
+      <c r="J30" s="636"/>
       <c r="K30" s="436"/>
       <c r="L30" s="393"/>
     </row>
@@ -9782,7 +9819,7 @@
       <c r="G31" s="457"/>
       <c r="H31" s="458"/>
       <c r="I31" s="459"/>
-      <c r="J31" s="393"/>
+      <c r="J31" s="637"/>
       <c r="K31" s="393"/>
       <c r="L31" s="393"/>
     </row>
@@ -9795,25 +9832,25 @@
       <c r="D32" s="462"/>
       <c r="E32" s="463">
         <f>SUM(E21:E31)</f>
-        <v>1017372</v>
+        <v>1550196</v>
       </c>
       <c r="F32" s="464">
         <f>SUM(F21:F31)</f>
-        <v>1082706</v>
+        <v>1632184</v>
       </c>
       <c r="G32" s="465">
         <f>SUM(G21:G31)</f>
-        <v>6.444678571428572E-2</v>
+        <v>9.7153809523809531E-2</v>
       </c>
       <c r="H32" s="466">
         <f>A21-F32</f>
-        <v>15717294</v>
+        <v>15167816</v>
       </c>
       <c r="I32" s="467">
         <f>1-G32</f>
-        <v>0.93555321428571425</v>
-      </c>
-      <c r="J32" s="468"/>
+        <v>0.90284619047619041</v>
+      </c>
+      <c r="J32" s="638"/>
       <c r="K32" s="468"/>
       <c r="L32" s="468"/>
     </row>
@@ -9830,12 +9867,12 @@
       <c r="J35" s="393"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="503" t="s">
+      <c r="A36" s="506" t="s">
         <v>132</v>
       </c>
-      <c r="B36" s="503"/>
-      <c r="C36" s="503"/>
-      <c r="D36" s="503"/>
+      <c r="B36" s="506"/>
+      <c r="C36" s="506"/>
+      <c r="D36" s="506"/>
       <c r="E36" s="393"/>
       <c r="F36" s="393"/>
       <c r="G36" s="393"/>
@@ -9844,10 +9881,10 @@
       <c r="J36" s="393"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="504" t="s">
+      <c r="A37" s="507" t="s">
         <v>133</v>
       </c>
-      <c r="B37" s="504"/>
+      <c r="B37" s="507"/>
       <c r="C37" s="469" t="s">
         <v>134</v>
       </c>
@@ -9862,18 +9899,18 @@
       <c r="J37" s="393"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="505">
+      <c r="A38" s="508">
         <f>A21-F32</f>
-        <v>15717294</v>
-      </c>
-      <c r="B38" s="506"/>
+        <v>15167816</v>
+      </c>
+      <c r="B38" s="509"/>
       <c r="C38" s="470">
         <f>1-G32</f>
-        <v>0.93555321428571425</v>
+        <v>0.90284619047619041</v>
       </c>
       <c r="D38" s="471">
         <f>(C38/0.8)*100</f>
-        <v>116.94415178571427</v>
+        <v>112.85577380952378</v>
       </c>
       <c r="E38" s="472" t="s">
         <v>136</v>
@@ -9928,8 +9965,8 @@
       <c r="F42" s="474"/>
       <c r="G42" s="474"/>
       <c r="H42" s="474"/>
-      <c r="I42" s="507"/>
-      <c r="J42" s="508"/>
+      <c r="I42" s="500"/>
+      <c r="J42" s="501"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="475"/>
@@ -10023,9 +10060,9 @@
     </row>
     <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="393"/>
-      <c r="B52" s="500"/>
-      <c r="C52" s="500"/>
-      <c r="D52" s="501"/>
+      <c r="B52" s="503"/>
+      <c r="C52" s="503"/>
+      <c r="D52" s="504"/>
       <c r="E52" s="472"/>
       <c r="F52" s="393"/>
       <c r="G52" s="393"/>
@@ -10042,8 +10079,8 @@
       <c r="F53" s="474"/>
       <c r="G53" s="474"/>
       <c r="H53" s="474"/>
-      <c r="I53" s="507"/>
-      <c r="J53" s="508"/>
+      <c r="I53" s="500"/>
+      <c r="J53" s="501"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="475"/>
@@ -10054,8 +10091,8 @@
       <c r="F54" s="423"/>
       <c r="G54" s="423"/>
       <c r="H54" s="476"/>
-      <c r="I54" s="509"/>
-      <c r="J54" s="509"/>
+      <c r="I54" s="502"/>
+      <c r="J54" s="502"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="475"/>
@@ -10066,8 +10103,8 @@
       <c r="F55" s="413"/>
       <c r="G55" s="413"/>
       <c r="H55" s="413"/>
-      <c r="I55" s="509"/>
-      <c r="J55" s="509"/>
+      <c r="I55" s="502"/>
+      <c r="J55" s="502"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="393"/>
@@ -10080,30 +10117,30 @@
       <c r="H56" s="393"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="507"/>
-      <c r="C61" s="508"/>
+      <c r="B61" s="500"/>
+      <c r="C61" s="501"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="507"/>
-      <c r="C68" s="508"/>
+      <c r="B68" s="500"/>
+      <c r="C68" s="501"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B68:C68"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B68:C68"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="38" max="16383" man="1"/>
   </rowBreaks>
@@ -10182,47 +10219,47 @@
       <c r="J8" s="317"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="511" t="s">
+      <c r="A11" s="535" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="511"/>
-      <c r="C11" s="511"/>
-      <c r="D11" s="511"/>
-      <c r="E11" s="511"/>
-      <c r="F11" s="511"/>
-      <c r="G11" s="511"/>
-      <c r="H11" s="511"/>
-      <c r="I11" s="511"/>
-      <c r="J11" s="511"/>
+      <c r="B11" s="535"/>
+      <c r="C11" s="535"/>
+      <c r="D11" s="535"/>
+      <c r="E11" s="535"/>
+      <c r="F11" s="535"/>
+      <c r="G11" s="535"/>
+      <c r="H11" s="535"/>
+      <c r="I11" s="535"/>
+      <c r="J11" s="535"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="510" t="s">
+      <c r="A12" s="534" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="510"/>
-      <c r="C12" s="510"/>
-      <c r="D12" s="510"/>
-      <c r="E12" s="510"/>
-      <c r="F12" s="510"/>
-      <c r="G12" s="510"/>
-      <c r="H12" s="510"/>
-      <c r="I12" s="510"/>
-      <c r="J12" s="510"/>
+      <c r="B12" s="534"/>
+      <c r="C12" s="534"/>
+      <c r="D12" s="534"/>
+      <c r="E12" s="534"/>
+      <c r="F12" s="534"/>
+      <c r="G12" s="534"/>
+      <c r="H12" s="534"/>
+      <c r="I12" s="534"/>
+      <c r="J12" s="534"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="512" t="str">
+      <c r="A13" s="536" t="str">
         <f>Данные!A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="B13" s="511"/>
-      <c r="C13" s="511"/>
-      <c r="D13" s="511"/>
-      <c r="E13" s="511"/>
-      <c r="F13" s="511"/>
-      <c r="G13" s="511"/>
-      <c r="H13" s="511"/>
-      <c r="I13" s="511"/>
-      <c r="J13" s="511"/>
+      <c r="B13" s="535"/>
+      <c r="C13" s="535"/>
+      <c r="D13" s="535"/>
+      <c r="E13" s="535"/>
+      <c r="F13" s="535"/>
+      <c r="G13" s="535"/>
+      <c r="H13" s="535"/>
+      <c r="I13" s="535"/>
+      <c r="J13" s="535"/>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="311" t="s">
@@ -10347,482 +10384,482 @@
       <c r="J21" s="312"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="516" t="s">
+      <c r="A22" s="532" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="516" t="s">
+      <c r="B22" s="532" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="516"/>
-      <c r="D22" s="516"/>
-      <c r="E22" s="516" t="s">
+      <c r="C22" s="532"/>
+      <c r="D22" s="532"/>
+      <c r="E22" s="532" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="516"/>
-      <c r="G22" s="534" t="s">
+      <c r="F22" s="532"/>
+      <c r="G22" s="533" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="516" t="s">
+      <c r="H22" s="532" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="516"/>
-      <c r="J22" s="516"/>
+      <c r="I22" s="532"/>
+      <c r="J22" s="532"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="516"/>
-      <c r="B23" s="516"/>
-      <c r="C23" s="516"/>
-      <c r="D23" s="516"/>
-      <c r="E23" s="516"/>
-      <c r="F23" s="516"/>
-      <c r="G23" s="534"/>
-      <c r="H23" s="516"/>
-      <c r="I23" s="516"/>
-      <c r="J23" s="516"/>
+      <c r="A23" s="532"/>
+      <c r="B23" s="532"/>
+      <c r="C23" s="532"/>
+      <c r="D23" s="532"/>
+      <c r="E23" s="532"/>
+      <c r="F23" s="532"/>
+      <c r="G23" s="533"/>
+      <c r="H23" s="532"/>
+      <c r="I23" s="532"/>
+      <c r="J23" s="532"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="517">
+      <c r="A24" s="510">
         <v>1</v>
       </c>
-      <c r="B24" s="531" t="s">
+      <c r="B24" s="537" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="532"/>
-      <c r="D24" s="533"/>
-      <c r="E24" s="519" t="str">
+      <c r="C24" s="538"/>
+      <c r="D24" s="539"/>
+      <c r="E24" s="515" t="str">
         <f>Данные!C14</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F24" s="520"/>
-      <c r="G24" s="523">
+      <c r="F24" s="516"/>
+      <c r="G24" s="519">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="H24" s="525"/>
-      <c r="I24" s="526"/>
-      <c r="J24" s="527"/>
+      <c r="H24" s="521"/>
+      <c r="I24" s="522"/>
+      <c r="J24" s="523"/>
     </row>
     <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="518"/>
-      <c r="B25" s="513" t="str">
+      <c r="A25" s="530"/>
+      <c r="B25" s="527" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C25" s="514"/>
-      <c r="D25" s="515"/>
-      <c r="E25" s="521"/>
-      <c r="F25" s="522"/>
-      <c r="G25" s="524"/>
-      <c r="H25" s="528"/>
-      <c r="I25" s="529"/>
-      <c r="J25" s="530"/>
+      <c r="C25" s="528"/>
+      <c r="D25" s="529"/>
+      <c r="E25" s="531"/>
+      <c r="F25" s="518"/>
+      <c r="G25" s="520"/>
+      <c r="H25" s="524"/>
+      <c r="I25" s="525"/>
+      <c r="J25" s="526"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="517">
+      <c r="A26" s="510">
         <v>1</v>
       </c>
-      <c r="B26" s="535" t="s">
+      <c r="B26" s="512" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="536"/>
-      <c r="D26" s="537"/>
-      <c r="E26" s="519" t="str">
+      <c r="C26" s="513"/>
+      <c r="D26" s="514"/>
+      <c r="E26" s="515" t="str">
         <f>Данные!C15</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F26" s="520"/>
-      <c r="G26" s="523">
+      <c r="F26" s="516"/>
+      <c r="G26" s="519">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="H26" s="525"/>
-      <c r="I26" s="526"/>
-      <c r="J26" s="527"/>
+      <c r="H26" s="521"/>
+      <c r="I26" s="522"/>
+      <c r="J26" s="523"/>
     </row>
     <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="518"/>
-      <c r="B27" s="513" t="str">
+      <c r="A27" s="530"/>
+      <c r="B27" s="527" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C27" s="514"/>
-      <c r="D27" s="515"/>
-      <c r="E27" s="521"/>
-      <c r="F27" s="522"/>
-      <c r="G27" s="524"/>
-      <c r="H27" s="528"/>
-      <c r="I27" s="529"/>
-      <c r="J27" s="530"/>
+      <c r="C27" s="528"/>
+      <c r="D27" s="529"/>
+      <c r="E27" s="531"/>
+      <c r="F27" s="518"/>
+      <c r="G27" s="520"/>
+      <c r="H27" s="524"/>
+      <c r="I27" s="525"/>
+      <c r="J27" s="526"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="517">
+      <c r="A28" s="510">
         <v>1</v>
       </c>
-      <c r="B28" s="535" t="s">
+      <c r="B28" s="512" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="536"/>
-      <c r="D28" s="537"/>
-      <c r="E28" s="519" t="str">
+      <c r="C28" s="513"/>
+      <c r="D28" s="514"/>
+      <c r="E28" s="515" t="str">
         <f>Данные!C16</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F28" s="520"/>
-      <c r="G28" s="523">
+      <c r="F28" s="516"/>
+      <c r="G28" s="519">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="H28" s="525"/>
-      <c r="I28" s="526"/>
-      <c r="J28" s="527"/>
+      <c r="H28" s="521"/>
+      <c r="I28" s="522"/>
+      <c r="J28" s="523"/>
     </row>
     <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="518"/>
-      <c r="B29" s="513" t="str">
+      <c r="A29" s="530"/>
+      <c r="B29" s="527" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C29" s="514"/>
-      <c r="D29" s="515"/>
-      <c r="E29" s="521"/>
-      <c r="F29" s="522"/>
-      <c r="G29" s="524"/>
-      <c r="H29" s="528"/>
-      <c r="I29" s="529"/>
-      <c r="J29" s="530"/>
+      <c r="C29" s="528"/>
+      <c r="D29" s="529"/>
+      <c r="E29" s="531"/>
+      <c r="F29" s="518"/>
+      <c r="G29" s="520"/>
+      <c r="H29" s="524"/>
+      <c r="I29" s="525"/>
+      <c r="J29" s="526"/>
     </row>
     <row r="30" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="517">
+      <c r="A30" s="510">
         <v>1</v>
       </c>
-      <c r="B30" s="535" t="s">
+      <c r="B30" s="512" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="536"/>
-      <c r="D30" s="537"/>
-      <c r="E30" s="519" t="str">
+      <c r="C30" s="513"/>
+      <c r="D30" s="514"/>
+      <c r="E30" s="515" t="str">
         <f>Данные!C17</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F30" s="520"/>
-      <c r="G30" s="523">
+      <c r="F30" s="516"/>
+      <c r="G30" s="519">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="H30" s="525"/>
-      <c r="I30" s="526"/>
-      <c r="J30" s="527"/>
+      <c r="H30" s="521"/>
+      <c r="I30" s="522"/>
+      <c r="J30" s="523"/>
     </row>
     <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="538"/>
-      <c r="B31" s="513" t="str">
+      <c r="A31" s="511"/>
+      <c r="B31" s="527" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C31" s="514"/>
-      <c r="D31" s="515"/>
-      <c r="E31" s="539"/>
-      <c r="F31" s="522"/>
-      <c r="G31" s="524"/>
-      <c r="H31" s="528"/>
-      <c r="I31" s="529"/>
-      <c r="J31" s="530"/>
+      <c r="C31" s="528"/>
+      <c r="D31" s="529"/>
+      <c r="E31" s="517"/>
+      <c r="F31" s="518"/>
+      <c r="G31" s="520"/>
+      <c r="H31" s="524"/>
+      <c r="I31" s="525"/>
+      <c r="J31" s="526"/>
     </row>
     <row r="32" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="517">
+      <c r="A32" s="510">
         <v>1</v>
       </c>
-      <c r="B32" s="535" t="s">
+      <c r="B32" s="512" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="536"/>
-      <c r="D32" s="537"/>
-      <c r="E32" s="519" t="str">
+      <c r="C32" s="513"/>
+      <c r="D32" s="514"/>
+      <c r="E32" s="515" t="str">
         <f>Данные!C18</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F32" s="520"/>
-      <c r="G32" s="523">
+      <c r="F32" s="516"/>
+      <c r="G32" s="519">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="H32" s="525"/>
-      <c r="I32" s="526"/>
-      <c r="J32" s="527"/>
+      <c r="H32" s="521"/>
+      <c r="I32" s="522"/>
+      <c r="J32" s="523"/>
     </row>
     <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="538"/>
-      <c r="B33" s="513" t="str">
+      <c r="A33" s="511"/>
+      <c r="B33" s="527" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C33" s="514"/>
-      <c r="D33" s="515"/>
-      <c r="E33" s="539"/>
-      <c r="F33" s="522"/>
-      <c r="G33" s="524"/>
-      <c r="H33" s="528"/>
-      <c r="I33" s="529"/>
-      <c r="J33" s="530"/>
+      <c r="C33" s="528"/>
+      <c r="D33" s="529"/>
+      <c r="E33" s="517"/>
+      <c r="F33" s="518"/>
+      <c r="G33" s="520"/>
+      <c r="H33" s="524"/>
+      <c r="I33" s="525"/>
+      <c r="J33" s="526"/>
     </row>
     <row r="34" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="517">
+      <c r="A34" s="510">
         <v>1</v>
       </c>
-      <c r="B34" s="535" t="s">
+      <c r="B34" s="512" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="536"/>
-      <c r="D34" s="537"/>
-      <c r="E34" s="519" t="str">
+      <c r="C34" s="513"/>
+      <c r="D34" s="514"/>
+      <c r="E34" s="515" t="str">
         <f>Данные!C19</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F34" s="520"/>
-      <c r="G34" s="523">
+      <c r="F34" s="516"/>
+      <c r="G34" s="519">
         <f>Данные!B19</f>
         <v>60</v>
       </c>
-      <c r="H34" s="525"/>
-      <c r="I34" s="526"/>
-      <c r="J34" s="527"/>
+      <c r="H34" s="521"/>
+      <c r="I34" s="522"/>
+      <c r="J34" s="523"/>
     </row>
     <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="538"/>
-      <c r="B35" s="513" t="str">
+      <c r="A35" s="511"/>
+      <c r="B35" s="527" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C35" s="514"/>
-      <c r="D35" s="515"/>
-      <c r="E35" s="539"/>
-      <c r="F35" s="522"/>
-      <c r="G35" s="524"/>
-      <c r="H35" s="528"/>
-      <c r="I35" s="529"/>
-      <c r="J35" s="530"/>
+      <c r="C35" s="528"/>
+      <c r="D35" s="529"/>
+      <c r="E35" s="517"/>
+      <c r="F35" s="518"/>
+      <c r="G35" s="520"/>
+      <c r="H35" s="524"/>
+      <c r="I35" s="525"/>
+      <c r="J35" s="526"/>
     </row>
     <row r="36" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="517">
+      <c r="A36" s="510">
         <v>1</v>
       </c>
-      <c r="B36" s="535" t="s">
+      <c r="B36" s="512" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="536"/>
-      <c r="D36" s="537"/>
-      <c r="E36" s="519" t="str">
+      <c r="C36" s="513"/>
+      <c r="D36" s="514"/>
+      <c r="E36" s="515" t="str">
         <f>Данные!C20</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F36" s="520"/>
-      <c r="G36" s="523">
+      <c r="F36" s="516"/>
+      <c r="G36" s="519">
         <f>Данные!B20</f>
         <v>50</v>
       </c>
-      <c r="H36" s="525"/>
-      <c r="I36" s="526"/>
-      <c r="J36" s="527"/>
+      <c r="H36" s="521"/>
+      <c r="I36" s="522"/>
+      <c r="J36" s="523"/>
     </row>
     <row r="37" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="538"/>
-      <c r="B37" s="513" t="str">
+      <c r="A37" s="511"/>
+      <c r="B37" s="527" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C37" s="514"/>
-      <c r="D37" s="515"/>
-      <c r="E37" s="539"/>
-      <c r="F37" s="522"/>
-      <c r="G37" s="524"/>
-      <c r="H37" s="528"/>
-      <c r="I37" s="529"/>
-      <c r="J37" s="530"/>
+      <c r="C37" s="528"/>
+      <c r="D37" s="529"/>
+      <c r="E37" s="517"/>
+      <c r="F37" s="518"/>
+      <c r="G37" s="520"/>
+      <c r="H37" s="524"/>
+      <c r="I37" s="525"/>
+      <c r="J37" s="526"/>
     </row>
     <row r="38" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="517">
+      <c r="A38" s="510">
         <v>1</v>
       </c>
-      <c r="B38" s="535" t="s">
+      <c r="B38" s="512" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="536"/>
-      <c r="D38" s="537"/>
-      <c r="E38" s="519" t="str">
+      <c r="C38" s="513"/>
+      <c r="D38" s="514"/>
+      <c r="E38" s="515" t="str">
         <f>Данные!C21</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F38" s="520"/>
-      <c r="G38" s="523">
+      <c r="F38" s="516"/>
+      <c r="G38" s="519">
         <f>Данные!B21</f>
         <v>24</v>
       </c>
-      <c r="H38" s="525"/>
-      <c r="I38" s="526"/>
-      <c r="J38" s="527"/>
+      <c r="H38" s="521"/>
+      <c r="I38" s="522"/>
+      <c r="J38" s="523"/>
     </row>
     <row r="39" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="538"/>
-      <c r="B39" s="513" t="str">
+      <c r="A39" s="511"/>
+      <c r="B39" s="527" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C39" s="514"/>
-      <c r="D39" s="515"/>
-      <c r="E39" s="539"/>
-      <c r="F39" s="522"/>
-      <c r="G39" s="524"/>
-      <c r="H39" s="528"/>
-      <c r="I39" s="529"/>
-      <c r="J39" s="530"/>
+      <c r="C39" s="528"/>
+      <c r="D39" s="529"/>
+      <c r="E39" s="517"/>
+      <c r="F39" s="518"/>
+      <c r="G39" s="520"/>
+      <c r="H39" s="524"/>
+      <c r="I39" s="525"/>
+      <c r="J39" s="526"/>
     </row>
     <row r="40" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="517">
+      <c r="A40" s="510">
         <v>1</v>
       </c>
-      <c r="B40" s="535" t="s">
+      <c r="B40" s="512" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="536"/>
-      <c r="D40" s="537"/>
-      <c r="E40" s="519" t="str">
+      <c r="C40" s="513"/>
+      <c r="D40" s="514"/>
+      <c r="E40" s="515" t="str">
         <f>Данные!C23</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F40" s="520"/>
-      <c r="G40" s="523">
+      <c r="F40" s="516"/>
+      <c r="G40" s="519">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="H40" s="525"/>
-      <c r="I40" s="526"/>
-      <c r="J40" s="527"/>
+      <c r="H40" s="521"/>
+      <c r="I40" s="522"/>
+      <c r="J40" s="523"/>
     </row>
     <row r="41" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="538"/>
-      <c r="B41" s="513" t="str">
+      <c r="A41" s="511"/>
+      <c r="B41" s="527" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C41" s="514"/>
-      <c r="D41" s="515"/>
-      <c r="E41" s="539"/>
-      <c r="F41" s="522"/>
-      <c r="G41" s="524"/>
-      <c r="H41" s="528"/>
-      <c r="I41" s="529"/>
-      <c r="J41" s="530"/>
+      <c r="C41" s="528"/>
+      <c r="D41" s="529"/>
+      <c r="E41" s="517"/>
+      <c r="F41" s="518"/>
+      <c r="G41" s="520"/>
+      <c r="H41" s="524"/>
+      <c r="I41" s="525"/>
+      <c r="J41" s="526"/>
     </row>
     <row r="42" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="517">
+      <c r="A42" s="510">
         <v>1</v>
       </c>
-      <c r="B42" s="535" t="s">
+      <c r="B42" s="512" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="536"/>
-      <c r="D42" s="537"/>
-      <c r="E42" s="519" t="str">
+      <c r="C42" s="513"/>
+      <c r="D42" s="514"/>
+      <c r="E42" s="515" t="str">
         <f>Данные!C26</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F42" s="520"/>
-      <c r="G42" s="523">
+      <c r="F42" s="516"/>
+      <c r="G42" s="519">
         <f>Данные!B26</f>
         <v>22</v>
       </c>
-      <c r="H42" s="525"/>
-      <c r="I42" s="526"/>
-      <c r="J42" s="527"/>
+      <c r="H42" s="521"/>
+      <c r="I42" s="522"/>
+      <c r="J42" s="523"/>
     </row>
     <row r="43" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="538"/>
-      <c r="B43" s="513" t="str">
+      <c r="A43" s="511"/>
+      <c r="B43" s="527" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C43" s="514"/>
-      <c r="D43" s="515"/>
-      <c r="E43" s="539"/>
-      <c r="F43" s="522"/>
-      <c r="G43" s="524"/>
-      <c r="H43" s="528"/>
-      <c r="I43" s="529"/>
-      <c r="J43" s="530"/>
+      <c r="C43" s="528"/>
+      <c r="D43" s="529"/>
+      <c r="E43" s="517"/>
+      <c r="F43" s="518"/>
+      <c r="G43" s="520"/>
+      <c r="H43" s="524"/>
+      <c r="I43" s="525"/>
+      <c r="J43" s="526"/>
     </row>
     <row r="44" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="517">
+      <c r="A44" s="510">
         <v>1</v>
       </c>
-      <c r="B44" s="535" t="s">
+      <c r="B44" s="512" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="536"/>
-      <c r="D44" s="537"/>
-      <c r="E44" s="519">
+      <c r="C44" s="513"/>
+      <c r="D44" s="514"/>
+      <c r="E44" s="515">
         <f>Данные!C27</f>
         <v>0</v>
       </c>
-      <c r="F44" s="520"/>
-      <c r="G44" s="523">
+      <c r="F44" s="516"/>
+      <c r="G44" s="519">
         <f>Данные!B27</f>
         <v>22</v>
       </c>
-      <c r="H44" s="525"/>
-      <c r="I44" s="526"/>
-      <c r="J44" s="527"/>
+      <c r="H44" s="521"/>
+      <c r="I44" s="522"/>
+      <c r="J44" s="523"/>
     </row>
     <row r="45" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="538"/>
-      <c r="B45" s="513" t="str">
+      <c r="A45" s="511"/>
+      <c r="B45" s="527" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C45" s="514"/>
-      <c r="D45" s="515"/>
-      <c r="E45" s="539"/>
-      <c r="F45" s="522"/>
-      <c r="G45" s="524"/>
-      <c r="H45" s="528"/>
-      <c r="I45" s="529"/>
-      <c r="J45" s="530"/>
+      <c r="C45" s="528"/>
+      <c r="D45" s="529"/>
+      <c r="E45" s="517"/>
+      <c r="F45" s="518"/>
+      <c r="G45" s="520"/>
+      <c r="H45" s="524"/>
+      <c r="I45" s="525"/>
+      <c r="J45" s="526"/>
     </row>
     <row r="46" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="517">
+      <c r="A46" s="510">
         <v>1</v>
       </c>
-      <c r="B46" s="535" t="s">
+      <c r="B46" s="512" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="536"/>
-      <c r="D46" s="537"/>
-      <c r="E46" s="519">
+      <c r="C46" s="513"/>
+      <c r="D46" s="514"/>
+      <c r="E46" s="515">
         <f>Данные!C24</f>
         <v>0</v>
       </c>
-      <c r="F46" s="520"/>
-      <c r="G46" s="523" t="str">
+      <c r="F46" s="516"/>
+      <c r="G46" s="519" t="str">
         <f>Данные!B24</f>
         <v>-</v>
       </c>
-      <c r="H46" s="525"/>
-      <c r="I46" s="526"/>
-      <c r="J46" s="527"/>
+      <c r="H46" s="521"/>
+      <c r="I46" s="522"/>
+      <c r="J46" s="523"/>
     </row>
     <row r="47" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="538"/>
-      <c r="B47" s="513" t="str">
+      <c r="A47" s="511"/>
+      <c r="B47" s="527" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C47" s="514"/>
-      <c r="D47" s="515"/>
-      <c r="E47" s="539"/>
-      <c r="F47" s="522"/>
-      <c r="G47" s="524"/>
-      <c r="H47" s="528"/>
-      <c r="I47" s="529"/>
-      <c r="J47" s="530"/>
+      <c r="C47" s="528"/>
+      <c r="D47" s="529"/>
+      <c r="E47" s="517"/>
+      <c r="F47" s="518"/>
+      <c r="G47" s="520"/>
+      <c r="H47" s="524"/>
+      <c r="I47" s="525"/>
+      <c r="J47" s="526"/>
     </row>
     <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="311"/>
@@ -10951,70 +10988,6 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -11031,6 +11004,70 @@
     <mergeCell ref="H24:J25"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11085,47 +11122,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="558"/>
-      <c r="C2" s="559"/>
-      <c r="D2" s="560"/>
-      <c r="E2" s="567" t="s">
+      <c r="B2" s="540"/>
+      <c r="C2" s="541"/>
+      <c r="D2" s="542"/>
+      <c r="E2" s="549" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="568"/>
-      <c r="G2" s="568"/>
-      <c r="H2" s="569"/>
-      <c r="I2" s="574" t="s">
+      <c r="F2" s="550"/>
+      <c r="G2" s="550"/>
+      <c r="H2" s="551"/>
+      <c r="I2" s="556" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="575"/>
-      <c r="K2" s="578">
+      <c r="J2" s="557"/>
+      <c r="K2" s="560">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="579"/>
+      <c r="L2" s="561"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="570"/>
-      <c r="Q2" s="570"/>
+      <c r="P2" s="552"/>
+      <c r="Q2" s="552"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="561"/>
-      <c r="C3" s="562"/>
-      <c r="D3" s="563"/>
-      <c r="E3" s="571" t="s">
+      <c r="B3" s="543"/>
+      <c r="C3" s="544"/>
+      <c r="D3" s="545"/>
+      <c r="E3" s="553" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="572"/>
-      <c r="G3" s="572"/>
-      <c r="H3" s="573"/>
-      <c r="I3" s="576"/>
-      <c r="J3" s="577"/>
-      <c r="K3" s="580"/>
-      <c r="L3" s="581"/>
+      <c r="F3" s="554"/>
+      <c r="G3" s="554"/>
+      <c r="H3" s="555"/>
+      <c r="I3" s="558"/>
+      <c r="J3" s="559"/>
+      <c r="K3" s="562"/>
+      <c r="L3" s="563"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11136,9 +11173,9 @@
     </row>
     <row r="4" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="564"/>
-      <c r="C4" s="565"/>
-      <c r="D4" s="566"/>
+      <c r="B4" s="546"/>
+      <c r="C4" s="547"/>
+      <c r="D4" s="548"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11157,22 +11194,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="543" t="s">
+      <c r="B5" s="567" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="544"/>
-      <c r="D5" s="492" t="str">
+      <c r="C5" s="568"/>
+      <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="493"/>
-      <c r="F5" s="493"/>
-      <c r="G5" s="493"/>
-      <c r="H5" s="494"/>
-      <c r="I5" s="545"/>
-      <c r="J5" s="546"/>
-      <c r="K5" s="493"/>
-      <c r="L5" s="494"/>
+      <c r="E5" s="495"/>
+      <c r="F5" s="495"/>
+      <c r="G5" s="495"/>
+      <c r="H5" s="496"/>
+      <c r="I5" s="569"/>
+      <c r="J5" s="570"/>
+      <c r="K5" s="495"/>
+      <c r="L5" s="496"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11183,22 +11220,22 @@
     </row>
     <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="543" t="s">
+      <c r="B6" s="567" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="547"/>
-      <c r="D6" s="486" t="str">
+      <c r="C6" s="571"/>
+      <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="548"/>
-      <c r="F6" s="548"/>
-      <c r="G6" s="548"/>
-      <c r="H6" s="549"/>
-      <c r="I6" s="545"/>
-      <c r="J6" s="546"/>
-      <c r="K6" s="493"/>
-      <c r="L6" s="494"/>
+      <c r="E6" s="572"/>
+      <c r="F6" s="572"/>
+      <c r="G6" s="572"/>
+      <c r="H6" s="573"/>
+      <c r="I6" s="569"/>
+      <c r="J6" s="570"/>
+      <c r="K6" s="495"/>
+      <c r="L6" s="496"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11209,27 +11246,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="550" t="s">
+      <c r="B7" s="574" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="551"/>
-      <c r="D7" s="495">
+      <c r="C7" s="575"/>
+      <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="552"/>
-      <c r="F7" s="552"/>
-      <c r="G7" s="552"/>
-      <c r="H7" s="553"/>
-      <c r="I7" s="550" t="s">
+      <c r="E7" s="576"/>
+      <c r="F7" s="576"/>
+      <c r="G7" s="576"/>
+      <c r="H7" s="577"/>
+      <c r="I7" s="574" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="554"/>
-      <c r="K7" s="483">
+      <c r="J7" s="578"/>
+      <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="484"/>
+      <c r="L7" s="486"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -11723,12 +11760,12 @@
     </row>
     <row r="23" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="78"/>
-      <c r="B23" s="555" t="s">
+      <c r="B23" s="579" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="556"/>
-      <c r="D23" s="556"/>
-      <c r="E23" s="557"/>
+      <c r="C23" s="580"/>
+      <c r="D23" s="580"/>
+      <c r="E23" s="581"/>
       <c r="F23" s="116" t="s">
         <v>16</v>
       </c>
@@ -11750,12 +11787,12 @@
     </row>
     <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="78"/>
-      <c r="B24" s="540" t="s">
+      <c r="B24" s="564" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="541"/>
-      <c r="D24" s="541"/>
-      <c r="E24" s="542"/>
+      <c r="C24" s="565"/>
+      <c r="D24" s="565"/>
+      <c r="E24" s="566"/>
       <c r="F24" s="116" t="s">
         <v>16</v>
       </c>
@@ -11799,12 +11836,6 @@
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -11819,6 +11850,12 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
@@ -11884,50 +11921,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="589">
+      <c r="B2" s="582">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="590"/>
-      <c r="D2" s="591"/>
-      <c r="E2" s="598" t="s">
+      <c r="C2" s="583"/>
+      <c r="D2" s="584"/>
+      <c r="E2" s="591" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="599"/>
-      <c r="G2" s="599"/>
-      <c r="H2" s="600"/>
-      <c r="I2" s="604" t="s">
+      <c r="F2" s="592"/>
+      <c r="G2" s="592"/>
+      <c r="H2" s="593"/>
+      <c r="I2" s="597" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="605"/>
-      <c r="K2" s="608">
+      <c r="J2" s="598"/>
+      <c r="K2" s="601">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="609"/>
+      <c r="L2" s="602"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="570"/>
-      <c r="Q2" s="570"/>
+      <c r="P2" s="552"/>
+      <c r="Q2" s="552"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="592"/>
-      <c r="C3" s="593"/>
-      <c r="D3" s="594"/>
-      <c r="E3" s="601" t="s">
+      <c r="B3" s="585"/>
+      <c r="C3" s="586"/>
+      <c r="D3" s="587"/>
+      <c r="E3" s="594" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="602"/>
-      <c r="G3" s="602"/>
-      <c r="H3" s="603"/>
-      <c r="I3" s="606"/>
-      <c r="J3" s="607"/>
-      <c r="K3" s="610"/>
-      <c r="L3" s="611"/>
+      <c r="F3" s="595"/>
+      <c r="G3" s="595"/>
+      <c r="H3" s="596"/>
+      <c r="I3" s="599"/>
+      <c r="J3" s="600"/>
+      <c r="K3" s="603"/>
+      <c r="L3" s="604"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11938,9 +11975,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="595"/>
-      <c r="C4" s="596"/>
-      <c r="D4" s="597"/>
+      <c r="B4" s="588"/>
+      <c r="C4" s="589"/>
+      <c r="D4" s="590"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -11959,22 +11996,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="543" t="s">
+      <c r="B5" s="567" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="582"/>
-      <c r="D5" s="492" t="str">
+      <c r="C5" s="605"/>
+      <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="493"/>
-      <c r="F5" s="493"/>
-      <c r="G5" s="493"/>
-      <c r="H5" s="494"/>
-      <c r="I5" s="583"/>
-      <c r="J5" s="584"/>
-      <c r="K5" s="585"/>
-      <c r="L5" s="494"/>
+      <c r="E5" s="495"/>
+      <c r="F5" s="495"/>
+      <c r="G5" s="495"/>
+      <c r="H5" s="496"/>
+      <c r="I5" s="606"/>
+      <c r="J5" s="607"/>
+      <c r="K5" s="608"/>
+      <c r="L5" s="496"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11985,22 +12022,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="543" t="s">
+      <c r="B6" s="567" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="582"/>
-      <c r="D6" s="486" t="str">
+      <c r="C6" s="605"/>
+      <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="548"/>
-      <c r="F6" s="548"/>
-      <c r="G6" s="548"/>
-      <c r="H6" s="549"/>
-      <c r="I6" s="583"/>
-      <c r="J6" s="584"/>
-      <c r="K6" s="585"/>
-      <c r="L6" s="494"/>
+      <c r="E6" s="572"/>
+      <c r="F6" s="572"/>
+      <c r="G6" s="572"/>
+      <c r="H6" s="573"/>
+      <c r="I6" s="606"/>
+      <c r="J6" s="607"/>
+      <c r="K6" s="608"/>
+      <c r="L6" s="496"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12011,27 +12048,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="550" t="s">
+      <c r="B7" s="574" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="586"/>
-      <c r="D7" s="495">
+      <c r="C7" s="609"/>
+      <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="552"/>
-      <c r="F7" s="552"/>
-      <c r="G7" s="552"/>
-      <c r="H7" s="553"/>
-      <c r="I7" s="587" t="s">
+      <c r="E7" s="576"/>
+      <c r="F7" s="576"/>
+      <c r="G7" s="576"/>
+      <c r="H7" s="577"/>
+      <c r="I7" s="610" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="586"/>
-      <c r="K7" s="483">
+      <c r="J7" s="609"/>
+      <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="484"/>
+      <c r="L7" s="486"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12228,13 +12265,13 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78"/>
-      <c r="B14" s="555" t="s">
+      <c r="B14" s="579" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="556"/>
-      <c r="D14" s="556"/>
-      <c r="E14" s="556"/>
-      <c r="F14" s="588"/>
+      <c r="C14" s="580"/>
+      <c r="D14" s="580"/>
+      <c r="E14" s="580"/>
+      <c r="F14" s="611"/>
       <c r="G14" s="56" t="s">
         <v>77</v>
       </c>
@@ -12253,12 +12290,12 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="78"/>
-      <c r="B15" s="540" t="s">
+      <c r="B15" s="564" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="541"/>
-      <c r="D15" s="541"/>
-      <c r="E15" s="542"/>
+      <c r="C15" s="565"/>
+      <c r="D15" s="565"/>
+      <c r="E15" s="566"/>
       <c r="F15" s="116" t="s">
         <v>16</v>
       </c>
@@ -12309,12 +12346,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -12329,6 +12360,12 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="notBetween">
@@ -12402,47 +12439,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="558"/>
-      <c r="C2" s="559"/>
-      <c r="D2" s="560"/>
-      <c r="E2" s="567" t="s">
+      <c r="B2" s="540"/>
+      <c r="C2" s="541"/>
+      <c r="D2" s="542"/>
+      <c r="E2" s="549" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="568"/>
-      <c r="G2" s="568"/>
-      <c r="H2" s="569"/>
-      <c r="I2" s="574" t="s">
+      <c r="F2" s="550"/>
+      <c r="G2" s="550"/>
+      <c r="H2" s="551"/>
+      <c r="I2" s="556" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="575"/>
-      <c r="K2" s="578">
+      <c r="J2" s="557"/>
+      <c r="K2" s="560">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="L2" s="579"/>
+      <c r="L2" s="561"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="570"/>
-      <c r="Q2" s="570"/>
+      <c r="P2" s="552"/>
+      <c r="Q2" s="552"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="561"/>
-      <c r="C3" s="562"/>
-      <c r="D3" s="563"/>
-      <c r="E3" s="571" t="s">
+      <c r="B3" s="543"/>
+      <c r="C3" s="544"/>
+      <c r="D3" s="545"/>
+      <c r="E3" s="553" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="572"/>
-      <c r="G3" s="572"/>
-      <c r="H3" s="573"/>
-      <c r="I3" s="576"/>
-      <c r="J3" s="577"/>
-      <c r="K3" s="580"/>
-      <c r="L3" s="581"/>
+      <c r="F3" s="554"/>
+      <c r="G3" s="554"/>
+      <c r="H3" s="555"/>
+      <c r="I3" s="558"/>
+      <c r="J3" s="559"/>
+      <c r="K3" s="562"/>
+      <c r="L3" s="563"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12453,9 +12490,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="564"/>
-      <c r="C4" s="565"/>
-      <c r="D4" s="566"/>
+      <c r="B4" s="546"/>
+      <c r="C4" s="547"/>
+      <c r="D4" s="548"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12474,22 +12511,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="543" t="s">
+      <c r="B5" s="567" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="544"/>
-      <c r="D5" s="492" t="str">
+      <c r="C5" s="568"/>
+      <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="493"/>
-      <c r="F5" s="493"/>
-      <c r="G5" s="493"/>
-      <c r="H5" s="494"/>
-      <c r="I5" s="545"/>
-      <c r="J5" s="546"/>
-      <c r="K5" s="493"/>
-      <c r="L5" s="494"/>
+      <c r="E5" s="495"/>
+      <c r="F5" s="495"/>
+      <c r="G5" s="495"/>
+      <c r="H5" s="496"/>
+      <c r="I5" s="569"/>
+      <c r="J5" s="570"/>
+      <c r="K5" s="495"/>
+      <c r="L5" s="496"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12500,22 +12537,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="543" t="s">
+      <c r="B6" s="567" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="547"/>
-      <c r="D6" s="486" t="str">
+      <c r="C6" s="571"/>
+      <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="548"/>
-      <c r="F6" s="548"/>
-      <c r="G6" s="548"/>
-      <c r="H6" s="549"/>
-      <c r="I6" s="545"/>
-      <c r="J6" s="546"/>
-      <c r="K6" s="493"/>
-      <c r="L6" s="494"/>
+      <c r="E6" s="572"/>
+      <c r="F6" s="572"/>
+      <c r="G6" s="572"/>
+      <c r="H6" s="573"/>
+      <c r="I6" s="569"/>
+      <c r="J6" s="570"/>
+      <c r="K6" s="495"/>
+      <c r="L6" s="496"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12526,27 +12563,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="550" t="s">
+      <c r="B7" s="574" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="551"/>
-      <c r="D7" s="495">
+      <c r="C7" s="575"/>
+      <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="552"/>
-      <c r="F7" s="552"/>
-      <c r="G7" s="552"/>
-      <c r="H7" s="553"/>
-      <c r="I7" s="550" t="s">
+      <c r="E7" s="576"/>
+      <c r="F7" s="576"/>
+      <c r="G7" s="576"/>
+      <c r="H7" s="577"/>
+      <c r="I7" s="574" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="554"/>
-      <c r="K7" s="483">
+      <c r="J7" s="578"/>
+      <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="484"/>
+      <c r="L7" s="486"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -13029,6 +13066,8 @@
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="P2:Q2"/>
@@ -13045,8 +13084,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="I2:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -13114,24 +13151,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="558"/>
-      <c r="C2" s="559"/>
-      <c r="D2" s="560"/>
-      <c r="E2" s="567" t="s">
+      <c r="B2" s="540"/>
+      <c r="C2" s="541"/>
+      <c r="D2" s="542"/>
+      <c r="E2" s="549" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="568"/>
-      <c r="G2" s="568"/>
-      <c r="H2" s="569"/>
-      <c r="I2" s="574" t="s">
+      <c r="F2" s="550"/>
+      <c r="G2" s="550"/>
+      <c r="H2" s="551"/>
+      <c r="I2" s="556" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="575"/>
-      <c r="K2" s="578">
+      <c r="J2" s="557"/>
+      <c r="K2" s="560">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="L2" s="579"/>
+      <c r="L2" s="561"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
@@ -13142,19 +13179,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
-      <c r="B3" s="561"/>
-      <c r="C3" s="562"/>
-      <c r="D3" s="563"/>
-      <c r="E3" s="571" t="s">
+      <c r="B3" s="543"/>
+      <c r="C3" s="544"/>
+      <c r="D3" s="545"/>
+      <c r="E3" s="553" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="572"/>
-      <c r="G3" s="572"/>
-      <c r="H3" s="573"/>
-      <c r="I3" s="576"/>
-      <c r="J3" s="577"/>
-      <c r="K3" s="580"/>
-      <c r="L3" s="581"/>
+      <c r="F3" s="554"/>
+      <c r="G3" s="554"/>
+      <c r="H3" s="555"/>
+      <c r="I3" s="558"/>
+      <c r="J3" s="559"/>
+      <c r="K3" s="562"/>
+      <c r="L3" s="563"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13165,9 +13202,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="564"/>
-      <c r="C4" s="565"/>
-      <c r="D4" s="566"/>
+      <c r="B4" s="546"/>
+      <c r="C4" s="547"/>
+      <c r="D4" s="548"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13186,22 +13223,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="543" t="s">
+      <c r="B5" s="567" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="544"/>
-      <c r="D5" s="492" t="str">
+      <c r="C5" s="568"/>
+      <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="493"/>
-      <c r="F5" s="493"/>
-      <c r="G5" s="493"/>
-      <c r="H5" s="494"/>
-      <c r="I5" s="545"/>
-      <c r="J5" s="546"/>
-      <c r="K5" s="493"/>
-      <c r="L5" s="494"/>
+      <c r="E5" s="495"/>
+      <c r="F5" s="495"/>
+      <c r="G5" s="495"/>
+      <c r="H5" s="496"/>
+      <c r="I5" s="569"/>
+      <c r="J5" s="570"/>
+      <c r="K5" s="495"/>
+      <c r="L5" s="496"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13212,22 +13249,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="543" t="s">
+      <c r="B6" s="567" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="547"/>
-      <c r="D6" s="486" t="str">
+      <c r="C6" s="571"/>
+      <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="548"/>
-      <c r="F6" s="548"/>
-      <c r="G6" s="548"/>
-      <c r="H6" s="549"/>
-      <c r="I6" s="545"/>
-      <c r="J6" s="546"/>
-      <c r="K6" s="493"/>
-      <c r="L6" s="494"/>
+      <c r="E6" s="572"/>
+      <c r="F6" s="572"/>
+      <c r="G6" s="572"/>
+      <c r="H6" s="573"/>
+      <c r="I6" s="569"/>
+      <c r="J6" s="570"/>
+      <c r="K6" s="495"/>
+      <c r="L6" s="496"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13238,27 +13275,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="550" t="s">
+      <c r="B7" s="574" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="551"/>
-      <c r="D7" s="495">
+      <c r="C7" s="575"/>
+      <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="552"/>
-      <c r="F7" s="552"/>
-      <c r="G7" s="552"/>
-      <c r="H7" s="553"/>
-      <c r="I7" s="550" t="s">
+      <c r="E7" s="576"/>
+      <c r="F7" s="576"/>
+      <c r="G7" s="576"/>
+      <c r="H7" s="577"/>
+      <c r="I7" s="574" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="554"/>
-      <c r="K7" s="483">
+      <c r="J7" s="578"/>
+      <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="484"/>
+      <c r="L7" s="486"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -13543,17 +13580,6 @@
     <row r="17" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -13561,6 +13587,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="B2:D4"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -13632,60 +13669,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="589"/>
-      <c r="C2" s="590"/>
-      <c r="D2" s="591"/>
-      <c r="E2" s="598" t="s">
+      <c r="B2" s="582"/>
+      <c r="C2" s="583"/>
+      <c r="D2" s="584"/>
+      <c r="E2" s="591" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="599"/>
-      <c r="G2" s="599"/>
-      <c r="H2" s="600"/>
-      <c r="I2" s="604" t="s">
+      <c r="F2" s="592"/>
+      <c r="G2" s="592"/>
+      <c r="H2" s="593"/>
+      <c r="I2" s="597" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="605"/>
-      <c r="K2" s="608">
+      <c r="J2" s="598"/>
+      <c r="K2" s="601">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="L2" s="609"/>
-      <c r="M2" s="614"/>
-      <c r="N2" s="615"/>
-      <c r="O2" s="615"/>
-      <c r="P2" s="615"/>
-      <c r="Q2" s="615"/>
-      <c r="R2" s="616"/>
+      <c r="L2" s="602"/>
+      <c r="M2" s="613"/>
+      <c r="N2" s="614"/>
+      <c r="O2" s="614"/>
+      <c r="P2" s="614"/>
+      <c r="Q2" s="614"/>
+      <c r="R2" s="615"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="592"/>
-      <c r="C3" s="593"/>
-      <c r="D3" s="594"/>
-      <c r="E3" s="601" t="s">
+      <c r="B3" s="585"/>
+      <c r="C3" s="586"/>
+      <c r="D3" s="587"/>
+      <c r="E3" s="594" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="602"/>
-      <c r="G3" s="602"/>
-      <c r="H3" s="603"/>
-      <c r="I3" s="606"/>
-      <c r="J3" s="607"/>
-      <c r="K3" s="610"/>
-      <c r="L3" s="611"/>
-      <c r="M3" s="617"/>
-      <c r="N3" s="618"/>
-      <c r="O3" s="618"/>
-      <c r="P3" s="618"/>
-      <c r="Q3" s="618"/>
-      <c r="R3" s="619"/>
+      <c r="F3" s="595"/>
+      <c r="G3" s="595"/>
+      <c r="H3" s="596"/>
+      <c r="I3" s="599"/>
+      <c r="J3" s="600"/>
+      <c r="K3" s="603"/>
+      <c r="L3" s="604"/>
+      <c r="M3" s="616"/>
+      <c r="N3" s="617"/>
+      <c r="O3" s="617"/>
+      <c r="P3" s="617"/>
+      <c r="Q3" s="617"/>
+      <c r="R3" s="618"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="595"/>
-      <c r="C4" s="596"/>
-      <c r="D4" s="597"/>
+      <c r="B4" s="588"/>
+      <c r="C4" s="589"/>
+      <c r="D4" s="590"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -13694,95 +13731,95 @@
       <c r="J4" s="249"/>
       <c r="K4" s="252"/>
       <c r="L4" s="253"/>
-      <c r="M4" s="617"/>
-      <c r="N4" s="618"/>
-      <c r="O4" s="618"/>
-      <c r="P4" s="618"/>
-      <c r="Q4" s="618"/>
-      <c r="R4" s="619"/>
+      <c r="M4" s="616"/>
+      <c r="N4" s="617"/>
+      <c r="O4" s="617"/>
+      <c r="P4" s="617"/>
+      <c r="Q4" s="617"/>
+      <c r="R4" s="618"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="543" t="s">
+      <c r="B5" s="567" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="582"/>
-      <c r="D5" s="492" t="str">
+      <c r="C5" s="605"/>
+      <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="493"/>
-      <c r="F5" s="493"/>
-      <c r="G5" s="493"/>
-      <c r="H5" s="494"/>
-      <c r="I5" s="583"/>
-      <c r="J5" s="584"/>
-      <c r="K5" s="585"/>
-      <c r="L5" s="494"/>
-      <c r="M5" s="617"/>
-      <c r="N5" s="618"/>
-      <c r="O5" s="618"/>
-      <c r="P5" s="618"/>
-      <c r="Q5" s="618"/>
-      <c r="R5" s="619"/>
+      <c r="E5" s="495"/>
+      <c r="F5" s="495"/>
+      <c r="G5" s="495"/>
+      <c r="H5" s="496"/>
+      <c r="I5" s="606"/>
+      <c r="J5" s="607"/>
+      <c r="K5" s="608"/>
+      <c r="L5" s="496"/>
+      <c r="M5" s="616"/>
+      <c r="N5" s="617"/>
+      <c r="O5" s="617"/>
+      <c r="P5" s="617"/>
+      <c r="Q5" s="617"/>
+      <c r="R5" s="618"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="543" t="s">
+      <c r="B6" s="567" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="582"/>
-      <c r="D6" s="486" t="str">
+      <c r="C6" s="605"/>
+      <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="548"/>
-      <c r="F6" s="548"/>
-      <c r="G6" s="548"/>
-      <c r="H6" s="549"/>
-      <c r="I6" s="583"/>
-      <c r="J6" s="584"/>
-      <c r="K6" s="585"/>
-      <c r="L6" s="494"/>
-      <c r="M6" s="617"/>
-      <c r="N6" s="618"/>
-      <c r="O6" s="618"/>
-      <c r="P6" s="618"/>
-      <c r="Q6" s="618"/>
-      <c r="R6" s="619"/>
+      <c r="E6" s="572"/>
+      <c r="F6" s="572"/>
+      <c r="G6" s="572"/>
+      <c r="H6" s="573"/>
+      <c r="I6" s="606"/>
+      <c r="J6" s="607"/>
+      <c r="K6" s="608"/>
+      <c r="L6" s="496"/>
+      <c r="M6" s="616"/>
+      <c r="N6" s="617"/>
+      <c r="O6" s="617"/>
+      <c r="P6" s="617"/>
+      <c r="Q6" s="617"/>
+      <c r="R6" s="618"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="550" t="s">
+      <c r="B7" s="574" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="586"/>
-      <c r="D7" s="495">
+      <c r="C7" s="609"/>
+      <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="552"/>
-      <c r="F7" s="552"/>
-      <c r="G7" s="552"/>
-      <c r="H7" s="553"/>
-      <c r="I7" s="587" t="s">
+      <c r="E7" s="576"/>
+      <c r="F7" s="576"/>
+      <c r="G7" s="576"/>
+      <c r="H7" s="577"/>
+      <c r="I7" s="610" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="586"/>
-      <c r="K7" s="483">
+      <c r="J7" s="609"/>
+      <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="484"/>
-      <c r="M7" s="617"/>
-      <c r="N7" s="618"/>
-      <c r="O7" s="618"/>
-      <c r="P7" s="618"/>
-      <c r="Q7" s="618"/>
-      <c r="R7" s="619"/>
+      <c r="L7" s="486"/>
+      <c r="M7" s="616"/>
+      <c r="N7" s="617"/>
+      <c r="O7" s="617"/>
+      <c r="P7" s="617"/>
+      <c r="Q7" s="617"/>
+      <c r="R7" s="618"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14196,12 +14233,12 @@
     </row>
     <row r="21" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="78"/>
-      <c r="B21" s="540" t="s">
+      <c r="B21" s="564" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="541"/>
-      <c r="D21" s="541"/>
-      <c r="E21" s="542"/>
+      <c r="C21" s="565"/>
+      <c r="D21" s="565"/>
+      <c r="E21" s="566"/>
       <c r="F21" s="116" t="s">
         <v>16</v>
       </c>
@@ -14246,16 +14283,20 @@
       <c r="B23" s="123"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L24" s="613" t="s">
+      <c r="L24" s="619" t="s">
         <v>140</v>
       </c>
-      <c r="M24" s="613"/>
-      <c r="N24" s="613"/>
+      <c r="M24" s="619"/>
+      <c r="N24" s="619"/>
       <c r="O24" s="481"/>
       <c r="P24" s="481"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="B21:E21"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="M2:R7"/>
     <mergeCell ref="E2:H2"/>
@@ -14272,10 +14313,6 @@
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="B21:E21"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R21">
     <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
@@ -14340,24 +14377,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="589"/>
-      <c r="C2" s="590"/>
-      <c r="D2" s="591"/>
-      <c r="E2" s="598" t="s">
+      <c r="B2" s="582"/>
+      <c r="C2" s="583"/>
+      <c r="D2" s="584"/>
+      <c r="E2" s="591" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="599"/>
-      <c r="G2" s="599"/>
-      <c r="H2" s="600"/>
-      <c r="I2" s="604" t="s">
+      <c r="F2" s="592"/>
+      <c r="G2" s="592"/>
+      <c r="H2" s="593"/>
+      <c r="I2" s="597" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="605"/>
-      <c r="K2" s="608">
+      <c r="J2" s="598"/>
+      <c r="K2" s="601">
         <f>Данные!B19</f>
         <v>60</v>
       </c>
-      <c r="L2" s="609"/>
+      <c r="L2" s="602"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
@@ -14368,19 +14405,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="592"/>
-      <c r="C3" s="593"/>
-      <c r="D3" s="594"/>
-      <c r="E3" s="601" t="s">
+      <c r="B3" s="585"/>
+      <c r="C3" s="586"/>
+      <c r="D3" s="587"/>
+      <c r="E3" s="594" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="602"/>
-      <c r="G3" s="602"/>
-      <c r="H3" s="603"/>
-      <c r="I3" s="606"/>
-      <c r="J3" s="607"/>
-      <c r="K3" s="610"/>
-      <c r="L3" s="611"/>
+      <c r="F3" s="595"/>
+      <c r="G3" s="595"/>
+      <c r="H3" s="596"/>
+      <c r="I3" s="599"/>
+      <c r="J3" s="600"/>
+      <c r="K3" s="603"/>
+      <c r="L3" s="604"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -14391,9 +14428,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="595"/>
-      <c r="C4" s="596"/>
-      <c r="D4" s="597"/>
+      <c r="B4" s="588"/>
+      <c r="C4" s="589"/>
+      <c r="D4" s="590"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -14412,22 +14449,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="543" t="s">
+      <c r="B5" s="567" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="582"/>
-      <c r="D5" s="492" t="str">
+      <c r="C5" s="605"/>
+      <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="493"/>
-      <c r="F5" s="493"/>
-      <c r="G5" s="493"/>
-      <c r="H5" s="494"/>
-      <c r="I5" s="583"/>
-      <c r="J5" s="584"/>
-      <c r="K5" s="585"/>
-      <c r="L5" s="494"/>
+      <c r="E5" s="495"/>
+      <c r="F5" s="495"/>
+      <c r="G5" s="495"/>
+      <c r="H5" s="496"/>
+      <c r="I5" s="606"/>
+      <c r="J5" s="607"/>
+      <c r="K5" s="608"/>
+      <c r="L5" s="496"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -14438,22 +14475,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="543" t="s">
+      <c r="B6" s="567" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="582"/>
-      <c r="D6" s="486" t="str">
+      <c r="C6" s="605"/>
+      <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="548"/>
-      <c r="F6" s="548"/>
-      <c r="G6" s="548"/>
-      <c r="H6" s="549"/>
-      <c r="I6" s="583"/>
-      <c r="J6" s="584"/>
-      <c r="K6" s="585"/>
-      <c r="L6" s="494"/>
+      <c r="E6" s="572"/>
+      <c r="F6" s="572"/>
+      <c r="G6" s="572"/>
+      <c r="H6" s="573"/>
+      <c r="I6" s="606"/>
+      <c r="J6" s="607"/>
+      <c r="K6" s="608"/>
+      <c r="L6" s="496"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -14464,27 +14501,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="550" t="s">
+      <c r="B7" s="574" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="586"/>
-      <c r="D7" s="495">
+      <c r="C7" s="609"/>
+      <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="552"/>
-      <c r="F7" s="552"/>
-      <c r="G7" s="552"/>
-      <c r="H7" s="553"/>
-      <c r="I7" s="587" t="s">
+      <c r="E7" s="576"/>
+      <c r="F7" s="576"/>
+      <c r="G7" s="576"/>
+      <c r="H7" s="577"/>
+      <c r="I7" s="610" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="586"/>
-      <c r="K7" s="483">
+      <c r="J7" s="609"/>
+      <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="484"/>
+      <c r="L7" s="486"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -14747,12 +14784,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78"/>
-      <c r="B16" s="540" t="s">
+      <c r="B16" s="564" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="541"/>
-      <c r="D16" s="541"/>
-      <c r="E16" s="542"/>
+      <c r="C16" s="565"/>
+      <c r="D16" s="565"/>
+      <c r="E16" s="566"/>
       <c r="F16" s="259" t="s">
         <v>16</v>
       </c>
@@ -14797,16 +14834,29 @@
       <c r="B18" s="123"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K19" s="613" t="s">
+      <c r="K19" s="619" t="s">
         <v>140</v>
       </c>
-      <c r="L19" s="613"/>
-      <c r="M19" s="613"/>
+      <c r="L19" s="619"/>
+      <c r="M19" s="619"/>
       <c r="N19" s="481"/>
       <c r="O19" s="481"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
@@ -14814,19 +14864,6 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="B16:E16"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-2.1-500-14 (Брест колоски)/Брест колоски от 13.11.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-2.1-500-14 (Брест колоски)/Брест колоски от 13.11.2019.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="143">
   <si>
     <t>+ Tol.</t>
   </si>
@@ -2162,7 +2162,7 @@
     <xf numFmtId="43" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="640">
+  <cellXfs count="641">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" shrinkToFit="1"/>
@@ -3449,7 +3449,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3462,17 +3461,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3482,27 +3473,18 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="46" fillId="11" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="46" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3544,6 +3526,33 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="46" fillId="11" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="46" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3921,27 +3930,27 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3963,37 +3972,55 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6398,25 +6425,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="487" t="s">
+      <c r="A1" s="484" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="491"/>
-      <c r="C1" s="491"/>
-      <c r="D1" s="491"/>
-      <c r="E1" s="491"/>
+      <c r="B1" s="488"/>
+      <c r="C1" s="488"/>
+      <c r="D1" s="488"/>
+      <c r="E1" s="488"/>
       <c r="G1" s="371" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="488" t="s">
+      <c r="A2" s="485" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="489"/>
-      <c r="C2" s="489"/>
-      <c r="D2" s="489"/>
-      <c r="E2" s="490"/>
+      <c r="B2" s="486"/>
+      <c r="C2" s="486"/>
+      <c r="D2" s="486"/>
+      <c r="E2" s="487"/>
       <c r="G2" s="370" t="s">
         <v>79</v>
       </c>
@@ -6427,45 +6454,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="492" t="s">
+      <c r="A4" s="489" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="493"/>
-      <c r="C4" s="493"/>
-      <c r="D4" s="493"/>
-      <c r="E4" s="493"/>
+      <c r="B4" s="490"/>
+      <c r="C4" s="490"/>
+      <c r="D4" s="490"/>
+      <c r="E4" s="490"/>
     </row>
     <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="494" t="s">
+      <c r="A5" s="491" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="495"/>
-      <c r="C5" s="495"/>
-      <c r="D5" s="495"/>
-      <c r="E5" s="496"/>
+      <c r="B5" s="492"/>
+      <c r="C5" s="492"/>
+      <c r="D5" s="492"/>
+      <c r="E5" s="493"/>
     </row>
     <row r="6" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="487" t="s">
+      <c r="A7" s="484" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="491"/>
-      <c r="C7" s="491"/>
-      <c r="D7" s="491"/>
-      <c r="E7" s="491"/>
+      <c r="B7" s="488"/>
+      <c r="C7" s="488"/>
+      <c r="D7" s="488"/>
+      <c r="E7" s="488"/>
     </row>
     <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="497"/>
-      <c r="B8" s="498"/>
-      <c r="C8" s="498"/>
-      <c r="D8" s="498"/>
-      <c r="E8" s="499"/>
+      <c r="A8" s="494"/>
+      <c r="B8" s="495"/>
+      <c r="C8" s="495"/>
+      <c r="D8" s="495"/>
+      <c r="E8" s="496"/>
     </row>
     <row r="10" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="487" t="s">
+      <c r="A10" s="484" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="487"/>
+      <c r="B10" s="484"/>
       <c r="C10" s="372"/>
       <c r="D10" s="380" t="s">
         <v>94</v>
@@ -6476,33 +6503,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="485"/>
-      <c r="B11" s="486"/>
+      <c r="A11" s="482"/>
+      <c r="B11" s="483"/>
       <c r="D11" s="379">
         <v>43782</v>
       </c>
-      <c r="F11" s="482" t="s">
+      <c r="F11" s="479" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="482"/>
-      <c r="H11" s="482"/>
-      <c r="I11" s="482"/>
-      <c r="J11" s="483" t="s">
+      <c r="G11" s="479"/>
+      <c r="H11" s="479"/>
+      <c r="I11" s="479"/>
+      <c r="J11" s="480" t="s">
         <v>99</v>
       </c>
-      <c r="K11" s="483"/>
+      <c r="K11" s="480"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="482" t="s">
+      <c r="F12" s="479" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="482"/>
-      <c r="H12" s="482"/>
-      <c r="I12" s="482"/>
-      <c r="J12" s="483" t="s">
+      <c r="G12" s="479"/>
+      <c r="H12" s="479"/>
+      <c r="I12" s="479"/>
+      <c r="J12" s="480" t="s">
         <v>100</v>
       </c>
-      <c r="K12" s="483"/>
+      <c r="K12" s="480"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="373" t="s">
@@ -6514,16 +6541,16 @@
       <c r="C13" s="384" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="482" t="s">
+      <c r="F13" s="479" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="482"/>
-      <c r="H13" s="482"/>
-      <c r="I13" s="482"/>
-      <c r="J13" s="483" t="s">
+      <c r="G13" s="479"/>
+      <c r="H13" s="479"/>
+      <c r="I13" s="479"/>
+      <c r="J13" s="480" t="s">
         <v>101</v>
       </c>
-      <c r="K13" s="483"/>
+      <c r="K13" s="480"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="375" t="s">
@@ -6675,11 +6702,11 @@
       <c r="A28" s="381"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="484" t="s">
+      <c r="A29" s="481" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="484"/>
-      <c r="C29" s="484"/>
+      <c r="B29" s="481"/>
+      <c r="C29" s="481"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="371" t="s">
@@ -6756,47 +6783,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="170"/>
-      <c r="B2" s="582"/>
-      <c r="C2" s="583"/>
-      <c r="D2" s="584"/>
-      <c r="E2" s="591" t="s">
+      <c r="B2" s="579"/>
+      <c r="C2" s="580"/>
+      <c r="D2" s="581"/>
+      <c r="E2" s="588" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="592"/>
-      <c r="G2" s="592"/>
-      <c r="H2" s="593"/>
-      <c r="I2" s="597" t="s">
+      <c r="F2" s="589"/>
+      <c r="G2" s="589"/>
+      <c r="H2" s="590"/>
+      <c r="I2" s="594" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="598"/>
-      <c r="K2" s="601">
+      <c r="J2" s="595"/>
+      <c r="K2" s="598">
         <f>Данные!B20</f>
         <v>50</v>
       </c>
-      <c r="L2" s="602"/>
+      <c r="L2" s="599"/>
       <c r="M2" s="171"/>
       <c r="N2" s="172"/>
       <c r="O2" s="173"/>
-      <c r="P2" s="621"/>
-      <c r="Q2" s="621"/>
+      <c r="P2" s="618"/>
+      <c r="Q2" s="618"/>
       <c r="R2" s="174"/>
       <c r="S2" s="175"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="170"/>
-      <c r="B3" s="585"/>
-      <c r="C3" s="586"/>
-      <c r="D3" s="587"/>
-      <c r="E3" s="594" t="s">
+      <c r="B3" s="582"/>
+      <c r="C3" s="583"/>
+      <c r="D3" s="584"/>
+      <c r="E3" s="591" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="595"/>
-      <c r="G3" s="595"/>
-      <c r="H3" s="596"/>
-      <c r="I3" s="599"/>
-      <c r="J3" s="600"/>
-      <c r="K3" s="603"/>
-      <c r="L3" s="604"/>
+      <c r="F3" s="592"/>
+      <c r="G3" s="592"/>
+      <c r="H3" s="593"/>
+      <c r="I3" s="596"/>
+      <c r="J3" s="597"/>
+      <c r="K3" s="600"/>
+      <c r="L3" s="601"/>
       <c r="M3" s="176"/>
       <c r="N3" s="177"/>
       <c r="O3" s="177"/>
@@ -6807,9 +6834,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="170"/>
-      <c r="B4" s="588"/>
-      <c r="C4" s="589"/>
-      <c r="D4" s="590"/>
+      <c r="B4" s="585"/>
+      <c r="C4" s="586"/>
+      <c r="D4" s="587"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -6828,22 +6855,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="170"/>
-      <c r="B5" s="567" t="s">
+      <c r="B5" s="564" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="605"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="602"/>
+      <c r="D5" s="491" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="606"/>
-      <c r="J5" s="607"/>
-      <c r="K5" s="608"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="492"/>
+      <c r="F5" s="492"/>
+      <c r="G5" s="492"/>
+      <c r="H5" s="493"/>
+      <c r="I5" s="603"/>
+      <c r="J5" s="604"/>
+      <c r="K5" s="605"/>
+      <c r="L5" s="493"/>
       <c r="M5" s="179"/>
       <c r="N5" s="177"/>
       <c r="O5" s="177"/>
@@ -6854,22 +6881,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="170"/>
-      <c r="B6" s="567" t="s">
+      <c r="B6" s="564" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="605"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="602"/>
+      <c r="D6" s="485" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="572"/>
-      <c r="F6" s="572"/>
-      <c r="G6" s="572"/>
-      <c r="H6" s="573"/>
-      <c r="I6" s="606"/>
-      <c r="J6" s="607"/>
-      <c r="K6" s="608"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="569"/>
+      <c r="F6" s="569"/>
+      <c r="G6" s="569"/>
+      <c r="H6" s="570"/>
+      <c r="I6" s="603"/>
+      <c r="J6" s="604"/>
+      <c r="K6" s="605"/>
+      <c r="L6" s="493"/>
       <c r="M6" s="176"/>
       <c r="N6" s="177"/>
       <c r="O6" s="177"/>
@@ -6880,27 +6907,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="170"/>
-      <c r="B7" s="574" t="s">
+      <c r="B7" s="571" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="609"/>
-      <c r="D7" s="497">
+      <c r="C7" s="606"/>
+      <c r="D7" s="494">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="576"/>
-      <c r="F7" s="576"/>
-      <c r="G7" s="576"/>
-      <c r="H7" s="577"/>
-      <c r="I7" s="610" t="s">
+      <c r="E7" s="573"/>
+      <c r="F7" s="573"/>
+      <c r="G7" s="573"/>
+      <c r="H7" s="574"/>
+      <c r="I7" s="607" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="609"/>
-      <c r="K7" s="485">
+      <c r="J7" s="606"/>
+      <c r="K7" s="482">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="483"/>
       <c r="M7" s="179"/>
       <c r="N7" s="177"/>
       <c r="O7" s="177"/>
@@ -7285,13 +7312,13 @@
     </row>
     <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L21" s="619" t="s">
+      <c r="L21" s="610" t="s">
         <v>140</v>
       </c>
-      <c r="M21" s="619"/>
-      <c r="N21" s="619"/>
-      <c r="O21" s="481"/>
-      <c r="P21" s="481"/>
+      <c r="M21" s="610"/>
+      <c r="N21" s="610"/>
+      <c r="O21" s="469"/>
+      <c r="P21" s="469"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -7379,47 +7406,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="209"/>
-      <c r="B2" s="582"/>
-      <c r="C2" s="583"/>
-      <c r="D2" s="584"/>
-      <c r="E2" s="591" t="s">
+      <c r="B2" s="579"/>
+      <c r="C2" s="580"/>
+      <c r="D2" s="581"/>
+      <c r="E2" s="588" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="592"/>
-      <c r="G2" s="592"/>
-      <c r="H2" s="593"/>
-      <c r="I2" s="597" t="s">
+      <c r="F2" s="589"/>
+      <c r="G2" s="589"/>
+      <c r="H2" s="590"/>
+      <c r="I2" s="594" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="598"/>
-      <c r="K2" s="601">
+      <c r="J2" s="595"/>
+      <c r="K2" s="598">
         <f>Данные!B21</f>
         <v>24</v>
       </c>
-      <c r="L2" s="602"/>
+      <c r="L2" s="599"/>
       <c r="M2" s="210"/>
       <c r="N2" s="211"/>
       <c r="O2" s="212"/>
-      <c r="P2" s="622"/>
-      <c r="Q2" s="622"/>
+      <c r="P2" s="619"/>
+      <c r="Q2" s="619"/>
       <c r="R2" s="213"/>
       <c r="S2" s="214"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="209"/>
-      <c r="B3" s="585"/>
-      <c r="C3" s="586"/>
-      <c r="D3" s="587"/>
-      <c r="E3" s="594" t="s">
+      <c r="B3" s="582"/>
+      <c r="C3" s="583"/>
+      <c r="D3" s="584"/>
+      <c r="E3" s="591" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="595"/>
-      <c r="G3" s="595"/>
-      <c r="H3" s="596"/>
-      <c r="I3" s="599"/>
-      <c r="J3" s="600"/>
-      <c r="K3" s="603"/>
-      <c r="L3" s="604"/>
+      <c r="F3" s="592"/>
+      <c r="G3" s="592"/>
+      <c r="H3" s="593"/>
+      <c r="I3" s="596"/>
+      <c r="J3" s="597"/>
+      <c r="K3" s="600"/>
+      <c r="L3" s="601"/>
       <c r="M3" s="215"/>
       <c r="N3" s="216"/>
       <c r="O3" s="216"/>
@@ -7430,9 +7457,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="209"/>
-      <c r="B4" s="588"/>
-      <c r="C4" s="589"/>
-      <c r="D4" s="590"/>
+      <c r="B4" s="585"/>
+      <c r="C4" s="586"/>
+      <c r="D4" s="587"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -7451,22 +7478,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="209"/>
-      <c r="B5" s="567" t="s">
+      <c r="B5" s="564" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="605"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="602"/>
+      <c r="D5" s="491" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="606"/>
-      <c r="J5" s="607"/>
-      <c r="K5" s="608"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="492"/>
+      <c r="F5" s="492"/>
+      <c r="G5" s="492"/>
+      <c r="H5" s="493"/>
+      <c r="I5" s="603"/>
+      <c r="J5" s="604"/>
+      <c r="K5" s="605"/>
+      <c r="L5" s="493"/>
       <c r="M5" s="218"/>
       <c r="N5" s="216"/>
       <c r="O5" s="216"/>
@@ -7477,22 +7504,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="209"/>
-      <c r="B6" s="567" t="s">
+      <c r="B6" s="564" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="605"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="602"/>
+      <c r="D6" s="485" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="572"/>
-      <c r="F6" s="572"/>
-      <c r="G6" s="572"/>
-      <c r="H6" s="573"/>
-      <c r="I6" s="606"/>
-      <c r="J6" s="607"/>
-      <c r="K6" s="608"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="569"/>
+      <c r="F6" s="569"/>
+      <c r="G6" s="569"/>
+      <c r="H6" s="570"/>
+      <c r="I6" s="603"/>
+      <c r="J6" s="604"/>
+      <c r="K6" s="605"/>
+      <c r="L6" s="493"/>
       <c r="M6" s="215"/>
       <c r="N6" s="216"/>
       <c r="O6" s="216"/>
@@ -7503,27 +7530,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="209"/>
-      <c r="B7" s="574" t="s">
+      <c r="B7" s="571" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="609"/>
-      <c r="D7" s="497">
+      <c r="C7" s="606"/>
+      <c r="D7" s="494">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="576"/>
-      <c r="F7" s="576"/>
-      <c r="G7" s="576"/>
-      <c r="H7" s="577"/>
-      <c r="I7" s="610" t="s">
+      <c r="E7" s="573"/>
+      <c r="F7" s="573"/>
+      <c r="G7" s="573"/>
+      <c r="H7" s="574"/>
+      <c r="I7" s="607" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="609"/>
-      <c r="K7" s="485">
+      <c r="J7" s="606"/>
+      <c r="K7" s="482">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="483"/>
       <c r="M7" s="218"/>
       <c r="N7" s="216"/>
       <c r="O7" s="216"/>
@@ -7852,12 +7879,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="219"/>
-      <c r="B18" s="623" t="s">
+      <c r="B18" s="620" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="624"/>
-      <c r="D18" s="624"/>
-      <c r="E18" s="625"/>
+      <c r="C18" s="621"/>
+      <c r="D18" s="621"/>
+      <c r="E18" s="622"/>
       <c r="F18" s="116" t="s">
         <v>16</v>
       </c>
@@ -8005,47 +8032,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="133"/>
-      <c r="B2" s="582"/>
-      <c r="C2" s="583"/>
-      <c r="D2" s="584"/>
-      <c r="E2" s="591" t="s">
+      <c r="B2" s="579"/>
+      <c r="C2" s="580"/>
+      <c r="D2" s="581"/>
+      <c r="E2" s="588" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="592"/>
-      <c r="G2" s="592"/>
-      <c r="H2" s="593"/>
-      <c r="I2" s="597" t="s">
+      <c r="F2" s="589"/>
+      <c r="G2" s="589"/>
+      <c r="H2" s="590"/>
+      <c r="I2" s="594" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="598"/>
-      <c r="K2" s="601">
+      <c r="J2" s="595"/>
+      <c r="K2" s="598">
         <f>Данные!B26</f>
         <v>22</v>
       </c>
-      <c r="L2" s="602"/>
+      <c r="L2" s="599"/>
       <c r="M2" s="134"/>
       <c r="N2" s="135"/>
       <c r="O2" s="136"/>
-      <c r="P2" s="626"/>
-      <c r="Q2" s="626"/>
+      <c r="P2" s="623"/>
+      <c r="Q2" s="623"/>
       <c r="R2" s="137"/>
       <c r="S2" s="138"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="133"/>
-      <c r="B3" s="585"/>
-      <c r="C3" s="586"/>
-      <c r="D3" s="587"/>
-      <c r="E3" s="594" t="s">
+      <c r="B3" s="582"/>
+      <c r="C3" s="583"/>
+      <c r="D3" s="584"/>
+      <c r="E3" s="591" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="595"/>
-      <c r="G3" s="595"/>
-      <c r="H3" s="596"/>
-      <c r="I3" s="599"/>
-      <c r="J3" s="600"/>
-      <c r="K3" s="603"/>
-      <c r="L3" s="604"/>
+      <c r="F3" s="592"/>
+      <c r="G3" s="592"/>
+      <c r="H3" s="593"/>
+      <c r="I3" s="596"/>
+      <c r="J3" s="597"/>
+      <c r="K3" s="600"/>
+      <c r="L3" s="601"/>
       <c r="M3" s="139"/>
       <c r="N3" s="140"/>
       <c r="O3" s="140"/>
@@ -8056,9 +8083,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="133"/>
-      <c r="B4" s="588"/>
-      <c r="C4" s="589"/>
-      <c r="D4" s="590"/>
+      <c r="B4" s="585"/>
+      <c r="C4" s="586"/>
+      <c r="D4" s="587"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -8077,22 +8104,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="133"/>
-      <c r="B5" s="567" t="s">
+      <c r="B5" s="564" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="605"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="602"/>
+      <c r="D5" s="491" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="606"/>
-      <c r="J5" s="607"/>
-      <c r="K5" s="608"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="492"/>
+      <c r="F5" s="492"/>
+      <c r="G5" s="492"/>
+      <c r="H5" s="493"/>
+      <c r="I5" s="603"/>
+      <c r="J5" s="604"/>
+      <c r="K5" s="605"/>
+      <c r="L5" s="493"/>
       <c r="M5" s="142"/>
       <c r="N5" s="140"/>
       <c r="O5" s="140"/>
@@ -8103,22 +8130,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="133"/>
-      <c r="B6" s="567" t="s">
+      <c r="B6" s="564" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="605"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="602"/>
+      <c r="D6" s="485" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="572"/>
-      <c r="F6" s="572"/>
-      <c r="G6" s="572"/>
-      <c r="H6" s="573"/>
-      <c r="I6" s="606"/>
-      <c r="J6" s="607"/>
-      <c r="K6" s="608"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="569"/>
+      <c r="F6" s="569"/>
+      <c r="G6" s="569"/>
+      <c r="H6" s="570"/>
+      <c r="I6" s="603"/>
+      <c r="J6" s="604"/>
+      <c r="K6" s="605"/>
+      <c r="L6" s="493"/>
       <c r="M6" s="139"/>
       <c r="N6" s="140"/>
       <c r="O6" s="140"/>
@@ -8129,27 +8156,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="133"/>
-      <c r="B7" s="574" t="s">
+      <c r="B7" s="571" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="609"/>
-      <c r="D7" s="497">
+      <c r="C7" s="606"/>
+      <c r="D7" s="494">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="576"/>
-      <c r="F7" s="576"/>
-      <c r="G7" s="576"/>
-      <c r="H7" s="577"/>
-      <c r="I7" s="610" t="s">
+      <c r="E7" s="573"/>
+      <c r="F7" s="573"/>
+      <c r="G7" s="573"/>
+      <c r="H7" s="574"/>
+      <c r="I7" s="607" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="609"/>
-      <c r="K7" s="485">
+      <c r="J7" s="606"/>
+      <c r="K7" s="482">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="483"/>
       <c r="M7" s="142"/>
       <c r="N7" s="140"/>
       <c r="O7" s="140"/>
@@ -8613,47 +8640,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="266"/>
-      <c r="B2" s="582"/>
-      <c r="C2" s="583"/>
-      <c r="D2" s="584"/>
-      <c r="E2" s="591" t="s">
+      <c r="B2" s="579"/>
+      <c r="C2" s="580"/>
+      <c r="D2" s="581"/>
+      <c r="E2" s="588" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="592"/>
-      <c r="G2" s="592"/>
-      <c r="H2" s="593"/>
-      <c r="I2" s="597" t="s">
+      <c r="F2" s="589"/>
+      <c r="G2" s="589"/>
+      <c r="H2" s="590"/>
+      <c r="I2" s="594" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="598"/>
-      <c r="K2" s="628">
+      <c r="J2" s="595"/>
+      <c r="K2" s="624">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="L2" s="629"/>
+      <c r="L2" s="625"/>
       <c r="M2" s="267"/>
       <c r="N2" s="268"/>
       <c r="O2" s="269"/>
-      <c r="P2" s="627"/>
-      <c r="Q2" s="627"/>
+      <c r="P2" s="628"/>
+      <c r="Q2" s="628"/>
       <c r="R2" s="270"/>
       <c r="S2" s="271"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="266"/>
-      <c r="B3" s="585"/>
-      <c r="C3" s="586"/>
-      <c r="D3" s="587"/>
-      <c r="E3" s="594" t="s">
+      <c r="B3" s="582"/>
+      <c r="C3" s="583"/>
+      <c r="D3" s="584"/>
+      <c r="E3" s="591" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="595"/>
-      <c r="G3" s="595"/>
-      <c r="H3" s="596"/>
-      <c r="I3" s="599"/>
-      <c r="J3" s="600"/>
-      <c r="K3" s="630"/>
-      <c r="L3" s="631"/>
+      <c r="F3" s="592"/>
+      <c r="G3" s="592"/>
+      <c r="H3" s="593"/>
+      <c r="I3" s="596"/>
+      <c r="J3" s="597"/>
+      <c r="K3" s="626"/>
+      <c r="L3" s="627"/>
       <c r="M3" s="272"/>
       <c r="N3" s="273"/>
       <c r="O3" s="273"/>
@@ -8664,9 +8691,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="266"/>
-      <c r="B4" s="588"/>
-      <c r="C4" s="589"/>
-      <c r="D4" s="590"/>
+      <c r="B4" s="585"/>
+      <c r="C4" s="586"/>
+      <c r="D4" s="587"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -8685,22 +8712,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="266"/>
-      <c r="B5" s="567" t="s">
+      <c r="B5" s="564" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="605"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="602"/>
+      <c r="D5" s="491" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="606"/>
-      <c r="J5" s="607"/>
-      <c r="K5" s="608"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="492"/>
+      <c r="F5" s="492"/>
+      <c r="G5" s="492"/>
+      <c r="H5" s="493"/>
+      <c r="I5" s="603"/>
+      <c r="J5" s="604"/>
+      <c r="K5" s="605"/>
+      <c r="L5" s="493"/>
       <c r="M5" s="275"/>
       <c r="N5" s="273"/>
       <c r="O5" s="273"/>
@@ -8711,22 +8738,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="266"/>
-      <c r="B6" s="567" t="s">
+      <c r="B6" s="564" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="605"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="602"/>
+      <c r="D6" s="485" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="572"/>
-      <c r="F6" s="572"/>
-      <c r="G6" s="572"/>
-      <c r="H6" s="573"/>
-      <c r="I6" s="606"/>
-      <c r="J6" s="607"/>
-      <c r="K6" s="608"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="569"/>
+      <c r="F6" s="569"/>
+      <c r="G6" s="569"/>
+      <c r="H6" s="570"/>
+      <c r="I6" s="603"/>
+      <c r="J6" s="604"/>
+      <c r="K6" s="605"/>
+      <c r="L6" s="493"/>
       <c r="M6" s="272"/>
       <c r="N6" s="273"/>
       <c r="O6" s="273"/>
@@ -8737,27 +8764,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="266"/>
-      <c r="B7" s="574" t="s">
+      <c r="B7" s="571" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="609"/>
-      <c r="D7" s="497">
+      <c r="C7" s="606"/>
+      <c r="D7" s="494">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="576"/>
-      <c r="F7" s="576"/>
-      <c r="G7" s="576"/>
-      <c r="H7" s="577"/>
-      <c r="I7" s="610" t="s">
+      <c r="E7" s="573"/>
+      <c r="F7" s="573"/>
+      <c r="G7" s="573"/>
+      <c r="H7" s="574"/>
+      <c r="I7" s="607" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="609"/>
-      <c r="K7" s="485">
+      <c r="J7" s="606"/>
+      <c r="K7" s="482">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="483"/>
       <c r="M7" s="275"/>
       <c r="N7" s="273"/>
       <c r="O7" s="273"/>
@@ -9030,9 +9057,6 @@
     <row r="17" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B7:C7"/>
@@ -9048,6 +9072,9 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -9077,7 +9104,7 @@
   <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9098,11 +9125,11 @@
   <sheetData>
     <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="390"/>
-      <c r="B1" s="480" t="s">
+      <c r="B1" s="468" t="s">
         <v>111</v>
       </c>
       <c r="C1" s="390"/>
-      <c r="D1" s="479" t="str">
+      <c r="D1" s="467" t="str">
         <f>Данные!A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
@@ -9132,17 +9159,17 @@
       <c r="L2" s="391"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="505" t="s">
+      <c r="A3" s="502" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="505"/>
-      <c r="C3" s="505"/>
-      <c r="D3" s="505"/>
-      <c r="E3" s="505"/>
-      <c r="F3" s="505"/>
-      <c r="G3" s="505"/>
-      <c r="H3" s="505"/>
-      <c r="I3" s="505"/>
+      <c r="B3" s="502"/>
+      <c r="C3" s="502"/>
+      <c r="D3" s="502"/>
+      <c r="E3" s="502"/>
+      <c r="F3" s="502"/>
+      <c r="G3" s="502"/>
+      <c r="H3" s="502"/>
+      <c r="I3" s="502"/>
       <c r="K3" s="392"/>
       <c r="L3" s="392"/>
       <c r="M3" s="393"/>
@@ -9455,7 +9482,7 @@
         <f>Данные!$B22</f>
         <v>нет</v>
       </c>
-      <c r="E14" s="478" t="s">
+      <c r="E14" s="466" t="s">
         <v>93</v>
       </c>
       <c r="F14" s="389"/>
@@ -9634,16 +9661,16 @@
       <c r="B21" s="438">
         <v>43825</v>
       </c>
-      <c r="C21" s="639" t="s">
+      <c r="C21" s="474" t="s">
         <v>142</v>
       </c>
       <c r="D21" s="438">
         <v>43468</v>
       </c>
-      <c r="E21" s="439">
+      <c r="E21" s="640">
         <v>1017372</v>
       </c>
-      <c r="F21" s="439">
+      <c r="F21" s="640">
         <v>1082706</v>
       </c>
       <c r="G21" s="433">
@@ -9658,13 +9685,13 @@
         <f>1-G21</f>
         <v>0.93555321428571425</v>
       </c>
-      <c r="J21" s="632"/>
+      <c r="J21" s="470"/>
       <c r="K21" s="413"/>
       <c r="L21" s="413"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="437"/>
-      <c r="B22" s="639" t="s">
+      <c r="B22" s="474" t="s">
         <v>142</v>
       </c>
       <c r="C22" s="438">
@@ -9673,186 +9700,228 @@
       <c r="D22" s="438">
         <v>43857</v>
       </c>
-      <c r="E22" s="439">
+      <c r="E22" s="640">
         <v>532824</v>
       </c>
-      <c r="F22" s="439">
+      <c r="F22" s="640">
         <v>549478</v>
       </c>
       <c r="G22" s="433">
         <f>F22/A$21</f>
         <v>3.2707023809523811E-2</v>
       </c>
-      <c r="H22" s="440">
+      <c r="H22" s="439">
         <f>H21-F22</f>
         <v>15167816</v>
       </c>
-      <c r="I22" s="441">
+      <c r="I22" s="440">
         <f>I21-G22</f>
         <v>0.90284619047619041</v>
       </c>
-      <c r="J22" s="633">
+      <c r="J22" s="471">
         <v>354</v>
       </c>
       <c r="K22" s="393"/>
       <c r="L22" s="393"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="442"/>
-      <c r="B23" s="443"/>
-      <c r="C23" s="443"/>
-      <c r="D23" s="443"/>
-      <c r="E23" s="444"/>
-      <c r="F23" s="444"/>
-      <c r="G23" s="445"/>
-      <c r="H23" s="446"/>
-      <c r="I23" s="447"/>
-      <c r="J23" s="634"/>
+      <c r="A23" s="441"/>
+      <c r="B23" s="442">
+        <v>43888</v>
+      </c>
+      <c r="C23" s="476" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" s="442">
+        <v>43892</v>
+      </c>
+      <c r="E23" s="640">
+        <v>532824</v>
+      </c>
+      <c r="F23" s="640">
+        <v>549478</v>
+      </c>
+      <c r="G23" s="433">
+        <f>F23/A$21</f>
+        <v>3.2707023809523811E-2</v>
+      </c>
+      <c r="H23" s="439">
+        <f>H22-F23</f>
+        <v>14618338</v>
+      </c>
+      <c r="I23" s="440">
+        <f>I22-G23</f>
+        <v>0.87013916666666657</v>
+      </c>
+      <c r="J23" s="472">
+        <v>351</v>
+      </c>
       <c r="K23" s="413"/>
       <c r="L23" s="413"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="442"/>
-      <c r="B24" s="385"/>
-      <c r="C24" s="385"/>
-      <c r="D24" s="385"/>
-      <c r="E24" s="385"/>
-      <c r="F24" s="385"/>
-      <c r="G24" s="385"/>
-      <c r="H24" s="385"/>
-      <c r="I24" s="448"/>
-      <c r="J24" s="635"/>
+      <c r="A24" s="441"/>
+      <c r="B24" s="629" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" s="442">
+        <v>43895</v>
+      </c>
+      <c r="D24" s="442">
+        <v>43900</v>
+      </c>
+      <c r="E24" s="636">
+        <v>899364</v>
+      </c>
+      <c r="F24" s="636">
+        <v>920724</v>
+      </c>
+      <c r="G24" s="433">
+        <f>F24/A$21</f>
+        <v>5.4805E-2</v>
+      </c>
+      <c r="H24" s="439">
+        <f>H23-F24</f>
+        <v>13697614</v>
+      </c>
+      <c r="I24" s="440">
+        <f>I23-G24</f>
+        <v>0.81533416666666658</v>
+      </c>
+      <c r="J24" s="630">
+        <v>351</v>
+      </c>
       <c r="K24" s="436"/>
       <c r="L24" s="393"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="442"/>
-      <c r="B25" s="443"/>
-      <c r="C25" s="443"/>
-      <c r="D25" s="443"/>
-      <c r="E25" s="444"/>
-      <c r="F25" s="444"/>
-      <c r="G25" s="449"/>
-      <c r="H25" s="446"/>
-      <c r="I25" s="447"/>
-      <c r="J25" s="634"/>
-      <c r="K25" s="450"/>
+      <c r="A25" s="441"/>
+      <c r="B25" s="442"/>
+      <c r="C25" s="442"/>
+      <c r="D25" s="442"/>
+      <c r="E25" s="637"/>
+      <c r="F25" s="637"/>
+      <c r="G25" s="444"/>
+      <c r="H25" s="439"/>
+      <c r="I25" s="443"/>
+      <c r="J25" s="472"/>
+      <c r="K25" s="445"/>
       <c r="L25" s="393"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="442"/>
-      <c r="B26" s="443"/>
-      <c r="C26" s="443"/>
-      <c r="D26" s="443"/>
-      <c r="E26" s="444"/>
-      <c r="F26" s="444"/>
-      <c r="G26" s="449"/>
-      <c r="H26" s="446"/>
-      <c r="I26" s="447"/>
-      <c r="J26" s="634"/>
+      <c r="A26" s="441"/>
+      <c r="B26" s="442"/>
+      <c r="C26" s="442"/>
+      <c r="D26" s="442"/>
+      <c r="E26" s="637"/>
+      <c r="F26" s="637"/>
+      <c r="G26" s="444"/>
+      <c r="H26" s="439"/>
+      <c r="I26" s="443"/>
+      <c r="J26" s="472"/>
       <c r="K26" s="436"/>
       <c r="L26" s="393"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="442"/>
-      <c r="B27" s="443"/>
-      <c r="C27" s="443"/>
-      <c r="D27" s="443"/>
-      <c r="E27" s="446"/>
-      <c r="F27" s="444"/>
-      <c r="G27" s="449"/>
-      <c r="H27" s="446"/>
-      <c r="I27" s="447"/>
-      <c r="J27" s="634"/>
+      <c r="A27" s="441"/>
+      <c r="B27" s="442"/>
+      <c r="C27" s="442"/>
+      <c r="D27" s="442"/>
+      <c r="E27" s="637"/>
+      <c r="F27" s="637"/>
+      <c r="G27" s="444"/>
+      <c r="H27" s="439"/>
+      <c r="I27" s="443"/>
+      <c r="J27" s="472"/>
       <c r="K27" s="436"/>
       <c r="L27" s="393"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="442"/>
-      <c r="B28" s="443"/>
-      <c r="C28" s="443"/>
-      <c r="D28" s="443"/>
-      <c r="E28" s="446"/>
-      <c r="F28" s="444"/>
-      <c r="G28" s="449"/>
-      <c r="H28" s="446"/>
-      <c r="I28" s="447"/>
-      <c r="J28" s="634"/>
+      <c r="A28" s="441"/>
+      <c r="B28" s="442"/>
+      <c r="C28" s="442"/>
+      <c r="D28" s="442"/>
+      <c r="E28" s="637"/>
+      <c r="F28" s="637"/>
+      <c r="G28" s="444"/>
+      <c r="H28" s="439"/>
+      <c r="I28" s="443"/>
+      <c r="J28" s="472"/>
       <c r="K28" s="436"/>
       <c r="L28" s="393"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="442"/>
-      <c r="B29" s="443"/>
-      <c r="C29" s="443"/>
-      <c r="D29" s="385"/>
-      <c r="E29" s="385"/>
-      <c r="F29" s="444"/>
-      <c r="G29" s="451"/>
-      <c r="H29" s="446"/>
-      <c r="I29" s="452"/>
-      <c r="J29" s="636"/>
+      <c r="A29" s="441"/>
+      <c r="B29" s="442"/>
+      <c r="C29" s="442"/>
+      <c r="D29" s="475"/>
+      <c r="E29" s="636"/>
+      <c r="F29" s="637"/>
+      <c r="G29" s="446"/>
+      <c r="H29" s="439"/>
+      <c r="I29" s="631"/>
+      <c r="J29" s="632"/>
       <c r="K29" s="436"/>
       <c r="L29" s="393"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="442"/>
-      <c r="B30" s="443"/>
-      <c r="C30" s="443"/>
-      <c r="D30" s="385"/>
-      <c r="E30" s="385"/>
-      <c r="F30" s="444"/>
-      <c r="G30" s="449"/>
-      <c r="H30" s="446"/>
-      <c r="I30" s="452"/>
-      <c r="J30" s="636"/>
+      <c r="A30" s="441"/>
+      <c r="B30" s="442"/>
+      <c r="C30" s="442"/>
+      <c r="D30" s="475"/>
+      <c r="E30" s="636"/>
+      <c r="F30" s="637"/>
+      <c r="G30" s="444"/>
+      <c r="H30" s="439"/>
+      <c r="I30" s="631"/>
+      <c r="J30" s="632"/>
       <c r="K30" s="436"/>
       <c r="L30" s="393"/>
     </row>
     <row r="31" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="453"/>
-      <c r="B31" s="454"/>
-      <c r="C31" s="454"/>
-      <c r="D31" s="455"/>
-      <c r="E31" s="455"/>
-      <c r="F31" s="456"/>
-      <c r="G31" s="457"/>
-      <c r="H31" s="458"/>
-      <c r="I31" s="459"/>
-      <c r="J31" s="637"/>
+      <c r="A31" s="447"/>
+      <c r="B31" s="448"/>
+      <c r="C31" s="448"/>
+      <c r="D31" s="633"/>
+      <c r="E31" s="638"/>
+      <c r="F31" s="639"/>
+      <c r="G31" s="449"/>
+      <c r="H31" s="439"/>
+      <c r="I31" s="634"/>
+      <c r="J31" s="635"/>
       <c r="K31" s="393"/>
       <c r="L31" s="393"/>
     </row>
     <row r="32" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="460" t="s">
+      <c r="A32" s="450" t="s">
         <v>131</v>
       </c>
-      <c r="B32" s="461"/>
-      <c r="C32" s="461"/>
-      <c r="D32" s="462"/>
-      <c r="E32" s="463">
+      <c r="B32" s="451"/>
+      <c r="C32" s="451"/>
+      <c r="D32" s="452"/>
+      <c r="E32" s="477">
         <f>SUM(E21:E31)</f>
-        <v>1550196</v>
-      </c>
-      <c r="F32" s="464">
+        <v>2982384</v>
+      </c>
+      <c r="F32" s="478">
         <f>SUM(F21:F31)</f>
-        <v>1632184</v>
-      </c>
-      <c r="G32" s="465">
+        <v>3102386</v>
+      </c>
+      <c r="G32" s="453">
         <f>SUM(G21:G31)</f>
-        <v>9.7153809523809531E-2</v>
-      </c>
-      <c r="H32" s="466">
+        <v>0.18466583333333333</v>
+      </c>
+      <c r="H32" s="454">
         <f>A21-F32</f>
-        <v>15167816</v>
-      </c>
-      <c r="I32" s="467">
+        <v>13697614</v>
+      </c>
+      <c r="I32" s="455">
         <f>1-G32</f>
-        <v>0.90284619047619041</v>
-      </c>
-      <c r="J32" s="638"/>
-      <c r="K32" s="468"/>
-      <c r="L32" s="468"/>
+        <v>0.81533416666666669</v>
+      </c>
+      <c r="J32" s="473"/>
+      <c r="K32" s="456"/>
+      <c r="L32" s="456"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="393"/>
@@ -9867,12 +9936,12 @@
       <c r="J35" s="393"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="506" t="s">
+      <c r="A36" s="503" t="s">
         <v>132</v>
       </c>
-      <c r="B36" s="506"/>
-      <c r="C36" s="506"/>
-      <c r="D36" s="506"/>
+      <c r="B36" s="503"/>
+      <c r="C36" s="503"/>
+      <c r="D36" s="503"/>
       <c r="E36" s="393"/>
       <c r="F36" s="393"/>
       <c r="G36" s="393"/>
@@ -9881,14 +9950,14 @@
       <c r="J36" s="393"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="507" t="s">
+      <c r="A37" s="504" t="s">
         <v>133</v>
       </c>
-      <c r="B37" s="507"/>
-      <c r="C37" s="469" t="s">
+      <c r="B37" s="504"/>
+      <c r="C37" s="457" t="s">
         <v>134</v>
       </c>
-      <c r="D37" s="469" t="s">
+      <c r="D37" s="457" t="s">
         <v>135</v>
       </c>
       <c r="E37" s="393"/>
@@ -9899,27 +9968,27 @@
       <c r="J37" s="393"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="508">
+      <c r="A38" s="505">
         <f>A21-F32</f>
-        <v>15167816</v>
-      </c>
-      <c r="B38" s="509"/>
-      <c r="C38" s="470">
+        <v>13697614</v>
+      </c>
+      <c r="B38" s="506"/>
+      <c r="C38" s="458">
         <f>1-G32</f>
-        <v>0.90284619047619041</v>
-      </c>
-      <c r="D38" s="471">
+        <v>0.81533416666666669</v>
+      </c>
+      <c r="D38" s="459">
         <f>(C38/0.8)*100</f>
-        <v>112.85577380952378</v>
-      </c>
-      <c r="E38" s="472" t="s">
+        <v>101.91677083333333</v>
+      </c>
+      <c r="E38" s="460" t="s">
         <v>136</v>
       </c>
-      <c r="F38" s="472"/>
-      <c r="G38" s="472"/>
-      <c r="H38" s="472"/>
-      <c r="I38" s="472"/>
-      <c r="J38" s="472"/>
+      <c r="F38" s="460"/>
+      <c r="G38" s="460"/>
+      <c r="H38" s="460"/>
+      <c r="I38" s="460"/>
+      <c r="J38" s="460"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="393"/>
@@ -9946,8 +10015,8 @@
     </row>
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="393"/>
-      <c r="B41" s="473"/>
-      <c r="C41" s="473"/>
+      <c r="B41" s="461"/>
+      <c r="C41" s="461"/>
       <c r="D41" s="393"/>
       <c r="E41" s="393"/>
       <c r="F41" s="393"/>
@@ -9957,113 +10026,113 @@
       <c r="J41" s="393"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="474"/>
-      <c r="B42" s="474"/>
-      <c r="C42" s="474"/>
-      <c r="D42" s="474"/>
-      <c r="E42" s="474"/>
-      <c r="F42" s="474"/>
-      <c r="G42" s="474"/>
-      <c r="H42" s="474"/>
-      <c r="I42" s="500"/>
-      <c r="J42" s="501"/>
+      <c r="A42" s="462"/>
+      <c r="B42" s="462"/>
+      <c r="C42" s="462"/>
+      <c r="D42" s="462"/>
+      <c r="E42" s="462"/>
+      <c r="F42" s="462"/>
+      <c r="G42" s="462"/>
+      <c r="H42" s="462"/>
+      <c r="I42" s="497"/>
+      <c r="J42" s="498"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="475"/>
-      <c r="B43" s="476"/>
-      <c r="C43" s="476"/>
+      <c r="A43" s="463"/>
+      <c r="B43" s="464"/>
+      <c r="C43" s="464"/>
       <c r="D43" s="393"/>
       <c r="E43" s="393"/>
-      <c r="F43" s="476"/>
+      <c r="F43" s="464"/>
       <c r="G43" s="423"/>
-      <c r="H43" s="476"/>
+      <c r="H43" s="464"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="475"/>
-      <c r="B44" s="476"/>
-      <c r="C44" s="476"/>
-      <c r="D44" s="476"/>
-      <c r="E44" s="476"/>
-      <c r="F44" s="476"/>
+      <c r="A44" s="463"/>
+      <c r="B44" s="464"/>
+      <c r="C44" s="464"/>
+      <c r="D44" s="464"/>
+      <c r="E44" s="464"/>
+      <c r="F44" s="464"/>
       <c r="G44" s="423"/>
-      <c r="H44" s="476"/>
+      <c r="H44" s="464"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="475"/>
-      <c r="B45" s="476"/>
-      <c r="C45" s="476"/>
+      <c r="A45" s="463"/>
+      <c r="B45" s="464"/>
+      <c r="C45" s="464"/>
       <c r="D45" s="393"/>
       <c r="E45" s="393"/>
-      <c r="F45" s="476"/>
+      <c r="F45" s="464"/>
       <c r="G45" s="423"/>
-      <c r="H45" s="476"/>
+      <c r="H45" s="464"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="475"/>
-      <c r="B46" s="476"/>
-      <c r="C46" s="476"/>
-      <c r="D46" s="476"/>
-      <c r="E46" s="476"/>
-      <c r="F46" s="476"/>
+      <c r="A46" s="463"/>
+      <c r="B46" s="464"/>
+      <c r="C46" s="464"/>
+      <c r="D46" s="464"/>
+      <c r="E46" s="464"/>
+      <c r="F46" s="464"/>
       <c r="G46" s="423"/>
-      <c r="H46" s="476"/>
+      <c r="H46" s="464"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="475"/>
-      <c r="B47" s="476"/>
-      <c r="C47" s="476"/>
+      <c r="A47" s="463"/>
+      <c r="B47" s="464"/>
+      <c r="C47" s="464"/>
       <c r="D47" s="393"/>
       <c r="E47" s="393"/>
-      <c r="F47" s="476"/>
+      <c r="F47" s="464"/>
       <c r="G47" s="423"/>
-      <c r="H47" s="476"/>
+      <c r="H47" s="464"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="475"/>
-      <c r="B48" s="476"/>
+      <c r="A48" s="463"/>
+      <c r="B48" s="464"/>
       <c r="C48" s="413"/>
-      <c r="D48" s="477"/>
-      <c r="E48" s="477"/>
+      <c r="D48" s="465"/>
+      <c r="E48" s="465"/>
       <c r="F48" s="413"/>
       <c r="G48" s="413"/>
       <c r="H48" s="413"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="475"/>
-      <c r="B49" s="476"/>
-      <c r="C49" s="476"/>
-      <c r="D49" s="476"/>
-      <c r="E49" s="476"/>
-      <c r="F49" s="476"/>
+      <c r="A49" s="463"/>
+      <c r="B49" s="464"/>
+      <c r="C49" s="464"/>
+      <c r="D49" s="464"/>
+      <c r="E49" s="464"/>
+      <c r="F49" s="464"/>
       <c r="G49" s="423"/>
-      <c r="H49" s="476"/>
+      <c r="H49" s="464"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="475"/>
-      <c r="B50" s="476"/>
-      <c r="C50" s="476"/>
-      <c r="D50" s="476"/>
-      <c r="E50" s="476"/>
-      <c r="F50" s="476"/>
+      <c r="A50" s="463"/>
+      <c r="B50" s="464"/>
+      <c r="C50" s="464"/>
+      <c r="D50" s="464"/>
+      <c r="E50" s="464"/>
+      <c r="F50" s="464"/>
       <c r="G50" s="423"/>
-      <c r="H50" s="476"/>
+      <c r="H50" s="464"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="475"/>
-      <c r="B51" s="476"/>
-      <c r="C51" s="476"/>
+      <c r="A51" s="463"/>
+      <c r="B51" s="464"/>
+      <c r="C51" s="464"/>
       <c r="D51" s="393"/>
       <c r="E51" s="393"/>
-      <c r="F51" s="476"/>
+      <c r="F51" s="464"/>
       <c r="G51" s="423"/>
-      <c r="H51" s="476"/>
+      <c r="H51" s="464"/>
     </row>
     <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="393"/>
-      <c r="B52" s="503"/>
-      <c r="C52" s="503"/>
-      <c r="D52" s="504"/>
-      <c r="E52" s="472"/>
+      <c r="B52" s="500"/>
+      <c r="C52" s="500"/>
+      <c r="D52" s="501"/>
+      <c r="E52" s="460"/>
       <c r="F52" s="393"/>
       <c r="G52" s="393"/>
       <c r="H52" s="393"/>
@@ -10071,31 +10140,31 @@
       <c r="J52" s="393"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="474"/>
-      <c r="B53" s="474"/>
-      <c r="C53" s="474"/>
-      <c r="D53" s="474"/>
-      <c r="E53" s="474"/>
-      <c r="F53" s="474"/>
-      <c r="G53" s="474"/>
-      <c r="H53" s="474"/>
-      <c r="I53" s="500"/>
-      <c r="J53" s="501"/>
+      <c r="A53" s="462"/>
+      <c r="B53" s="462"/>
+      <c r="C53" s="462"/>
+      <c r="D53" s="462"/>
+      <c r="E53" s="462"/>
+      <c r="F53" s="462"/>
+      <c r="G53" s="462"/>
+      <c r="H53" s="462"/>
+      <c r="I53" s="497"/>
+      <c r="J53" s="498"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="475"/>
+      <c r="A54" s="463"/>
       <c r="B54" s="393"/>
       <c r="C54" s="393"/>
       <c r="D54" s="393"/>
       <c r="E54" s="393"/>
       <c r="F54" s="423"/>
       <c r="G54" s="423"/>
-      <c r="H54" s="476"/>
-      <c r="I54" s="502"/>
-      <c r="J54" s="502"/>
+      <c r="H54" s="464"/>
+      <c r="I54" s="499"/>
+      <c r="J54" s="499"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="475"/>
+      <c r="A55" s="463"/>
       <c r="B55" s="393"/>
       <c r="C55" s="393"/>
       <c r="D55" s="413"/>
@@ -10103,8 +10172,8 @@
       <c r="F55" s="413"/>
       <c r="G55" s="413"/>
       <c r="H55" s="413"/>
-      <c r="I55" s="502"/>
-      <c r="J55" s="502"/>
+      <c r="I55" s="499"/>
+      <c r="J55" s="499"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="393"/>
@@ -10117,12 +10186,12 @@
       <c r="H56" s="393"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="500"/>
-      <c r="C61" s="501"/>
+      <c r="B61" s="497"/>
+      <c r="C61" s="498"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="500"/>
-      <c r="C68" s="501"/>
+      <c r="B68" s="497"/>
+      <c r="C68" s="498"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -10219,47 +10288,47 @@
       <c r="J8" s="317"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="535" t="s">
+      <c r="A11" s="532" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="535"/>
-      <c r="C11" s="535"/>
-      <c r="D11" s="535"/>
-      <c r="E11" s="535"/>
-      <c r="F11" s="535"/>
-      <c r="G11" s="535"/>
-      <c r="H11" s="535"/>
-      <c r="I11" s="535"/>
-      <c r="J11" s="535"/>
+      <c r="B11" s="532"/>
+      <c r="C11" s="532"/>
+      <c r="D11" s="532"/>
+      <c r="E11" s="532"/>
+      <c r="F11" s="532"/>
+      <c r="G11" s="532"/>
+      <c r="H11" s="532"/>
+      <c r="I11" s="532"/>
+      <c r="J11" s="532"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="534" t="s">
+      <c r="A12" s="531" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="534"/>
-      <c r="C12" s="534"/>
-      <c r="D12" s="534"/>
-      <c r="E12" s="534"/>
-      <c r="F12" s="534"/>
-      <c r="G12" s="534"/>
-      <c r="H12" s="534"/>
-      <c r="I12" s="534"/>
-      <c r="J12" s="534"/>
+      <c r="B12" s="531"/>
+      <c r="C12" s="531"/>
+      <c r="D12" s="531"/>
+      <c r="E12" s="531"/>
+      <c r="F12" s="531"/>
+      <c r="G12" s="531"/>
+      <c r="H12" s="531"/>
+      <c r="I12" s="531"/>
+      <c r="J12" s="531"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="536" t="str">
+      <c r="A13" s="533" t="str">
         <f>Данные!A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="B13" s="535"/>
-      <c r="C13" s="535"/>
-      <c r="D13" s="535"/>
-      <c r="E13" s="535"/>
-      <c r="F13" s="535"/>
-      <c r="G13" s="535"/>
-      <c r="H13" s="535"/>
-      <c r="I13" s="535"/>
-      <c r="J13" s="535"/>
+      <c r="B13" s="532"/>
+      <c r="C13" s="532"/>
+      <c r="D13" s="532"/>
+      <c r="E13" s="532"/>
+      <c r="F13" s="532"/>
+      <c r="G13" s="532"/>
+      <c r="H13" s="532"/>
+      <c r="I13" s="532"/>
+      <c r="J13" s="532"/>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="311" t="s">
@@ -10384,482 +10453,482 @@
       <c r="J21" s="312"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="532" t="s">
+      <c r="A22" s="529" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="532" t="s">
+      <c r="B22" s="529" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="532"/>
-      <c r="D22" s="532"/>
-      <c r="E22" s="532" t="s">
+      <c r="C22" s="529"/>
+      <c r="D22" s="529"/>
+      <c r="E22" s="529" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="532"/>
-      <c r="G22" s="533" t="s">
+      <c r="F22" s="529"/>
+      <c r="G22" s="530" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="532" t="s">
+      <c r="H22" s="529" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="532"/>
-      <c r="J22" s="532"/>
+      <c r="I22" s="529"/>
+      <c r="J22" s="529"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="532"/>
-      <c r="B23" s="532"/>
-      <c r="C23" s="532"/>
-      <c r="D23" s="532"/>
-      <c r="E23" s="532"/>
-      <c r="F23" s="532"/>
-      <c r="G23" s="533"/>
-      <c r="H23" s="532"/>
-      <c r="I23" s="532"/>
-      <c r="J23" s="532"/>
+      <c r="A23" s="529"/>
+      <c r="B23" s="529"/>
+      <c r="C23" s="529"/>
+      <c r="D23" s="529"/>
+      <c r="E23" s="529"/>
+      <c r="F23" s="529"/>
+      <c r="G23" s="530"/>
+      <c r="H23" s="529"/>
+      <c r="I23" s="529"/>
+      <c r="J23" s="529"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="510">
+      <c r="A24" s="507">
         <v>1</v>
       </c>
-      <c r="B24" s="537" t="s">
+      <c r="B24" s="534" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="538"/>
-      <c r="D24" s="539"/>
-      <c r="E24" s="515" t="str">
+      <c r="C24" s="535"/>
+      <c r="D24" s="536"/>
+      <c r="E24" s="512" t="str">
         <f>Данные!C14</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F24" s="516"/>
-      <c r="G24" s="519">
+      <c r="F24" s="513"/>
+      <c r="G24" s="516">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="H24" s="521"/>
-      <c r="I24" s="522"/>
-      <c r="J24" s="523"/>
+      <c r="H24" s="518"/>
+      <c r="I24" s="519"/>
+      <c r="J24" s="520"/>
     </row>
     <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="530"/>
-      <c r="B25" s="527" t="str">
+      <c r="A25" s="527"/>
+      <c r="B25" s="524" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C25" s="528"/>
-      <c r="D25" s="529"/>
-      <c r="E25" s="531"/>
-      <c r="F25" s="518"/>
-      <c r="G25" s="520"/>
-      <c r="H25" s="524"/>
-      <c r="I25" s="525"/>
-      <c r="J25" s="526"/>
+      <c r="C25" s="525"/>
+      <c r="D25" s="526"/>
+      <c r="E25" s="528"/>
+      <c r="F25" s="515"/>
+      <c r="G25" s="517"/>
+      <c r="H25" s="521"/>
+      <c r="I25" s="522"/>
+      <c r="J25" s="523"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="510">
+      <c r="A26" s="507">
         <v>1</v>
       </c>
-      <c r="B26" s="512" t="s">
+      <c r="B26" s="509" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="513"/>
-      <c r="D26" s="514"/>
-      <c r="E26" s="515" t="str">
+      <c r="C26" s="510"/>
+      <c r="D26" s="511"/>
+      <c r="E26" s="512" t="str">
         <f>Данные!C15</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F26" s="516"/>
-      <c r="G26" s="519">
+      <c r="F26" s="513"/>
+      <c r="G26" s="516">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="H26" s="521"/>
-      <c r="I26" s="522"/>
-      <c r="J26" s="523"/>
+      <c r="H26" s="518"/>
+      <c r="I26" s="519"/>
+      <c r="J26" s="520"/>
     </row>
     <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="530"/>
-      <c r="B27" s="527" t="str">
+      <c r="A27" s="527"/>
+      <c r="B27" s="524" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C27" s="528"/>
-      <c r="D27" s="529"/>
-      <c r="E27" s="531"/>
-      <c r="F27" s="518"/>
-      <c r="G27" s="520"/>
-      <c r="H27" s="524"/>
-      <c r="I27" s="525"/>
-      <c r="J27" s="526"/>
+      <c r="C27" s="525"/>
+      <c r="D27" s="526"/>
+      <c r="E27" s="528"/>
+      <c r="F27" s="515"/>
+      <c r="G27" s="517"/>
+      <c r="H27" s="521"/>
+      <c r="I27" s="522"/>
+      <c r="J27" s="523"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="510">
+      <c r="A28" s="507">
         <v>1</v>
       </c>
-      <c r="B28" s="512" t="s">
+      <c r="B28" s="509" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="513"/>
-      <c r="D28" s="514"/>
-      <c r="E28" s="515" t="str">
+      <c r="C28" s="510"/>
+      <c r="D28" s="511"/>
+      <c r="E28" s="512" t="str">
         <f>Данные!C16</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F28" s="516"/>
-      <c r="G28" s="519">
+      <c r="F28" s="513"/>
+      <c r="G28" s="516">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="H28" s="521"/>
-      <c r="I28" s="522"/>
-      <c r="J28" s="523"/>
+      <c r="H28" s="518"/>
+      <c r="I28" s="519"/>
+      <c r="J28" s="520"/>
     </row>
     <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="530"/>
-      <c r="B29" s="527" t="str">
+      <c r="A29" s="527"/>
+      <c r="B29" s="524" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C29" s="528"/>
-      <c r="D29" s="529"/>
-      <c r="E29" s="531"/>
-      <c r="F29" s="518"/>
-      <c r="G29" s="520"/>
-      <c r="H29" s="524"/>
-      <c r="I29" s="525"/>
-      <c r="J29" s="526"/>
+      <c r="C29" s="525"/>
+      <c r="D29" s="526"/>
+      <c r="E29" s="528"/>
+      <c r="F29" s="515"/>
+      <c r="G29" s="517"/>
+      <c r="H29" s="521"/>
+      <c r="I29" s="522"/>
+      <c r="J29" s="523"/>
     </row>
     <row r="30" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="510">
+      <c r="A30" s="507">
         <v>1</v>
       </c>
-      <c r="B30" s="512" t="s">
+      <c r="B30" s="509" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="513"/>
-      <c r="D30" s="514"/>
-      <c r="E30" s="515" t="str">
+      <c r="C30" s="510"/>
+      <c r="D30" s="511"/>
+      <c r="E30" s="512" t="str">
         <f>Данные!C17</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F30" s="516"/>
-      <c r="G30" s="519">
+      <c r="F30" s="513"/>
+      <c r="G30" s="516">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="H30" s="521"/>
-      <c r="I30" s="522"/>
-      <c r="J30" s="523"/>
+      <c r="H30" s="518"/>
+      <c r="I30" s="519"/>
+      <c r="J30" s="520"/>
     </row>
     <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="511"/>
-      <c r="B31" s="527" t="str">
+      <c r="A31" s="508"/>
+      <c r="B31" s="524" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C31" s="528"/>
-      <c r="D31" s="529"/>
-      <c r="E31" s="517"/>
-      <c r="F31" s="518"/>
-      <c r="G31" s="520"/>
-      <c r="H31" s="524"/>
-      <c r="I31" s="525"/>
-      <c r="J31" s="526"/>
+      <c r="C31" s="525"/>
+      <c r="D31" s="526"/>
+      <c r="E31" s="514"/>
+      <c r="F31" s="515"/>
+      <c r="G31" s="517"/>
+      <c r="H31" s="521"/>
+      <c r="I31" s="522"/>
+      <c r="J31" s="523"/>
     </row>
     <row r="32" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="510">
+      <c r="A32" s="507">
         <v>1</v>
       </c>
-      <c r="B32" s="512" t="s">
+      <c r="B32" s="509" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="513"/>
-      <c r="D32" s="514"/>
-      <c r="E32" s="515" t="str">
+      <c r="C32" s="510"/>
+      <c r="D32" s="511"/>
+      <c r="E32" s="512" t="str">
         <f>Данные!C18</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F32" s="516"/>
-      <c r="G32" s="519">
+      <c r="F32" s="513"/>
+      <c r="G32" s="516">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="H32" s="521"/>
-      <c r="I32" s="522"/>
-      <c r="J32" s="523"/>
+      <c r="H32" s="518"/>
+      <c r="I32" s="519"/>
+      <c r="J32" s="520"/>
     </row>
     <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="511"/>
-      <c r="B33" s="527" t="str">
+      <c r="A33" s="508"/>
+      <c r="B33" s="524" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C33" s="528"/>
-      <c r="D33" s="529"/>
-      <c r="E33" s="517"/>
-      <c r="F33" s="518"/>
-      <c r="G33" s="520"/>
-      <c r="H33" s="524"/>
-      <c r="I33" s="525"/>
-      <c r="J33" s="526"/>
+      <c r="C33" s="525"/>
+      <c r="D33" s="526"/>
+      <c r="E33" s="514"/>
+      <c r="F33" s="515"/>
+      <c r="G33" s="517"/>
+      <c r="H33" s="521"/>
+      <c r="I33" s="522"/>
+      <c r="J33" s="523"/>
     </row>
     <row r="34" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="510">
+      <c r="A34" s="507">
         <v>1</v>
       </c>
-      <c r="B34" s="512" t="s">
+      <c r="B34" s="509" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="513"/>
-      <c r="D34" s="514"/>
-      <c r="E34" s="515" t="str">
+      <c r="C34" s="510"/>
+      <c r="D34" s="511"/>
+      <c r="E34" s="512" t="str">
         <f>Данные!C19</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F34" s="516"/>
-      <c r="G34" s="519">
+      <c r="F34" s="513"/>
+      <c r="G34" s="516">
         <f>Данные!B19</f>
         <v>60</v>
       </c>
-      <c r="H34" s="521"/>
-      <c r="I34" s="522"/>
-      <c r="J34" s="523"/>
+      <c r="H34" s="518"/>
+      <c r="I34" s="519"/>
+      <c r="J34" s="520"/>
     </row>
     <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="511"/>
-      <c r="B35" s="527" t="str">
+      <c r="A35" s="508"/>
+      <c r="B35" s="524" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C35" s="528"/>
-      <c r="D35" s="529"/>
-      <c r="E35" s="517"/>
-      <c r="F35" s="518"/>
-      <c r="G35" s="520"/>
-      <c r="H35" s="524"/>
-      <c r="I35" s="525"/>
-      <c r="J35" s="526"/>
+      <c r="C35" s="525"/>
+      <c r="D35" s="526"/>
+      <c r="E35" s="514"/>
+      <c r="F35" s="515"/>
+      <c r="G35" s="517"/>
+      <c r="H35" s="521"/>
+      <c r="I35" s="522"/>
+      <c r="J35" s="523"/>
     </row>
     <row r="36" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="510">
+      <c r="A36" s="507">
         <v>1</v>
       </c>
-      <c r="B36" s="512" t="s">
+      <c r="B36" s="509" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="513"/>
-      <c r="D36" s="514"/>
-      <c r="E36" s="515" t="str">
+      <c r="C36" s="510"/>
+      <c r="D36" s="511"/>
+      <c r="E36" s="512" t="str">
         <f>Данные!C20</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F36" s="516"/>
-      <c r="G36" s="519">
+      <c r="F36" s="513"/>
+      <c r="G36" s="516">
         <f>Данные!B20</f>
         <v>50</v>
       </c>
-      <c r="H36" s="521"/>
-      <c r="I36" s="522"/>
-      <c r="J36" s="523"/>
+      <c r="H36" s="518"/>
+      <c r="I36" s="519"/>
+      <c r="J36" s="520"/>
     </row>
     <row r="37" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="511"/>
-      <c r="B37" s="527" t="str">
+      <c r="A37" s="508"/>
+      <c r="B37" s="524" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C37" s="528"/>
-      <c r="D37" s="529"/>
-      <c r="E37" s="517"/>
-      <c r="F37" s="518"/>
-      <c r="G37" s="520"/>
-      <c r="H37" s="524"/>
-      <c r="I37" s="525"/>
-      <c r="J37" s="526"/>
+      <c r="C37" s="525"/>
+      <c r="D37" s="526"/>
+      <c r="E37" s="514"/>
+      <c r="F37" s="515"/>
+      <c r="G37" s="517"/>
+      <c r="H37" s="521"/>
+      <c r="I37" s="522"/>
+      <c r="J37" s="523"/>
     </row>
     <row r="38" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="510">
+      <c r="A38" s="507">
         <v>1</v>
       </c>
-      <c r="B38" s="512" t="s">
+      <c r="B38" s="509" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="513"/>
-      <c r="D38" s="514"/>
-      <c r="E38" s="515" t="str">
+      <c r="C38" s="510"/>
+      <c r="D38" s="511"/>
+      <c r="E38" s="512" t="str">
         <f>Данные!C21</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F38" s="516"/>
-      <c r="G38" s="519">
+      <c r="F38" s="513"/>
+      <c r="G38" s="516">
         <f>Данные!B21</f>
         <v>24</v>
       </c>
-      <c r="H38" s="521"/>
-      <c r="I38" s="522"/>
-      <c r="J38" s="523"/>
+      <c r="H38" s="518"/>
+      <c r="I38" s="519"/>
+      <c r="J38" s="520"/>
     </row>
     <row r="39" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="511"/>
-      <c r="B39" s="527" t="str">
+      <c r="A39" s="508"/>
+      <c r="B39" s="524" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C39" s="528"/>
-      <c r="D39" s="529"/>
-      <c r="E39" s="517"/>
-      <c r="F39" s="518"/>
-      <c r="G39" s="520"/>
-      <c r="H39" s="524"/>
-      <c r="I39" s="525"/>
-      <c r="J39" s="526"/>
+      <c r="C39" s="525"/>
+      <c r="D39" s="526"/>
+      <c r="E39" s="514"/>
+      <c r="F39" s="515"/>
+      <c r="G39" s="517"/>
+      <c r="H39" s="521"/>
+      <c r="I39" s="522"/>
+      <c r="J39" s="523"/>
     </row>
     <row r="40" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="510">
+      <c r="A40" s="507">
         <v>1</v>
       </c>
-      <c r="B40" s="512" t="s">
+      <c r="B40" s="509" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="513"/>
-      <c r="D40" s="514"/>
-      <c r="E40" s="515" t="str">
+      <c r="C40" s="510"/>
+      <c r="D40" s="511"/>
+      <c r="E40" s="512" t="str">
         <f>Данные!C23</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F40" s="516"/>
-      <c r="G40" s="519">
+      <c r="F40" s="513"/>
+      <c r="G40" s="516">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="H40" s="521"/>
-      <c r="I40" s="522"/>
-      <c r="J40" s="523"/>
+      <c r="H40" s="518"/>
+      <c r="I40" s="519"/>
+      <c r="J40" s="520"/>
     </row>
     <row r="41" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="511"/>
-      <c r="B41" s="527" t="str">
+      <c r="A41" s="508"/>
+      <c r="B41" s="524" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C41" s="528"/>
-      <c r="D41" s="529"/>
-      <c r="E41" s="517"/>
-      <c r="F41" s="518"/>
-      <c r="G41" s="520"/>
-      <c r="H41" s="524"/>
-      <c r="I41" s="525"/>
-      <c r="J41" s="526"/>
+      <c r="C41" s="525"/>
+      <c r="D41" s="526"/>
+      <c r="E41" s="514"/>
+      <c r="F41" s="515"/>
+      <c r="G41" s="517"/>
+      <c r="H41" s="521"/>
+      <c r="I41" s="522"/>
+      <c r="J41" s="523"/>
     </row>
     <row r="42" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="510">
+      <c r="A42" s="507">
         <v>1</v>
       </c>
-      <c r="B42" s="512" t="s">
+      <c r="B42" s="509" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="513"/>
-      <c r="D42" s="514"/>
-      <c r="E42" s="515" t="str">
+      <c r="C42" s="510"/>
+      <c r="D42" s="511"/>
+      <c r="E42" s="512" t="str">
         <f>Данные!C26</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F42" s="516"/>
-      <c r="G42" s="519">
+      <c r="F42" s="513"/>
+      <c r="G42" s="516">
         <f>Данные!B26</f>
         <v>22</v>
       </c>
-      <c r="H42" s="521"/>
-      <c r="I42" s="522"/>
-      <c r="J42" s="523"/>
+      <c r="H42" s="518"/>
+      <c r="I42" s="519"/>
+      <c r="J42" s="520"/>
     </row>
     <row r="43" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="511"/>
-      <c r="B43" s="527" t="str">
+      <c r="A43" s="508"/>
+      <c r="B43" s="524" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C43" s="528"/>
-      <c r="D43" s="529"/>
-      <c r="E43" s="517"/>
-      <c r="F43" s="518"/>
-      <c r="G43" s="520"/>
-      <c r="H43" s="524"/>
-      <c r="I43" s="525"/>
-      <c r="J43" s="526"/>
+      <c r="C43" s="525"/>
+      <c r="D43" s="526"/>
+      <c r="E43" s="514"/>
+      <c r="F43" s="515"/>
+      <c r="G43" s="517"/>
+      <c r="H43" s="521"/>
+      <c r="I43" s="522"/>
+      <c r="J43" s="523"/>
     </row>
     <row r="44" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="510">
+      <c r="A44" s="507">
         <v>1</v>
       </c>
-      <c r="B44" s="512" t="s">
+      <c r="B44" s="509" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="513"/>
-      <c r="D44" s="514"/>
-      <c r="E44" s="515">
+      <c r="C44" s="510"/>
+      <c r="D44" s="511"/>
+      <c r="E44" s="512">
         <f>Данные!C27</f>
         <v>0</v>
       </c>
-      <c r="F44" s="516"/>
-      <c r="G44" s="519">
+      <c r="F44" s="513"/>
+      <c r="G44" s="516">
         <f>Данные!B27</f>
         <v>22</v>
       </c>
-      <c r="H44" s="521"/>
-      <c r="I44" s="522"/>
-      <c r="J44" s="523"/>
+      <c r="H44" s="518"/>
+      <c r="I44" s="519"/>
+      <c r="J44" s="520"/>
     </row>
     <row r="45" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="511"/>
-      <c r="B45" s="527" t="str">
+      <c r="A45" s="508"/>
+      <c r="B45" s="524" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C45" s="528"/>
-      <c r="D45" s="529"/>
-      <c r="E45" s="517"/>
-      <c r="F45" s="518"/>
-      <c r="G45" s="520"/>
-      <c r="H45" s="524"/>
-      <c r="I45" s="525"/>
-      <c r="J45" s="526"/>
+      <c r="C45" s="525"/>
+      <c r="D45" s="526"/>
+      <c r="E45" s="514"/>
+      <c r="F45" s="515"/>
+      <c r="G45" s="517"/>
+      <c r="H45" s="521"/>
+      <c r="I45" s="522"/>
+      <c r="J45" s="523"/>
     </row>
     <row r="46" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="510">
+      <c r="A46" s="507">
         <v>1</v>
       </c>
-      <c r="B46" s="512" t="s">
+      <c r="B46" s="509" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="513"/>
-      <c r="D46" s="514"/>
-      <c r="E46" s="515">
+      <c r="C46" s="510"/>
+      <c r="D46" s="511"/>
+      <c r="E46" s="512">
         <f>Данные!C24</f>
         <v>0</v>
       </c>
-      <c r="F46" s="516"/>
-      <c r="G46" s="519" t="str">
+      <c r="F46" s="513"/>
+      <c r="G46" s="516" t="str">
         <f>Данные!B24</f>
         <v>-</v>
       </c>
-      <c r="H46" s="521"/>
-      <c r="I46" s="522"/>
-      <c r="J46" s="523"/>
+      <c r="H46" s="518"/>
+      <c r="I46" s="519"/>
+      <c r="J46" s="520"/>
     </row>
     <row r="47" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="511"/>
-      <c r="B47" s="527" t="str">
+      <c r="A47" s="508"/>
+      <c r="B47" s="524" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C47" s="528"/>
-      <c r="D47" s="529"/>
-      <c r="E47" s="517"/>
-      <c r="F47" s="518"/>
-      <c r="G47" s="520"/>
-      <c r="H47" s="524"/>
-      <c r="I47" s="525"/>
-      <c r="J47" s="526"/>
+      <c r="C47" s="525"/>
+      <c r="D47" s="526"/>
+      <c r="E47" s="514"/>
+      <c r="F47" s="515"/>
+      <c r="G47" s="517"/>
+      <c r="H47" s="521"/>
+      <c r="I47" s="522"/>
+      <c r="J47" s="523"/>
     </row>
     <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="311"/>
@@ -11122,47 +11191,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="540"/>
-      <c r="C2" s="541"/>
-      <c r="D2" s="542"/>
-      <c r="E2" s="549" t="s">
+      <c r="B2" s="537"/>
+      <c r="C2" s="538"/>
+      <c r="D2" s="539"/>
+      <c r="E2" s="546" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="550"/>
-      <c r="G2" s="550"/>
-      <c r="H2" s="551"/>
-      <c r="I2" s="556" t="s">
+      <c r="F2" s="547"/>
+      <c r="G2" s="547"/>
+      <c r="H2" s="548"/>
+      <c r="I2" s="553" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="557"/>
-      <c r="K2" s="560">
+      <c r="J2" s="554"/>
+      <c r="K2" s="557">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="561"/>
+      <c r="L2" s="558"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="552"/>
-      <c r="Q2" s="552"/>
+      <c r="P2" s="549"/>
+      <c r="Q2" s="549"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="543"/>
-      <c r="C3" s="544"/>
-      <c r="D3" s="545"/>
-      <c r="E3" s="553" t="s">
+      <c r="B3" s="540"/>
+      <c r="C3" s="541"/>
+      <c r="D3" s="542"/>
+      <c r="E3" s="550" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="554"/>
-      <c r="G3" s="554"/>
-      <c r="H3" s="555"/>
-      <c r="I3" s="558"/>
-      <c r="J3" s="559"/>
-      <c r="K3" s="562"/>
-      <c r="L3" s="563"/>
+      <c r="F3" s="551"/>
+      <c r="G3" s="551"/>
+      <c r="H3" s="552"/>
+      <c r="I3" s="555"/>
+      <c r="J3" s="556"/>
+      <c r="K3" s="559"/>
+      <c r="L3" s="560"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11173,9 +11242,9 @@
     </row>
     <row r="4" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="546"/>
-      <c r="C4" s="547"/>
-      <c r="D4" s="548"/>
+      <c r="B4" s="543"/>
+      <c r="C4" s="544"/>
+      <c r="D4" s="545"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11194,22 +11263,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="567" t="s">
+      <c r="B5" s="564" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="568"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="565"/>
+      <c r="D5" s="491" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="569"/>
-      <c r="J5" s="570"/>
-      <c r="K5" s="495"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="492"/>
+      <c r="F5" s="492"/>
+      <c r="G5" s="492"/>
+      <c r="H5" s="493"/>
+      <c r="I5" s="566"/>
+      <c r="J5" s="567"/>
+      <c r="K5" s="492"/>
+      <c r="L5" s="493"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11220,22 +11289,22 @@
     </row>
     <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="567" t="s">
+      <c r="B6" s="564" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="571"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="568"/>
+      <c r="D6" s="485" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="572"/>
-      <c r="F6" s="572"/>
-      <c r="G6" s="572"/>
-      <c r="H6" s="573"/>
-      <c r="I6" s="569"/>
-      <c r="J6" s="570"/>
-      <c r="K6" s="495"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="569"/>
+      <c r="F6" s="569"/>
+      <c r="G6" s="569"/>
+      <c r="H6" s="570"/>
+      <c r="I6" s="566"/>
+      <c r="J6" s="567"/>
+      <c r="K6" s="492"/>
+      <c r="L6" s="493"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11246,27 +11315,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="574" t="s">
+      <c r="B7" s="571" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="575"/>
-      <c r="D7" s="497">
+      <c r="C7" s="572"/>
+      <c r="D7" s="494">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="576"/>
-      <c r="F7" s="576"/>
-      <c r="G7" s="576"/>
-      <c r="H7" s="577"/>
-      <c r="I7" s="574" t="s">
+      <c r="E7" s="573"/>
+      <c r="F7" s="573"/>
+      <c r="G7" s="573"/>
+      <c r="H7" s="574"/>
+      <c r="I7" s="571" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="578"/>
-      <c r="K7" s="485">
+      <c r="J7" s="575"/>
+      <c r="K7" s="482">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="483"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -11760,12 +11829,12 @@
     </row>
     <row r="23" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="78"/>
-      <c r="B23" s="579" t="s">
+      <c r="B23" s="576" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="580"/>
-      <c r="D23" s="580"/>
-      <c r="E23" s="581"/>
+      <c r="C23" s="577"/>
+      <c r="D23" s="577"/>
+      <c r="E23" s="578"/>
       <c r="F23" s="116" t="s">
         <v>16</v>
       </c>
@@ -11787,12 +11856,12 @@
     </row>
     <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="78"/>
-      <c r="B24" s="564" t="s">
+      <c r="B24" s="561" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="565"/>
-      <c r="D24" s="565"/>
-      <c r="E24" s="566"/>
+      <c r="C24" s="562"/>
+      <c r="D24" s="562"/>
+      <c r="E24" s="563"/>
       <c r="F24" s="116" t="s">
         <v>16</v>
       </c>
@@ -11921,50 +11990,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="582">
+      <c r="B2" s="579">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="583"/>
-      <c r="D2" s="584"/>
-      <c r="E2" s="591" t="s">
+      <c r="C2" s="580"/>
+      <c r="D2" s="581"/>
+      <c r="E2" s="588" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="592"/>
-      <c r="G2" s="592"/>
-      <c r="H2" s="593"/>
-      <c r="I2" s="597" t="s">
+      <c r="F2" s="589"/>
+      <c r="G2" s="589"/>
+      <c r="H2" s="590"/>
+      <c r="I2" s="594" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="598"/>
-      <c r="K2" s="601">
+      <c r="J2" s="595"/>
+      <c r="K2" s="598">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="602"/>
+      <c r="L2" s="599"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="552"/>
-      <c r="Q2" s="552"/>
+      <c r="P2" s="549"/>
+      <c r="Q2" s="549"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="585"/>
-      <c r="C3" s="586"/>
-      <c r="D3" s="587"/>
-      <c r="E3" s="594" t="s">
+      <c r="B3" s="582"/>
+      <c r="C3" s="583"/>
+      <c r="D3" s="584"/>
+      <c r="E3" s="591" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="595"/>
-      <c r="G3" s="595"/>
-      <c r="H3" s="596"/>
-      <c r="I3" s="599"/>
-      <c r="J3" s="600"/>
-      <c r="K3" s="603"/>
-      <c r="L3" s="604"/>
+      <c r="F3" s="592"/>
+      <c r="G3" s="592"/>
+      <c r="H3" s="593"/>
+      <c r="I3" s="596"/>
+      <c r="J3" s="597"/>
+      <c r="K3" s="600"/>
+      <c r="L3" s="601"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11975,9 +12044,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="588"/>
-      <c r="C4" s="589"/>
-      <c r="D4" s="590"/>
+      <c r="B4" s="585"/>
+      <c r="C4" s="586"/>
+      <c r="D4" s="587"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -11996,22 +12065,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="567" t="s">
+      <c r="B5" s="564" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="605"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="602"/>
+      <c r="D5" s="491" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="606"/>
-      <c r="J5" s="607"/>
-      <c r="K5" s="608"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="492"/>
+      <c r="F5" s="492"/>
+      <c r="G5" s="492"/>
+      <c r="H5" s="493"/>
+      <c r="I5" s="603"/>
+      <c r="J5" s="604"/>
+      <c r="K5" s="605"/>
+      <c r="L5" s="493"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12022,22 +12091,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="567" t="s">
+      <c r="B6" s="564" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="605"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="602"/>
+      <c r="D6" s="485" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="572"/>
-      <c r="F6" s="572"/>
-      <c r="G6" s="572"/>
-      <c r="H6" s="573"/>
-      <c r="I6" s="606"/>
-      <c r="J6" s="607"/>
-      <c r="K6" s="608"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="569"/>
+      <c r="F6" s="569"/>
+      <c r="G6" s="569"/>
+      <c r="H6" s="570"/>
+      <c r="I6" s="603"/>
+      <c r="J6" s="604"/>
+      <c r="K6" s="605"/>
+      <c r="L6" s="493"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12048,27 +12117,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="574" t="s">
+      <c r="B7" s="571" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="609"/>
-      <c r="D7" s="497">
+      <c r="C7" s="606"/>
+      <c r="D7" s="494">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="576"/>
-      <c r="F7" s="576"/>
-      <c r="G7" s="576"/>
-      <c r="H7" s="577"/>
-      <c r="I7" s="610" t="s">
+      <c r="E7" s="573"/>
+      <c r="F7" s="573"/>
+      <c r="G7" s="573"/>
+      <c r="H7" s="574"/>
+      <c r="I7" s="607" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="609"/>
-      <c r="K7" s="485">
+      <c r="J7" s="606"/>
+      <c r="K7" s="482">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="483"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12265,13 +12334,13 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78"/>
-      <c r="B14" s="579" t="s">
+      <c r="B14" s="576" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="580"/>
-      <c r="D14" s="580"/>
-      <c r="E14" s="580"/>
-      <c r="F14" s="611"/>
+      <c r="C14" s="577"/>
+      <c r="D14" s="577"/>
+      <c r="E14" s="577"/>
+      <c r="F14" s="608"/>
       <c r="G14" s="56" t="s">
         <v>77</v>
       </c>
@@ -12290,12 +12359,12 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="78"/>
-      <c r="B15" s="564" t="s">
+      <c r="B15" s="561" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="565"/>
-      <c r="D15" s="565"/>
-      <c r="E15" s="566"/>
+      <c r="C15" s="562"/>
+      <c r="D15" s="562"/>
+      <c r="E15" s="563"/>
       <c r="F15" s="116" t="s">
         <v>16</v>
       </c>
@@ -12439,47 +12508,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="540"/>
-      <c r="C2" s="541"/>
-      <c r="D2" s="542"/>
-      <c r="E2" s="549" t="s">
+      <c r="B2" s="537"/>
+      <c r="C2" s="538"/>
+      <c r="D2" s="539"/>
+      <c r="E2" s="546" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="550"/>
-      <c r="G2" s="550"/>
-      <c r="H2" s="551"/>
-      <c r="I2" s="556" t="s">
+      <c r="F2" s="547"/>
+      <c r="G2" s="547"/>
+      <c r="H2" s="548"/>
+      <c r="I2" s="553" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="557"/>
-      <c r="K2" s="560">
+      <c r="J2" s="554"/>
+      <c r="K2" s="557">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="L2" s="561"/>
+      <c r="L2" s="558"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="552"/>
-      <c r="Q2" s="552"/>
+      <c r="P2" s="549"/>
+      <c r="Q2" s="549"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="543"/>
-      <c r="C3" s="544"/>
-      <c r="D3" s="545"/>
-      <c r="E3" s="553" t="s">
+      <c r="B3" s="540"/>
+      <c r="C3" s="541"/>
+      <c r="D3" s="542"/>
+      <c r="E3" s="550" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="554"/>
-      <c r="G3" s="554"/>
-      <c r="H3" s="555"/>
-      <c r="I3" s="558"/>
-      <c r="J3" s="559"/>
-      <c r="K3" s="562"/>
-      <c r="L3" s="563"/>
+      <c r="F3" s="551"/>
+      <c r="G3" s="551"/>
+      <c r="H3" s="552"/>
+      <c r="I3" s="555"/>
+      <c r="J3" s="556"/>
+      <c r="K3" s="559"/>
+      <c r="L3" s="560"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12490,9 +12559,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="546"/>
-      <c r="C4" s="547"/>
-      <c r="D4" s="548"/>
+      <c r="B4" s="543"/>
+      <c r="C4" s="544"/>
+      <c r="D4" s="545"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12511,22 +12580,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="567" t="s">
+      <c r="B5" s="564" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="568"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="565"/>
+      <c r="D5" s="491" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="569"/>
-      <c r="J5" s="570"/>
-      <c r="K5" s="495"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="492"/>
+      <c r="F5" s="492"/>
+      <c r="G5" s="492"/>
+      <c r="H5" s="493"/>
+      <c r="I5" s="566"/>
+      <c r="J5" s="567"/>
+      <c r="K5" s="492"/>
+      <c r="L5" s="493"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12537,22 +12606,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="567" t="s">
+      <c r="B6" s="564" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="571"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="568"/>
+      <c r="D6" s="485" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="572"/>
-      <c r="F6" s="572"/>
-      <c r="G6" s="572"/>
-      <c r="H6" s="573"/>
-      <c r="I6" s="569"/>
-      <c r="J6" s="570"/>
-      <c r="K6" s="495"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="569"/>
+      <c r="F6" s="569"/>
+      <c r="G6" s="569"/>
+      <c r="H6" s="570"/>
+      <c r="I6" s="566"/>
+      <c r="J6" s="567"/>
+      <c r="K6" s="492"/>
+      <c r="L6" s="493"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12563,27 +12632,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="574" t="s">
+      <c r="B7" s="571" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="575"/>
-      <c r="D7" s="497">
+      <c r="C7" s="572"/>
+      <c r="D7" s="494">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="576"/>
-      <c r="F7" s="576"/>
-      <c r="G7" s="576"/>
-      <c r="H7" s="577"/>
-      <c r="I7" s="574" t="s">
+      <c r="E7" s="573"/>
+      <c r="F7" s="573"/>
+      <c r="G7" s="573"/>
+      <c r="H7" s="574"/>
+      <c r="I7" s="571" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="578"/>
-      <c r="K7" s="485">
+      <c r="J7" s="575"/>
+      <c r="K7" s="482">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="483"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -13066,9 +13135,6 @@
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
@@ -13084,6 +13150,9 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -13151,47 +13220,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="540"/>
-      <c r="C2" s="541"/>
-      <c r="D2" s="542"/>
-      <c r="E2" s="549" t="s">
+      <c r="B2" s="537"/>
+      <c r="C2" s="538"/>
+      <c r="D2" s="539"/>
+      <c r="E2" s="546" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="550"/>
-      <c r="G2" s="550"/>
-      <c r="H2" s="551"/>
-      <c r="I2" s="556" t="s">
+      <c r="F2" s="547"/>
+      <c r="G2" s="547"/>
+      <c r="H2" s="548"/>
+      <c r="I2" s="553" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="557"/>
-      <c r="K2" s="560">
+      <c r="J2" s="554"/>
+      <c r="K2" s="557">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="L2" s="561"/>
+      <c r="L2" s="558"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="612"/>
-      <c r="Q2" s="612"/>
+      <c r="P2" s="609"/>
+      <c r="Q2" s="609"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
-      <c r="B3" s="543"/>
-      <c r="C3" s="544"/>
-      <c r="D3" s="545"/>
-      <c r="E3" s="553" t="s">
+      <c r="B3" s="540"/>
+      <c r="C3" s="541"/>
+      <c r="D3" s="542"/>
+      <c r="E3" s="550" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="554"/>
-      <c r="G3" s="554"/>
-      <c r="H3" s="555"/>
-      <c r="I3" s="558"/>
-      <c r="J3" s="559"/>
-      <c r="K3" s="562"/>
-      <c r="L3" s="563"/>
+      <c r="F3" s="551"/>
+      <c r="G3" s="551"/>
+      <c r="H3" s="552"/>
+      <c r="I3" s="555"/>
+      <c r="J3" s="556"/>
+      <c r="K3" s="559"/>
+      <c r="L3" s="560"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13202,9 +13271,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="546"/>
-      <c r="C4" s="547"/>
-      <c r="D4" s="548"/>
+      <c r="B4" s="543"/>
+      <c r="C4" s="544"/>
+      <c r="D4" s="545"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13223,22 +13292,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="567" t="s">
+      <c r="B5" s="564" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="568"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="565"/>
+      <c r="D5" s="491" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="569"/>
-      <c r="J5" s="570"/>
-      <c r="K5" s="495"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="492"/>
+      <c r="F5" s="492"/>
+      <c r="G5" s="492"/>
+      <c r="H5" s="493"/>
+      <c r="I5" s="566"/>
+      <c r="J5" s="567"/>
+      <c r="K5" s="492"/>
+      <c r="L5" s="493"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13249,22 +13318,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="567" t="s">
+      <c r="B6" s="564" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="571"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="568"/>
+      <c r="D6" s="485" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="572"/>
-      <c r="F6" s="572"/>
-      <c r="G6" s="572"/>
-      <c r="H6" s="573"/>
-      <c r="I6" s="569"/>
-      <c r="J6" s="570"/>
-      <c r="K6" s="495"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="569"/>
+      <c r="F6" s="569"/>
+      <c r="G6" s="569"/>
+      <c r="H6" s="570"/>
+      <c r="I6" s="566"/>
+      <c r="J6" s="567"/>
+      <c r="K6" s="492"/>
+      <c r="L6" s="493"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13275,27 +13344,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="574" t="s">
+      <c r="B7" s="571" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="575"/>
-      <c r="D7" s="497">
+      <c r="C7" s="572"/>
+      <c r="D7" s="494">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="576"/>
-      <c r="F7" s="576"/>
-      <c r="G7" s="576"/>
-      <c r="H7" s="577"/>
-      <c r="I7" s="574" t="s">
+      <c r="E7" s="573"/>
+      <c r="F7" s="573"/>
+      <c r="G7" s="573"/>
+      <c r="H7" s="574"/>
+      <c r="I7" s="571" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="578"/>
-      <c r="K7" s="485">
+      <c r="J7" s="575"/>
+      <c r="K7" s="482">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="483"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -13669,60 +13738,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="582"/>
-      <c r="C2" s="583"/>
-      <c r="D2" s="584"/>
-      <c r="E2" s="591" t="s">
+      <c r="B2" s="579"/>
+      <c r="C2" s="580"/>
+      <c r="D2" s="581"/>
+      <c r="E2" s="588" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="592"/>
-      <c r="G2" s="592"/>
-      <c r="H2" s="593"/>
-      <c r="I2" s="597" t="s">
+      <c r="F2" s="589"/>
+      <c r="G2" s="589"/>
+      <c r="H2" s="590"/>
+      <c r="I2" s="594" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="598"/>
-      <c r="K2" s="601">
+      <c r="J2" s="595"/>
+      <c r="K2" s="598">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="L2" s="602"/>
-      <c r="M2" s="613"/>
-      <c r="N2" s="614"/>
-      <c r="O2" s="614"/>
-      <c r="P2" s="614"/>
-      <c r="Q2" s="614"/>
-      <c r="R2" s="615"/>
+      <c r="L2" s="599"/>
+      <c r="M2" s="611"/>
+      <c r="N2" s="612"/>
+      <c r="O2" s="612"/>
+      <c r="P2" s="612"/>
+      <c r="Q2" s="612"/>
+      <c r="R2" s="613"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="585"/>
-      <c r="C3" s="586"/>
-      <c r="D3" s="587"/>
-      <c r="E3" s="594" t="s">
+      <c r="B3" s="582"/>
+      <c r="C3" s="583"/>
+      <c r="D3" s="584"/>
+      <c r="E3" s="591" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="595"/>
-      <c r="G3" s="595"/>
-      <c r="H3" s="596"/>
-      <c r="I3" s="599"/>
-      <c r="J3" s="600"/>
-      <c r="K3" s="603"/>
-      <c r="L3" s="604"/>
-      <c r="M3" s="616"/>
-      <c r="N3" s="617"/>
-      <c r="O3" s="617"/>
-      <c r="P3" s="617"/>
-      <c r="Q3" s="617"/>
-      <c r="R3" s="618"/>
+      <c r="F3" s="592"/>
+      <c r="G3" s="592"/>
+      <c r="H3" s="593"/>
+      <c r="I3" s="596"/>
+      <c r="J3" s="597"/>
+      <c r="K3" s="600"/>
+      <c r="L3" s="601"/>
+      <c r="M3" s="614"/>
+      <c r="N3" s="615"/>
+      <c r="O3" s="615"/>
+      <c r="P3" s="615"/>
+      <c r="Q3" s="615"/>
+      <c r="R3" s="616"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="588"/>
-      <c r="C4" s="589"/>
-      <c r="D4" s="590"/>
+      <c r="B4" s="585"/>
+      <c r="C4" s="586"/>
+      <c r="D4" s="587"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -13731,95 +13800,95 @@
       <c r="J4" s="249"/>
       <c r="K4" s="252"/>
       <c r="L4" s="253"/>
-      <c r="M4" s="616"/>
-      <c r="N4" s="617"/>
-      <c r="O4" s="617"/>
-      <c r="P4" s="617"/>
-      <c r="Q4" s="617"/>
-      <c r="R4" s="618"/>
+      <c r="M4" s="614"/>
+      <c r="N4" s="615"/>
+      <c r="O4" s="615"/>
+      <c r="P4" s="615"/>
+      <c r="Q4" s="615"/>
+      <c r="R4" s="616"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="567" t="s">
+      <c r="B5" s="564" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="605"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="602"/>
+      <c r="D5" s="491" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="606"/>
-      <c r="J5" s="607"/>
-      <c r="K5" s="608"/>
-      <c r="L5" s="496"/>
-      <c r="M5" s="616"/>
-      <c r="N5" s="617"/>
-      <c r="O5" s="617"/>
-      <c r="P5" s="617"/>
-      <c r="Q5" s="617"/>
-      <c r="R5" s="618"/>
+      <c r="E5" s="492"/>
+      <c r="F5" s="492"/>
+      <c r="G5" s="492"/>
+      <c r="H5" s="493"/>
+      <c r="I5" s="603"/>
+      <c r="J5" s="604"/>
+      <c r="K5" s="605"/>
+      <c r="L5" s="493"/>
+      <c r="M5" s="614"/>
+      <c r="N5" s="615"/>
+      <c r="O5" s="615"/>
+      <c r="P5" s="615"/>
+      <c r="Q5" s="615"/>
+      <c r="R5" s="616"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="567" t="s">
+      <c r="B6" s="564" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="605"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="602"/>
+      <c r="D6" s="485" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="572"/>
-      <c r="F6" s="572"/>
-      <c r="G6" s="572"/>
-      <c r="H6" s="573"/>
-      <c r="I6" s="606"/>
-      <c r="J6" s="607"/>
-      <c r="K6" s="608"/>
-      <c r="L6" s="496"/>
-      <c r="M6" s="616"/>
-      <c r="N6" s="617"/>
-      <c r="O6" s="617"/>
-      <c r="P6" s="617"/>
-      <c r="Q6" s="617"/>
-      <c r="R6" s="618"/>
+      <c r="E6" s="569"/>
+      <c r="F6" s="569"/>
+      <c r="G6" s="569"/>
+      <c r="H6" s="570"/>
+      <c r="I6" s="603"/>
+      <c r="J6" s="604"/>
+      <c r="K6" s="605"/>
+      <c r="L6" s="493"/>
+      <c r="M6" s="614"/>
+      <c r="N6" s="615"/>
+      <c r="O6" s="615"/>
+      <c r="P6" s="615"/>
+      <c r="Q6" s="615"/>
+      <c r="R6" s="616"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="574" t="s">
+      <c r="B7" s="571" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="609"/>
-      <c r="D7" s="497">
+      <c r="C7" s="606"/>
+      <c r="D7" s="494">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="576"/>
-      <c r="F7" s="576"/>
-      <c r="G7" s="576"/>
-      <c r="H7" s="577"/>
-      <c r="I7" s="610" t="s">
+      <c r="E7" s="573"/>
+      <c r="F7" s="573"/>
+      <c r="G7" s="573"/>
+      <c r="H7" s="574"/>
+      <c r="I7" s="607" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="609"/>
-      <c r="K7" s="485">
+      <c r="J7" s="606"/>
+      <c r="K7" s="482">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
-      <c r="M7" s="616"/>
-      <c r="N7" s="617"/>
-      <c r="O7" s="617"/>
-      <c r="P7" s="617"/>
-      <c r="Q7" s="617"/>
-      <c r="R7" s="618"/>
+      <c r="L7" s="483"/>
+      <c r="M7" s="614"/>
+      <c r="N7" s="615"/>
+      <c r="O7" s="615"/>
+      <c r="P7" s="615"/>
+      <c r="Q7" s="615"/>
+      <c r="R7" s="616"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14233,12 +14302,12 @@
     </row>
     <row r="21" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="78"/>
-      <c r="B21" s="564" t="s">
+      <c r="B21" s="561" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="565"/>
-      <c r="D21" s="565"/>
-      <c r="E21" s="566"/>
+      <c r="C21" s="562"/>
+      <c r="D21" s="562"/>
+      <c r="E21" s="563"/>
       <c r="F21" s="116" t="s">
         <v>16</v>
       </c>
@@ -14283,18 +14352,16 @@
       <c r="B23" s="123"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L24" s="619" t="s">
+      <c r="L24" s="610" t="s">
         <v>140</v>
       </c>
-      <c r="M24" s="619"/>
-      <c r="N24" s="619"/>
-      <c r="O24" s="481"/>
-      <c r="P24" s="481"/>
+      <c r="M24" s="610"/>
+      <c r="N24" s="610"/>
+      <c r="O24" s="469"/>
+      <c r="P24" s="469"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="L24:N24"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="B2:D4"/>
@@ -14313,6 +14380,8 @@
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R21">
     <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
@@ -14377,47 +14446,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="582"/>
-      <c r="C2" s="583"/>
-      <c r="D2" s="584"/>
-      <c r="E2" s="591" t="s">
+      <c r="B2" s="579"/>
+      <c r="C2" s="580"/>
+      <c r="D2" s="581"/>
+      <c r="E2" s="588" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="592"/>
-      <c r="G2" s="592"/>
-      <c r="H2" s="593"/>
-      <c r="I2" s="597" t="s">
+      <c r="F2" s="589"/>
+      <c r="G2" s="589"/>
+      <c r="H2" s="590"/>
+      <c r="I2" s="594" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="598"/>
-      <c r="K2" s="601">
+      <c r="J2" s="595"/>
+      <c r="K2" s="598">
         <f>Данные!B19</f>
         <v>60</v>
       </c>
-      <c r="L2" s="602"/>
+      <c r="L2" s="599"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="620"/>
-      <c r="Q2" s="620"/>
+      <c r="P2" s="617"/>
+      <c r="Q2" s="617"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="585"/>
-      <c r="C3" s="586"/>
-      <c r="D3" s="587"/>
-      <c r="E3" s="594" t="s">
+      <c r="B3" s="582"/>
+      <c r="C3" s="583"/>
+      <c r="D3" s="584"/>
+      <c r="E3" s="591" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="595"/>
-      <c r="G3" s="595"/>
-      <c r="H3" s="596"/>
-      <c r="I3" s="599"/>
-      <c r="J3" s="600"/>
-      <c r="K3" s="603"/>
-      <c r="L3" s="604"/>
+      <c r="F3" s="592"/>
+      <c r="G3" s="592"/>
+      <c r="H3" s="593"/>
+      <c r="I3" s="596"/>
+      <c r="J3" s="597"/>
+      <c r="K3" s="600"/>
+      <c r="L3" s="601"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -14428,9 +14497,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="588"/>
-      <c r="C4" s="589"/>
-      <c r="D4" s="590"/>
+      <c r="B4" s="585"/>
+      <c r="C4" s="586"/>
+      <c r="D4" s="587"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -14449,22 +14518,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="567" t="s">
+      <c r="B5" s="564" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="605"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="602"/>
+      <c r="D5" s="491" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="606"/>
-      <c r="J5" s="607"/>
-      <c r="K5" s="608"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="492"/>
+      <c r="F5" s="492"/>
+      <c r="G5" s="492"/>
+      <c r="H5" s="493"/>
+      <c r="I5" s="603"/>
+      <c r="J5" s="604"/>
+      <c r="K5" s="605"/>
+      <c r="L5" s="493"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -14475,22 +14544,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="567" t="s">
+      <c r="B6" s="564" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="605"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="602"/>
+      <c r="D6" s="485" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="572"/>
-      <c r="F6" s="572"/>
-      <c r="G6" s="572"/>
-      <c r="H6" s="573"/>
-      <c r="I6" s="606"/>
-      <c r="J6" s="607"/>
-      <c r="K6" s="608"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="569"/>
+      <c r="F6" s="569"/>
+      <c r="G6" s="569"/>
+      <c r="H6" s="570"/>
+      <c r="I6" s="603"/>
+      <c r="J6" s="604"/>
+      <c r="K6" s="605"/>
+      <c r="L6" s="493"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -14501,27 +14570,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="574" t="s">
+      <c r="B7" s="571" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="609"/>
-      <c r="D7" s="497">
+      <c r="C7" s="606"/>
+      <c r="D7" s="494">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="576"/>
-      <c r="F7" s="576"/>
-      <c r="G7" s="576"/>
-      <c r="H7" s="577"/>
-      <c r="I7" s="610" t="s">
+      <c r="E7" s="573"/>
+      <c r="F7" s="573"/>
+      <c r="G7" s="573"/>
+      <c r="H7" s="574"/>
+      <c r="I7" s="607" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="609"/>
-      <c r="K7" s="485">
+      <c r="J7" s="606"/>
+      <c r="K7" s="482">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="483"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -14784,12 +14853,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78"/>
-      <c r="B16" s="564" t="s">
+      <c r="B16" s="561" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="565"/>
-      <c r="D16" s="565"/>
-      <c r="E16" s="566"/>
+      <c r="C16" s="562"/>
+      <c r="D16" s="562"/>
+      <c r="E16" s="563"/>
       <c r="F16" s="259" t="s">
         <v>16</v>
       </c>
@@ -14834,13 +14903,13 @@
       <c r="B18" s="123"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K19" s="619" t="s">
+      <c r="K19" s="610" t="s">
         <v>140</v>
       </c>
-      <c r="L19" s="619"/>
-      <c r="M19" s="619"/>
-      <c r="N19" s="481"/>
-      <c r="O19" s="481"/>
+      <c r="L19" s="610"/>
+      <c r="M19" s="610"/>
+      <c r="N19" s="469"/>
+      <c r="O19" s="469"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -14852,11 +14921,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
@@ -14864,6 +14928,11 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-2.1-500-14 (Брест колоски)/Брест колоски от 13.11.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-2.1-500-14 (Брест колоски)/Брест колоски от 13.11.2019.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Бутылка\XXI-В-28-2.1-500-14 (Брест колоски)\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686DF23D-9424-43B5-B2F3-C07DD5EACD47}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="15" r:id="rId1"/>
@@ -37,7 +38,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Чист.  поддон'!$A$1:$S$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Чист. форма'!$A$1:$S$25</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -476,13 +484,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="168" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="58" x14ac:knownFonts="1">
     <font>
@@ -2159,7 +2167,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="641">
@@ -3362,7 +3370,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3377,7 +3385,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3436,20 +3444,20 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3467,7 +3475,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3488,13 +3496,13 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="98" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="98" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3507,7 +3515,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3551,6 +3559,42 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="46" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3619,10 +3663,10 @@
     <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3972,6 +4016,9 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3983,51 +4030,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
-    <cellStyle name="Обычный 3" xfId="2"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Процентный" xfId="4" builtinId="5"/>
     <cellStyle name="Финансовый" xfId="3" builtinId="3"/>
   </cellStyles>
@@ -4317,7 +4325,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4363,7 +4377,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4408,7 +4428,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Прямая соединительная линия 9"/>
+        <xdr:cNvPr id="10" name="Прямая соединительная линия 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4452,7 +4478,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4501,7 +4533,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 8" descr="Fun_1"/>
+        <xdr:cNvPr id="2" name="Picture 8" descr="Fun_1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4547,7 +4585,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4591,7 +4635,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4635,7 +4685,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4684,7 +4740,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 4" descr="BOT-1_HR.jpg"/>
+        <xdr:cNvPr id="3" name="Picture 4" descr="BOT-1_HR.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4730,7 +4792,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4774,7 +4842,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4818,7 +4892,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4867,7 +4947,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4913,7 +4999,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Прямая соединительная линия 6"/>
+        <xdr:cNvPr id="7" name="Прямая соединительная линия 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4957,7 +5049,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5001,7 +5099,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5050,7 +5154,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1078" name="Picture 4" descr="BAF-2_HR.JPG"/>
+        <xdr:cNvPr id="1078" name="Picture 4" descr="BAF-2_HR.JPG">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000036040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5096,7 +5206,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Прямая соединительная линия 6"/>
+        <xdr:cNvPr id="7" name="Прямая соединительная линия 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5140,7 +5256,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5184,7 +5306,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5233,7 +5361,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5277,7 +5411,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Прямая соединительная линия 3"/>
+        <xdr:cNvPr id="4" name="Прямая соединительная линия 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5321,7 +5461,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Прямая соединительная линия 6"/>
+        <xdr:cNvPr id="7" name="Прямая соединительная линия 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5365,7 +5511,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Рисунок 8"/>
+        <xdr:cNvPr id="9" name="Рисунок 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5408,7 +5560,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 4" descr="Iso0418(FGP)"/>
+        <xdr:cNvPr id="2" name="Picture 4" descr="Iso0418(FGP)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5454,7 +5612,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5498,7 +5662,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Прямая соединительная линия 3"/>
+        <xdr:cNvPr id="4" name="Прямая соединительная линия 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5542,7 +5712,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Прямая соединительная линия 6"/>
+        <xdr:cNvPr id="7" name="Прямая соединительная линия 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5591,7 +5767,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 5" descr="pbb.tif"/>
+        <xdr:cNvPr id="3" name="Picture 5" descr="pbb.tif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -5637,7 +5819,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5681,7 +5869,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5725,7 +5919,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5774,7 +5974,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 9" descr="THIMBLE"/>
+        <xdr:cNvPr id="2" name="Picture 9" descr="THIMBLE">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5820,7 +6026,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5864,7 +6076,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5908,7 +6126,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5957,7 +6181,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 6" descr="BLOWHEAD"/>
+        <xdr:cNvPr id="2" name="Picture 6" descr="BLOWHEAD">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6003,7 +6233,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6047,7 +6283,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6091,7 +6333,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6199,6 +6447,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -6234,6 +6499,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -6409,90 +6691,90 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="484" t="s">
+    <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="496" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="488"/>
-      <c r="C1" s="488"/>
-      <c r="D1" s="488"/>
-      <c r="E1" s="488"/>
+      <c r="B1" s="500"/>
+      <c r="C1" s="500"/>
+      <c r="D1" s="500"/>
+      <c r="E1" s="500"/>
       <c r="G1" s="371" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="485" t="s">
+    <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="497" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="486"/>
-      <c r="C2" s="486"/>
-      <c r="D2" s="486"/>
-      <c r="E2" s="487"/>
+      <c r="B2" s="498"/>
+      <c r="C2" s="498"/>
+      <c r="D2" s="498"/>
+      <c r="E2" s="499"/>
       <c r="G2" s="370" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="G3" s="370" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="489" t="s">
+    <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="501" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="490"/>
-      <c r="C4" s="490"/>
-      <c r="D4" s="490"/>
-      <c r="E4" s="490"/>
-    </row>
-    <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="491" t="s">
+      <c r="B4" s="502"/>
+      <c r="C4" s="502"/>
+      <c r="D4" s="502"/>
+      <c r="E4" s="502"/>
+    </row>
+    <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="503" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="492"/>
-      <c r="C5" s="492"/>
-      <c r="D5" s="492"/>
-      <c r="E5" s="493"/>
-    </row>
-    <row r="6" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="484" t="s">
+      <c r="B5" s="504"/>
+      <c r="C5" s="504"/>
+      <c r="D5" s="504"/>
+      <c r="E5" s="505"/>
+    </row>
+    <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="496" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="488"/>
-      <c r="C7" s="488"/>
-      <c r="D7" s="488"/>
-      <c r="E7" s="488"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="494"/>
-      <c r="B8" s="495"/>
-      <c r="C8" s="495"/>
-      <c r="D8" s="495"/>
-      <c r="E8" s="496"/>
-    </row>
-    <row r="10" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="484" t="s">
+      <c r="B7" s="500"/>
+      <c r="C7" s="500"/>
+      <c r="D7" s="500"/>
+      <c r="E7" s="500"/>
+    </row>
+    <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="506"/>
+      <c r="B8" s="507"/>
+      <c r="C8" s="507"/>
+      <c r="D8" s="507"/>
+      <c r="E8" s="508"/>
+    </row>
+    <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="496" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="484"/>
+      <c r="B10" s="496"/>
       <c r="C10" s="372"/>
       <c r="D10" s="380" t="s">
         <v>94</v>
@@ -6502,36 +6784,36 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="482"/>
-      <c r="B11" s="483"/>
+    <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="494"/>
+      <c r="B11" s="495"/>
       <c r="D11" s="379">
         <v>43782</v>
       </c>
-      <c r="F11" s="479" t="s">
+      <c r="F11" s="491" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="479"/>
-      <c r="H11" s="479"/>
-      <c r="I11" s="479"/>
-      <c r="J11" s="480" t="s">
+      <c r="G11" s="491"/>
+      <c r="H11" s="491"/>
+      <c r="I11" s="491"/>
+      <c r="J11" s="492" t="s">
         <v>99</v>
       </c>
-      <c r="K11" s="480"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="479" t="s">
+      <c r="K11" s="492"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F12" s="491" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="479"/>
-      <c r="H12" s="479"/>
-      <c r="I12" s="479"/>
-      <c r="J12" s="480" t="s">
+      <c r="G12" s="491"/>
+      <c r="H12" s="491"/>
+      <c r="I12" s="491"/>
+      <c r="J12" s="492" t="s">
         <v>100</v>
       </c>
-      <c r="K12" s="480"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K12" s="492"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="373" t="s">
         <v>88</v>
       </c>
@@ -6541,18 +6823,18 @@
       <c r="C13" s="384" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="479" t="s">
+      <c r="F13" s="491" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="479"/>
-      <c r="H13" s="479"/>
-      <c r="I13" s="479"/>
-      <c r="J13" s="480" t="s">
+      <c r="G13" s="491"/>
+      <c r="H13" s="491"/>
+      <c r="I13" s="491"/>
+      <c r="J13" s="492" t="s">
         <v>101</v>
       </c>
-      <c r="K13" s="480"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13" s="492"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="375" t="s">
         <v>43</v>
       </c>
@@ -6563,7 +6845,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="375" t="s">
         <v>44</v>
       </c>
@@ -6574,7 +6856,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="375" t="s">
         <v>38</v>
       </c>
@@ -6585,7 +6867,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="375" t="s">
         <v>23</v>
       </c>
@@ -6596,7 +6878,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="375" t="s">
         <v>47</v>
       </c>
@@ -6607,7 +6889,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="375" t="s">
         <v>90</v>
       </c>
@@ -6618,7 +6900,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="375" t="s">
         <v>51</v>
       </c>
@@ -6629,7 +6911,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="375" t="s">
         <v>53</v>
       </c>
@@ -6640,7 +6922,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="375" t="s">
         <v>91</v>
       </c>
@@ -6649,7 +6931,7 @@
       </c>
       <c r="C22" s="382"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="375" t="s">
         <v>56</v>
       </c>
@@ -6660,7 +6942,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="375" t="s">
         <v>70</v>
       </c>
@@ -6669,7 +6951,7 @@
       </c>
       <c r="C24" s="382"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="375" t="s">
         <v>92</v>
       </c>
@@ -6678,7 +6960,7 @@
       </c>
       <c r="C25" s="382"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="377" t="s">
         <v>55</v>
       </c>
@@ -6689,7 +6971,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="377" t="s">
         <v>106</v>
       </c>
@@ -6698,17 +6980,17 @@
       </c>
       <c r="C27" s="385"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="381"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="481" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="493" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="481"/>
-      <c r="C29" s="481"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="493"/>
+      <c r="C29" s="493"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="371" t="s">
         <v>139</v>
       </c>
@@ -6737,7 +7019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -6747,20 +7029,20 @@
       <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="169" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="169" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="169" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="169" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="169" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="169" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="169" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="169" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="169" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="169" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="169" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="169" customWidth="1"/>
     <col min="8" max="18" width="9" style="169" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="169" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="169"/>
+    <col min="19" max="19" width="1.42578125" style="169" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="169"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="165"/>
       <c r="B1" s="166"/>
       <c r="C1" s="167"/>
@@ -6781,49 +7063,49 @@
       <c r="R1" s="167"/>
       <c r="S1" s="168"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="170"/>
-      <c r="B2" s="579"/>
-      <c r="C2" s="580"/>
-      <c r="D2" s="581"/>
-      <c r="E2" s="588" t="s">
+      <c r="B2" s="591"/>
+      <c r="C2" s="592"/>
+      <c r="D2" s="593"/>
+      <c r="E2" s="600" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="589"/>
-      <c r="G2" s="589"/>
-      <c r="H2" s="590"/>
-      <c r="I2" s="594" t="s">
+      <c r="F2" s="601"/>
+      <c r="G2" s="601"/>
+      <c r="H2" s="602"/>
+      <c r="I2" s="606" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="595"/>
-      <c r="K2" s="598">
+      <c r="J2" s="607"/>
+      <c r="K2" s="610">
         <f>Данные!B20</f>
         <v>50</v>
       </c>
-      <c r="L2" s="599"/>
+      <c r="L2" s="611"/>
       <c r="M2" s="171"/>
       <c r="N2" s="172"/>
       <c r="O2" s="173"/>
-      <c r="P2" s="618"/>
-      <c r="Q2" s="618"/>
+      <c r="P2" s="630"/>
+      <c r="Q2" s="630"/>
       <c r="R2" s="174"/>
       <c r="S2" s="175"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="170"/>
-      <c r="B3" s="582"/>
-      <c r="C3" s="583"/>
-      <c r="D3" s="584"/>
-      <c r="E3" s="591" t="s">
+      <c r="B3" s="594"/>
+      <c r="C3" s="595"/>
+      <c r="D3" s="596"/>
+      <c r="E3" s="603" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="592"/>
-      <c r="G3" s="592"/>
-      <c r="H3" s="593"/>
-      <c r="I3" s="596"/>
-      <c r="J3" s="597"/>
-      <c r="K3" s="600"/>
-      <c r="L3" s="601"/>
+      <c r="F3" s="604"/>
+      <c r="G3" s="604"/>
+      <c r="H3" s="605"/>
+      <c r="I3" s="608"/>
+      <c r="J3" s="609"/>
+      <c r="K3" s="612"/>
+      <c r="L3" s="613"/>
       <c r="M3" s="176"/>
       <c r="N3" s="177"/>
       <c r="O3" s="177"/>
@@ -6832,11 +7114,11 @@
       <c r="R3" s="178"/>
       <c r="S3" s="175"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="170"/>
-      <c r="B4" s="585"/>
-      <c r="C4" s="586"/>
-      <c r="D4" s="587"/>
+      <c r="B4" s="597"/>
+      <c r="C4" s="598"/>
+      <c r="D4" s="599"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -6853,24 +7135,24 @@
       <c r="R4" s="178"/>
       <c r="S4" s="175"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="170"/>
-      <c r="B5" s="564" t="s">
+      <c r="B5" s="576" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="602"/>
-      <c r="D5" s="491" t="str">
+      <c r="C5" s="614"/>
+      <c r="D5" s="503" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="492"/>
-      <c r="F5" s="492"/>
-      <c r="G5" s="492"/>
-      <c r="H5" s="493"/>
-      <c r="I5" s="603"/>
-      <c r="J5" s="604"/>
-      <c r="K5" s="605"/>
-      <c r="L5" s="493"/>
+      <c r="E5" s="504"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="615"/>
+      <c r="J5" s="616"/>
+      <c r="K5" s="617"/>
+      <c r="L5" s="505"/>
       <c r="M5" s="179"/>
       <c r="N5" s="177"/>
       <c r="O5" s="177"/>
@@ -6879,24 +7161,24 @@
       <c r="R5" s="178"/>
       <c r="S5" s="175"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="170"/>
-      <c r="B6" s="564" t="s">
+      <c r="B6" s="576" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="602"/>
-      <c r="D6" s="485" t="str">
+      <c r="C6" s="614"/>
+      <c r="D6" s="497" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="569"/>
-      <c r="F6" s="569"/>
-      <c r="G6" s="569"/>
-      <c r="H6" s="570"/>
-      <c r="I6" s="603"/>
-      <c r="J6" s="604"/>
-      <c r="K6" s="605"/>
-      <c r="L6" s="493"/>
+      <c r="E6" s="581"/>
+      <c r="F6" s="581"/>
+      <c r="G6" s="581"/>
+      <c r="H6" s="582"/>
+      <c r="I6" s="615"/>
+      <c r="J6" s="616"/>
+      <c r="K6" s="617"/>
+      <c r="L6" s="505"/>
       <c r="M6" s="176"/>
       <c r="N6" s="177"/>
       <c r="O6" s="177"/>
@@ -6905,29 +7187,29 @@
       <c r="R6" s="178"/>
       <c r="S6" s="175"/>
     </row>
-    <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="170"/>
-      <c r="B7" s="571" t="s">
+      <c r="B7" s="583" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="606"/>
-      <c r="D7" s="494">
+      <c r="C7" s="618"/>
+      <c r="D7" s="506">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="573"/>
-      <c r="F7" s="573"/>
-      <c r="G7" s="573"/>
-      <c r="H7" s="574"/>
-      <c r="I7" s="607" t="s">
+      <c r="E7" s="585"/>
+      <c r="F7" s="585"/>
+      <c r="G7" s="585"/>
+      <c r="H7" s="586"/>
+      <c r="I7" s="619" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="606"/>
-      <c r="K7" s="482">
+      <c r="J7" s="618"/>
+      <c r="K7" s="494">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="483"/>
+      <c r="L7" s="495"/>
       <c r="M7" s="179"/>
       <c r="N7" s="177"/>
       <c r="O7" s="177"/>
@@ -6936,7 +7218,7 @@
       <c r="R7" s="178"/>
       <c r="S7" s="175"/>
     </row>
-    <row r="8" spans="1:19" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="180"/>
       <c r="B8" s="181"/>
       <c r="C8" s="182"/>
@@ -6957,7 +7239,7 @@
       <c r="R8" s="185"/>
       <c r="S8" s="186"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="187"/>
       <c r="B9" s="254" t="s">
         <v>17</v>
@@ -6990,7 +7272,7 @@
       <c r="R9" s="346"/>
       <c r="S9" s="202"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="180"/>
       <c r="B10" s="189" t="s">
         <v>25</v>
@@ -7025,7 +7307,7 @@
       <c r="R10" s="348"/>
       <c r="S10" s="186"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="180"/>
       <c r="B11" s="191" t="s">
         <v>26</v>
@@ -7058,7 +7340,7 @@
       <c r="R11" s="350"/>
       <c r="S11" s="186"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="180"/>
       <c r="B12" s="191" t="s">
         <v>2</v>
@@ -7091,7 +7373,7 @@
       <c r="R12" s="350"/>
       <c r="S12" s="186"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="180"/>
       <c r="B13" s="191" t="s">
         <v>3</v>
@@ -7124,7 +7406,7 @@
       <c r="R13" s="350"/>
       <c r="S13" s="186"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="180"/>
       <c r="B14" s="191" t="s">
         <v>27</v>
@@ -7157,7 +7439,7 @@
       <c r="R14" s="350"/>
       <c r="S14" s="186"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="180"/>
       <c r="B15" s="191" t="s">
         <v>28</v>
@@ -7190,7 +7472,7 @@
       <c r="R15" s="350"/>
       <c r="S15" s="186"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="180"/>
       <c r="B16" s="191" t="s">
         <v>4</v>
@@ -7223,7 +7505,7 @@
       <c r="R16" s="350"/>
       <c r="S16" s="186"/>
     </row>
-    <row r="17" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A17" s="180"/>
       <c r="B17" s="191" t="s">
         <v>9</v>
@@ -7256,7 +7538,7 @@
       <c r="R17" s="350"/>
       <c r="S17" s="186"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="180"/>
       <c r="B18" s="191" t="s">
         <v>5</v>
@@ -7289,7 +7571,7 @@
       <c r="R18" s="350"/>
       <c r="S18" s="186"/>
     </row>
-    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="193"/>
       <c r="B19" s="194"/>
       <c r="C19" s="194"/>
@@ -7310,13 +7592,13 @@
       <c r="R19" s="194"/>
       <c r="S19" s="196"/>
     </row>
-    <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L21" s="610" t="s">
+    <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="L21" s="622" t="s">
         <v>140</v>
       </c>
-      <c r="M21" s="610"/>
-      <c r="N21" s="610"/>
+      <c r="M21" s="622"/>
+      <c r="N21" s="622"/>
       <c r="O21" s="469"/>
       <c r="P21" s="469"/>
     </row>
@@ -7360,7 +7642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -7370,20 +7652,20 @@
       <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="208" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="208" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="208" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="208" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="208" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="208" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="208" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="208" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="208" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="208" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="208" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="208" customWidth="1"/>
     <col min="8" max="18" width="9" style="208" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="208" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="208"/>
+    <col min="19" max="19" width="1.42578125" style="208" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="208"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="204"/>
       <c r="B1" s="205"/>
       <c r="C1" s="206"/>
@@ -7404,49 +7686,49 @@
       <c r="R1" s="206"/>
       <c r="S1" s="207"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="209"/>
-      <c r="B2" s="579"/>
-      <c r="C2" s="580"/>
-      <c r="D2" s="581"/>
-      <c r="E2" s="588" t="s">
+      <c r="B2" s="591"/>
+      <c r="C2" s="592"/>
+      <c r="D2" s="593"/>
+      <c r="E2" s="600" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="589"/>
-      <c r="G2" s="589"/>
-      <c r="H2" s="590"/>
-      <c r="I2" s="594" t="s">
+      <c r="F2" s="601"/>
+      <c r="G2" s="601"/>
+      <c r="H2" s="602"/>
+      <c r="I2" s="606" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="595"/>
-      <c r="K2" s="598">
+      <c r="J2" s="607"/>
+      <c r="K2" s="610">
         <f>Данные!B21</f>
         <v>24</v>
       </c>
-      <c r="L2" s="599"/>
+      <c r="L2" s="611"/>
       <c r="M2" s="210"/>
       <c r="N2" s="211"/>
       <c r="O2" s="212"/>
-      <c r="P2" s="619"/>
-      <c r="Q2" s="619"/>
+      <c r="P2" s="631"/>
+      <c r="Q2" s="631"/>
       <c r="R2" s="213"/>
       <c r="S2" s="214"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="209"/>
-      <c r="B3" s="582"/>
-      <c r="C3" s="583"/>
-      <c r="D3" s="584"/>
-      <c r="E3" s="591" t="s">
+      <c r="B3" s="594"/>
+      <c r="C3" s="595"/>
+      <c r="D3" s="596"/>
+      <c r="E3" s="603" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="592"/>
-      <c r="G3" s="592"/>
-      <c r="H3" s="593"/>
-      <c r="I3" s="596"/>
-      <c r="J3" s="597"/>
-      <c r="K3" s="600"/>
-      <c r="L3" s="601"/>
+      <c r="F3" s="604"/>
+      <c r="G3" s="604"/>
+      <c r="H3" s="605"/>
+      <c r="I3" s="608"/>
+      <c r="J3" s="609"/>
+      <c r="K3" s="612"/>
+      <c r="L3" s="613"/>
       <c r="M3" s="215"/>
       <c r="N3" s="216"/>
       <c r="O3" s="216"/>
@@ -7455,11 +7737,11 @@
       <c r="R3" s="217"/>
       <c r="S3" s="214"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="209"/>
-      <c r="B4" s="585"/>
-      <c r="C4" s="586"/>
-      <c r="D4" s="587"/>
+      <c r="B4" s="597"/>
+      <c r="C4" s="598"/>
+      <c r="D4" s="599"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -7476,24 +7758,24 @@
       <c r="R4" s="217"/>
       <c r="S4" s="214"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="209"/>
-      <c r="B5" s="564" t="s">
+      <c r="B5" s="576" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="602"/>
-      <c r="D5" s="491" t="str">
+      <c r="C5" s="614"/>
+      <c r="D5" s="503" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="492"/>
-      <c r="F5" s="492"/>
-      <c r="G5" s="492"/>
-      <c r="H5" s="493"/>
-      <c r="I5" s="603"/>
-      <c r="J5" s="604"/>
-      <c r="K5" s="605"/>
-      <c r="L5" s="493"/>
+      <c r="E5" s="504"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="615"/>
+      <c r="J5" s="616"/>
+      <c r="K5" s="617"/>
+      <c r="L5" s="505"/>
       <c r="M5" s="218"/>
       <c r="N5" s="216"/>
       <c r="O5" s="216"/>
@@ -7502,24 +7784,24 @@
       <c r="R5" s="217"/>
       <c r="S5" s="214"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="209"/>
-      <c r="B6" s="564" t="s">
+      <c r="B6" s="576" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="602"/>
-      <c r="D6" s="485" t="str">
+      <c r="C6" s="614"/>
+      <c r="D6" s="497" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="569"/>
-      <c r="F6" s="569"/>
-      <c r="G6" s="569"/>
-      <c r="H6" s="570"/>
-      <c r="I6" s="603"/>
-      <c r="J6" s="604"/>
-      <c r="K6" s="605"/>
-      <c r="L6" s="493"/>
+      <c r="E6" s="581"/>
+      <c r="F6" s="581"/>
+      <c r="G6" s="581"/>
+      <c r="H6" s="582"/>
+      <c r="I6" s="615"/>
+      <c r="J6" s="616"/>
+      <c r="K6" s="617"/>
+      <c r="L6" s="505"/>
       <c r="M6" s="215"/>
       <c r="N6" s="216"/>
       <c r="O6" s="216"/>
@@ -7528,29 +7810,29 @@
       <c r="R6" s="217"/>
       <c r="S6" s="214"/>
     </row>
-    <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="209"/>
-      <c r="B7" s="571" t="s">
+      <c r="B7" s="583" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="606"/>
-      <c r="D7" s="494">
+      <c r="C7" s="618"/>
+      <c r="D7" s="506">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="573"/>
-      <c r="F7" s="573"/>
-      <c r="G7" s="573"/>
-      <c r="H7" s="574"/>
-      <c r="I7" s="607" t="s">
+      <c r="E7" s="585"/>
+      <c r="F7" s="585"/>
+      <c r="G7" s="585"/>
+      <c r="H7" s="586"/>
+      <c r="I7" s="619" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="606"/>
-      <c r="K7" s="482">
+      <c r="J7" s="618"/>
+      <c r="K7" s="494">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="483"/>
+      <c r="L7" s="495"/>
       <c r="M7" s="218"/>
       <c r="N7" s="216"/>
       <c r="O7" s="216"/>
@@ -7559,7 +7841,7 @@
       <c r="R7" s="217"/>
       <c r="S7" s="214"/>
     </row>
-    <row r="8" spans="1:19" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="219"/>
       <c r="B8" s="220"/>
       <c r="C8" s="221"/>
@@ -7580,7 +7862,7 @@
       <c r="R8" s="224"/>
       <c r="S8" s="225"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="226"/>
       <c r="B9" s="254" t="s">
         <v>17</v>
@@ -7613,7 +7895,7 @@
       <c r="R9" s="228"/>
       <c r="S9" s="229"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="219"/>
       <c r="B10" s="230" t="s">
         <v>25</v>
@@ -7646,7 +7928,7 @@
       <c r="R10" s="234"/>
       <c r="S10" s="225"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="219"/>
       <c r="B11" s="235" t="s">
         <v>26</v>
@@ -7679,7 +7961,7 @@
       <c r="R11" s="239"/>
       <c r="S11" s="225"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="219"/>
       <c r="B12" s="235" t="s">
         <v>2</v>
@@ -7712,7 +7994,7 @@
       <c r="R12" s="239"/>
       <c r="S12" s="225"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="219"/>
       <c r="B13" s="235" t="s">
         <v>3</v>
@@ -7745,7 +8027,7 @@
       <c r="R13" s="239"/>
       <c r="S13" s="225"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="219"/>
       <c r="B14" s="235" t="s">
         <v>27</v>
@@ -7778,7 +8060,7 @@
       <c r="R14" s="239"/>
       <c r="S14" s="225"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="219"/>
       <c r="B15" s="235" t="s">
         <v>28</v>
@@ -7811,7 +8093,7 @@
       <c r="R15" s="239"/>
       <c r="S15" s="225"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="219"/>
       <c r="B16" s="235" t="s">
         <v>9</v>
@@ -7844,7 +8126,7 @@
       <c r="R16" s="239"/>
       <c r="S16" s="225"/>
     </row>
-    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="219"/>
       <c r="B17" s="235" t="s">
         <v>5</v>
@@ -7877,14 +8159,14 @@
       <c r="R17" s="239"/>
       <c r="S17" s="225"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="219"/>
-      <c r="B18" s="620" t="s">
+      <c r="B18" s="632" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="621"/>
-      <c r="D18" s="621"/>
-      <c r="E18" s="622"/>
+      <c r="C18" s="633"/>
+      <c r="D18" s="633"/>
+      <c r="E18" s="634"/>
       <c r="F18" s="116" t="s">
         <v>16</v>
       </c>
@@ -7904,7 +8186,7 @@
       <c r="R18" s="243"/>
       <c r="S18" s="225"/>
     </row>
-    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="244"/>
       <c r="B19" s="245"/>
       <c r="C19" s="245"/>
@@ -7925,7 +8207,7 @@
       <c r="R19" s="245"/>
       <c r="S19" s="247"/>
     </row>
-    <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="19">
     <mergeCell ref="I6:J6"/>
@@ -7986,7 +8268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -7996,20 +8278,20 @@
       <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -8030,49 +8312,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="133"/>
-      <c r="B2" s="579"/>
-      <c r="C2" s="580"/>
-      <c r="D2" s="581"/>
-      <c r="E2" s="588" t="s">
+      <c r="B2" s="591"/>
+      <c r="C2" s="592"/>
+      <c r="D2" s="593"/>
+      <c r="E2" s="600" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="589"/>
-      <c r="G2" s="589"/>
-      <c r="H2" s="590"/>
-      <c r="I2" s="594" t="s">
+      <c r="F2" s="601"/>
+      <c r="G2" s="601"/>
+      <c r="H2" s="602"/>
+      <c r="I2" s="606" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="595"/>
-      <c r="K2" s="598">
+      <c r="J2" s="607"/>
+      <c r="K2" s="610">
         <f>Данные!B26</f>
         <v>22</v>
       </c>
-      <c r="L2" s="599"/>
+      <c r="L2" s="611"/>
       <c r="M2" s="134"/>
       <c r="N2" s="135"/>
       <c r="O2" s="136"/>
-      <c r="P2" s="623"/>
-      <c r="Q2" s="623"/>
+      <c r="P2" s="635"/>
+      <c r="Q2" s="635"/>
       <c r="R2" s="137"/>
       <c r="S2" s="138"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="133"/>
-      <c r="B3" s="582"/>
-      <c r="C3" s="583"/>
-      <c r="D3" s="584"/>
-      <c r="E3" s="591" t="s">
+      <c r="B3" s="594"/>
+      <c r="C3" s="595"/>
+      <c r="D3" s="596"/>
+      <c r="E3" s="603" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="592"/>
-      <c r="G3" s="592"/>
-      <c r="H3" s="593"/>
-      <c r="I3" s="596"/>
-      <c r="J3" s="597"/>
-      <c r="K3" s="600"/>
-      <c r="L3" s="601"/>
+      <c r="F3" s="604"/>
+      <c r="G3" s="604"/>
+      <c r="H3" s="605"/>
+      <c r="I3" s="608"/>
+      <c r="J3" s="609"/>
+      <c r="K3" s="612"/>
+      <c r="L3" s="613"/>
       <c r="M3" s="139"/>
       <c r="N3" s="140"/>
       <c r="O3" s="140"/>
@@ -8081,11 +8363,11 @@
       <c r="R3" s="141"/>
       <c r="S3" s="138"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="133"/>
-      <c r="B4" s="585"/>
-      <c r="C4" s="586"/>
-      <c r="D4" s="587"/>
+      <c r="B4" s="597"/>
+      <c r="C4" s="598"/>
+      <c r="D4" s="599"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -8102,24 +8384,24 @@
       <c r="R4" s="141"/>
       <c r="S4" s="138"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="133"/>
-      <c r="B5" s="564" t="s">
+      <c r="B5" s="576" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="602"/>
-      <c r="D5" s="491" t="str">
+      <c r="C5" s="614"/>
+      <c r="D5" s="503" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="492"/>
-      <c r="F5" s="492"/>
-      <c r="G5" s="492"/>
-      <c r="H5" s="493"/>
-      <c r="I5" s="603"/>
-      <c r="J5" s="604"/>
-      <c r="K5" s="605"/>
-      <c r="L5" s="493"/>
+      <c r="E5" s="504"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="615"/>
+      <c r="J5" s="616"/>
+      <c r="K5" s="617"/>
+      <c r="L5" s="505"/>
       <c r="M5" s="142"/>
       <c r="N5" s="140"/>
       <c r="O5" s="140"/>
@@ -8128,24 +8410,24 @@
       <c r="R5" s="141"/>
       <c r="S5" s="138"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="133"/>
-      <c r="B6" s="564" t="s">
+      <c r="B6" s="576" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="602"/>
-      <c r="D6" s="485" t="str">
+      <c r="C6" s="614"/>
+      <c r="D6" s="497" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="569"/>
-      <c r="F6" s="569"/>
-      <c r="G6" s="569"/>
-      <c r="H6" s="570"/>
-      <c r="I6" s="603"/>
-      <c r="J6" s="604"/>
-      <c r="K6" s="605"/>
-      <c r="L6" s="493"/>
+      <c r="E6" s="581"/>
+      <c r="F6" s="581"/>
+      <c r="G6" s="581"/>
+      <c r="H6" s="582"/>
+      <c r="I6" s="615"/>
+      <c r="J6" s="616"/>
+      <c r="K6" s="617"/>
+      <c r="L6" s="505"/>
       <c r="M6" s="139"/>
       <c r="N6" s="140"/>
       <c r="O6" s="140"/>
@@ -8154,29 +8436,29 @@
       <c r="R6" s="141"/>
       <c r="S6" s="138"/>
     </row>
-    <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="133"/>
-      <c r="B7" s="571" t="s">
+      <c r="B7" s="583" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="606"/>
-      <c r="D7" s="494">
+      <c r="C7" s="618"/>
+      <c r="D7" s="506">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="573"/>
-      <c r="F7" s="573"/>
-      <c r="G7" s="573"/>
-      <c r="H7" s="574"/>
-      <c r="I7" s="607" t="s">
+      <c r="E7" s="585"/>
+      <c r="F7" s="585"/>
+      <c r="G7" s="585"/>
+      <c r="H7" s="586"/>
+      <c r="I7" s="619" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="606"/>
-      <c r="K7" s="482">
+      <c r="J7" s="618"/>
+      <c r="K7" s="494">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="483"/>
+      <c r="L7" s="495"/>
       <c r="M7" s="142"/>
       <c r="N7" s="140"/>
       <c r="O7" s="140"/>
@@ -8185,7 +8467,7 @@
       <c r="R7" s="141"/>
       <c r="S7" s="138"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="143"/>
       <c r="C8" s="144"/>
@@ -8206,7 +8488,7 @@
       <c r="R8" s="147"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="148"/>
       <c r="B9" s="254" t="s">
         <v>17</v>
@@ -8239,7 +8521,7 @@
       <c r="R9" s="151"/>
       <c r="S9" s="152"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="153"/>
       <c r="B10" s="154" t="s">
         <v>25</v>
@@ -8272,7 +8554,7 @@
       <c r="R10" s="156"/>
       <c r="S10" s="157"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="153"/>
       <c r="B11" s="154" t="s">
         <v>26</v>
@@ -8305,7 +8587,7 @@
       <c r="R11" s="156"/>
       <c r="S11" s="157"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="153"/>
       <c r="B12" s="154" t="s">
         <v>2</v>
@@ -8338,7 +8620,7 @@
       <c r="R12" s="156"/>
       <c r="S12" s="157"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="153"/>
       <c r="B13" s="154" t="s">
         <v>3</v>
@@ -8371,7 +8653,7 @@
       <c r="R13" s="156"/>
       <c r="S13" s="157"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="153"/>
       <c r="B14" s="154" t="s">
         <v>27</v>
@@ -8404,7 +8686,7 @@
       <c r="R14" s="156"/>
       <c r="S14" s="157"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="153"/>
       <c r="B15" s="154" t="s">
         <v>28</v>
@@ -8437,7 +8719,7 @@
       <c r="R15" s="156"/>
       <c r="S15" s="157"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="153"/>
       <c r="B16" s="154" t="s">
         <v>4</v>
@@ -8470,7 +8752,7 @@
       <c r="R16" s="156"/>
       <c r="S16" s="157"/>
     </row>
-    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="97"/>
       <c r="C17" s="98"/>
@@ -8491,7 +8773,7 @@
       <c r="R17" s="100"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="97"/>
       <c r="C18" s="98"/>
@@ -8512,7 +8794,7 @@
       <c r="R18" s="100"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="78"/>
       <c r="B19" s="104"/>
       <c r="C19" s="105"/>
@@ -8533,7 +8815,7 @@
       <c r="R19" s="109"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="110"/>
       <c r="B20" s="111"/>
       <c r="C20" s="111"/>
@@ -8554,7 +8836,7 @@
       <c r="R20" s="113"/>
       <c r="S20" s="114"/>
     </row>
-    <row r="21" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
     <mergeCell ref="K5:L5"/>
@@ -8594,7 +8876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -8604,20 +8886,20 @@
       <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="265" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="265" customWidth="1"/>
     <col min="2" max="2" width="5" style="265" customWidth="1"/>
     <col min="3" max="3" width="11" style="265" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="265" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="265" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="265" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="265" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="265" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="265" customWidth="1"/>
     <col min="8" max="18" width="9" style="265" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="265" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="265"/>
+    <col min="19" max="19" width="1.42578125" style="265" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="265"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="261"/>
       <c r="B1" s="262"/>
       <c r="C1" s="263"/>
@@ -8638,49 +8920,49 @@
       <c r="R1" s="263"/>
       <c r="S1" s="264"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="266"/>
-      <c r="B2" s="579"/>
-      <c r="C2" s="580"/>
-      <c r="D2" s="581"/>
-      <c r="E2" s="588" t="s">
+      <c r="B2" s="591"/>
+      <c r="C2" s="592"/>
+      <c r="D2" s="593"/>
+      <c r="E2" s="600" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="589"/>
-      <c r="G2" s="589"/>
-      <c r="H2" s="590"/>
-      <c r="I2" s="594" t="s">
+      <c r="F2" s="601"/>
+      <c r="G2" s="601"/>
+      <c r="H2" s="602"/>
+      <c r="I2" s="606" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="595"/>
-      <c r="K2" s="624">
+      <c r="J2" s="607"/>
+      <c r="K2" s="637">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="L2" s="625"/>
+      <c r="L2" s="638"/>
       <c r="M2" s="267"/>
       <c r="N2" s="268"/>
       <c r="O2" s="269"/>
-      <c r="P2" s="628"/>
-      <c r="Q2" s="628"/>
+      <c r="P2" s="636"/>
+      <c r="Q2" s="636"/>
       <c r="R2" s="270"/>
       <c r="S2" s="271"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="266"/>
-      <c r="B3" s="582"/>
-      <c r="C3" s="583"/>
-      <c r="D3" s="584"/>
-      <c r="E3" s="591" t="s">
+      <c r="B3" s="594"/>
+      <c r="C3" s="595"/>
+      <c r="D3" s="596"/>
+      <c r="E3" s="603" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="592"/>
-      <c r="G3" s="592"/>
-      <c r="H3" s="593"/>
-      <c r="I3" s="596"/>
-      <c r="J3" s="597"/>
-      <c r="K3" s="626"/>
-      <c r="L3" s="627"/>
+      <c r="F3" s="604"/>
+      <c r="G3" s="604"/>
+      <c r="H3" s="605"/>
+      <c r="I3" s="608"/>
+      <c r="J3" s="609"/>
+      <c r="K3" s="639"/>
+      <c r="L3" s="640"/>
       <c r="M3" s="272"/>
       <c r="N3" s="273"/>
       <c r="O3" s="273"/>
@@ -8689,11 +8971,11 @@
       <c r="R3" s="274"/>
       <c r="S3" s="271"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="266"/>
-      <c r="B4" s="585"/>
-      <c r="C4" s="586"/>
-      <c r="D4" s="587"/>
+      <c r="B4" s="597"/>
+      <c r="C4" s="598"/>
+      <c r="D4" s="599"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -8710,24 +8992,24 @@
       <c r="R4" s="274"/>
       <c r="S4" s="271"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="266"/>
-      <c r="B5" s="564" t="s">
+      <c r="B5" s="576" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="602"/>
-      <c r="D5" s="491" t="str">
+      <c r="C5" s="614"/>
+      <c r="D5" s="503" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="492"/>
-      <c r="F5" s="492"/>
-      <c r="G5" s="492"/>
-      <c r="H5" s="493"/>
-      <c r="I5" s="603"/>
-      <c r="J5" s="604"/>
-      <c r="K5" s="605"/>
-      <c r="L5" s="493"/>
+      <c r="E5" s="504"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="615"/>
+      <c r="J5" s="616"/>
+      <c r="K5" s="617"/>
+      <c r="L5" s="505"/>
       <c r="M5" s="275"/>
       <c r="N5" s="273"/>
       <c r="O5" s="273"/>
@@ -8736,24 +9018,24 @@
       <c r="R5" s="274"/>
       <c r="S5" s="271"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="266"/>
-      <c r="B6" s="564" t="s">
+      <c r="B6" s="576" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="602"/>
-      <c r="D6" s="485" t="str">
+      <c r="C6" s="614"/>
+      <c r="D6" s="497" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="569"/>
-      <c r="F6" s="569"/>
-      <c r="G6" s="569"/>
-      <c r="H6" s="570"/>
-      <c r="I6" s="603"/>
-      <c r="J6" s="604"/>
-      <c r="K6" s="605"/>
-      <c r="L6" s="493"/>
+      <c r="E6" s="581"/>
+      <c r="F6" s="581"/>
+      <c r="G6" s="581"/>
+      <c r="H6" s="582"/>
+      <c r="I6" s="615"/>
+      <c r="J6" s="616"/>
+      <c r="K6" s="617"/>
+      <c r="L6" s="505"/>
       <c r="M6" s="272"/>
       <c r="N6" s="273"/>
       <c r="O6" s="273"/>
@@ -8762,29 +9044,29 @@
       <c r="R6" s="274"/>
       <c r="S6" s="271"/>
     </row>
-    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="266"/>
-      <c r="B7" s="571" t="s">
+      <c r="B7" s="583" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="606"/>
-      <c r="D7" s="494">
+      <c r="C7" s="618"/>
+      <c r="D7" s="506">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="573"/>
-      <c r="F7" s="573"/>
-      <c r="G7" s="573"/>
-      <c r="H7" s="574"/>
-      <c r="I7" s="607" t="s">
+      <c r="E7" s="585"/>
+      <c r="F7" s="585"/>
+      <c r="G7" s="585"/>
+      <c r="H7" s="586"/>
+      <c r="I7" s="619" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="606"/>
-      <c r="K7" s="482">
+      <c r="J7" s="618"/>
+      <c r="K7" s="494">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="483"/>
+      <c r="L7" s="495"/>
       <c r="M7" s="275"/>
       <c r="N7" s="273"/>
       <c r="O7" s="273"/>
@@ -8793,7 +9075,7 @@
       <c r="R7" s="274"/>
       <c r="S7" s="271"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="276"/>
       <c r="B8" s="277"/>
       <c r="C8" s="278"/>
@@ -8814,7 +9096,7 @@
       <c r="R8" s="281"/>
       <c r="S8" s="282"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="283"/>
       <c r="B9" s="254" t="s">
         <v>17</v>
@@ -8847,7 +9129,7 @@
       <c r="R9" s="352"/>
       <c r="S9" s="285"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="276"/>
       <c r="B10" s="286" t="s">
         <v>25</v>
@@ -8880,7 +9162,7 @@
       <c r="R10" s="354"/>
       <c r="S10" s="282"/>
     </row>
-    <row r="11" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A11" s="276"/>
       <c r="B11" s="290" t="s">
         <v>26</v>
@@ -8913,7 +9195,7 @@
       <c r="R11" s="355"/>
       <c r="S11" s="282"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="276"/>
       <c r="B12" s="290" t="s">
         <v>2</v>
@@ -8946,7 +9228,7 @@
       <c r="R12" s="357"/>
       <c r="S12" s="282"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="276"/>
       <c r="B13" s="290" t="s">
         <v>28</v>
@@ -8979,7 +9261,7 @@
       <c r="R13" s="357"/>
       <c r="S13" s="282"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="276"/>
       <c r="B14" s="290" t="s">
         <v>4</v>
@@ -9012,7 +9294,7 @@
       <c r="R14" s="357"/>
       <c r="S14" s="282"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="276"/>
       <c r="B15" s="296"/>
       <c r="C15" s="297"/>
@@ -9033,7 +9315,7 @@
       <c r="R15" s="339"/>
       <c r="S15" s="282"/>
     </row>
-    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="299"/>
       <c r="B16" s="300"/>
       <c r="C16" s="300"/>
@@ -9054,9 +9336,13 @@
       <c r="R16" s="300"/>
       <c r="S16" s="302"/>
     </row>
-    <row r="17" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B7:C7"/>
@@ -9071,10 +9357,6 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -9100,30 +9382,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="390"/>
       <c r="B1" s="468" t="s">
         <v>111</v>
@@ -9142,7 +9424,7 @@
       <c r="K1" s="390"/>
       <c r="L1" s="390"/>
     </row>
-    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="390"/>
       <c r="B2" s="390" t="s">
         <v>112</v>
@@ -9158,23 +9440,23 @@
       <c r="K2" s="391"/>
       <c r="L2" s="391"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="502" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="514" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="502"/>
-      <c r="C3" s="502"/>
-      <c r="D3" s="502"/>
-      <c r="E3" s="502"/>
-      <c r="F3" s="502"/>
-      <c r="G3" s="502"/>
-      <c r="H3" s="502"/>
-      <c r="I3" s="502"/>
+      <c r="B3" s="514"/>
+      <c r="C3" s="514"/>
+      <c r="D3" s="514"/>
+      <c r="E3" s="514"/>
+      <c r="F3" s="514"/>
+      <c r="G3" s="514"/>
+      <c r="H3" s="514"/>
+      <c r="I3" s="514"/>
       <c r="K3" s="392"/>
       <c r="L3" s="392"/>
       <c r="M3" s="393"/>
     </row>
-    <row r="4" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="393"/>
       <c r="B4" s="394"/>
       <c r="C4" s="394"/>
@@ -9186,7 +9468,7 @@
       <c r="K4" s="392"/>
       <c r="M4" s="372"/>
     </row>
-    <row r="5" spans="1:13" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="397" t="s">
         <v>114</v>
       </c>
@@ -9216,7 +9498,7 @@
       <c r="K5" s="401"/>
       <c r="L5" s="401"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="402">
         <v>1</v>
       </c>
@@ -9246,7 +9528,7 @@
       <c r="K6" s="393"/>
       <c r="L6" s="407"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="408">
         <f>A6+1</f>
         <v>2</v>
@@ -9277,7 +9559,7 @@
       <c r="K7" s="393"/>
       <c r="L7" s="407"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="408">
         <f t="shared" ref="A8:A17" si="1">A7+1</f>
         <v>3</v>
@@ -9308,7 +9590,7 @@
       <c r="K8" s="393"/>
       <c r="L8" s="407"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="408">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -9339,7 +9621,7 @@
       <c r="K9" s="393"/>
       <c r="L9" s="407"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="408">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -9370,7 +9652,7 @@
       <c r="K10" s="413"/>
       <c r="L10" s="407"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="408">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -9401,7 +9683,7 @@
       <c r="K11" s="393"/>
       <c r="L11" s="407"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="408">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -9433,7 +9715,7 @@
       <c r="L12" s="407"/>
       <c r="M12" s="415"/>
     </row>
-    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="408">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -9465,7 +9747,7 @@
       <c r="L13" s="407"/>
       <c r="M13" s="415"/>
     </row>
-    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="408">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -9498,7 +9780,7 @@
       <c r="K14" s="413"/>
       <c r="L14" s="407"/>
     </row>
-    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="408">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -9529,7 +9811,7 @@
       <c r="K15" s="413"/>
       <c r="L15" s="407"/>
     </row>
-    <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="408">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -9560,7 +9842,7 @@
       <c r="K16" s="413"/>
       <c r="L16" s="407"/>
     </row>
-    <row r="17" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="417">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -9591,7 +9873,7 @@
       <c r="K17" s="413"/>
       <c r="L17" s="407"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="424"/>
       <c r="B18" s="425"/>
       <c r="C18" s="393"/>
@@ -9603,7 +9885,7 @@
       <c r="I18" s="393"/>
       <c r="J18" s="393"/>
     </row>
-    <row r="19" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="393"/>
       <c r="B19" s="427" t="s">
         <v>121</v>
@@ -9619,7 +9901,7 @@
       <c r="K19" s="428"/>
       <c r="L19" s="428"/>
     </row>
-    <row r="20" spans="1:12" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="397" t="s">
         <v>122</v>
       </c>
@@ -9653,7 +9935,7 @@
       <c r="K20" s="401"/>
       <c r="L20" s="401"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="432">
         <f>D6*700000</f>
         <v>16800000</v>
@@ -9667,10 +9949,10 @@
       <c r="D21" s="438">
         <v>43468</v>
       </c>
-      <c r="E21" s="640">
+      <c r="E21" s="490">
         <v>1017372</v>
       </c>
-      <c r="F21" s="640">
+      <c r="F21" s="490">
         <v>1082706</v>
       </c>
       <c r="G21" s="433">
@@ -9689,7 +9971,7 @@
       <c r="K21" s="413"/>
       <c r="L21" s="413"/>
     </row>
-    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="437"/>
       <c r="B22" s="474" t="s">
         <v>142</v>
@@ -9700,10 +9982,10 @@
       <c r="D22" s="438">
         <v>43857</v>
       </c>
-      <c r="E22" s="640">
+      <c r="E22" s="490">
         <v>532824</v>
       </c>
-      <c r="F22" s="640">
+      <c r="F22" s="490">
         <v>549478</v>
       </c>
       <c r="G22" s="433">
@@ -9711,11 +9993,11 @@
         <v>3.2707023809523811E-2</v>
       </c>
       <c r="H22" s="439">
-        <f>H21-F22</f>
+        <f t="shared" ref="H22:I24" si="2">H21-F22</f>
         <v>15167816</v>
       </c>
       <c r="I22" s="440">
-        <f>I21-G22</f>
+        <f t="shared" si="2"/>
         <v>0.90284619047619041</v>
       </c>
       <c r="J22" s="471">
@@ -9724,7 +10006,7 @@
       <c r="K22" s="393"/>
       <c r="L22" s="393"/>
     </row>
-    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="441"/>
       <c r="B23" s="442">
         <v>43888</v>
@@ -9735,10 +10017,10 @@
       <c r="D23" s="442">
         <v>43892</v>
       </c>
-      <c r="E23" s="640">
+      <c r="E23" s="490">
         <v>532824</v>
       </c>
-      <c r="F23" s="640">
+      <c r="F23" s="490">
         <v>549478</v>
       </c>
       <c r="G23" s="433">
@@ -9746,11 +10028,11 @@
         <v>3.2707023809523811E-2</v>
       </c>
       <c r="H23" s="439">
-        <f>H22-F23</f>
+        <f t="shared" si="2"/>
         <v>14618338</v>
       </c>
       <c r="I23" s="440">
-        <f>I22-G23</f>
+        <f t="shared" si="2"/>
         <v>0.87013916666666657</v>
       </c>
       <c r="J23" s="472">
@@ -9759,9 +10041,9 @@
       <c r="K23" s="413"/>
       <c r="L23" s="413"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="441"/>
-      <c r="B24" s="629" t="s">
+      <c r="B24" s="479" t="s">
         <v>142</v>
       </c>
       <c r="C24" s="442">
@@ -9770,10 +10052,10 @@
       <c r="D24" s="442">
         <v>43900</v>
       </c>
-      <c r="E24" s="636">
+      <c r="E24" s="486">
         <v>899364</v>
       </c>
-      <c r="F24" s="636">
+      <c r="F24" s="486">
         <v>920724</v>
       </c>
       <c r="G24" s="433">
@@ -9781,40 +10063,61 @@
         <v>5.4805E-2</v>
       </c>
       <c r="H24" s="439">
-        <f>H23-F24</f>
+        <f t="shared" si="2"/>
         <v>13697614</v>
       </c>
       <c r="I24" s="440">
-        <f>I23-G24</f>
+        <f t="shared" si="2"/>
         <v>0.81533416666666658</v>
       </c>
-      <c r="J24" s="630">
+      <c r="J24" s="480">
         <v>351</v>
       </c>
       <c r="K24" s="436"/>
       <c r="L24" s="393"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="441"/>
-      <c r="B25" s="442"/>
-      <c r="C25" s="442"/>
-      <c r="D25" s="442"/>
-      <c r="E25" s="637"/>
-      <c r="F25" s="637"/>
-      <c r="G25" s="444"/>
-      <c r="H25" s="439"/>
-      <c r="I25" s="443"/>
-      <c r="J25" s="472"/>
+      <c r="B25" s="442">
+        <v>43953</v>
+      </c>
+      <c r="C25" s="442">
+        <v>43961</v>
+      </c>
+      <c r="D25" s="476">
+        <v>43972</v>
+      </c>
+      <c r="E25" s="487">
+        <v>1553772</v>
+      </c>
+      <c r="F25" s="487">
+        <v>1615753</v>
+      </c>
+      <c r="G25" s="444">
+        <f>F25/A$21</f>
+        <v>9.6175773809523815E-2</v>
+      </c>
+      <c r="H25" s="439">
+        <f t="shared" ref="H25" si="3">H24-F25</f>
+        <v>12081861</v>
+      </c>
+      <c r="I25" s="440">
+        <f t="shared" ref="I25" si="4">I24-G25</f>
+        <v>0.71915839285714278</v>
+      </c>
+      <c r="J25" s="472">
+        <v>351</v>
+      </c>
       <c r="K25" s="445"/>
       <c r="L25" s="393"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="441"/>
       <c r="B26" s="442"/>
       <c r="C26" s="442"/>
       <c r="D26" s="442"/>
-      <c r="E26" s="637"/>
-      <c r="F26" s="637"/>
+      <c r="E26" s="487"/>
+      <c r="F26" s="487"/>
       <c r="G26" s="444"/>
       <c r="H26" s="439"/>
       <c r="I26" s="443"/>
@@ -9822,13 +10125,13 @@
       <c r="K26" s="436"/>
       <c r="L26" s="393"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="441"/>
       <c r="B27" s="442"/>
       <c r="C27" s="442"/>
       <c r="D27" s="442"/>
-      <c r="E27" s="637"/>
-      <c r="F27" s="637"/>
+      <c r="E27" s="487"/>
+      <c r="F27" s="487"/>
       <c r="G27" s="444"/>
       <c r="H27" s="439"/>
       <c r="I27" s="443"/>
@@ -9836,13 +10139,13 @@
       <c r="K27" s="436"/>
       <c r="L27" s="393"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="441"/>
       <c r="B28" s="442"/>
       <c r="C28" s="442"/>
       <c r="D28" s="442"/>
-      <c r="E28" s="637"/>
-      <c r="F28" s="637"/>
+      <c r="E28" s="487"/>
+      <c r="F28" s="487"/>
       <c r="G28" s="444"/>
       <c r="H28" s="439"/>
       <c r="I28" s="443"/>
@@ -9850,49 +10153,49 @@
       <c r="K28" s="436"/>
       <c r="L28" s="393"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="441"/>
       <c r="B29" s="442"/>
       <c r="C29" s="442"/>
       <c r="D29" s="475"/>
-      <c r="E29" s="636"/>
-      <c r="F29" s="637"/>
+      <c r="E29" s="486"/>
+      <c r="F29" s="487"/>
       <c r="G29" s="446"/>
       <c r="H29" s="439"/>
-      <c r="I29" s="631"/>
-      <c r="J29" s="632"/>
+      <c r="I29" s="481"/>
+      <c r="J29" s="482"/>
       <c r="K29" s="436"/>
       <c r="L29" s="393"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="441"/>
       <c r="B30" s="442"/>
       <c r="C30" s="442"/>
       <c r="D30" s="475"/>
-      <c r="E30" s="636"/>
-      <c r="F30" s="637"/>
+      <c r="E30" s="486"/>
+      <c r="F30" s="487"/>
       <c r="G30" s="444"/>
       <c r="H30" s="439"/>
-      <c r="I30" s="631"/>
-      <c r="J30" s="632"/>
+      <c r="I30" s="481"/>
+      <c r="J30" s="482"/>
       <c r="K30" s="436"/>
       <c r="L30" s="393"/>
     </row>
-    <row r="31" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="447"/>
       <c r="B31" s="448"/>
       <c r="C31" s="448"/>
-      <c r="D31" s="633"/>
-      <c r="E31" s="638"/>
-      <c r="F31" s="639"/>
+      <c r="D31" s="483"/>
+      <c r="E31" s="488"/>
+      <c r="F31" s="489"/>
       <c r="G31" s="449"/>
       <c r="H31" s="439"/>
-      <c r="I31" s="634"/>
-      <c r="J31" s="635"/>
+      <c r="I31" s="484"/>
+      <c r="J31" s="485"/>
       <c r="K31" s="393"/>
       <c r="L31" s="393"/>
     </row>
-    <row r="32" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="450" t="s">
         <v>131</v>
       </c>
@@ -9901,29 +10204,29 @@
       <c r="D32" s="452"/>
       <c r="E32" s="477">
         <f>SUM(E21:E31)</f>
-        <v>2982384</v>
+        <v>4536156</v>
       </c>
       <c r="F32" s="478">
         <f>SUM(F21:F31)</f>
-        <v>3102386</v>
+        <v>4718139</v>
       </c>
       <c r="G32" s="453">
         <f>SUM(G21:G31)</f>
-        <v>0.18466583333333333</v>
+        <v>0.28084160714285716</v>
       </c>
       <c r="H32" s="454">
         <f>A21-F32</f>
-        <v>13697614</v>
+        <v>12081861</v>
       </c>
       <c r="I32" s="455">
         <f>1-G32</f>
-        <v>0.81533416666666669</v>
+        <v>0.71915839285714278</v>
       </c>
       <c r="J32" s="473"/>
       <c r="K32" s="456"/>
       <c r="L32" s="456"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="393"/>
       <c r="B35" s="393"/>
       <c r="C35" s="393"/>
@@ -9935,13 +10238,13 @@
       <c r="I35" s="393"/>
       <c r="J35" s="393"/>
     </row>
-    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="503" t="s">
+    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="515" t="s">
         <v>132</v>
       </c>
-      <c r="B36" s="503"/>
-      <c r="C36" s="503"/>
-      <c r="D36" s="503"/>
+      <c r="B36" s="515"/>
+      <c r="C36" s="515"/>
+      <c r="D36" s="515"/>
       <c r="E36" s="393"/>
       <c r="F36" s="393"/>
       <c r="G36" s="393"/>
@@ -9949,11 +10252,11 @@
       <c r="I36" s="393"/>
       <c r="J36" s="393"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="504" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="516" t="s">
         <v>133</v>
       </c>
-      <c r="B37" s="504"/>
+      <c r="B37" s="516"/>
       <c r="C37" s="457" t="s">
         <v>134</v>
       </c>
@@ -9967,19 +10270,19 @@
       <c r="I37" s="393"/>
       <c r="J37" s="393"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="505">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="517">
         <f>A21-F32</f>
-        <v>13697614</v>
-      </c>
-      <c r="B38" s="506"/>
+        <v>12081861</v>
+      </c>
+      <c r="B38" s="518"/>
       <c r="C38" s="458">
         <f>1-G32</f>
-        <v>0.81533416666666669</v>
+        <v>0.71915839285714278</v>
       </c>
       <c r="D38" s="459">
         <f>(C38/0.8)*100</f>
-        <v>101.91677083333333</v>
+        <v>89.894799107142845</v>
       </c>
       <c r="E38" s="460" t="s">
         <v>136</v>
@@ -9990,7 +10293,7 @@
       <c r="I38" s="460"/>
       <c r="J38" s="460"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="393"/>
       <c r="B39" s="393"/>
       <c r="C39" s="393"/>
@@ -9998,7 +10301,7 @@
       <c r="E39" s="393"/>
       <c r="F39" s="393"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="393"/>
       <c r="B40" s="393"/>
       <c r="C40" s="393"/>
@@ -10013,7 +10316,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="393"/>
       <c r="B41" s="461"/>
       <c r="C41" s="461"/>
@@ -10025,7 +10328,7 @@
       <c r="I41" s="393"/>
       <c r="J41" s="393"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="462"/>
       <c r="B42" s="462"/>
       <c r="C42" s="462"/>
@@ -10034,10 +10337,10 @@
       <c r="F42" s="462"/>
       <c r="G42" s="462"/>
       <c r="H42" s="462"/>
-      <c r="I42" s="497"/>
-      <c r="J42" s="498"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I42" s="509"/>
+      <c r="J42" s="510"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="463"/>
       <c r="B43" s="464"/>
       <c r="C43" s="464"/>
@@ -10047,7 +10350,7 @@
       <c r="G43" s="423"/>
       <c r="H43" s="464"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="463"/>
       <c r="B44" s="464"/>
       <c r="C44" s="464"/>
@@ -10057,7 +10360,7 @@
       <c r="G44" s="423"/>
       <c r="H44" s="464"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="463"/>
       <c r="B45" s="464"/>
       <c r="C45" s="464"/>
@@ -10067,7 +10370,7 @@
       <c r="G45" s="423"/>
       <c r="H45" s="464"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="463"/>
       <c r="B46" s="464"/>
       <c r="C46" s="464"/>
@@ -10077,7 +10380,7 @@
       <c r="G46" s="423"/>
       <c r="H46" s="464"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="463"/>
       <c r="B47" s="464"/>
       <c r="C47" s="464"/>
@@ -10087,7 +10390,7 @@
       <c r="G47" s="423"/>
       <c r="H47" s="464"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="463"/>
       <c r="B48" s="464"/>
       <c r="C48" s="413"/>
@@ -10097,7 +10400,7 @@
       <c r="G48" s="413"/>
       <c r="H48" s="413"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="463"/>
       <c r="B49" s="464"/>
       <c r="C49" s="464"/>
@@ -10107,7 +10410,7 @@
       <c r="G49" s="423"/>
       <c r="H49" s="464"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="463"/>
       <c r="B50" s="464"/>
       <c r="C50" s="464"/>
@@ -10117,7 +10420,7 @@
       <c r="G50" s="423"/>
       <c r="H50" s="464"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="463"/>
       <c r="B51" s="464"/>
       <c r="C51" s="464"/>
@@ -10127,11 +10430,11 @@
       <c r="G51" s="423"/>
       <c r="H51" s="464"/>
     </row>
-    <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="393"/>
-      <c r="B52" s="500"/>
-      <c r="C52" s="500"/>
-      <c r="D52" s="501"/>
+      <c r="B52" s="512"/>
+      <c r="C52" s="512"/>
+      <c r="D52" s="513"/>
       <c r="E52" s="460"/>
       <c r="F52" s="393"/>
       <c r="G52" s="393"/>
@@ -10139,7 +10442,7 @@
       <c r="I52" s="393"/>
       <c r="J52" s="393"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="462"/>
       <c r="B53" s="462"/>
       <c r="C53" s="462"/>
@@ -10148,10 +10451,10 @@
       <c r="F53" s="462"/>
       <c r="G53" s="462"/>
       <c r="H53" s="462"/>
-      <c r="I53" s="497"/>
-      <c r="J53" s="498"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I53" s="509"/>
+      <c r="J53" s="510"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="463"/>
       <c r="B54" s="393"/>
       <c r="C54" s="393"/>
@@ -10160,10 +10463,10 @@
       <c r="F54" s="423"/>
       <c r="G54" s="423"/>
       <c r="H54" s="464"/>
-      <c r="I54" s="499"/>
-      <c r="J54" s="499"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I54" s="511"/>
+      <c r="J54" s="511"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="463"/>
       <c r="B55" s="393"/>
       <c r="C55" s="393"/>
@@ -10172,10 +10475,10 @@
       <c r="F55" s="413"/>
       <c r="G55" s="413"/>
       <c r="H55" s="413"/>
-      <c r="I55" s="499"/>
-      <c r="J55" s="499"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I55" s="511"/>
+      <c r="J55" s="511"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="393"/>
       <c r="B56" s="393"/>
       <c r="C56" s="393"/>
@@ -10185,13 +10488,13 @@
       <c r="G56" s="393"/>
       <c r="H56" s="393"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="497"/>
-      <c r="C61" s="498"/>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="497"/>
-      <c r="C68" s="498"/>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B61" s="509"/>
+      <c r="C61" s="510"/>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B68" s="509"/>
+      <c r="C68" s="510"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -10217,26 +10520,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:K57"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B31" sqref="B31:D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.109375" style="307"/>
+    <col min="1" max="3" width="9.140625" style="307"/>
     <col min="4" max="4" width="8" style="307" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="307"/>
-    <col min="6" max="6" width="9.77734375" style="307" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="307" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" style="307" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="307" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="307"/>
+    <col min="5" max="5" width="9.140625" style="307"/>
+    <col min="6" max="6" width="9.7109375" style="307" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="307" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="307" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="307" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="307"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" s="367" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="367" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G2" s="316" t="s">
         <v>58</v>
       </c>
@@ -10245,7 +10548,7 @@
       <c r="J2" s="317"/>
       <c r="K2" s="317"/>
     </row>
-    <row r="3" spans="1:11" s="367" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="367" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G3" s="316" t="s">
         <v>102</v>
       </c>
@@ -10254,7 +10557,7 @@
       <c r="J3" s="317"/>
       <c r="K3" s="317"/>
     </row>
-    <row r="4" spans="1:11" s="367" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" s="367" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G4" s="316" t="s">
         <v>105</v>
       </c>
@@ -10263,8 +10566,8 @@
       <c r="J4" s="317"/>
       <c r="K4" s="317"/>
     </row>
-    <row r="5" spans="1:11" s="367" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:11" s="367" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" s="367" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:11" s="367" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G6" s="368"/>
       <c r="H6" s="316" t="s">
         <v>103</v>
@@ -10272,12 +10575,12 @@
       <c r="I6" s="317"/>
       <c r="J6" s="317"/>
     </row>
-    <row r="7" spans="1:11" s="367" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" s="367" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="H7" s="317"/>
       <c r="I7" s="317"/>
       <c r="J7" s="317"/>
     </row>
-    <row r="8" spans="1:11" s="367" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" s="367" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G8" s="310" t="s">
         <v>59</v>
       </c>
@@ -10287,50 +10590,50 @@
       </c>
       <c r="J8" s="317"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="532" t="s">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="544" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="532"/>
-      <c r="C11" s="532"/>
-      <c r="D11" s="532"/>
-      <c r="E11" s="532"/>
-      <c r="F11" s="532"/>
-      <c r="G11" s="532"/>
-      <c r="H11" s="532"/>
-      <c r="I11" s="532"/>
-      <c r="J11" s="532"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="531" t="s">
+      <c r="B11" s="544"/>
+      <c r="C11" s="544"/>
+      <c r="D11" s="544"/>
+      <c r="E11" s="544"/>
+      <c r="F11" s="544"/>
+      <c r="G11" s="544"/>
+      <c r="H11" s="544"/>
+      <c r="I11" s="544"/>
+      <c r="J11" s="544"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="543" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="531"/>
-      <c r="C12" s="531"/>
-      <c r="D12" s="531"/>
-      <c r="E12" s="531"/>
-      <c r="F12" s="531"/>
-      <c r="G12" s="531"/>
-      <c r="H12" s="531"/>
-      <c r="I12" s="531"/>
-      <c r="J12" s="531"/>
-    </row>
-    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="533" t="str">
+      <c r="B12" s="543"/>
+      <c r="C12" s="543"/>
+      <c r="D12" s="543"/>
+      <c r="E12" s="543"/>
+      <c r="F12" s="543"/>
+      <c r="G12" s="543"/>
+      <c r="H12" s="543"/>
+      <c r="I12" s="543"/>
+      <c r="J12" s="543"/>
+    </row>
+    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="545" t="str">
         <f>Данные!A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="B13" s="532"/>
-      <c r="C13" s="532"/>
-      <c r="D13" s="532"/>
-      <c r="E13" s="532"/>
-      <c r="F13" s="532"/>
-      <c r="G13" s="532"/>
-      <c r="H13" s="532"/>
-      <c r="I13" s="532"/>
-      <c r="J13" s="532"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="544"/>
+      <c r="C13" s="544"/>
+      <c r="D13" s="544"/>
+      <c r="E13" s="544"/>
+      <c r="F13" s="544"/>
+      <c r="G13" s="544"/>
+      <c r="H13" s="544"/>
+      <c r="I13" s="544"/>
+      <c r="J13" s="544"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="311" t="s">
         <v>60</v>
       </c>
@@ -10347,7 +10650,7 @@
       <c r="I15" s="311"/>
       <c r="J15" s="312"/>
     </row>
-    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="311" t="s">
         <v>96</v>
       </c>
@@ -10361,7 +10664,7 @@
       <c r="I16" s="311"/>
       <c r="J16" s="312"/>
     </row>
-    <row r="17" spans="1:10" s="369" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="369" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="319" t="s">
         <v>61</v>
       </c>
@@ -10382,7 +10685,7 @@
       </c>
       <c r="J17" s="312"/>
     </row>
-    <row r="18" spans="1:10" s="369" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="369" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="319" t="s">
         <v>61</v>
       </c>
@@ -10403,7 +10706,7 @@
       </c>
       <c r="J18" s="312"/>
     </row>
-    <row r="19" spans="1:10" s="369" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="369" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="320"/>
       <c r="B19" s="320"/>
       <c r="C19" s="320"/>
@@ -10421,7 +10724,7 @@
       </c>
       <c r="J19" s="312"/>
     </row>
-    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="311" t="s">
         <v>75</v>
       </c>
@@ -10438,7 +10741,7 @@
       </c>
       <c r="J20" s="312"/>
     </row>
-    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="311" t="s">
         <v>76</v>
       </c>
@@ -10452,485 +10755,485 @@
       <c r="I21" s="311"/>
       <c r="J21" s="312"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="529" t="s">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="541" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="529" t="s">
+      <c r="B22" s="541" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="529"/>
-      <c r="D22" s="529"/>
-      <c r="E22" s="529" t="s">
+      <c r="C22" s="541"/>
+      <c r="D22" s="541"/>
+      <c r="E22" s="541" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="529"/>
-      <c r="G22" s="530" t="s">
+      <c r="F22" s="541"/>
+      <c r="G22" s="542" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="529" t="s">
+      <c r="H22" s="541" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="529"/>
-      <c r="J22" s="529"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="529"/>
-      <c r="B23" s="529"/>
-      <c r="C23" s="529"/>
-      <c r="D23" s="529"/>
-      <c r="E23" s="529"/>
-      <c r="F23" s="529"/>
-      <c r="G23" s="530"/>
-      <c r="H23" s="529"/>
-      <c r="I23" s="529"/>
-      <c r="J23" s="529"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="507">
+      <c r="I22" s="541"/>
+      <c r="J22" s="541"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="541"/>
+      <c r="B23" s="541"/>
+      <c r="C23" s="541"/>
+      <c r="D23" s="541"/>
+      <c r="E23" s="541"/>
+      <c r="F23" s="541"/>
+      <c r="G23" s="542"/>
+      <c r="H23" s="541"/>
+      <c r="I23" s="541"/>
+      <c r="J23" s="541"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="519">
         <v>1</v>
       </c>
-      <c r="B24" s="534" t="s">
+      <c r="B24" s="546" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="535"/>
-      <c r="D24" s="536"/>
-      <c r="E24" s="512" t="str">
+      <c r="C24" s="547"/>
+      <c r="D24" s="548"/>
+      <c r="E24" s="524" t="str">
         <f>Данные!C14</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F24" s="513"/>
-      <c r="G24" s="516">
+      <c r="F24" s="525"/>
+      <c r="G24" s="528">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="H24" s="518"/>
-      <c r="I24" s="519"/>
-      <c r="J24" s="520"/>
-    </row>
-    <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="527"/>
-      <c r="B25" s="524" t="str">
+      <c r="H24" s="530"/>
+      <c r="I24" s="531"/>
+      <c r="J24" s="532"/>
+    </row>
+    <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="539"/>
+      <c r="B25" s="536" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C25" s="525"/>
-      <c r="D25" s="526"/>
-      <c r="E25" s="528"/>
-      <c r="F25" s="515"/>
-      <c r="G25" s="517"/>
-      <c r="H25" s="521"/>
-      <c r="I25" s="522"/>
-      <c r="J25" s="523"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="507">
+      <c r="C25" s="537"/>
+      <c r="D25" s="538"/>
+      <c r="E25" s="540"/>
+      <c r="F25" s="527"/>
+      <c r="G25" s="529"/>
+      <c r="H25" s="533"/>
+      <c r="I25" s="534"/>
+      <c r="J25" s="535"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="519">
         <v>1</v>
       </c>
-      <c r="B26" s="509" t="s">
+      <c r="B26" s="521" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="510"/>
-      <c r="D26" s="511"/>
-      <c r="E26" s="512" t="str">
+      <c r="C26" s="522"/>
+      <c r="D26" s="523"/>
+      <c r="E26" s="524" t="str">
         <f>Данные!C15</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F26" s="513"/>
-      <c r="G26" s="516">
+      <c r="F26" s="525"/>
+      <c r="G26" s="528">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="H26" s="518"/>
-      <c r="I26" s="519"/>
-      <c r="J26" s="520"/>
-    </row>
-    <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="527"/>
-      <c r="B27" s="524" t="str">
+      <c r="H26" s="530"/>
+      <c r="I26" s="531"/>
+      <c r="J26" s="532"/>
+    </row>
+    <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="539"/>
+      <c r="B27" s="536" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C27" s="525"/>
-      <c r="D27" s="526"/>
-      <c r="E27" s="528"/>
-      <c r="F27" s="515"/>
-      <c r="G27" s="517"/>
-      <c r="H27" s="521"/>
-      <c r="I27" s="522"/>
-      <c r="J27" s="523"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="507">
+      <c r="C27" s="537"/>
+      <c r="D27" s="538"/>
+      <c r="E27" s="540"/>
+      <c r="F27" s="527"/>
+      <c r="G27" s="529"/>
+      <c r="H27" s="533"/>
+      <c r="I27" s="534"/>
+      <c r="J27" s="535"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="519">
         <v>1</v>
       </c>
-      <c r="B28" s="509" t="s">
+      <c r="B28" s="521" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="510"/>
-      <c r="D28" s="511"/>
-      <c r="E28" s="512" t="str">
+      <c r="C28" s="522"/>
+      <c r="D28" s="523"/>
+      <c r="E28" s="524" t="str">
         <f>Данные!C16</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F28" s="513"/>
-      <c r="G28" s="516">
+      <c r="F28" s="525"/>
+      <c r="G28" s="528">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="H28" s="518"/>
-      <c r="I28" s="519"/>
-      <c r="J28" s="520"/>
-    </row>
-    <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="527"/>
-      <c r="B29" s="524" t="str">
+      <c r="H28" s="530"/>
+      <c r="I28" s="531"/>
+      <c r="J28" s="532"/>
+    </row>
+    <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="539"/>
+      <c r="B29" s="536" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C29" s="525"/>
-      <c r="D29" s="526"/>
-      <c r="E29" s="528"/>
-      <c r="F29" s="515"/>
-      <c r="G29" s="517"/>
-      <c r="H29" s="521"/>
-      <c r="I29" s="522"/>
-      <c r="J29" s="523"/>
-    </row>
-    <row r="30" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="507">
+      <c r="C29" s="537"/>
+      <c r="D29" s="538"/>
+      <c r="E29" s="540"/>
+      <c r="F29" s="527"/>
+      <c r="G29" s="529"/>
+      <c r="H29" s="533"/>
+      <c r="I29" s="534"/>
+      <c r="J29" s="535"/>
+    </row>
+    <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="519">
         <v>1</v>
       </c>
-      <c r="B30" s="509" t="s">
+      <c r="B30" s="521" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="510"/>
-      <c r="D30" s="511"/>
-      <c r="E30" s="512" t="str">
+      <c r="C30" s="522"/>
+      <c r="D30" s="523"/>
+      <c r="E30" s="524" t="str">
         <f>Данные!C17</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F30" s="513"/>
-      <c r="G30" s="516">
+      <c r="F30" s="525"/>
+      <c r="G30" s="528">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="H30" s="518"/>
-      <c r="I30" s="519"/>
-      <c r="J30" s="520"/>
-    </row>
-    <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="508"/>
-      <c r="B31" s="524" t="str">
+      <c r="H30" s="530"/>
+      <c r="I30" s="531"/>
+      <c r="J30" s="532"/>
+    </row>
+    <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="520"/>
+      <c r="B31" s="536" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C31" s="525"/>
-      <c r="D31" s="526"/>
-      <c r="E31" s="514"/>
-      <c r="F31" s="515"/>
-      <c r="G31" s="517"/>
-      <c r="H31" s="521"/>
-      <c r="I31" s="522"/>
-      <c r="J31" s="523"/>
-    </row>
-    <row r="32" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="507">
+      <c r="C31" s="537"/>
+      <c r="D31" s="538"/>
+      <c r="E31" s="526"/>
+      <c r="F31" s="527"/>
+      <c r="G31" s="529"/>
+      <c r="H31" s="533"/>
+      <c r="I31" s="534"/>
+      <c r="J31" s="535"/>
+    </row>
+    <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="519">
         <v>1</v>
       </c>
-      <c r="B32" s="509" t="s">
+      <c r="B32" s="521" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="510"/>
-      <c r="D32" s="511"/>
-      <c r="E32" s="512" t="str">
+      <c r="C32" s="522"/>
+      <c r="D32" s="523"/>
+      <c r="E32" s="524" t="str">
         <f>Данные!C18</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F32" s="513"/>
-      <c r="G32" s="516">
+      <c r="F32" s="525"/>
+      <c r="G32" s="528">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="H32" s="518"/>
-      <c r="I32" s="519"/>
-      <c r="J32" s="520"/>
-    </row>
-    <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="508"/>
-      <c r="B33" s="524" t="str">
+      <c r="H32" s="530"/>
+      <c r="I32" s="531"/>
+      <c r="J32" s="532"/>
+    </row>
+    <row r="33" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="520"/>
+      <c r="B33" s="536" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C33" s="525"/>
-      <c r="D33" s="526"/>
-      <c r="E33" s="514"/>
-      <c r="F33" s="515"/>
-      <c r="G33" s="517"/>
-      <c r="H33" s="521"/>
-      <c r="I33" s="522"/>
-      <c r="J33" s="523"/>
-    </row>
-    <row r="34" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="507">
+      <c r="C33" s="537"/>
+      <c r="D33" s="538"/>
+      <c r="E33" s="526"/>
+      <c r="F33" s="527"/>
+      <c r="G33" s="529"/>
+      <c r="H33" s="533"/>
+      <c r="I33" s="534"/>
+      <c r="J33" s="535"/>
+    </row>
+    <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="519">
         <v>1</v>
       </c>
-      <c r="B34" s="509" t="s">
+      <c r="B34" s="521" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="510"/>
-      <c r="D34" s="511"/>
-      <c r="E34" s="512" t="str">
+      <c r="C34" s="522"/>
+      <c r="D34" s="523"/>
+      <c r="E34" s="524" t="str">
         <f>Данные!C19</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F34" s="513"/>
-      <c r="G34" s="516">
+      <c r="F34" s="525"/>
+      <c r="G34" s="528">
         <f>Данные!B19</f>
         <v>60</v>
       </c>
-      <c r="H34" s="518"/>
-      <c r="I34" s="519"/>
-      <c r="J34" s="520"/>
-    </row>
-    <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="508"/>
-      <c r="B35" s="524" t="str">
+      <c r="H34" s="530"/>
+      <c r="I34" s="531"/>
+      <c r="J34" s="532"/>
+    </row>
+    <row r="35" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="520"/>
+      <c r="B35" s="536" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C35" s="525"/>
-      <c r="D35" s="526"/>
-      <c r="E35" s="514"/>
-      <c r="F35" s="515"/>
-      <c r="G35" s="517"/>
-      <c r="H35" s="521"/>
-      <c r="I35" s="522"/>
-      <c r="J35" s="523"/>
-    </row>
-    <row r="36" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="507">
+      <c r="C35" s="537"/>
+      <c r="D35" s="538"/>
+      <c r="E35" s="526"/>
+      <c r="F35" s="527"/>
+      <c r="G35" s="529"/>
+      <c r="H35" s="533"/>
+      <c r="I35" s="534"/>
+      <c r="J35" s="535"/>
+    </row>
+    <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="519">
         <v>1</v>
       </c>
-      <c r="B36" s="509" t="s">
+      <c r="B36" s="521" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="510"/>
-      <c r="D36" s="511"/>
-      <c r="E36" s="512" t="str">
+      <c r="C36" s="522"/>
+      <c r="D36" s="523"/>
+      <c r="E36" s="524" t="str">
         <f>Данные!C20</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F36" s="513"/>
-      <c r="G36" s="516">
+      <c r="F36" s="525"/>
+      <c r="G36" s="528">
         <f>Данные!B20</f>
         <v>50</v>
       </c>
-      <c r="H36" s="518"/>
-      <c r="I36" s="519"/>
-      <c r="J36" s="520"/>
-    </row>
-    <row r="37" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="508"/>
-      <c r="B37" s="524" t="str">
+      <c r="H36" s="530"/>
+      <c r="I36" s="531"/>
+      <c r="J36" s="532"/>
+    </row>
+    <row r="37" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="520"/>
+      <c r="B37" s="536" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C37" s="525"/>
-      <c r="D37" s="526"/>
-      <c r="E37" s="514"/>
-      <c r="F37" s="515"/>
-      <c r="G37" s="517"/>
-      <c r="H37" s="521"/>
-      <c r="I37" s="522"/>
-      <c r="J37" s="523"/>
-    </row>
-    <row r="38" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="507">
+      <c r="C37" s="537"/>
+      <c r="D37" s="538"/>
+      <c r="E37" s="526"/>
+      <c r="F37" s="527"/>
+      <c r="G37" s="529"/>
+      <c r="H37" s="533"/>
+      <c r="I37" s="534"/>
+      <c r="J37" s="535"/>
+    </row>
+    <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="519">
         <v>1</v>
       </c>
-      <c r="B38" s="509" t="s">
+      <c r="B38" s="521" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="510"/>
-      <c r="D38" s="511"/>
-      <c r="E38" s="512" t="str">
+      <c r="C38" s="522"/>
+      <c r="D38" s="523"/>
+      <c r="E38" s="524" t="str">
         <f>Данные!C21</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F38" s="513"/>
-      <c r="G38" s="516">
+      <c r="F38" s="525"/>
+      <c r="G38" s="528">
         <f>Данные!B21</f>
         <v>24</v>
       </c>
-      <c r="H38" s="518"/>
-      <c r="I38" s="519"/>
-      <c r="J38" s="520"/>
-    </row>
-    <row r="39" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="508"/>
-      <c r="B39" s="524" t="str">
+      <c r="H38" s="530"/>
+      <c r="I38" s="531"/>
+      <c r="J38" s="532"/>
+    </row>
+    <row r="39" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="520"/>
+      <c r="B39" s="536" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C39" s="525"/>
-      <c r="D39" s="526"/>
-      <c r="E39" s="514"/>
-      <c r="F39" s="515"/>
-      <c r="G39" s="517"/>
-      <c r="H39" s="521"/>
-      <c r="I39" s="522"/>
-      <c r="J39" s="523"/>
-    </row>
-    <row r="40" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="507">
+      <c r="C39" s="537"/>
+      <c r="D39" s="538"/>
+      <c r="E39" s="526"/>
+      <c r="F39" s="527"/>
+      <c r="G39" s="529"/>
+      <c r="H39" s="533"/>
+      <c r="I39" s="534"/>
+      <c r="J39" s="535"/>
+    </row>
+    <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="519">
         <v>1</v>
       </c>
-      <c r="B40" s="509" t="s">
+      <c r="B40" s="521" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="510"/>
-      <c r="D40" s="511"/>
-      <c r="E40" s="512" t="str">
+      <c r="C40" s="522"/>
+      <c r="D40" s="523"/>
+      <c r="E40" s="524" t="str">
         <f>Данные!C23</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F40" s="513"/>
-      <c r="G40" s="516">
+      <c r="F40" s="525"/>
+      <c r="G40" s="528">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="H40" s="518"/>
-      <c r="I40" s="519"/>
-      <c r="J40" s="520"/>
-    </row>
-    <row r="41" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="508"/>
-      <c r="B41" s="524" t="str">
+      <c r="H40" s="530"/>
+      <c r="I40" s="531"/>
+      <c r="J40" s="532"/>
+    </row>
+    <row r="41" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="520"/>
+      <c r="B41" s="536" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C41" s="525"/>
-      <c r="D41" s="526"/>
-      <c r="E41" s="514"/>
-      <c r="F41" s="515"/>
-      <c r="G41" s="517"/>
-      <c r="H41" s="521"/>
-      <c r="I41" s="522"/>
-      <c r="J41" s="523"/>
-    </row>
-    <row r="42" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="507">
+      <c r="C41" s="537"/>
+      <c r="D41" s="538"/>
+      <c r="E41" s="526"/>
+      <c r="F41" s="527"/>
+      <c r="G41" s="529"/>
+      <c r="H41" s="533"/>
+      <c r="I41" s="534"/>
+      <c r="J41" s="535"/>
+    </row>
+    <row r="42" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="519">
         <v>1</v>
       </c>
-      <c r="B42" s="509" t="s">
+      <c r="B42" s="521" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="510"/>
-      <c r="D42" s="511"/>
-      <c r="E42" s="512" t="str">
+      <c r="C42" s="522"/>
+      <c r="D42" s="523"/>
+      <c r="E42" s="524" t="str">
         <f>Данные!C26</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F42" s="513"/>
-      <c r="G42" s="516">
+      <c r="F42" s="525"/>
+      <c r="G42" s="528">
         <f>Данные!B26</f>
         <v>22</v>
       </c>
-      <c r="H42" s="518"/>
-      <c r="I42" s="519"/>
-      <c r="J42" s="520"/>
-    </row>
-    <row r="43" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="508"/>
-      <c r="B43" s="524" t="str">
+      <c r="H42" s="530"/>
+      <c r="I42" s="531"/>
+      <c r="J42" s="532"/>
+    </row>
+    <row r="43" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="520"/>
+      <c r="B43" s="536" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C43" s="525"/>
-      <c r="D43" s="526"/>
-      <c r="E43" s="514"/>
-      <c r="F43" s="515"/>
-      <c r="G43" s="517"/>
-      <c r="H43" s="521"/>
-      <c r="I43" s="522"/>
-      <c r="J43" s="523"/>
-    </row>
-    <row r="44" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="507">
+      <c r="C43" s="537"/>
+      <c r="D43" s="538"/>
+      <c r="E43" s="526"/>
+      <c r="F43" s="527"/>
+      <c r="G43" s="529"/>
+      <c r="H43" s="533"/>
+      <c r="I43" s="534"/>
+      <c r="J43" s="535"/>
+    </row>
+    <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="519">
         <v>1</v>
       </c>
-      <c r="B44" s="509" t="s">
+      <c r="B44" s="521" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="510"/>
-      <c r="D44" s="511"/>
-      <c r="E44" s="512">
+      <c r="C44" s="522"/>
+      <c r="D44" s="523"/>
+      <c r="E44" s="524">
         <f>Данные!C27</f>
         <v>0</v>
       </c>
-      <c r="F44" s="513"/>
-      <c r="G44" s="516">
+      <c r="F44" s="525"/>
+      <c r="G44" s="528">
         <f>Данные!B27</f>
         <v>22</v>
       </c>
-      <c r="H44" s="518"/>
-      <c r="I44" s="519"/>
-      <c r="J44" s="520"/>
-    </row>
-    <row r="45" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="508"/>
-      <c r="B45" s="524" t="str">
+      <c r="H44" s="530"/>
+      <c r="I44" s="531"/>
+      <c r="J44" s="532"/>
+    </row>
+    <row r="45" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="520"/>
+      <c r="B45" s="536" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C45" s="525"/>
-      <c r="D45" s="526"/>
-      <c r="E45" s="514"/>
-      <c r="F45" s="515"/>
-      <c r="G45" s="517"/>
-      <c r="H45" s="521"/>
-      <c r="I45" s="522"/>
-      <c r="J45" s="523"/>
-    </row>
-    <row r="46" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="507">
+      <c r="C45" s="537"/>
+      <c r="D45" s="538"/>
+      <c r="E45" s="526"/>
+      <c r="F45" s="527"/>
+      <c r="G45" s="529"/>
+      <c r="H45" s="533"/>
+      <c r="I45" s="534"/>
+      <c r="J45" s="535"/>
+    </row>
+    <row r="46" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="519">
         <v>1</v>
       </c>
-      <c r="B46" s="509" t="s">
+      <c r="B46" s="521" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="510"/>
-      <c r="D46" s="511"/>
-      <c r="E46" s="512">
+      <c r="C46" s="522"/>
+      <c r="D46" s="523"/>
+      <c r="E46" s="524">
         <f>Данные!C24</f>
         <v>0</v>
       </c>
-      <c r="F46" s="513"/>
-      <c r="G46" s="516" t="str">
+      <c r="F46" s="525"/>
+      <c r="G46" s="528" t="str">
         <f>Данные!B24</f>
         <v>-</v>
       </c>
-      <c r="H46" s="518"/>
-      <c r="I46" s="519"/>
-      <c r="J46" s="520"/>
-    </row>
-    <row r="47" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="508"/>
-      <c r="B47" s="524" t="str">
+      <c r="H46" s="530"/>
+      <c r="I46" s="531"/>
+      <c r="J46" s="532"/>
+    </row>
+    <row r="47" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="520"/>
+      <c r="B47" s="536" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C47" s="525"/>
-      <c r="D47" s="526"/>
-      <c r="E47" s="514"/>
-      <c r="F47" s="515"/>
-      <c r="G47" s="517"/>
-      <c r="H47" s="521"/>
-      <c r="I47" s="522"/>
-      <c r="J47" s="523"/>
-    </row>
-    <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C47" s="537"/>
+      <c r="D47" s="538"/>
+      <c r="E47" s="526"/>
+      <c r="F47" s="527"/>
+      <c r="G47" s="529"/>
+      <c r="H47" s="533"/>
+      <c r="I47" s="534"/>
+      <c r="J47" s="535"/>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="311"/>
       <c r="B48" s="311"/>
       <c r="C48" s="311"/>
@@ -10942,7 +11245,7 @@
       <c r="I48" s="311"/>
       <c r="J48" s="312"/>
     </row>
-    <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="311" t="s">
         <v>71</v>
       </c>
@@ -10956,7 +11259,7 @@
       <c r="I49" s="311"/>
       <c r="J49" s="312"/>
     </row>
-    <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="311"/>
       <c r="B50" s="311"/>
       <c r="C50" s="311"/>
@@ -10968,7 +11271,7 @@
       <c r="I50" s="311"/>
       <c r="J50" s="312"/>
     </row>
-    <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="311"/>
       <c r="B51" s="314" t="s">
         <v>72</v>
@@ -10984,7 +11287,7 @@
       <c r="I51" s="311"/>
       <c r="J51" s="312"/>
     </row>
-    <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="311"/>
       <c r="B52" s="311"/>
       <c r="C52" s="311"/>
@@ -10996,7 +11299,7 @@
       <c r="I52" s="311"/>
       <c r="J52" s="312"/>
     </row>
-    <row r="53" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="311"/>
       <c r="B53" s="311"/>
       <c r="C53" s="311"/>
@@ -11010,7 +11313,7 @@
       </c>
       <c r="J53" s="311"/>
     </row>
-    <row r="54" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="311"/>
       <c r="B54" s="311"/>
       <c r="C54" s="311"/>
@@ -11021,7 +11324,7 @@
       <c r="I54" s="311"/>
       <c r="J54" s="311"/>
     </row>
-    <row r="55" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="311"/>
       <c r="B55" s="311"/>
       <c r="C55" s="311"/>
@@ -11034,14 +11337,14 @@
         <v>Д.Е. Серков</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="308"/>
       <c r="B56" s="308"/>
       <c r="C56" s="308"/>
       <c r="D56" s="308"/>
       <c r="E56" s="308"/>
     </row>
-    <row r="57" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="308"/>
       <c r="B57" s="308"/>
       <c r="C57" s="308"/>
@@ -11145,7 +11448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -11155,20 +11458,20 @@
       <selection pane="bottomRight" activeCell="C10" sqref="C10:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
     <col min="2" max="2" width="5" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="0.88671875" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="0.85546875" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -11189,49 +11492,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="537"/>
-      <c r="C2" s="538"/>
-      <c r="D2" s="539"/>
-      <c r="E2" s="546" t="s">
+      <c r="B2" s="549"/>
+      <c r="C2" s="550"/>
+      <c r="D2" s="551"/>
+      <c r="E2" s="558" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="547"/>
-      <c r="G2" s="547"/>
-      <c r="H2" s="548"/>
-      <c r="I2" s="553" t="s">
+      <c r="F2" s="559"/>
+      <c r="G2" s="559"/>
+      <c r="H2" s="560"/>
+      <c r="I2" s="565" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="554"/>
-      <c r="K2" s="557">
+      <c r="J2" s="566"/>
+      <c r="K2" s="569">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="558"/>
+      <c r="L2" s="570"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="549"/>
-      <c r="Q2" s="549"/>
+      <c r="P2" s="561"/>
+      <c r="Q2" s="561"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="540"/>
-      <c r="C3" s="541"/>
-      <c r="D3" s="542"/>
-      <c r="E3" s="550" t="s">
+      <c r="B3" s="552"/>
+      <c r="C3" s="553"/>
+      <c r="D3" s="554"/>
+      <c r="E3" s="562" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="551"/>
-      <c r="G3" s="551"/>
-      <c r="H3" s="552"/>
-      <c r="I3" s="555"/>
-      <c r="J3" s="556"/>
-      <c r="K3" s="559"/>
-      <c r="L3" s="560"/>
+      <c r="F3" s="563"/>
+      <c r="G3" s="563"/>
+      <c r="H3" s="564"/>
+      <c r="I3" s="567"/>
+      <c r="J3" s="568"/>
+      <c r="K3" s="571"/>
+      <c r="L3" s="572"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11240,11 +11543,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="543"/>
-      <c r="C4" s="544"/>
-      <c r="D4" s="545"/>
+      <c r="B4" s="555"/>
+      <c r="C4" s="556"/>
+      <c r="D4" s="557"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11261,24 +11564,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="564" t="s">
+      <c r="B5" s="576" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="565"/>
-      <c r="D5" s="491" t="str">
+      <c r="C5" s="577"/>
+      <c r="D5" s="503" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="492"/>
-      <c r="F5" s="492"/>
-      <c r="G5" s="492"/>
-      <c r="H5" s="493"/>
-      <c r="I5" s="566"/>
-      <c r="J5" s="567"/>
-      <c r="K5" s="492"/>
-      <c r="L5" s="493"/>
+      <c r="E5" s="504"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="578"/>
+      <c r="J5" s="579"/>
+      <c r="K5" s="504"/>
+      <c r="L5" s="505"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11287,24 +11590,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="564" t="s">
+      <c r="B6" s="576" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="568"/>
-      <c r="D6" s="485" t="str">
+      <c r="C6" s="580"/>
+      <c r="D6" s="497" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="569"/>
-      <c r="F6" s="569"/>
-      <c r="G6" s="569"/>
-      <c r="H6" s="570"/>
-      <c r="I6" s="566"/>
-      <c r="J6" s="567"/>
-      <c r="K6" s="492"/>
-      <c r="L6" s="493"/>
+      <c r="E6" s="581"/>
+      <c r="F6" s="581"/>
+      <c r="G6" s="581"/>
+      <c r="H6" s="582"/>
+      <c r="I6" s="578"/>
+      <c r="J6" s="579"/>
+      <c r="K6" s="504"/>
+      <c r="L6" s="505"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11313,29 +11616,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="571" t="s">
+      <c r="B7" s="583" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="572"/>
-      <c r="D7" s="494">
+      <c r="C7" s="584"/>
+      <c r="D7" s="506">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="573"/>
-      <c r="F7" s="573"/>
-      <c r="G7" s="573"/>
-      <c r="H7" s="574"/>
-      <c r="I7" s="571" t="s">
+      <c r="E7" s="585"/>
+      <c r="F7" s="585"/>
+      <c r="G7" s="585"/>
+      <c r="H7" s="586"/>
+      <c r="I7" s="583" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="575"/>
-      <c r="K7" s="482">
+      <c r="J7" s="587"/>
+      <c r="K7" s="494">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="483"/>
+      <c r="L7" s="495"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -11344,7 +11647,7 @@
       <c r="R7" s="77"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -11365,7 +11668,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -11398,7 +11701,7 @@
       <c r="R9" s="325"/>
       <c r="S9" s="197"/>
     </row>
-    <row r="10" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -11431,7 +11734,7 @@
       <c r="R10" s="327"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="97" t="s">
         <v>26</v>
@@ -11464,7 +11767,7 @@
       <c r="R11" s="329"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="97" t="s">
         <v>2</v>
@@ -11497,7 +11800,7 @@
       <c r="R12" s="329"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="97" t="s">
         <v>3</v>
@@ -11530,7 +11833,7 @@
       <c r="R13" s="329"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="97" t="s">
         <v>27</v>
@@ -11563,7 +11866,7 @@
       <c r="R14" s="329"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="97" t="s">
         <v>9</v>
@@ -11596,7 +11899,7 @@
       <c r="R15" s="329"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="97" t="s">
         <v>5</v>
@@ -11629,7 +11932,7 @@
       <c r="R16" s="329"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="97" t="s">
         <v>30</v>
@@ -11662,7 +11965,7 @@
       <c r="R17" s="329"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="104" t="s">
         <v>32</v>
@@ -11695,7 +11998,7 @@
       <c r="R18" s="331"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="104" t="s">
         <v>33</v>
@@ -11728,7 +12031,7 @@
       <c r="R19" s="331"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="78"/>
       <c r="B20" s="104" t="s">
         <v>35</v>
@@ -11761,7 +12064,7 @@
       <c r="R20" s="331"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:19" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="78"/>
       <c r="B21" s="104" t="s">
         <v>40</v>
@@ -11794,7 +12097,7 @@
       <c r="R21" s="331"/>
       <c r="S21" s="86"/>
     </row>
-    <row r="22" spans="1:19" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="78"/>
       <c r="B22" s="104" t="s">
         <v>41</v>
@@ -11827,14 +12130,14 @@
       <c r="R22" s="331"/>
       <c r="S22" s="86"/>
     </row>
-    <row r="23" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
-      <c r="B23" s="576" t="s">
+      <c r="B23" s="588" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="577"/>
-      <c r="D23" s="577"/>
-      <c r="E23" s="578"/>
+      <c r="C23" s="589"/>
+      <c r="D23" s="589"/>
+      <c r="E23" s="590"/>
       <c r="F23" s="116" t="s">
         <v>16</v>
       </c>
@@ -11854,14 +12157,14 @@
       <c r="R23" s="331"/>
       <c r="S23" s="86"/>
     </row>
-    <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
-      <c r="B24" s="561" t="s">
+      <c r="B24" s="573" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="562"/>
-      <c r="D24" s="562"/>
-      <c r="E24" s="563"/>
+      <c r="C24" s="574"/>
+      <c r="D24" s="574"/>
+      <c r="E24" s="575"/>
       <c r="F24" s="116" t="s">
         <v>16</v>
       </c>
@@ -11881,7 +12184,7 @@
       <c r="R24" s="333"/>
       <c r="S24" s="86"/>
     </row>
-    <row r="25" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="110"/>
       <c r="B25" s="111"/>
       <c r="C25" s="111"/>
@@ -11902,7 +12205,7 @@
       <c r="R25" s="113"/>
       <c r="S25" s="114"/>
     </row>
-    <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="20">
     <mergeCell ref="B24:E24"/>
@@ -11944,7 +12247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -11954,20 +12257,20 @@
       <selection pane="bottomRight" activeCell="C10" sqref="C10:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="64" customWidth="1"/>
     <col min="4" max="5" width="6" style="64" customWidth="1"/>
     <col min="6" max="6" width="7" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -11988,52 +12291,52 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="579">
+      <c r="B2" s="591">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="580"/>
-      <c r="D2" s="581"/>
-      <c r="E2" s="588" t="s">
+      <c r="C2" s="592"/>
+      <c r="D2" s="593"/>
+      <c r="E2" s="600" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="589"/>
-      <c r="G2" s="589"/>
-      <c r="H2" s="590"/>
-      <c r="I2" s="594" t="s">
+      <c r="F2" s="601"/>
+      <c r="G2" s="601"/>
+      <c r="H2" s="602"/>
+      <c r="I2" s="606" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="595"/>
-      <c r="K2" s="598">
+      <c r="J2" s="607"/>
+      <c r="K2" s="610">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="599"/>
+      <c r="L2" s="611"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="549"/>
-      <c r="Q2" s="549"/>
+      <c r="P2" s="561"/>
+      <c r="Q2" s="561"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="582"/>
-      <c r="C3" s="583"/>
-      <c r="D3" s="584"/>
-      <c r="E3" s="591" t="s">
+      <c r="B3" s="594"/>
+      <c r="C3" s="595"/>
+      <c r="D3" s="596"/>
+      <c r="E3" s="603" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="592"/>
-      <c r="G3" s="592"/>
-      <c r="H3" s="593"/>
-      <c r="I3" s="596"/>
-      <c r="J3" s="597"/>
-      <c r="K3" s="600"/>
-      <c r="L3" s="601"/>
+      <c r="F3" s="604"/>
+      <c r="G3" s="604"/>
+      <c r="H3" s="605"/>
+      <c r="I3" s="608"/>
+      <c r="J3" s="609"/>
+      <c r="K3" s="612"/>
+      <c r="L3" s="613"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12042,11 +12345,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="585"/>
-      <c r="C4" s="586"/>
-      <c r="D4" s="587"/>
+      <c r="B4" s="597"/>
+      <c r="C4" s="598"/>
+      <c r="D4" s="599"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -12063,24 +12366,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="564" t="s">
+      <c r="B5" s="576" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="602"/>
-      <c r="D5" s="491" t="str">
+      <c r="C5" s="614"/>
+      <c r="D5" s="503" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="492"/>
-      <c r="F5" s="492"/>
-      <c r="G5" s="492"/>
-      <c r="H5" s="493"/>
-      <c r="I5" s="603"/>
-      <c r="J5" s="604"/>
-      <c r="K5" s="605"/>
-      <c r="L5" s="493"/>
+      <c r="E5" s="504"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="615"/>
+      <c r="J5" s="616"/>
+      <c r="K5" s="617"/>
+      <c r="L5" s="505"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12089,24 +12392,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="564" t="s">
+      <c r="B6" s="576" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="602"/>
-      <c r="D6" s="485" t="str">
+      <c r="C6" s="614"/>
+      <c r="D6" s="497" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="569"/>
-      <c r="F6" s="569"/>
-      <c r="G6" s="569"/>
-      <c r="H6" s="570"/>
-      <c r="I6" s="603"/>
-      <c r="J6" s="604"/>
-      <c r="K6" s="605"/>
-      <c r="L6" s="493"/>
+      <c r="E6" s="581"/>
+      <c r="F6" s="581"/>
+      <c r="G6" s="581"/>
+      <c r="H6" s="582"/>
+      <c r="I6" s="615"/>
+      <c r="J6" s="616"/>
+      <c r="K6" s="617"/>
+      <c r="L6" s="505"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12115,29 +12418,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="571" t="s">
+      <c r="B7" s="583" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="606"/>
-      <c r="D7" s="494">
+      <c r="C7" s="618"/>
+      <c r="D7" s="506">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="573"/>
-      <c r="F7" s="573"/>
-      <c r="G7" s="573"/>
-      <c r="H7" s="574"/>
-      <c r="I7" s="607" t="s">
+      <c r="E7" s="585"/>
+      <c r="F7" s="585"/>
+      <c r="G7" s="585"/>
+      <c r="H7" s="586"/>
+      <c r="I7" s="619" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="606"/>
-      <c r="K7" s="482">
+      <c r="J7" s="618"/>
+      <c r="K7" s="494">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="483"/>
+      <c r="L7" s="495"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12146,7 +12449,7 @@
       <c r="R7" s="73"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -12167,7 +12470,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -12200,7 +12503,7 @@
       <c r="R9" s="325"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -12233,7 +12536,7 @@
       <c r="R10" s="327"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="97" t="s">
         <v>28</v>
@@ -12266,7 +12569,7 @@
       <c r="R11" s="329"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="97" t="s">
         <v>4</v>
@@ -12299,7 +12602,7 @@
       <c r="R12" s="329"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="97" t="s">
         <v>5</v>
@@ -12332,15 +12635,15 @@
       <c r="R13" s="329"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="576" t="s">
+      <c r="B14" s="588" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="577"/>
-      <c r="D14" s="577"/>
-      <c r="E14" s="577"/>
-      <c r="F14" s="608"/>
+      <c r="C14" s="589"/>
+      <c r="D14" s="589"/>
+      <c r="E14" s="589"/>
+      <c r="F14" s="620"/>
       <c r="G14" s="56" t="s">
         <v>77</v>
       </c>
@@ -12357,14 +12660,14 @@
       <c r="R14" s="331"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="78"/>
-      <c r="B15" s="561" t="s">
+      <c r="B15" s="573" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="562"/>
-      <c r="D15" s="562"/>
-      <c r="E15" s="563"/>
+      <c r="C15" s="574"/>
+      <c r="D15" s="574"/>
+      <c r="E15" s="575"/>
       <c r="F15" s="116" t="s">
         <v>16</v>
       </c>
@@ -12384,7 +12687,7 @@
       <c r="R15" s="333"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="110"/>
       <c r="B16" s="111"/>
       <c r="C16" s="111"/>
@@ -12405,11 +12708,11 @@
       <c r="R16" s="113"/>
       <c r="S16" s="114"/>
     </row>
-    <row r="17" spans="2:16" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B17" s="123"/>
       <c r="P17" s="124"/>
     </row>
-    <row r="18" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="123"/>
       <c r="P18" s="91"/>
     </row>
@@ -12462,7 +12765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -12472,20 +12775,20 @@
       <selection pane="bottomRight" activeCell="C10" sqref="C10:C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="0.88671875" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="64" customWidth="1"/>
-    <col min="4" max="5" width="5.6640625" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.44140625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="64" customWidth="1"/>
+    <col min="1" max="1" width="0.85546875" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="64" customWidth="1"/>
+    <col min="4" max="5" width="5.7109375" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="0.5546875" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="0.5703125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="6.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="6.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -12506,49 +12809,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="537"/>
-      <c r="C2" s="538"/>
-      <c r="D2" s="539"/>
-      <c r="E2" s="546" t="s">
+      <c r="B2" s="549"/>
+      <c r="C2" s="550"/>
+      <c r="D2" s="551"/>
+      <c r="E2" s="558" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="547"/>
-      <c r="G2" s="547"/>
-      <c r="H2" s="548"/>
-      <c r="I2" s="553" t="s">
+      <c r="F2" s="559"/>
+      <c r="G2" s="559"/>
+      <c r="H2" s="560"/>
+      <c r="I2" s="565" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="554"/>
-      <c r="K2" s="557">
+      <c r="J2" s="566"/>
+      <c r="K2" s="569">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="L2" s="558"/>
+      <c r="L2" s="570"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="549"/>
-      <c r="Q2" s="549"/>
+      <c r="P2" s="561"/>
+      <c r="Q2" s="561"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="540"/>
-      <c r="C3" s="541"/>
-      <c r="D3" s="542"/>
-      <c r="E3" s="550" t="s">
+      <c r="B3" s="552"/>
+      <c r="C3" s="553"/>
+      <c r="D3" s="554"/>
+      <c r="E3" s="562" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="551"/>
-      <c r="G3" s="551"/>
-      <c r="H3" s="552"/>
-      <c r="I3" s="555"/>
-      <c r="J3" s="556"/>
-      <c r="K3" s="559"/>
-      <c r="L3" s="560"/>
+      <c r="F3" s="563"/>
+      <c r="G3" s="563"/>
+      <c r="H3" s="564"/>
+      <c r="I3" s="567"/>
+      <c r="J3" s="568"/>
+      <c r="K3" s="571"/>
+      <c r="L3" s="572"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12557,11 +12860,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="543"/>
-      <c r="C4" s="544"/>
-      <c r="D4" s="545"/>
+      <c r="B4" s="555"/>
+      <c r="C4" s="556"/>
+      <c r="D4" s="557"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12578,24 +12881,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="564" t="s">
+      <c r="B5" s="576" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="565"/>
-      <c r="D5" s="491" t="str">
+      <c r="C5" s="577"/>
+      <c r="D5" s="503" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="492"/>
-      <c r="F5" s="492"/>
-      <c r="G5" s="492"/>
-      <c r="H5" s="493"/>
-      <c r="I5" s="566"/>
-      <c r="J5" s="567"/>
-      <c r="K5" s="492"/>
-      <c r="L5" s="493"/>
+      <c r="E5" s="504"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="578"/>
+      <c r="J5" s="579"/>
+      <c r="K5" s="504"/>
+      <c r="L5" s="505"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12604,24 +12907,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="564" t="s">
+      <c r="B6" s="576" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="568"/>
-      <c r="D6" s="485" t="str">
+      <c r="C6" s="580"/>
+      <c r="D6" s="497" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="569"/>
-      <c r="F6" s="569"/>
-      <c r="G6" s="569"/>
-      <c r="H6" s="570"/>
-      <c r="I6" s="566"/>
-      <c r="J6" s="567"/>
-      <c r="K6" s="492"/>
-      <c r="L6" s="493"/>
+      <c r="E6" s="581"/>
+      <c r="F6" s="581"/>
+      <c r="G6" s="581"/>
+      <c r="H6" s="582"/>
+      <c r="I6" s="578"/>
+      <c r="J6" s="579"/>
+      <c r="K6" s="504"/>
+      <c r="L6" s="505"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12630,29 +12933,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="571" t="s">
+      <c r="B7" s="583" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="572"/>
-      <c r="D7" s="494">
+      <c r="C7" s="584"/>
+      <c r="D7" s="506">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="573"/>
-      <c r="F7" s="573"/>
-      <c r="G7" s="573"/>
-      <c r="H7" s="574"/>
-      <c r="I7" s="571" t="s">
+      <c r="E7" s="585"/>
+      <c r="F7" s="585"/>
+      <c r="G7" s="585"/>
+      <c r="H7" s="586"/>
+      <c r="I7" s="583" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="575"/>
-      <c r="K7" s="482">
+      <c r="J7" s="587"/>
+      <c r="K7" s="494">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="483"/>
+      <c r="L7" s="495"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12661,7 +12964,7 @@
       <c r="R7" s="77"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:24" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -12682,7 +12985,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:24" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -12718,7 +13021,7 @@
       <c r="W9" s="91"/>
       <c r="X9" s="91"/>
     </row>
-    <row r="10" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -12754,7 +13057,7 @@
       <c r="W10" s="91"/>
       <c r="X10" s="91"/>
     </row>
-    <row r="11" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="97" t="s">
         <v>3</v>
@@ -12790,7 +13093,7 @@
       <c r="W11" s="101"/>
       <c r="X11" s="91"/>
     </row>
-    <row r="12" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="97" t="s">
         <v>27</v>
@@ -12826,7 +13129,7 @@
       <c r="W12" s="102"/>
       <c r="X12" s="91"/>
     </row>
-    <row r="13" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="97" t="s">
         <v>4</v>
@@ -12862,7 +13165,7 @@
       <c r="W13" s="102"/>
       <c r="X13" s="91"/>
     </row>
-    <row r="14" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="97" t="s">
         <v>5</v>
@@ -12898,7 +13201,7 @@
       <c r="W14" s="102"/>
       <c r="X14" s="91"/>
     </row>
-    <row r="15" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="97" t="s">
         <v>30</v>
@@ -12934,7 +13237,7 @@
       <c r="W15" s="101"/>
       <c r="X15" s="91"/>
     </row>
-    <row r="16" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="97" t="s">
         <v>31</v>
@@ -12970,7 +13273,7 @@
       <c r="W16" s="102"/>
       <c r="X16" s="91"/>
     </row>
-    <row r="17" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="104" t="s">
         <v>32</v>
@@ -13006,7 +13309,7 @@
       <c r="W17" s="101"/>
       <c r="X17" s="91"/>
     </row>
-    <row r="18" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="104" t="s">
         <v>33</v>
@@ -13042,7 +13345,7 @@
       <c r="W18" s="101"/>
       <c r="X18" s="91"/>
     </row>
-    <row r="19" spans="1:24" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="104" t="s">
         <v>34</v>
@@ -13078,7 +13381,7 @@
       <c r="W19" s="101"/>
       <c r="X19" s="91"/>
     </row>
-    <row r="20" spans="1:24" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="78"/>
       <c r="B20" s="104" t="s">
         <v>35</v>
@@ -13111,7 +13414,7 @@
       <c r="R20" s="333"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="110"/>
       <c r="B21" s="111"/>
       <c r="C21" s="111"/>
@@ -13132,12 +13435,9 @@
       <c r="R21" s="113"/>
       <c r="S21" s="114"/>
     </row>
-    <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="B2:D4"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
@@ -13153,6 +13453,9 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="B2:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -13174,7 +13477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -13184,20 +13487,20 @@
       <selection pane="bottomRight" activeCell="C10" sqref="C10:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="5" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="5" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="5" customWidth="1"/>
     <col min="8" max="18" width="9" style="5" customWidth="1"/>
-    <col min="19" max="19" width="0.88671875" style="5" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="5"/>
+    <col min="19" max="19" width="0.85546875" style="5" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -13218,49 +13521,49 @@
       <c r="R1" s="3"/>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="537"/>
-      <c r="C2" s="538"/>
-      <c r="D2" s="539"/>
-      <c r="E2" s="546" t="s">
+      <c r="B2" s="549"/>
+      <c r="C2" s="550"/>
+      <c r="D2" s="551"/>
+      <c r="E2" s="558" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="547"/>
-      <c r="G2" s="547"/>
-      <c r="H2" s="548"/>
-      <c r="I2" s="553" t="s">
+      <c r="F2" s="559"/>
+      <c r="G2" s="559"/>
+      <c r="H2" s="560"/>
+      <c r="I2" s="565" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="554"/>
-      <c r="K2" s="557">
+      <c r="J2" s="566"/>
+      <c r="K2" s="569">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="L2" s="558"/>
+      <c r="L2" s="570"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="609"/>
-      <c r="Q2" s="609"/>
+      <c r="P2" s="621"/>
+      <c r="Q2" s="621"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="540"/>
-      <c r="C3" s="541"/>
-      <c r="D3" s="542"/>
-      <c r="E3" s="550" t="s">
+      <c r="B3" s="552"/>
+      <c r="C3" s="553"/>
+      <c r="D3" s="554"/>
+      <c r="E3" s="562" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="551"/>
-      <c r="G3" s="551"/>
-      <c r="H3" s="552"/>
-      <c r="I3" s="555"/>
-      <c r="J3" s="556"/>
-      <c r="K3" s="559"/>
-      <c r="L3" s="560"/>
+      <c r="F3" s="563"/>
+      <c r="G3" s="563"/>
+      <c r="H3" s="564"/>
+      <c r="I3" s="567"/>
+      <c r="J3" s="568"/>
+      <c r="K3" s="571"/>
+      <c r="L3" s="572"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13269,11 +13572,11 @@
       <c r="R3" s="15"/>
       <c r="S3" s="11"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="543"/>
-      <c r="C4" s="544"/>
-      <c r="D4" s="545"/>
+      <c r="B4" s="555"/>
+      <c r="C4" s="556"/>
+      <c r="D4" s="557"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13290,24 +13593,24 @@
       <c r="R4" s="15"/>
       <c r="S4" s="11"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="564" t="s">
+      <c r="B5" s="576" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="565"/>
-      <c r="D5" s="491" t="str">
+      <c r="C5" s="577"/>
+      <c r="D5" s="503" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="492"/>
-      <c r="F5" s="492"/>
-      <c r="G5" s="492"/>
-      <c r="H5" s="493"/>
-      <c r="I5" s="566"/>
-      <c r="J5" s="567"/>
-      <c r="K5" s="492"/>
-      <c r="L5" s="493"/>
+      <c r="E5" s="504"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="578"/>
+      <c r="J5" s="579"/>
+      <c r="K5" s="504"/>
+      <c r="L5" s="505"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13316,24 +13619,24 @@
       <c r="R5" s="15"/>
       <c r="S5" s="11"/>
     </row>
-    <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="564" t="s">
+      <c r="B6" s="576" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="568"/>
-      <c r="D6" s="485" t="str">
+      <c r="C6" s="580"/>
+      <c r="D6" s="497" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="569"/>
-      <c r="F6" s="569"/>
-      <c r="G6" s="569"/>
-      <c r="H6" s="570"/>
-      <c r="I6" s="566"/>
-      <c r="J6" s="567"/>
-      <c r="K6" s="492"/>
-      <c r="L6" s="493"/>
+      <c r="E6" s="581"/>
+      <c r="F6" s="581"/>
+      <c r="G6" s="581"/>
+      <c r="H6" s="582"/>
+      <c r="I6" s="578"/>
+      <c r="J6" s="579"/>
+      <c r="K6" s="504"/>
+      <c r="L6" s="505"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13342,29 +13645,29 @@
       <c r="R6" s="15"/>
       <c r="S6" s="11"/>
     </row>
-    <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="571" t="s">
+      <c r="B7" s="583" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="572"/>
-      <c r="D7" s="494">
+      <c r="C7" s="584"/>
+      <c r="D7" s="506">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="573"/>
-      <c r="F7" s="573"/>
-      <c r="G7" s="573"/>
-      <c r="H7" s="574"/>
-      <c r="I7" s="571" t="s">
+      <c r="E7" s="585"/>
+      <c r="F7" s="585"/>
+      <c r="G7" s="585"/>
+      <c r="H7" s="586"/>
+      <c r="I7" s="583" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="575"/>
-      <c r="K7" s="482">
+      <c r="J7" s="587"/>
+      <c r="K7" s="494">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="483"/>
+      <c r="L7" s="495"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -13373,7 +13676,7 @@
       <c r="R7" s="23"/>
       <c r="S7" s="11"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="25"/>
       <c r="C8" s="26"/>
@@ -13394,7 +13697,7 @@
       <c r="R8" s="31"/>
       <c r="S8" s="32"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -13427,7 +13730,7 @@
       <c r="R9" s="335"/>
       <c r="S9" s="38"/>
     </row>
-    <row r="10" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="50" t="s">
         <v>6</v>
@@ -13460,7 +13763,7 @@
       <c r="R10" s="337"/>
       <c r="S10" s="32"/>
     </row>
-    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
       <c r="B11" s="50" t="s">
         <v>2</v>
@@ -13493,7 +13796,7 @@
       <c r="R11" s="337"/>
       <c r="S11" s="32"/>
     </row>
-    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24"/>
       <c r="B12" s="50" t="s">
         <v>3</v>
@@ -13526,7 +13829,7 @@
       <c r="R12" s="337"/>
       <c r="S12" s="32"/>
     </row>
-    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="24"/>
       <c r="B13" s="50" t="s">
         <v>7</v>
@@ -13559,7 +13862,7 @@
       <c r="R13" s="337"/>
       <c r="S13" s="32"/>
     </row>
-    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="24"/>
       <c r="B14" s="50" t="s">
         <v>8</v>
@@ -13592,7 +13895,7 @@
       <c r="R14" s="337"/>
       <c r="S14" s="32"/>
     </row>
-    <row r="15" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="57" t="s">
         <v>4</v>
@@ -13625,7 +13928,7 @@
       <c r="R15" s="339"/>
       <c r="S15" s="32"/>
     </row>
-    <row r="16" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="39"/>
       <c r="B16" s="40"/>
       <c r="C16" s="41"/>
@@ -13646,7 +13949,7 @@
       <c r="R16" s="46"/>
       <c r="S16" s="43"/>
     </row>
-    <row r="17" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
     <mergeCell ref="E3:H3"/>
@@ -13689,7 +13992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -13702,20 +14005,20 @@
       <selection pane="bottomRight" activeCell="L24" sqref="L24:P24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="64" customWidth="1"/>
-    <col min="8" max="18" width="8.88671875" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="64" customWidth="1"/>
+    <col min="8" max="18" width="8.85546875" style="64" customWidth="1"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -13736,62 +14039,62 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="579"/>
-      <c r="C2" s="580"/>
-      <c r="D2" s="581"/>
-      <c r="E2" s="588" t="s">
+      <c r="B2" s="591"/>
+      <c r="C2" s="592"/>
+      <c r="D2" s="593"/>
+      <c r="E2" s="600" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="589"/>
-      <c r="G2" s="589"/>
-      <c r="H2" s="590"/>
-      <c r="I2" s="594" t="s">
+      <c r="F2" s="601"/>
+      <c r="G2" s="601"/>
+      <c r="H2" s="602"/>
+      <c r="I2" s="606" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="595"/>
-      <c r="K2" s="598">
+      <c r="J2" s="607"/>
+      <c r="K2" s="610">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="L2" s="599"/>
-      <c r="M2" s="611"/>
-      <c r="N2" s="612"/>
-      <c r="O2" s="612"/>
-      <c r="P2" s="612"/>
-      <c r="Q2" s="612"/>
-      <c r="R2" s="613"/>
+      <c r="L2" s="611"/>
+      <c r="M2" s="623"/>
+      <c r="N2" s="624"/>
+      <c r="O2" s="624"/>
+      <c r="P2" s="624"/>
+      <c r="Q2" s="624"/>
+      <c r="R2" s="625"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="582"/>
-      <c r="C3" s="583"/>
-      <c r="D3" s="584"/>
-      <c r="E3" s="591" t="s">
+      <c r="B3" s="594"/>
+      <c r="C3" s="595"/>
+      <c r="D3" s="596"/>
+      <c r="E3" s="603" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="592"/>
-      <c r="G3" s="592"/>
-      <c r="H3" s="593"/>
-      <c r="I3" s="596"/>
-      <c r="J3" s="597"/>
-      <c r="K3" s="600"/>
-      <c r="L3" s="601"/>
-      <c r="M3" s="614"/>
-      <c r="N3" s="615"/>
-      <c r="O3" s="615"/>
-      <c r="P3" s="615"/>
-      <c r="Q3" s="615"/>
-      <c r="R3" s="616"/>
+      <c r="F3" s="604"/>
+      <c r="G3" s="604"/>
+      <c r="H3" s="605"/>
+      <c r="I3" s="608"/>
+      <c r="J3" s="609"/>
+      <c r="K3" s="612"/>
+      <c r="L3" s="613"/>
+      <c r="M3" s="626"/>
+      <c r="N3" s="627"/>
+      <c r="O3" s="627"/>
+      <c r="P3" s="627"/>
+      <c r="Q3" s="627"/>
+      <c r="R3" s="628"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="585"/>
-      <c r="C4" s="586"/>
-      <c r="D4" s="587"/>
+      <c r="B4" s="597"/>
+      <c r="C4" s="598"/>
+      <c r="D4" s="599"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -13800,98 +14103,98 @@
       <c r="J4" s="249"/>
       <c r="K4" s="252"/>
       <c r="L4" s="253"/>
-      <c r="M4" s="614"/>
-      <c r="N4" s="615"/>
-      <c r="O4" s="615"/>
-      <c r="P4" s="615"/>
-      <c r="Q4" s="615"/>
-      <c r="R4" s="616"/>
+      <c r="M4" s="626"/>
+      <c r="N4" s="627"/>
+      <c r="O4" s="627"/>
+      <c r="P4" s="627"/>
+      <c r="Q4" s="627"/>
+      <c r="R4" s="628"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="564" t="s">
+      <c r="B5" s="576" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="602"/>
-      <c r="D5" s="491" t="str">
+      <c r="C5" s="614"/>
+      <c r="D5" s="503" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="492"/>
-      <c r="F5" s="492"/>
-      <c r="G5" s="492"/>
-      <c r="H5" s="493"/>
-      <c r="I5" s="603"/>
-      <c r="J5" s="604"/>
-      <c r="K5" s="605"/>
-      <c r="L5" s="493"/>
-      <c r="M5" s="614"/>
-      <c r="N5" s="615"/>
-      <c r="O5" s="615"/>
-      <c r="P5" s="615"/>
-      <c r="Q5" s="615"/>
-      <c r="R5" s="616"/>
+      <c r="E5" s="504"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="615"/>
+      <c r="J5" s="616"/>
+      <c r="K5" s="617"/>
+      <c r="L5" s="505"/>
+      <c r="M5" s="626"/>
+      <c r="N5" s="627"/>
+      <c r="O5" s="627"/>
+      <c r="P5" s="627"/>
+      <c r="Q5" s="627"/>
+      <c r="R5" s="628"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="564" t="s">
+      <c r="B6" s="576" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="602"/>
-      <c r="D6" s="485" t="str">
+      <c r="C6" s="614"/>
+      <c r="D6" s="497" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="569"/>
-      <c r="F6" s="569"/>
-      <c r="G6" s="569"/>
-      <c r="H6" s="570"/>
-      <c r="I6" s="603"/>
-      <c r="J6" s="604"/>
-      <c r="K6" s="605"/>
-      <c r="L6" s="493"/>
-      <c r="M6" s="614"/>
-      <c r="N6" s="615"/>
-      <c r="O6" s="615"/>
-      <c r="P6" s="615"/>
-      <c r="Q6" s="615"/>
-      <c r="R6" s="616"/>
+      <c r="E6" s="581"/>
+      <c r="F6" s="581"/>
+      <c r="G6" s="581"/>
+      <c r="H6" s="582"/>
+      <c r="I6" s="615"/>
+      <c r="J6" s="616"/>
+      <c r="K6" s="617"/>
+      <c r="L6" s="505"/>
+      <c r="M6" s="626"/>
+      <c r="N6" s="627"/>
+      <c r="O6" s="627"/>
+      <c r="P6" s="627"/>
+      <c r="Q6" s="627"/>
+      <c r="R6" s="628"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="571" t="s">
+      <c r="B7" s="583" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="606"/>
-      <c r="D7" s="494">
+      <c r="C7" s="618"/>
+      <c r="D7" s="506">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="573"/>
-      <c r="F7" s="573"/>
-      <c r="G7" s="573"/>
-      <c r="H7" s="574"/>
-      <c r="I7" s="607" t="s">
+      <c r="E7" s="585"/>
+      <c r="F7" s="585"/>
+      <c r="G7" s="585"/>
+      <c r="H7" s="586"/>
+      <c r="I7" s="619" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="606"/>
-      <c r="K7" s="482">
+      <c r="J7" s="618"/>
+      <c r="K7" s="494">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="483"/>
-      <c r="M7" s="614"/>
-      <c r="N7" s="615"/>
-      <c r="O7" s="615"/>
-      <c r="P7" s="615"/>
-      <c r="Q7" s="615"/>
-      <c r="R7" s="616"/>
+      <c r="L7" s="495"/>
+      <c r="M7" s="626"/>
+      <c r="N7" s="627"/>
+      <c r="O7" s="627"/>
+      <c r="P7" s="627"/>
+      <c r="Q7" s="627"/>
+      <c r="R7" s="628"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -13912,7 +14215,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="254" t="s">
         <v>17</v>
@@ -13945,7 +14248,7 @@
       <c r="R9" s="89"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -13978,7 +14281,7 @@
       <c r="R10" s="96"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="200" t="s">
         <v>26</v>
@@ -14011,7 +14314,7 @@
       <c r="R11" s="100"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="200" t="s">
         <v>2</v>
@@ -14044,7 +14347,7 @@
       <c r="R12" s="100"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="200" t="s">
         <v>3</v>
@@ -14077,7 +14380,7 @@
       <c r="R13" s="100"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="97" t="s">
         <v>27</v>
@@ -14110,7 +14413,7 @@
       <c r="R14" s="100"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="97" t="s">
         <v>28</v>
@@ -14143,7 +14446,7 @@
       <c r="R15" s="100"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="97" t="s">
         <v>9</v>
@@ -14176,7 +14479,7 @@
       <c r="R16" s="100"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="97" t="s">
         <v>29</v>
@@ -14209,7 +14512,7 @@
       <c r="R17" s="100"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="97" t="s">
         <v>30</v>
@@ -14242,7 +14545,7 @@
       <c r="R18" s="100"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="97" t="s">
         <v>41</v>
@@ -14267,7 +14570,7 @@
       <c r="R19" s="100"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="78"/>
       <c r="B20" s="97" t="s">
         <v>35</v>
@@ -14300,14 +14603,14 @@
       <c r="R20" s="100"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78"/>
-      <c r="B21" s="561" t="s">
+      <c r="B21" s="573" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="562"/>
-      <c r="D21" s="562"/>
-      <c r="E21" s="563"/>
+      <c r="C21" s="574"/>
+      <c r="D21" s="574"/>
+      <c r="E21" s="575"/>
       <c r="F21" s="116" t="s">
         <v>16</v>
       </c>
@@ -14327,7 +14630,7 @@
       <c r="R21" s="109"/>
       <c r="S21" s="86"/>
     </row>
-    <row r="22" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="110"/>
       <c r="B22" s="111"/>
       <c r="C22" s="111"/>
@@ -14348,22 +14651,20 @@
       <c r="R22" s="113"/>
       <c r="S22" s="114"/>
     </row>
-    <row r="23" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B23" s="123"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L24" s="610" t="s">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="L24" s="622" t="s">
         <v>140</v>
       </c>
-      <c r="M24" s="610"/>
-      <c r="N24" s="610"/>
+      <c r="M24" s="622"/>
+      <c r="N24" s="622"/>
       <c r="O24" s="469"/>
       <c r="P24" s="469"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="B21:E21"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="M2:R7"/>
     <mergeCell ref="E2:H2"/>
@@ -14382,6 +14683,8 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="B21:E21"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R21">
     <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
@@ -14401,7 +14704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -14411,19 +14714,19 @@
       <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="64" customWidth="1"/>
-    <col min="4" max="6" width="5.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="64" customWidth="1"/>
+    <col min="4" max="6" width="5.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.109375" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.140625" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -14444,49 +14747,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="579"/>
-      <c r="C2" s="580"/>
-      <c r="D2" s="581"/>
-      <c r="E2" s="588" t="s">
+      <c r="B2" s="591"/>
+      <c r="C2" s="592"/>
+      <c r="D2" s="593"/>
+      <c r="E2" s="600" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="589"/>
-      <c r="G2" s="589"/>
-      <c r="H2" s="590"/>
-      <c r="I2" s="594" t="s">
+      <c r="F2" s="601"/>
+      <c r="G2" s="601"/>
+      <c r="H2" s="602"/>
+      <c r="I2" s="606" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="595"/>
-      <c r="K2" s="598">
+      <c r="J2" s="607"/>
+      <c r="K2" s="610">
         <f>Данные!B19</f>
         <v>60</v>
       </c>
-      <c r="L2" s="599"/>
+      <c r="L2" s="611"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="617"/>
-      <c r="Q2" s="617"/>
+      <c r="P2" s="629"/>
+      <c r="Q2" s="629"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="582"/>
-      <c r="C3" s="583"/>
-      <c r="D3" s="584"/>
-      <c r="E3" s="591" t="s">
+      <c r="B3" s="594"/>
+      <c r="C3" s="595"/>
+      <c r="D3" s="596"/>
+      <c r="E3" s="603" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="592"/>
-      <c r="G3" s="592"/>
-      <c r="H3" s="593"/>
-      <c r="I3" s="596"/>
-      <c r="J3" s="597"/>
-      <c r="K3" s="600"/>
-      <c r="L3" s="601"/>
+      <c r="F3" s="604"/>
+      <c r="G3" s="604"/>
+      <c r="H3" s="605"/>
+      <c r="I3" s="608"/>
+      <c r="J3" s="609"/>
+      <c r="K3" s="612"/>
+      <c r="L3" s="613"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -14495,11 +14798,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="585"/>
-      <c r="C4" s="586"/>
-      <c r="D4" s="587"/>
+      <c r="B4" s="597"/>
+      <c r="C4" s="598"/>
+      <c r="D4" s="599"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -14516,24 +14819,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="564" t="s">
+      <c r="B5" s="576" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="602"/>
-      <c r="D5" s="491" t="str">
+      <c r="C5" s="614"/>
+      <c r="D5" s="503" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="492"/>
-      <c r="F5" s="492"/>
-      <c r="G5" s="492"/>
-      <c r="H5" s="493"/>
-      <c r="I5" s="603"/>
-      <c r="J5" s="604"/>
-      <c r="K5" s="605"/>
-      <c r="L5" s="493"/>
+      <c r="E5" s="504"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="615"/>
+      <c r="J5" s="616"/>
+      <c r="K5" s="617"/>
+      <c r="L5" s="505"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -14542,24 +14845,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="564" t="s">
+      <c r="B6" s="576" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="602"/>
-      <c r="D6" s="485" t="str">
+      <c r="C6" s="614"/>
+      <c r="D6" s="497" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="569"/>
-      <c r="F6" s="569"/>
-      <c r="G6" s="569"/>
-      <c r="H6" s="570"/>
-      <c r="I6" s="603"/>
-      <c r="J6" s="604"/>
-      <c r="K6" s="605"/>
-      <c r="L6" s="493"/>
+      <c r="E6" s="581"/>
+      <c r="F6" s="581"/>
+      <c r="G6" s="581"/>
+      <c r="H6" s="582"/>
+      <c r="I6" s="615"/>
+      <c r="J6" s="616"/>
+      <c r="K6" s="617"/>
+      <c r="L6" s="505"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -14568,29 +14871,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="571" t="s">
+      <c r="B7" s="583" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="606"/>
-      <c r="D7" s="494">
+      <c r="C7" s="618"/>
+      <c r="D7" s="506">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="573"/>
-      <c r="F7" s="573"/>
-      <c r="G7" s="573"/>
-      <c r="H7" s="574"/>
-      <c r="I7" s="607" t="s">
+      <c r="E7" s="585"/>
+      <c r="F7" s="585"/>
+      <c r="G7" s="585"/>
+      <c r="H7" s="586"/>
+      <c r="I7" s="619" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="606"/>
-      <c r="K7" s="482">
+      <c r="J7" s="618"/>
+      <c r="K7" s="494">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="483"/>
+      <c r="L7" s="495"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -14599,7 +14902,7 @@
       <c r="R7" s="73"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -14620,7 +14923,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="254" t="s">
         <v>17</v>
@@ -14653,7 +14956,7 @@
       <c r="R9" s="89"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="40.799999999999997" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="129" t="s">
         <v>26</v>
@@ -14686,7 +14989,7 @@
       <c r="R10" s="100"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="129" t="s">
         <v>2</v>
@@ -14719,7 +15022,7 @@
       <c r="R11" s="100"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="129" t="s">
         <v>3</v>
@@ -14752,7 +15055,7 @@
       <c r="R12" s="100"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="129" t="s">
         <v>27</v>
@@ -14785,7 +15088,7 @@
       <c r="R13" s="100"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="129" t="s">
         <v>9</v>
@@ -14818,7 +15121,7 @@
       <c r="R14" s="100"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="129" t="s">
         <v>5</v>
@@ -14851,14 +15154,14 @@
       <c r="R15" s="100"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="561" t="s">
+      <c r="B16" s="573" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="562"/>
-      <c r="D16" s="562"/>
-      <c r="E16" s="563"/>
+      <c r="C16" s="574"/>
+      <c r="D16" s="574"/>
+      <c r="E16" s="575"/>
       <c r="F16" s="259" t="s">
         <v>16</v>
       </c>
@@ -14878,7 +15181,7 @@
       <c r="R16" s="122"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="110"/>
       <c r="B17" s="128"/>
       <c r="C17" s="127"/>
@@ -14899,15 +15202,15 @@
       <c r="R17" s="113"/>
       <c r="S17" s="114"/>
     </row>
-    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B18" s="123"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K19" s="610" t="s">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="K19" s="622" t="s">
         <v>140</v>
       </c>
-      <c r="L19" s="610"/>
-      <c r="M19" s="610"/>
+      <c r="L19" s="622"/>
+      <c r="M19" s="622"/>
       <c r="N19" s="469"/>
       <c r="O19" s="469"/>
     </row>

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-2.1-500-14 (Брест колоски)/Брест колоски от 13.11.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-2.1-500-14 (Брест колоски)/Брест колоски от 13.11.2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Бутылка\XXI-В-28-2.1-500-14 (Брест колоски)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686DF23D-9424-43B5-B2F3-C07DD5EACD47}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C334A4-DEBC-421D-9346-317076E3DA99}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="144">
   <si>
     <t>+ Tol.</t>
   </si>
@@ -479,6 +479,9 @@
   </si>
   <si>
     <t>стоит</t>
+  </si>
+  <si>
+    <t>Горловые кольца с финишными используем от формокомплекта "Ведьма"</t>
   </si>
 </sst>
 </file>
@@ -3597,12 +3600,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3647,189 +3644,123 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -3881,73 +3812,76 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3971,64 +3905,133 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -6707,25 +6710,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="496" t="s">
+      <c r="A1" s="494" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="500"/>
-      <c r="C1" s="500"/>
-      <c r="D1" s="500"/>
-      <c r="E1" s="500"/>
+      <c r="B1" s="498"/>
+      <c r="C1" s="498"/>
+      <c r="D1" s="498"/>
+      <c r="E1" s="498"/>
       <c r="G1" s="371" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="497" t="s">
+      <c r="A2" s="495" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="498"/>
-      <c r="C2" s="498"/>
-      <c r="D2" s="498"/>
-      <c r="E2" s="499"/>
+      <c r="B2" s="496"/>
+      <c r="C2" s="496"/>
+      <c r="D2" s="496"/>
+      <c r="E2" s="497"/>
       <c r="G2" s="370" t="s">
         <v>79</v>
       </c>
@@ -6736,45 +6739,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="501" t="s">
+      <c r="A4" s="499" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="502"/>
-      <c r="C4" s="502"/>
-      <c r="D4" s="502"/>
-      <c r="E4" s="502"/>
+      <c r="B4" s="500"/>
+      <c r="C4" s="500"/>
+      <c r="D4" s="500"/>
+      <c r="E4" s="500"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="503" t="s">
+      <c r="A5" s="501" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="504"/>
-      <c r="C5" s="504"/>
-      <c r="D5" s="504"/>
-      <c r="E5" s="505"/>
+      <c r="B5" s="502"/>
+      <c r="C5" s="502"/>
+      <c r="D5" s="502"/>
+      <c r="E5" s="503"/>
     </row>
     <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="496" t="s">
+      <c r="A7" s="494" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="500"/>
-      <c r="C7" s="500"/>
-      <c r="D7" s="500"/>
-      <c r="E7" s="500"/>
+      <c r="B7" s="498"/>
+      <c r="C7" s="498"/>
+      <c r="D7" s="498"/>
+      <c r="E7" s="498"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="506"/>
-      <c r="B8" s="507"/>
-      <c r="C8" s="507"/>
-      <c r="D8" s="507"/>
-      <c r="E8" s="508"/>
+      <c r="A8" s="504"/>
+      <c r="B8" s="505"/>
+      <c r="C8" s="505"/>
+      <c r="D8" s="505"/>
+      <c r="E8" s="506"/>
     </row>
     <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="496" t="s">
+      <c r="A10" s="494" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="496"/>
+      <c r="B10" s="494"/>
       <c r="C10" s="372"/>
       <c r="D10" s="380" t="s">
         <v>94</v>
@@ -6785,33 +6788,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="494"/>
-      <c r="B11" s="495"/>
+      <c r="A11" s="492"/>
+      <c r="B11" s="493"/>
       <c r="D11" s="379">
         <v>43782</v>
       </c>
-      <c r="F11" s="491" t="s">
+      <c r="F11" s="507" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="491"/>
-      <c r="H11" s="491"/>
-      <c r="I11" s="491"/>
-      <c r="J11" s="492" t="s">
+      <c r="G11" s="507"/>
+      <c r="H11" s="507"/>
+      <c r="I11" s="507"/>
+      <c r="J11" s="508" t="s">
         <v>99</v>
       </c>
-      <c r="K11" s="492"/>
+      <c r="K11" s="508"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F12" s="491" t="s">
+      <c r="F12" s="507" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="491"/>
-      <c r="H12" s="491"/>
-      <c r="I12" s="491"/>
-      <c r="J12" s="492" t="s">
+      <c r="G12" s="507"/>
+      <c r="H12" s="507"/>
+      <c r="I12" s="507"/>
+      <c r="J12" s="508" t="s">
         <v>100</v>
       </c>
-      <c r="K12" s="492"/>
+      <c r="K12" s="508"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="373" t="s">
@@ -6823,16 +6826,16 @@
       <c r="C13" s="384" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="491" t="s">
+      <c r="F13" s="507" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="491"/>
-      <c r="H13" s="491"/>
-      <c r="I13" s="491"/>
-      <c r="J13" s="492" t="s">
+      <c r="G13" s="507"/>
+      <c r="H13" s="507"/>
+      <c r="I13" s="507"/>
+      <c r="J13" s="508" t="s">
         <v>101</v>
       </c>
-      <c r="K13" s="492"/>
+      <c r="K13" s="508"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="375" t="s">
@@ -6984,11 +6987,11 @@
       <c r="A28" s="381"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="493" t="s">
+      <c r="A29" s="491" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="493"/>
-      <c r="C29" s="493"/>
+      <c r="B29" s="491"/>
+      <c r="C29" s="491"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="371" t="s">
@@ -6997,6 +7000,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -7006,12 +7015,6 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -7065,24 +7068,24 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="170"/>
-      <c r="B2" s="591"/>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="B2" s="598"/>
+      <c r="C2" s="599"/>
+      <c r="D2" s="600"/>
+      <c r="E2" s="607" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="608"/>
+      <c r="G2" s="608"/>
+      <c r="H2" s="609"/>
+      <c r="I2" s="613" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="610">
+      <c r="J2" s="614"/>
+      <c r="K2" s="617">
         <f>Данные!B20</f>
         <v>50</v>
       </c>
-      <c r="L2" s="611"/>
+      <c r="L2" s="618"/>
       <c r="M2" s="171"/>
       <c r="N2" s="172"/>
       <c r="O2" s="173"/>
@@ -7093,19 +7096,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="170"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="601"/>
+      <c r="C3" s="602"/>
+      <c r="D3" s="603"/>
+      <c r="E3" s="610" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="612"/>
-      <c r="L3" s="613"/>
+      <c r="F3" s="611"/>
+      <c r="G3" s="611"/>
+      <c r="H3" s="612"/>
+      <c r="I3" s="615"/>
+      <c r="J3" s="616"/>
+      <c r="K3" s="619"/>
+      <c r="L3" s="620"/>
       <c r="M3" s="176"/>
       <c r="N3" s="177"/>
       <c r="O3" s="177"/>
@@ -7116,9 +7119,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="170"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="604"/>
+      <c r="C4" s="605"/>
+      <c r="D4" s="606"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -7137,22 +7140,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="170"/>
-      <c r="B5" s="576" t="s">
+      <c r="B5" s="552" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="614"/>
-      <c r="D5" s="503" t="str">
+      <c r="C5" s="591"/>
+      <c r="D5" s="501" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="504"/>
-      <c r="F5" s="504"/>
-      <c r="G5" s="504"/>
-      <c r="H5" s="505"/>
-      <c r="I5" s="615"/>
-      <c r="J5" s="616"/>
-      <c r="K5" s="617"/>
-      <c r="L5" s="505"/>
+      <c r="E5" s="502"/>
+      <c r="F5" s="502"/>
+      <c r="G5" s="502"/>
+      <c r="H5" s="503"/>
+      <c r="I5" s="592"/>
+      <c r="J5" s="593"/>
+      <c r="K5" s="594"/>
+      <c r="L5" s="503"/>
       <c r="M5" s="179"/>
       <c r="N5" s="177"/>
       <c r="O5" s="177"/>
@@ -7163,22 +7166,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="170"/>
-      <c r="B6" s="576" t="s">
+      <c r="B6" s="552" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="614"/>
-      <c r="D6" s="497" t="str">
+      <c r="C6" s="591"/>
+      <c r="D6" s="495" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="581"/>
-      <c r="F6" s="581"/>
-      <c r="G6" s="581"/>
-      <c r="H6" s="582"/>
-      <c r="I6" s="615"/>
-      <c r="J6" s="616"/>
-      <c r="K6" s="617"/>
-      <c r="L6" s="505"/>
+      <c r="E6" s="557"/>
+      <c r="F6" s="557"/>
+      <c r="G6" s="557"/>
+      <c r="H6" s="558"/>
+      <c r="I6" s="592"/>
+      <c r="J6" s="593"/>
+      <c r="K6" s="594"/>
+      <c r="L6" s="503"/>
       <c r="M6" s="176"/>
       <c r="N6" s="177"/>
       <c r="O6" s="177"/>
@@ -7189,27 +7192,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="170"/>
-      <c r="B7" s="583" t="s">
+      <c r="B7" s="559" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="618"/>
-      <c r="D7" s="506">
+      <c r="C7" s="595"/>
+      <c r="D7" s="504">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="585"/>
-      <c r="F7" s="585"/>
-      <c r="G7" s="585"/>
-      <c r="H7" s="586"/>
-      <c r="I7" s="619" t="s">
+      <c r="E7" s="561"/>
+      <c r="F7" s="561"/>
+      <c r="G7" s="561"/>
+      <c r="H7" s="562"/>
+      <c r="I7" s="596" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="618"/>
-      <c r="K7" s="494">
+      <c r="J7" s="595"/>
+      <c r="K7" s="492">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="495"/>
+      <c r="L7" s="493"/>
       <c r="M7" s="179"/>
       <c r="N7" s="177"/>
       <c r="O7" s="177"/>
@@ -7594,24 +7597,16 @@
     </row>
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L21" s="622" t="s">
+      <c r="L21" s="628" t="s">
         <v>140</v>
       </c>
-      <c r="M21" s="622"/>
-      <c r="N21" s="622"/>
+      <c r="M21" s="628"/>
+      <c r="N21" s="628"/>
       <c r="O21" s="469"/>
       <c r="P21" s="469"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -7623,6 +7618,14 @@
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
@@ -7688,47 +7691,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="209"/>
-      <c r="B2" s="591"/>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="B2" s="598"/>
+      <c r="C2" s="599"/>
+      <c r="D2" s="600"/>
+      <c r="E2" s="607" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="608"/>
+      <c r="G2" s="608"/>
+      <c r="H2" s="609"/>
+      <c r="I2" s="613" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="610">
+      <c r="J2" s="614"/>
+      <c r="K2" s="617">
         <f>Данные!B21</f>
         <v>24</v>
       </c>
-      <c r="L2" s="611"/>
+      <c r="L2" s="618"/>
       <c r="M2" s="210"/>
       <c r="N2" s="211"/>
       <c r="O2" s="212"/>
-      <c r="P2" s="631"/>
-      <c r="Q2" s="631"/>
+      <c r="P2" s="634"/>
+      <c r="Q2" s="634"/>
       <c r="R2" s="213"/>
       <c r="S2" s="214"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="209"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="601"/>
+      <c r="C3" s="602"/>
+      <c r="D3" s="603"/>
+      <c r="E3" s="610" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="612"/>
-      <c r="L3" s="613"/>
+      <c r="F3" s="611"/>
+      <c r="G3" s="611"/>
+      <c r="H3" s="612"/>
+      <c r="I3" s="615"/>
+      <c r="J3" s="616"/>
+      <c r="K3" s="619"/>
+      <c r="L3" s="620"/>
       <c r="M3" s="215"/>
       <c r="N3" s="216"/>
       <c r="O3" s="216"/>
@@ -7739,9 +7742,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="209"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="604"/>
+      <c r="C4" s="605"/>
+      <c r="D4" s="606"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -7760,22 +7763,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="209"/>
-      <c r="B5" s="576" t="s">
+      <c r="B5" s="552" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="614"/>
-      <c r="D5" s="503" t="str">
+      <c r="C5" s="591"/>
+      <c r="D5" s="501" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="504"/>
-      <c r="F5" s="504"/>
-      <c r="G5" s="504"/>
-      <c r="H5" s="505"/>
-      <c r="I5" s="615"/>
-      <c r="J5" s="616"/>
-      <c r="K5" s="617"/>
-      <c r="L5" s="505"/>
+      <c r="E5" s="502"/>
+      <c r="F5" s="502"/>
+      <c r="G5" s="502"/>
+      <c r="H5" s="503"/>
+      <c r="I5" s="592"/>
+      <c r="J5" s="593"/>
+      <c r="K5" s="594"/>
+      <c r="L5" s="503"/>
       <c r="M5" s="218"/>
       <c r="N5" s="216"/>
       <c r="O5" s="216"/>
@@ -7786,22 +7789,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="209"/>
-      <c r="B6" s="576" t="s">
+      <c r="B6" s="552" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="614"/>
-      <c r="D6" s="497" t="str">
+      <c r="C6" s="591"/>
+      <c r="D6" s="495" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="581"/>
-      <c r="F6" s="581"/>
-      <c r="G6" s="581"/>
-      <c r="H6" s="582"/>
-      <c r="I6" s="615"/>
-      <c r="J6" s="616"/>
-      <c r="K6" s="617"/>
-      <c r="L6" s="505"/>
+      <c r="E6" s="557"/>
+      <c r="F6" s="557"/>
+      <c r="G6" s="557"/>
+      <c r="H6" s="558"/>
+      <c r="I6" s="592"/>
+      <c r="J6" s="593"/>
+      <c r="K6" s="594"/>
+      <c r="L6" s="503"/>
       <c r="M6" s="215"/>
       <c r="N6" s="216"/>
       <c r="O6" s="216"/>
@@ -7812,27 +7815,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="209"/>
-      <c r="B7" s="583" t="s">
+      <c r="B7" s="559" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="618"/>
-      <c r="D7" s="506">
+      <c r="C7" s="595"/>
+      <c r="D7" s="504">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="585"/>
-      <c r="F7" s="585"/>
-      <c r="G7" s="585"/>
-      <c r="H7" s="586"/>
-      <c r="I7" s="619" t="s">
+      <c r="E7" s="561"/>
+      <c r="F7" s="561"/>
+      <c r="G7" s="561"/>
+      <c r="H7" s="562"/>
+      <c r="I7" s="596" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="618"/>
-      <c r="K7" s="494">
+      <c r="J7" s="595"/>
+      <c r="K7" s="492">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="495"/>
+      <c r="L7" s="493"/>
       <c r="M7" s="218"/>
       <c r="N7" s="216"/>
       <c r="O7" s="216"/>
@@ -8161,12 +8164,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="219"/>
-      <c r="B18" s="632" t="s">
+      <c r="B18" s="631" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="633"/>
-      <c r="D18" s="633"/>
-      <c r="E18" s="634"/>
+      <c r="C18" s="632"/>
+      <c r="D18" s="632"/>
+      <c r="E18" s="633"/>
       <c r="F18" s="116" t="s">
         <v>16</v>
       </c>
@@ -8210,6 +8213,14 @@
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
@@ -8221,14 +8232,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8314,24 +8317,24 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="133"/>
-      <c r="B2" s="591"/>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="B2" s="598"/>
+      <c r="C2" s="599"/>
+      <c r="D2" s="600"/>
+      <c r="E2" s="607" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="608"/>
+      <c r="G2" s="608"/>
+      <c r="H2" s="609"/>
+      <c r="I2" s="613" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="610">
+      <c r="J2" s="614"/>
+      <c r="K2" s="617">
         <f>Данные!B26</f>
         <v>22</v>
       </c>
-      <c r="L2" s="611"/>
+      <c r="L2" s="618"/>
       <c r="M2" s="134"/>
       <c r="N2" s="135"/>
       <c r="O2" s="136"/>
@@ -8342,19 +8345,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="133"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="601"/>
+      <c r="C3" s="602"/>
+      <c r="D3" s="603"/>
+      <c r="E3" s="610" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="612"/>
-      <c r="L3" s="613"/>
+      <c r="F3" s="611"/>
+      <c r="G3" s="611"/>
+      <c r="H3" s="612"/>
+      <c r="I3" s="615"/>
+      <c r="J3" s="616"/>
+      <c r="K3" s="619"/>
+      <c r="L3" s="620"/>
       <c r="M3" s="139"/>
       <c r="N3" s="140"/>
       <c r="O3" s="140"/>
@@ -8365,9 +8368,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="133"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="604"/>
+      <c r="C4" s="605"/>
+      <c r="D4" s="606"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -8386,22 +8389,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="133"/>
-      <c r="B5" s="576" t="s">
+      <c r="B5" s="552" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="614"/>
-      <c r="D5" s="503" t="str">
+      <c r="C5" s="591"/>
+      <c r="D5" s="501" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="504"/>
-      <c r="F5" s="504"/>
-      <c r="G5" s="504"/>
-      <c r="H5" s="505"/>
-      <c r="I5" s="615"/>
-      <c r="J5" s="616"/>
-      <c r="K5" s="617"/>
-      <c r="L5" s="505"/>
+      <c r="E5" s="502"/>
+      <c r="F5" s="502"/>
+      <c r="G5" s="502"/>
+      <c r="H5" s="503"/>
+      <c r="I5" s="592"/>
+      <c r="J5" s="593"/>
+      <c r="K5" s="594"/>
+      <c r="L5" s="503"/>
       <c r="M5" s="142"/>
       <c r="N5" s="140"/>
       <c r="O5" s="140"/>
@@ -8412,22 +8415,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="133"/>
-      <c r="B6" s="576" t="s">
+      <c r="B6" s="552" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="614"/>
-      <c r="D6" s="497" t="str">
+      <c r="C6" s="591"/>
+      <c r="D6" s="495" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="581"/>
-      <c r="F6" s="581"/>
-      <c r="G6" s="581"/>
-      <c r="H6" s="582"/>
-      <c r="I6" s="615"/>
-      <c r="J6" s="616"/>
-      <c r="K6" s="617"/>
-      <c r="L6" s="505"/>
+      <c r="E6" s="557"/>
+      <c r="F6" s="557"/>
+      <c r="G6" s="557"/>
+      <c r="H6" s="558"/>
+      <c r="I6" s="592"/>
+      <c r="J6" s="593"/>
+      <c r="K6" s="594"/>
+      <c r="L6" s="503"/>
       <c r="M6" s="139"/>
       <c r="N6" s="140"/>
       <c r="O6" s="140"/>
@@ -8438,27 +8441,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="133"/>
-      <c r="B7" s="583" t="s">
+      <c r="B7" s="559" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="618"/>
-      <c r="D7" s="506">
+      <c r="C7" s="595"/>
+      <c r="D7" s="504">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="585"/>
-      <c r="F7" s="585"/>
-      <c r="G7" s="585"/>
-      <c r="H7" s="586"/>
-      <c r="I7" s="619" t="s">
+      <c r="E7" s="561"/>
+      <c r="F7" s="561"/>
+      <c r="G7" s="561"/>
+      <c r="H7" s="562"/>
+      <c r="I7" s="596" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="618"/>
-      <c r="K7" s="494">
+      <c r="J7" s="595"/>
+      <c r="K7" s="492">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="495"/>
+      <c r="L7" s="493"/>
       <c r="M7" s="142"/>
       <c r="N7" s="140"/>
       <c r="O7" s="140"/>
@@ -8839,17 +8842,6 @@
     <row r="21" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -8857,6 +8849,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H17:R19">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -8922,47 +8925,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="266"/>
-      <c r="B2" s="591"/>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="B2" s="598"/>
+      <c r="C2" s="599"/>
+      <c r="D2" s="600"/>
+      <c r="E2" s="607" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="608"/>
+      <c r="G2" s="608"/>
+      <c r="H2" s="609"/>
+      <c r="I2" s="613" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="637">
+      <c r="J2" s="614"/>
+      <c r="K2" s="636">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="L2" s="638"/>
+      <c r="L2" s="637"/>
       <c r="M2" s="267"/>
       <c r="N2" s="268"/>
       <c r="O2" s="269"/>
-      <c r="P2" s="636"/>
-      <c r="Q2" s="636"/>
+      <c r="P2" s="640"/>
+      <c r="Q2" s="640"/>
       <c r="R2" s="270"/>
       <c r="S2" s="271"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="266"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="601"/>
+      <c r="C3" s="602"/>
+      <c r="D3" s="603"/>
+      <c r="E3" s="610" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="639"/>
-      <c r="L3" s="640"/>
+      <c r="F3" s="611"/>
+      <c r="G3" s="611"/>
+      <c r="H3" s="612"/>
+      <c r="I3" s="615"/>
+      <c r="J3" s="616"/>
+      <c r="K3" s="638"/>
+      <c r="L3" s="639"/>
       <c r="M3" s="272"/>
       <c r="N3" s="273"/>
       <c r="O3" s="273"/>
@@ -8973,9 +8976,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="266"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="604"/>
+      <c r="C4" s="605"/>
+      <c r="D4" s="606"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -8994,22 +8997,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="266"/>
-      <c r="B5" s="576" t="s">
+      <c r="B5" s="552" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="614"/>
-      <c r="D5" s="503" t="str">
+      <c r="C5" s="591"/>
+      <c r="D5" s="501" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="504"/>
-      <c r="F5" s="504"/>
-      <c r="G5" s="504"/>
-      <c r="H5" s="505"/>
-      <c r="I5" s="615"/>
-      <c r="J5" s="616"/>
-      <c r="K5" s="617"/>
-      <c r="L5" s="505"/>
+      <c r="E5" s="502"/>
+      <c r="F5" s="502"/>
+      <c r="G5" s="502"/>
+      <c r="H5" s="503"/>
+      <c r="I5" s="592"/>
+      <c r="J5" s="593"/>
+      <c r="K5" s="594"/>
+      <c r="L5" s="503"/>
       <c r="M5" s="275"/>
       <c r="N5" s="273"/>
       <c r="O5" s="273"/>
@@ -9020,22 +9023,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="266"/>
-      <c r="B6" s="576" t="s">
+      <c r="B6" s="552" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="614"/>
-      <c r="D6" s="497" t="str">
+      <c r="C6" s="591"/>
+      <c r="D6" s="495" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="581"/>
-      <c r="F6" s="581"/>
-      <c r="G6" s="581"/>
-      <c r="H6" s="582"/>
-      <c r="I6" s="615"/>
-      <c r="J6" s="616"/>
-      <c r="K6" s="617"/>
-      <c r="L6" s="505"/>
+      <c r="E6" s="557"/>
+      <c r="F6" s="557"/>
+      <c r="G6" s="557"/>
+      <c r="H6" s="558"/>
+      <c r="I6" s="592"/>
+      <c r="J6" s="593"/>
+      <c r="K6" s="594"/>
+      <c r="L6" s="503"/>
       <c r="M6" s="272"/>
       <c r="N6" s="273"/>
       <c r="O6" s="273"/>
@@ -9046,27 +9049,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="266"/>
-      <c r="B7" s="583" t="s">
+      <c r="B7" s="559" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="618"/>
-      <c r="D7" s="506">
+      <c r="C7" s="595"/>
+      <c r="D7" s="504">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="585"/>
-      <c r="F7" s="585"/>
-      <c r="G7" s="585"/>
-      <c r="H7" s="586"/>
-      <c r="I7" s="619" t="s">
+      <c r="E7" s="561"/>
+      <c r="F7" s="561"/>
+      <c r="G7" s="561"/>
+      <c r="H7" s="562"/>
+      <c r="I7" s="596" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="618"/>
-      <c r="K7" s="494">
+      <c r="J7" s="595"/>
+      <c r="K7" s="492">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="495"/>
+      <c r="L7" s="493"/>
       <c r="M7" s="275"/>
       <c r="N7" s="273"/>
       <c r="O7" s="273"/>
@@ -9339,11 +9342,6 @@
     <row r="17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="B2:D4"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
@@ -9357,6 +9355,11 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="B2:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -9385,8 +9388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9441,17 +9444,17 @@
       <c r="L2" s="391"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="514" t="s">
+      <c r="A3" s="511" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="514"/>
-      <c r="C3" s="514"/>
-      <c r="D3" s="514"/>
-      <c r="E3" s="514"/>
-      <c r="F3" s="514"/>
-      <c r="G3" s="514"/>
-      <c r="H3" s="514"/>
-      <c r="I3" s="514"/>
+      <c r="B3" s="511"/>
+      <c r="C3" s="511"/>
+      <c r="D3" s="511"/>
+      <c r="E3" s="511"/>
+      <c r="F3" s="511"/>
+      <c r="G3" s="511"/>
+      <c r="H3" s="511"/>
+      <c r="I3" s="511"/>
       <c r="K3" s="392"/>
       <c r="L3" s="392"/>
       <c r="M3" s="393"/>
@@ -9874,7 +9877,9 @@
       <c r="L17" s="407"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="424"/>
+      <c r="A18" s="424" t="s">
+        <v>143</v>
+      </c>
       <c r="B18" s="425"/>
       <c r="C18" s="393"/>
       <c r="D18" s="426"/>
@@ -10239,12 +10244,12 @@
       <c r="J35" s="393"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="515" t="s">
+      <c r="A36" s="512" t="s">
         <v>132</v>
       </c>
-      <c r="B36" s="515"/>
-      <c r="C36" s="515"/>
-      <c r="D36" s="515"/>
+      <c r="B36" s="512"/>
+      <c r="C36" s="512"/>
+      <c r="D36" s="512"/>
       <c r="E36" s="393"/>
       <c r="F36" s="393"/>
       <c r="G36" s="393"/>
@@ -10253,10 +10258,10 @@
       <c r="J36" s="393"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="516" t="s">
+      <c r="A37" s="513" t="s">
         <v>133</v>
       </c>
-      <c r="B37" s="516"/>
+      <c r="B37" s="513"/>
       <c r="C37" s="457" t="s">
         <v>134</v>
       </c>
@@ -10271,11 +10276,11 @@
       <c r="J37" s="393"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="517">
+      <c r="A38" s="514">
         <f>A21-F32</f>
         <v>12081861</v>
       </c>
-      <c r="B38" s="518"/>
+      <c r="B38" s="515"/>
       <c r="C38" s="458">
         <f>1-G32</f>
         <v>0.71915839285714278</v>
@@ -10337,8 +10342,8 @@
       <c r="F42" s="462"/>
       <c r="G42" s="462"/>
       <c r="H42" s="462"/>
-      <c r="I42" s="509"/>
-      <c r="J42" s="510"/>
+      <c r="I42" s="516"/>
+      <c r="J42" s="517"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="463"/>
@@ -10432,9 +10437,9 @@
     </row>
     <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="393"/>
-      <c r="B52" s="512"/>
-      <c r="C52" s="512"/>
-      <c r="D52" s="513"/>
+      <c r="B52" s="509"/>
+      <c r="C52" s="509"/>
+      <c r="D52" s="510"/>
       <c r="E52" s="460"/>
       <c r="F52" s="393"/>
       <c r="G52" s="393"/>
@@ -10451,8 +10456,8 @@
       <c r="F53" s="462"/>
       <c r="G53" s="462"/>
       <c r="H53" s="462"/>
-      <c r="I53" s="509"/>
-      <c r="J53" s="510"/>
+      <c r="I53" s="516"/>
+      <c r="J53" s="517"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="463"/>
@@ -10463,8 +10468,8 @@
       <c r="F54" s="423"/>
       <c r="G54" s="423"/>
       <c r="H54" s="464"/>
-      <c r="I54" s="511"/>
-      <c r="J54" s="511"/>
+      <c r="I54" s="518"/>
+      <c r="J54" s="518"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="463"/>
@@ -10475,8 +10480,8 @@
       <c r="F55" s="413"/>
       <c r="G55" s="413"/>
       <c r="H55" s="413"/>
-      <c r="I55" s="511"/>
-      <c r="J55" s="511"/>
+      <c r="I55" s="518"/>
+      <c r="J55" s="518"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="393"/>
@@ -10489,26 +10494,26 @@
       <c r="H56" s="393"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="509"/>
-      <c r="C61" s="510"/>
+      <c r="B61" s="516"/>
+      <c r="C61" s="517"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B68" s="509"/>
-      <c r="C68" s="510"/>
+      <c r="B68" s="516"/>
+      <c r="C68" s="517"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B68:C68"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B68:C68"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10591,47 +10596,47 @@
       <c r="J8" s="317"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="544" t="s">
+      <c r="A11" s="520" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="544"/>
-      <c r="C11" s="544"/>
-      <c r="D11" s="544"/>
-      <c r="E11" s="544"/>
-      <c r="F11" s="544"/>
-      <c r="G11" s="544"/>
-      <c r="H11" s="544"/>
-      <c r="I11" s="544"/>
-      <c r="J11" s="544"/>
+      <c r="B11" s="520"/>
+      <c r="C11" s="520"/>
+      <c r="D11" s="520"/>
+      <c r="E11" s="520"/>
+      <c r="F11" s="520"/>
+      <c r="G11" s="520"/>
+      <c r="H11" s="520"/>
+      <c r="I11" s="520"/>
+      <c r="J11" s="520"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="543" t="s">
+      <c r="A12" s="519" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="543"/>
-      <c r="C12" s="543"/>
-      <c r="D12" s="543"/>
-      <c r="E12" s="543"/>
-      <c r="F12" s="543"/>
-      <c r="G12" s="543"/>
-      <c r="H12" s="543"/>
-      <c r="I12" s="543"/>
-      <c r="J12" s="543"/>
+      <c r="B12" s="519"/>
+      <c r="C12" s="519"/>
+      <c r="D12" s="519"/>
+      <c r="E12" s="519"/>
+      <c r="F12" s="519"/>
+      <c r="G12" s="519"/>
+      <c r="H12" s="519"/>
+      <c r="I12" s="519"/>
+      <c r="J12" s="519"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="545" t="str">
+      <c r="A13" s="521" t="str">
         <f>Данные!A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="B13" s="544"/>
-      <c r="C13" s="544"/>
-      <c r="D13" s="544"/>
-      <c r="E13" s="544"/>
-      <c r="F13" s="544"/>
-      <c r="G13" s="544"/>
-      <c r="H13" s="544"/>
-      <c r="I13" s="544"/>
-      <c r="J13" s="544"/>
+      <c r="B13" s="520"/>
+      <c r="C13" s="520"/>
+      <c r="D13" s="520"/>
+      <c r="E13" s="520"/>
+      <c r="F13" s="520"/>
+      <c r="G13" s="520"/>
+      <c r="H13" s="520"/>
+      <c r="I13" s="520"/>
+      <c r="J13" s="520"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="311" t="s">
@@ -10756,482 +10761,482 @@
       <c r="J21" s="312"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="541" t="s">
+      <c r="A22" s="525" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="541" t="s">
+      <c r="B22" s="525" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="541"/>
-      <c r="D22" s="541"/>
-      <c r="E22" s="541" t="s">
+      <c r="C22" s="525"/>
+      <c r="D22" s="525"/>
+      <c r="E22" s="525" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="541"/>
-      <c r="G22" s="542" t="s">
+      <c r="F22" s="525"/>
+      <c r="G22" s="543" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="541" t="s">
+      <c r="H22" s="525" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="541"/>
-      <c r="J22" s="541"/>
+      <c r="I22" s="525"/>
+      <c r="J22" s="525"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="541"/>
-      <c r="B23" s="541"/>
-      <c r="C23" s="541"/>
-      <c r="D23" s="541"/>
-      <c r="E23" s="541"/>
-      <c r="F23" s="541"/>
-      <c r="G23" s="542"/>
-      <c r="H23" s="541"/>
-      <c r="I23" s="541"/>
-      <c r="J23" s="541"/>
+      <c r="A23" s="525"/>
+      <c r="B23" s="525"/>
+      <c r="C23" s="525"/>
+      <c r="D23" s="525"/>
+      <c r="E23" s="525"/>
+      <c r="F23" s="525"/>
+      <c r="G23" s="543"/>
+      <c r="H23" s="525"/>
+      <c r="I23" s="525"/>
+      <c r="J23" s="525"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="519">
+      <c r="A24" s="526">
         <v>1</v>
       </c>
-      <c r="B24" s="546" t="s">
+      <c r="B24" s="540" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="547"/>
-      <c r="D24" s="548"/>
-      <c r="E24" s="524" t="str">
+      <c r="C24" s="541"/>
+      <c r="D24" s="542"/>
+      <c r="E24" s="528" t="str">
         <f>Данные!C14</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F24" s="525"/>
-      <c r="G24" s="528">
+      <c r="F24" s="529"/>
+      <c r="G24" s="532">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="H24" s="530"/>
-      <c r="I24" s="531"/>
-      <c r="J24" s="532"/>
+      <c r="H24" s="534"/>
+      <c r="I24" s="535"/>
+      <c r="J24" s="536"/>
     </row>
     <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="539"/>
-      <c r="B25" s="536" t="str">
+      <c r="A25" s="527"/>
+      <c r="B25" s="522" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C25" s="537"/>
-      <c r="D25" s="538"/>
-      <c r="E25" s="540"/>
-      <c r="F25" s="527"/>
-      <c r="G25" s="529"/>
-      <c r="H25" s="533"/>
-      <c r="I25" s="534"/>
-      <c r="J25" s="535"/>
+      <c r="C25" s="523"/>
+      <c r="D25" s="524"/>
+      <c r="E25" s="530"/>
+      <c r="F25" s="531"/>
+      <c r="G25" s="533"/>
+      <c r="H25" s="537"/>
+      <c r="I25" s="538"/>
+      <c r="J25" s="539"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="519">
+      <c r="A26" s="526">
         <v>1</v>
       </c>
-      <c r="B26" s="521" t="s">
+      <c r="B26" s="544" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="522"/>
-      <c r="D26" s="523"/>
-      <c r="E26" s="524" t="str">
+      <c r="C26" s="545"/>
+      <c r="D26" s="546"/>
+      <c r="E26" s="528" t="str">
         <f>Данные!C15</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F26" s="525"/>
-      <c r="G26" s="528">
+      <c r="F26" s="529"/>
+      <c r="G26" s="532">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="H26" s="530"/>
-      <c r="I26" s="531"/>
-      <c r="J26" s="532"/>
+      <c r="H26" s="534"/>
+      <c r="I26" s="535"/>
+      <c r="J26" s="536"/>
     </row>
     <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="539"/>
-      <c r="B27" s="536" t="str">
+      <c r="A27" s="527"/>
+      <c r="B27" s="522" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C27" s="537"/>
-      <c r="D27" s="538"/>
-      <c r="E27" s="540"/>
-      <c r="F27" s="527"/>
-      <c r="G27" s="529"/>
-      <c r="H27" s="533"/>
-      <c r="I27" s="534"/>
-      <c r="J27" s="535"/>
+      <c r="C27" s="523"/>
+      <c r="D27" s="524"/>
+      <c r="E27" s="530"/>
+      <c r="F27" s="531"/>
+      <c r="G27" s="533"/>
+      <c r="H27" s="537"/>
+      <c r="I27" s="538"/>
+      <c r="J27" s="539"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="519">
+      <c r="A28" s="526">
         <v>1</v>
       </c>
-      <c r="B28" s="521" t="s">
+      <c r="B28" s="544" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="522"/>
-      <c r="D28" s="523"/>
-      <c r="E28" s="524" t="str">
+      <c r="C28" s="545"/>
+      <c r="D28" s="546"/>
+      <c r="E28" s="528" t="str">
         <f>Данные!C16</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F28" s="525"/>
-      <c r="G28" s="528">
+      <c r="F28" s="529"/>
+      <c r="G28" s="532">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="H28" s="530"/>
-      <c r="I28" s="531"/>
-      <c r="J28" s="532"/>
+      <c r="H28" s="534"/>
+      <c r="I28" s="535"/>
+      <c r="J28" s="536"/>
     </row>
     <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="539"/>
-      <c r="B29" s="536" t="str">
+      <c r="A29" s="527"/>
+      <c r="B29" s="522" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C29" s="537"/>
-      <c r="D29" s="538"/>
-      <c r="E29" s="540"/>
-      <c r="F29" s="527"/>
-      <c r="G29" s="529"/>
-      <c r="H29" s="533"/>
-      <c r="I29" s="534"/>
-      <c r="J29" s="535"/>
+      <c r="C29" s="523"/>
+      <c r="D29" s="524"/>
+      <c r="E29" s="530"/>
+      <c r="F29" s="531"/>
+      <c r="G29" s="533"/>
+      <c r="H29" s="537"/>
+      <c r="I29" s="538"/>
+      <c r="J29" s="539"/>
     </row>
     <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="519">
+      <c r="A30" s="526">
         <v>1</v>
       </c>
-      <c r="B30" s="521" t="s">
+      <c r="B30" s="544" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="522"/>
-      <c r="D30" s="523"/>
-      <c r="E30" s="524" t="str">
+      <c r="C30" s="545"/>
+      <c r="D30" s="546"/>
+      <c r="E30" s="528" t="str">
         <f>Данные!C17</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F30" s="525"/>
-      <c r="G30" s="528">
+      <c r="F30" s="529"/>
+      <c r="G30" s="532">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="H30" s="530"/>
-      <c r="I30" s="531"/>
-      <c r="J30" s="532"/>
+      <c r="H30" s="534"/>
+      <c r="I30" s="535"/>
+      <c r="J30" s="536"/>
     </row>
     <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="520"/>
-      <c r="B31" s="536" t="str">
+      <c r="A31" s="547"/>
+      <c r="B31" s="522" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C31" s="537"/>
-      <c r="D31" s="538"/>
-      <c r="E31" s="526"/>
-      <c r="F31" s="527"/>
-      <c r="G31" s="529"/>
-      <c r="H31" s="533"/>
-      <c r="I31" s="534"/>
-      <c r="J31" s="535"/>
+      <c r="C31" s="523"/>
+      <c r="D31" s="524"/>
+      <c r="E31" s="548"/>
+      <c r="F31" s="531"/>
+      <c r="G31" s="533"/>
+      <c r="H31" s="537"/>
+      <c r="I31" s="538"/>
+      <c r="J31" s="539"/>
     </row>
     <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="519">
+      <c r="A32" s="526">
         <v>1</v>
       </c>
-      <c r="B32" s="521" t="s">
+      <c r="B32" s="544" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="522"/>
-      <c r="D32" s="523"/>
-      <c r="E32" s="524" t="str">
+      <c r="C32" s="545"/>
+      <c r="D32" s="546"/>
+      <c r="E32" s="528" t="str">
         <f>Данные!C18</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F32" s="525"/>
-      <c r="G32" s="528">
+      <c r="F32" s="529"/>
+      <c r="G32" s="532">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="H32" s="530"/>
-      <c r="I32" s="531"/>
-      <c r="J32" s="532"/>
+      <c r="H32" s="534"/>
+      <c r="I32" s="535"/>
+      <c r="J32" s="536"/>
     </row>
     <row r="33" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="520"/>
-      <c r="B33" s="536" t="str">
+      <c r="A33" s="547"/>
+      <c r="B33" s="522" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C33" s="537"/>
-      <c r="D33" s="538"/>
-      <c r="E33" s="526"/>
-      <c r="F33" s="527"/>
-      <c r="G33" s="529"/>
-      <c r="H33" s="533"/>
-      <c r="I33" s="534"/>
-      <c r="J33" s="535"/>
+      <c r="C33" s="523"/>
+      <c r="D33" s="524"/>
+      <c r="E33" s="548"/>
+      <c r="F33" s="531"/>
+      <c r="G33" s="533"/>
+      <c r="H33" s="537"/>
+      <c r="I33" s="538"/>
+      <c r="J33" s="539"/>
     </row>
     <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="519">
+      <c r="A34" s="526">
         <v>1</v>
       </c>
-      <c r="B34" s="521" t="s">
+      <c r="B34" s="544" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="522"/>
-      <c r="D34" s="523"/>
-      <c r="E34" s="524" t="str">
+      <c r="C34" s="545"/>
+      <c r="D34" s="546"/>
+      <c r="E34" s="528" t="str">
         <f>Данные!C19</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F34" s="525"/>
-      <c r="G34" s="528">
+      <c r="F34" s="529"/>
+      <c r="G34" s="532">
         <f>Данные!B19</f>
         <v>60</v>
       </c>
-      <c r="H34" s="530"/>
-      <c r="I34" s="531"/>
-      <c r="J34" s="532"/>
+      <c r="H34" s="534"/>
+      <c r="I34" s="535"/>
+      <c r="J34" s="536"/>
     </row>
     <row r="35" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="520"/>
-      <c r="B35" s="536" t="str">
+      <c r="A35" s="547"/>
+      <c r="B35" s="522" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C35" s="537"/>
-      <c r="D35" s="538"/>
-      <c r="E35" s="526"/>
-      <c r="F35" s="527"/>
-      <c r="G35" s="529"/>
-      <c r="H35" s="533"/>
-      <c r="I35" s="534"/>
-      <c r="J35" s="535"/>
+      <c r="C35" s="523"/>
+      <c r="D35" s="524"/>
+      <c r="E35" s="548"/>
+      <c r="F35" s="531"/>
+      <c r="G35" s="533"/>
+      <c r="H35" s="537"/>
+      <c r="I35" s="538"/>
+      <c r="J35" s="539"/>
     </row>
     <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="519">
+      <c r="A36" s="526">
         <v>1</v>
       </c>
-      <c r="B36" s="521" t="s">
+      <c r="B36" s="544" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="522"/>
-      <c r="D36" s="523"/>
-      <c r="E36" s="524" t="str">
+      <c r="C36" s="545"/>
+      <c r="D36" s="546"/>
+      <c r="E36" s="528" t="str">
         <f>Данные!C20</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F36" s="525"/>
-      <c r="G36" s="528">
+      <c r="F36" s="529"/>
+      <c r="G36" s="532">
         <f>Данные!B20</f>
         <v>50</v>
       </c>
-      <c r="H36" s="530"/>
-      <c r="I36" s="531"/>
-      <c r="J36" s="532"/>
+      <c r="H36" s="534"/>
+      <c r="I36" s="535"/>
+      <c r="J36" s="536"/>
     </row>
     <row r="37" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="520"/>
-      <c r="B37" s="536" t="str">
+      <c r="A37" s="547"/>
+      <c r="B37" s="522" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C37" s="537"/>
-      <c r="D37" s="538"/>
-      <c r="E37" s="526"/>
-      <c r="F37" s="527"/>
-      <c r="G37" s="529"/>
-      <c r="H37" s="533"/>
-      <c r="I37" s="534"/>
-      <c r="J37" s="535"/>
+      <c r="C37" s="523"/>
+      <c r="D37" s="524"/>
+      <c r="E37" s="548"/>
+      <c r="F37" s="531"/>
+      <c r="G37" s="533"/>
+      <c r="H37" s="537"/>
+      <c r="I37" s="538"/>
+      <c r="J37" s="539"/>
     </row>
     <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="519">
+      <c r="A38" s="526">
         <v>1</v>
       </c>
-      <c r="B38" s="521" t="s">
+      <c r="B38" s="544" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="522"/>
-      <c r="D38" s="523"/>
-      <c r="E38" s="524" t="str">
+      <c r="C38" s="545"/>
+      <c r="D38" s="546"/>
+      <c r="E38" s="528" t="str">
         <f>Данные!C21</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F38" s="525"/>
-      <c r="G38" s="528">
+      <c r="F38" s="529"/>
+      <c r="G38" s="532">
         <f>Данные!B21</f>
         <v>24</v>
       </c>
-      <c r="H38" s="530"/>
-      <c r="I38" s="531"/>
-      <c r="J38" s="532"/>
+      <c r="H38" s="534"/>
+      <c r="I38" s="535"/>
+      <c r="J38" s="536"/>
     </row>
     <row r="39" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="520"/>
-      <c r="B39" s="536" t="str">
+      <c r="A39" s="547"/>
+      <c r="B39" s="522" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C39" s="537"/>
-      <c r="D39" s="538"/>
-      <c r="E39" s="526"/>
-      <c r="F39" s="527"/>
-      <c r="G39" s="529"/>
-      <c r="H39" s="533"/>
-      <c r="I39" s="534"/>
-      <c r="J39" s="535"/>
+      <c r="C39" s="523"/>
+      <c r="D39" s="524"/>
+      <c r="E39" s="548"/>
+      <c r="F39" s="531"/>
+      <c r="G39" s="533"/>
+      <c r="H39" s="537"/>
+      <c r="I39" s="538"/>
+      <c r="J39" s="539"/>
     </row>
     <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="519">
+      <c r="A40" s="526">
         <v>1</v>
       </c>
-      <c r="B40" s="521" t="s">
+      <c r="B40" s="544" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="522"/>
-      <c r="D40" s="523"/>
-      <c r="E40" s="524" t="str">
+      <c r="C40" s="545"/>
+      <c r="D40" s="546"/>
+      <c r="E40" s="528" t="str">
         <f>Данные!C23</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F40" s="525"/>
-      <c r="G40" s="528">
+      <c r="F40" s="529"/>
+      <c r="G40" s="532">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="H40" s="530"/>
-      <c r="I40" s="531"/>
-      <c r="J40" s="532"/>
+      <c r="H40" s="534"/>
+      <c r="I40" s="535"/>
+      <c r="J40" s="536"/>
     </row>
     <row r="41" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="520"/>
-      <c r="B41" s="536" t="str">
+      <c r="A41" s="547"/>
+      <c r="B41" s="522" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C41" s="537"/>
-      <c r="D41" s="538"/>
-      <c r="E41" s="526"/>
-      <c r="F41" s="527"/>
-      <c r="G41" s="529"/>
-      <c r="H41" s="533"/>
-      <c r="I41" s="534"/>
-      <c r="J41" s="535"/>
+      <c r="C41" s="523"/>
+      <c r="D41" s="524"/>
+      <c r="E41" s="548"/>
+      <c r="F41" s="531"/>
+      <c r="G41" s="533"/>
+      <c r="H41" s="537"/>
+      <c r="I41" s="538"/>
+      <c r="J41" s="539"/>
     </row>
     <row r="42" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="519">
+      <c r="A42" s="526">
         <v>1</v>
       </c>
-      <c r="B42" s="521" t="s">
+      <c r="B42" s="544" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="522"/>
-      <c r="D42" s="523"/>
-      <c r="E42" s="524" t="str">
+      <c r="C42" s="545"/>
+      <c r="D42" s="546"/>
+      <c r="E42" s="528" t="str">
         <f>Данные!C26</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F42" s="525"/>
-      <c r="G42" s="528">
+      <c r="F42" s="529"/>
+      <c r="G42" s="532">
         <f>Данные!B26</f>
         <v>22</v>
       </c>
-      <c r="H42" s="530"/>
-      <c r="I42" s="531"/>
-      <c r="J42" s="532"/>
+      <c r="H42" s="534"/>
+      <c r="I42" s="535"/>
+      <c r="J42" s="536"/>
     </row>
     <row r="43" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="520"/>
-      <c r="B43" s="536" t="str">
+      <c r="A43" s="547"/>
+      <c r="B43" s="522" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C43" s="537"/>
-      <c r="D43" s="538"/>
-      <c r="E43" s="526"/>
-      <c r="F43" s="527"/>
-      <c r="G43" s="529"/>
-      <c r="H43" s="533"/>
-      <c r="I43" s="534"/>
-      <c r="J43" s="535"/>
+      <c r="C43" s="523"/>
+      <c r="D43" s="524"/>
+      <c r="E43" s="548"/>
+      <c r="F43" s="531"/>
+      <c r="G43" s="533"/>
+      <c r="H43" s="537"/>
+      <c r="I43" s="538"/>
+      <c r="J43" s="539"/>
     </row>
     <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="519">
+      <c r="A44" s="526">
         <v>1</v>
       </c>
-      <c r="B44" s="521" t="s">
+      <c r="B44" s="544" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="522"/>
-      <c r="D44" s="523"/>
-      <c r="E44" s="524">
+      <c r="C44" s="545"/>
+      <c r="D44" s="546"/>
+      <c r="E44" s="528">
         <f>Данные!C27</f>
         <v>0</v>
       </c>
-      <c r="F44" s="525"/>
-      <c r="G44" s="528">
+      <c r="F44" s="529"/>
+      <c r="G44" s="532">
         <f>Данные!B27</f>
         <v>22</v>
       </c>
-      <c r="H44" s="530"/>
-      <c r="I44" s="531"/>
-      <c r="J44" s="532"/>
+      <c r="H44" s="534"/>
+      <c r="I44" s="535"/>
+      <c r="J44" s="536"/>
     </row>
     <row r="45" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="520"/>
-      <c r="B45" s="536" t="str">
+      <c r="A45" s="547"/>
+      <c r="B45" s="522" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C45" s="537"/>
-      <c r="D45" s="538"/>
-      <c r="E45" s="526"/>
-      <c r="F45" s="527"/>
-      <c r="G45" s="529"/>
-      <c r="H45" s="533"/>
-      <c r="I45" s="534"/>
-      <c r="J45" s="535"/>
+      <c r="C45" s="523"/>
+      <c r="D45" s="524"/>
+      <c r="E45" s="548"/>
+      <c r="F45" s="531"/>
+      <c r="G45" s="533"/>
+      <c r="H45" s="537"/>
+      <c r="I45" s="538"/>
+      <c r="J45" s="539"/>
     </row>
     <row r="46" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="519">
+      <c r="A46" s="526">
         <v>1</v>
       </c>
-      <c r="B46" s="521" t="s">
+      <c r="B46" s="544" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="522"/>
-      <c r="D46" s="523"/>
-      <c r="E46" s="524">
+      <c r="C46" s="545"/>
+      <c r="D46" s="546"/>
+      <c r="E46" s="528">
         <f>Данные!C24</f>
         <v>0</v>
       </c>
-      <c r="F46" s="525"/>
-      <c r="G46" s="528" t="str">
+      <c r="F46" s="529"/>
+      <c r="G46" s="532" t="str">
         <f>Данные!B24</f>
         <v>-</v>
       </c>
-      <c r="H46" s="530"/>
-      <c r="I46" s="531"/>
-      <c r="J46" s="532"/>
+      <c r="H46" s="534"/>
+      <c r="I46" s="535"/>
+      <c r="J46" s="536"/>
     </row>
     <row r="47" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="520"/>
-      <c r="B47" s="536" t="str">
+      <c r="A47" s="547"/>
+      <c r="B47" s="522" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C47" s="537"/>
-      <c r="D47" s="538"/>
-      <c r="E47" s="526"/>
-      <c r="F47" s="527"/>
-      <c r="G47" s="529"/>
-      <c r="H47" s="533"/>
-      <c r="I47" s="534"/>
-      <c r="J47" s="535"/>
+      <c r="C47" s="523"/>
+      <c r="D47" s="524"/>
+      <c r="E47" s="548"/>
+      <c r="F47" s="531"/>
+      <c r="G47" s="533"/>
+      <c r="H47" s="537"/>
+      <c r="I47" s="538"/>
+      <c r="J47" s="539"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="311"/>
@@ -11360,6 +11365,70 @@
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -11376,70 +11445,6 @@
     <mergeCell ref="H24:J25"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11494,47 +11499,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="549"/>
-      <c r="C2" s="550"/>
-      <c r="D2" s="551"/>
-      <c r="E2" s="558" t="s">
+      <c r="B2" s="567"/>
+      <c r="C2" s="568"/>
+      <c r="D2" s="569"/>
+      <c r="E2" s="576" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="559"/>
-      <c r="G2" s="559"/>
-      <c r="H2" s="560"/>
-      <c r="I2" s="565" t="s">
+      <c r="F2" s="577"/>
+      <c r="G2" s="577"/>
+      <c r="H2" s="578"/>
+      <c r="I2" s="583" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="566"/>
-      <c r="K2" s="569">
+      <c r="J2" s="584"/>
+      <c r="K2" s="587">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="570"/>
+      <c r="L2" s="588"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="561"/>
-      <c r="Q2" s="561"/>
+      <c r="P2" s="579"/>
+      <c r="Q2" s="579"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="552"/>
-      <c r="C3" s="553"/>
-      <c r="D3" s="554"/>
-      <c r="E3" s="562" t="s">
+      <c r="B3" s="570"/>
+      <c r="C3" s="571"/>
+      <c r="D3" s="572"/>
+      <c r="E3" s="580" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="563"/>
-      <c r="G3" s="563"/>
-      <c r="H3" s="564"/>
-      <c r="I3" s="567"/>
-      <c r="J3" s="568"/>
-      <c r="K3" s="571"/>
-      <c r="L3" s="572"/>
+      <c r="F3" s="581"/>
+      <c r="G3" s="581"/>
+      <c r="H3" s="582"/>
+      <c r="I3" s="585"/>
+      <c r="J3" s="586"/>
+      <c r="K3" s="589"/>
+      <c r="L3" s="590"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11545,9 +11550,9 @@
     </row>
     <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="555"/>
-      <c r="C4" s="556"/>
-      <c r="D4" s="557"/>
+      <c r="B4" s="573"/>
+      <c r="C4" s="574"/>
+      <c r="D4" s="575"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11566,22 +11571,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="576" t="s">
+      <c r="B5" s="552" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="577"/>
-      <c r="D5" s="503" t="str">
+      <c r="C5" s="553"/>
+      <c r="D5" s="501" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="504"/>
-      <c r="F5" s="504"/>
-      <c r="G5" s="504"/>
-      <c r="H5" s="505"/>
-      <c r="I5" s="578"/>
-      <c r="J5" s="579"/>
-      <c r="K5" s="504"/>
-      <c r="L5" s="505"/>
+      <c r="E5" s="502"/>
+      <c r="F5" s="502"/>
+      <c r="G5" s="502"/>
+      <c r="H5" s="503"/>
+      <c r="I5" s="554"/>
+      <c r="J5" s="555"/>
+      <c r="K5" s="502"/>
+      <c r="L5" s="503"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11592,22 +11597,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="576" t="s">
+      <c r="B6" s="552" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="580"/>
-      <c r="D6" s="497" t="str">
+      <c r="C6" s="556"/>
+      <c r="D6" s="495" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="581"/>
-      <c r="F6" s="581"/>
-      <c r="G6" s="581"/>
-      <c r="H6" s="582"/>
-      <c r="I6" s="578"/>
-      <c r="J6" s="579"/>
-      <c r="K6" s="504"/>
-      <c r="L6" s="505"/>
+      <c r="E6" s="557"/>
+      <c r="F6" s="557"/>
+      <c r="G6" s="557"/>
+      <c r="H6" s="558"/>
+      <c r="I6" s="554"/>
+      <c r="J6" s="555"/>
+      <c r="K6" s="502"/>
+      <c r="L6" s="503"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11618,27 +11623,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="583" t="s">
+      <c r="B7" s="559" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="584"/>
-      <c r="D7" s="506">
+      <c r="C7" s="560"/>
+      <c r="D7" s="504">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="585"/>
-      <c r="F7" s="585"/>
-      <c r="G7" s="585"/>
-      <c r="H7" s="586"/>
-      <c r="I7" s="583" t="s">
+      <c r="E7" s="561"/>
+      <c r="F7" s="561"/>
+      <c r="G7" s="561"/>
+      <c r="H7" s="562"/>
+      <c r="I7" s="559" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="587"/>
-      <c r="K7" s="494">
+      <c r="J7" s="563"/>
+      <c r="K7" s="492">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="495"/>
+      <c r="L7" s="493"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12132,12 +12137,12 @@
     </row>
     <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
-      <c r="B23" s="588" t="s">
+      <c r="B23" s="564" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="589"/>
-      <c r="D23" s="589"/>
-      <c r="E23" s="590"/>
+      <c r="C23" s="565"/>
+      <c r="D23" s="565"/>
+      <c r="E23" s="566"/>
       <c r="F23" s="116" t="s">
         <v>16</v>
       </c>
@@ -12159,12 +12164,12 @@
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
-      <c r="B24" s="573" t="s">
+      <c r="B24" s="549" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="574"/>
-      <c r="D24" s="574"/>
-      <c r="E24" s="575"/>
+      <c r="C24" s="550"/>
+      <c r="D24" s="550"/>
+      <c r="E24" s="551"/>
       <c r="F24" s="116" t="s">
         <v>16</v>
       </c>
@@ -12208,6 +12213,12 @@
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -12222,12 +12233,6 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
@@ -12293,50 +12298,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="591">
+      <c r="B2" s="598">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="C2" s="599"/>
+      <c r="D2" s="600"/>
+      <c r="E2" s="607" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="608"/>
+      <c r="G2" s="608"/>
+      <c r="H2" s="609"/>
+      <c r="I2" s="613" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="610">
+      <c r="J2" s="614"/>
+      <c r="K2" s="617">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="611"/>
+      <c r="L2" s="618"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="561"/>
-      <c r="Q2" s="561"/>
+      <c r="P2" s="579"/>
+      <c r="Q2" s="579"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="601"/>
+      <c r="C3" s="602"/>
+      <c r="D3" s="603"/>
+      <c r="E3" s="610" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="612"/>
-      <c r="L3" s="613"/>
+      <c r="F3" s="611"/>
+      <c r="G3" s="611"/>
+      <c r="H3" s="612"/>
+      <c r="I3" s="615"/>
+      <c r="J3" s="616"/>
+      <c r="K3" s="619"/>
+      <c r="L3" s="620"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12347,9 +12352,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="604"/>
+      <c r="C4" s="605"/>
+      <c r="D4" s="606"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -12368,22 +12373,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="576" t="s">
+      <c r="B5" s="552" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="614"/>
-      <c r="D5" s="503" t="str">
+      <c r="C5" s="591"/>
+      <c r="D5" s="501" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="504"/>
-      <c r="F5" s="504"/>
-      <c r="G5" s="504"/>
-      <c r="H5" s="505"/>
-      <c r="I5" s="615"/>
-      <c r="J5" s="616"/>
-      <c r="K5" s="617"/>
-      <c r="L5" s="505"/>
+      <c r="E5" s="502"/>
+      <c r="F5" s="502"/>
+      <c r="G5" s="502"/>
+      <c r="H5" s="503"/>
+      <c r="I5" s="592"/>
+      <c r="J5" s="593"/>
+      <c r="K5" s="594"/>
+      <c r="L5" s="503"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12394,22 +12399,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="576" t="s">
+      <c r="B6" s="552" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="614"/>
-      <c r="D6" s="497" t="str">
+      <c r="C6" s="591"/>
+      <c r="D6" s="495" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="581"/>
-      <c r="F6" s="581"/>
-      <c r="G6" s="581"/>
-      <c r="H6" s="582"/>
-      <c r="I6" s="615"/>
-      <c r="J6" s="616"/>
-      <c r="K6" s="617"/>
-      <c r="L6" s="505"/>
+      <c r="E6" s="557"/>
+      <c r="F6" s="557"/>
+      <c r="G6" s="557"/>
+      <c r="H6" s="558"/>
+      <c r="I6" s="592"/>
+      <c r="J6" s="593"/>
+      <c r="K6" s="594"/>
+      <c r="L6" s="503"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12420,27 +12425,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="583" t="s">
+      <c r="B7" s="559" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="618"/>
-      <c r="D7" s="506">
+      <c r="C7" s="595"/>
+      <c r="D7" s="504">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="585"/>
-      <c r="F7" s="585"/>
-      <c r="G7" s="585"/>
-      <c r="H7" s="586"/>
-      <c r="I7" s="619" t="s">
+      <c r="E7" s="561"/>
+      <c r="F7" s="561"/>
+      <c r="G7" s="561"/>
+      <c r="H7" s="562"/>
+      <c r="I7" s="596" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="618"/>
-      <c r="K7" s="494">
+      <c r="J7" s="595"/>
+      <c r="K7" s="492">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="495"/>
+      <c r="L7" s="493"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12637,13 +12642,13 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="588" t="s">
+      <c r="B14" s="564" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="589"/>
-      <c r="D14" s="589"/>
-      <c r="E14" s="589"/>
-      <c r="F14" s="620"/>
+      <c r="C14" s="565"/>
+      <c r="D14" s="565"/>
+      <c r="E14" s="565"/>
+      <c r="F14" s="597"/>
       <c r="G14" s="56" t="s">
         <v>77</v>
       </c>
@@ -12662,12 +12667,12 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="78"/>
-      <c r="B15" s="573" t="s">
+      <c r="B15" s="549" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="574"/>
-      <c r="D15" s="574"/>
-      <c r="E15" s="575"/>
+      <c r="C15" s="550"/>
+      <c r="D15" s="550"/>
+      <c r="E15" s="551"/>
       <c r="F15" s="116" t="s">
         <v>16</v>
       </c>
@@ -12718,6 +12723,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -12732,12 +12743,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="notBetween">
@@ -12811,47 +12816,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="549"/>
-      <c r="C2" s="550"/>
-      <c r="D2" s="551"/>
-      <c r="E2" s="558" t="s">
+      <c r="B2" s="567"/>
+      <c r="C2" s="568"/>
+      <c r="D2" s="569"/>
+      <c r="E2" s="576" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="559"/>
-      <c r="G2" s="559"/>
-      <c r="H2" s="560"/>
-      <c r="I2" s="565" t="s">
+      <c r="F2" s="577"/>
+      <c r="G2" s="577"/>
+      <c r="H2" s="578"/>
+      <c r="I2" s="583" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="566"/>
-      <c r="K2" s="569">
+      <c r="J2" s="584"/>
+      <c r="K2" s="587">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="L2" s="570"/>
+      <c r="L2" s="588"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="561"/>
-      <c r="Q2" s="561"/>
+      <c r="P2" s="579"/>
+      <c r="Q2" s="579"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="552"/>
-      <c r="C3" s="553"/>
-      <c r="D3" s="554"/>
-      <c r="E3" s="562" t="s">
+      <c r="B3" s="570"/>
+      <c r="C3" s="571"/>
+      <c r="D3" s="572"/>
+      <c r="E3" s="580" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="563"/>
-      <c r="G3" s="563"/>
-      <c r="H3" s="564"/>
-      <c r="I3" s="567"/>
-      <c r="J3" s="568"/>
-      <c r="K3" s="571"/>
-      <c r="L3" s="572"/>
+      <c r="F3" s="581"/>
+      <c r="G3" s="581"/>
+      <c r="H3" s="582"/>
+      <c r="I3" s="585"/>
+      <c r="J3" s="586"/>
+      <c r="K3" s="589"/>
+      <c r="L3" s="590"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12862,9 +12867,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="555"/>
-      <c r="C4" s="556"/>
-      <c r="D4" s="557"/>
+      <c r="B4" s="573"/>
+      <c r="C4" s="574"/>
+      <c r="D4" s="575"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12883,22 +12888,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="576" t="s">
+      <c r="B5" s="552" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="577"/>
-      <c r="D5" s="503" t="str">
+      <c r="C5" s="553"/>
+      <c r="D5" s="501" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="504"/>
-      <c r="F5" s="504"/>
-      <c r="G5" s="504"/>
-      <c r="H5" s="505"/>
-      <c r="I5" s="578"/>
-      <c r="J5" s="579"/>
-      <c r="K5" s="504"/>
-      <c r="L5" s="505"/>
+      <c r="E5" s="502"/>
+      <c r="F5" s="502"/>
+      <c r="G5" s="502"/>
+      <c r="H5" s="503"/>
+      <c r="I5" s="554"/>
+      <c r="J5" s="555"/>
+      <c r="K5" s="502"/>
+      <c r="L5" s="503"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12909,22 +12914,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="576" t="s">
+      <c r="B6" s="552" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="580"/>
-      <c r="D6" s="497" t="str">
+      <c r="C6" s="556"/>
+      <c r="D6" s="495" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="581"/>
-      <c r="F6" s="581"/>
-      <c r="G6" s="581"/>
-      <c r="H6" s="582"/>
-      <c r="I6" s="578"/>
-      <c r="J6" s="579"/>
-      <c r="K6" s="504"/>
-      <c r="L6" s="505"/>
+      <c r="E6" s="557"/>
+      <c r="F6" s="557"/>
+      <c r="G6" s="557"/>
+      <c r="H6" s="558"/>
+      <c r="I6" s="554"/>
+      <c r="J6" s="555"/>
+      <c r="K6" s="502"/>
+      <c r="L6" s="503"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12935,27 +12940,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="583" t="s">
+      <c r="B7" s="559" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="584"/>
-      <c r="D7" s="506">
+      <c r="C7" s="560"/>
+      <c r="D7" s="504">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="585"/>
-      <c r="F7" s="585"/>
-      <c r="G7" s="585"/>
-      <c r="H7" s="586"/>
-      <c r="I7" s="583" t="s">
+      <c r="E7" s="561"/>
+      <c r="F7" s="561"/>
+      <c r="G7" s="561"/>
+      <c r="H7" s="562"/>
+      <c r="I7" s="559" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="587"/>
-      <c r="K7" s="494">
+      <c r="J7" s="563"/>
+      <c r="K7" s="492">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="495"/>
+      <c r="L7" s="493"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -13438,6 +13443,8 @@
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="B2:D4"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
@@ -13454,8 +13461,6 @@
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="B2:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -13523,24 +13528,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="549"/>
-      <c r="C2" s="550"/>
-      <c r="D2" s="551"/>
-      <c r="E2" s="558" t="s">
+      <c r="B2" s="567"/>
+      <c r="C2" s="568"/>
+      <c r="D2" s="569"/>
+      <c r="E2" s="576" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="559"/>
-      <c r="G2" s="559"/>
-      <c r="H2" s="560"/>
-      <c r="I2" s="565" t="s">
+      <c r="F2" s="577"/>
+      <c r="G2" s="577"/>
+      <c r="H2" s="578"/>
+      <c r="I2" s="583" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="566"/>
-      <c r="K2" s="569">
+      <c r="J2" s="584"/>
+      <c r="K2" s="587">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="L2" s="570"/>
+      <c r="L2" s="588"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
@@ -13551,19 +13556,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="552"/>
-      <c r="C3" s="553"/>
-      <c r="D3" s="554"/>
-      <c r="E3" s="562" t="s">
+      <c r="B3" s="570"/>
+      <c r="C3" s="571"/>
+      <c r="D3" s="572"/>
+      <c r="E3" s="580" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="563"/>
-      <c r="G3" s="563"/>
-      <c r="H3" s="564"/>
-      <c r="I3" s="567"/>
-      <c r="J3" s="568"/>
-      <c r="K3" s="571"/>
-      <c r="L3" s="572"/>
+      <c r="F3" s="581"/>
+      <c r="G3" s="581"/>
+      <c r="H3" s="582"/>
+      <c r="I3" s="585"/>
+      <c r="J3" s="586"/>
+      <c r="K3" s="589"/>
+      <c r="L3" s="590"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13574,9 +13579,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="555"/>
-      <c r="C4" s="556"/>
-      <c r="D4" s="557"/>
+      <c r="B4" s="573"/>
+      <c r="C4" s="574"/>
+      <c r="D4" s="575"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13595,22 +13600,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="576" t="s">
+      <c r="B5" s="552" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="577"/>
-      <c r="D5" s="503" t="str">
+      <c r="C5" s="553"/>
+      <c r="D5" s="501" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="504"/>
-      <c r="F5" s="504"/>
-      <c r="G5" s="504"/>
-      <c r="H5" s="505"/>
-      <c r="I5" s="578"/>
-      <c r="J5" s="579"/>
-      <c r="K5" s="504"/>
-      <c r="L5" s="505"/>
+      <c r="E5" s="502"/>
+      <c r="F5" s="502"/>
+      <c r="G5" s="502"/>
+      <c r="H5" s="503"/>
+      <c r="I5" s="554"/>
+      <c r="J5" s="555"/>
+      <c r="K5" s="502"/>
+      <c r="L5" s="503"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13621,22 +13626,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="576" t="s">
+      <c r="B6" s="552" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="580"/>
-      <c r="D6" s="497" t="str">
+      <c r="C6" s="556"/>
+      <c r="D6" s="495" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="581"/>
-      <c r="F6" s="581"/>
-      <c r="G6" s="581"/>
-      <c r="H6" s="582"/>
-      <c r="I6" s="578"/>
-      <c r="J6" s="579"/>
-      <c r="K6" s="504"/>
-      <c r="L6" s="505"/>
+      <c r="E6" s="557"/>
+      <c r="F6" s="557"/>
+      <c r="G6" s="557"/>
+      <c r="H6" s="558"/>
+      <c r="I6" s="554"/>
+      <c r="J6" s="555"/>
+      <c r="K6" s="502"/>
+      <c r="L6" s="503"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13647,27 +13652,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="583" t="s">
+      <c r="B7" s="559" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="584"/>
-      <c r="D7" s="506">
+      <c r="C7" s="560"/>
+      <c r="D7" s="504">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="585"/>
-      <c r="F7" s="585"/>
-      <c r="G7" s="585"/>
-      <c r="H7" s="586"/>
-      <c r="I7" s="583" t="s">
+      <c r="E7" s="561"/>
+      <c r="F7" s="561"/>
+      <c r="G7" s="561"/>
+      <c r="H7" s="562"/>
+      <c r="I7" s="559" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="587"/>
-      <c r="K7" s="494">
+      <c r="J7" s="563"/>
+      <c r="K7" s="492">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="495"/>
+      <c r="L7" s="493"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -13952,6 +13957,17 @@
     <row r="17" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -13959,17 +13975,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="B2:D4"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -14041,60 +14046,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="591"/>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="B2" s="598"/>
+      <c r="C2" s="599"/>
+      <c r="D2" s="600"/>
+      <c r="E2" s="607" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="608"/>
+      <c r="G2" s="608"/>
+      <c r="H2" s="609"/>
+      <c r="I2" s="613" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="610">
+      <c r="J2" s="614"/>
+      <c r="K2" s="617">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="L2" s="611"/>
-      <c r="M2" s="623"/>
-      <c r="N2" s="624"/>
-      <c r="O2" s="624"/>
-      <c r="P2" s="624"/>
-      <c r="Q2" s="624"/>
-      <c r="R2" s="625"/>
+      <c r="L2" s="618"/>
+      <c r="M2" s="622"/>
+      <c r="N2" s="623"/>
+      <c r="O2" s="623"/>
+      <c r="P2" s="623"/>
+      <c r="Q2" s="623"/>
+      <c r="R2" s="624"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="601"/>
+      <c r="C3" s="602"/>
+      <c r="D3" s="603"/>
+      <c r="E3" s="610" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="612"/>
-      <c r="L3" s="613"/>
-      <c r="M3" s="626"/>
-      <c r="N3" s="627"/>
-      <c r="O3" s="627"/>
-      <c r="P3" s="627"/>
-      <c r="Q3" s="627"/>
-      <c r="R3" s="628"/>
+      <c r="F3" s="611"/>
+      <c r="G3" s="611"/>
+      <c r="H3" s="612"/>
+      <c r="I3" s="615"/>
+      <c r="J3" s="616"/>
+      <c r="K3" s="619"/>
+      <c r="L3" s="620"/>
+      <c r="M3" s="625"/>
+      <c r="N3" s="626"/>
+      <c r="O3" s="626"/>
+      <c r="P3" s="626"/>
+      <c r="Q3" s="626"/>
+      <c r="R3" s="627"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="604"/>
+      <c r="C4" s="605"/>
+      <c r="D4" s="606"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -14103,95 +14108,95 @@
       <c r="J4" s="249"/>
       <c r="K4" s="252"/>
       <c r="L4" s="253"/>
-      <c r="M4" s="626"/>
-      <c r="N4" s="627"/>
-      <c r="O4" s="627"/>
-      <c r="P4" s="627"/>
-      <c r="Q4" s="627"/>
-      <c r="R4" s="628"/>
+      <c r="M4" s="625"/>
+      <c r="N4" s="626"/>
+      <c r="O4" s="626"/>
+      <c r="P4" s="626"/>
+      <c r="Q4" s="626"/>
+      <c r="R4" s="627"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="576" t="s">
+      <c r="B5" s="552" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="614"/>
-      <c r="D5" s="503" t="str">
+      <c r="C5" s="591"/>
+      <c r="D5" s="501" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="504"/>
-      <c r="F5" s="504"/>
-      <c r="G5" s="504"/>
-      <c r="H5" s="505"/>
-      <c r="I5" s="615"/>
-      <c r="J5" s="616"/>
-      <c r="K5" s="617"/>
-      <c r="L5" s="505"/>
-      <c r="M5" s="626"/>
-      <c r="N5" s="627"/>
-      <c r="O5" s="627"/>
-      <c r="P5" s="627"/>
-      <c r="Q5" s="627"/>
-      <c r="R5" s="628"/>
+      <c r="E5" s="502"/>
+      <c r="F5" s="502"/>
+      <c r="G5" s="502"/>
+      <c r="H5" s="503"/>
+      <c r="I5" s="592"/>
+      <c r="J5" s="593"/>
+      <c r="K5" s="594"/>
+      <c r="L5" s="503"/>
+      <c r="M5" s="625"/>
+      <c r="N5" s="626"/>
+      <c r="O5" s="626"/>
+      <c r="P5" s="626"/>
+      <c r="Q5" s="626"/>
+      <c r="R5" s="627"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="576" t="s">
+      <c r="B6" s="552" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="614"/>
-      <c r="D6" s="497" t="str">
+      <c r="C6" s="591"/>
+      <c r="D6" s="495" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="581"/>
-      <c r="F6" s="581"/>
-      <c r="G6" s="581"/>
-      <c r="H6" s="582"/>
-      <c r="I6" s="615"/>
-      <c r="J6" s="616"/>
-      <c r="K6" s="617"/>
-      <c r="L6" s="505"/>
-      <c r="M6" s="626"/>
-      <c r="N6" s="627"/>
-      <c r="O6" s="627"/>
-      <c r="P6" s="627"/>
-      <c r="Q6" s="627"/>
-      <c r="R6" s="628"/>
+      <c r="E6" s="557"/>
+      <c r="F6" s="557"/>
+      <c r="G6" s="557"/>
+      <c r="H6" s="558"/>
+      <c r="I6" s="592"/>
+      <c r="J6" s="593"/>
+      <c r="K6" s="594"/>
+      <c r="L6" s="503"/>
+      <c r="M6" s="625"/>
+      <c r="N6" s="626"/>
+      <c r="O6" s="626"/>
+      <c r="P6" s="626"/>
+      <c r="Q6" s="626"/>
+      <c r="R6" s="627"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="583" t="s">
+      <c r="B7" s="559" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="618"/>
-      <c r="D7" s="506">
+      <c r="C7" s="595"/>
+      <c r="D7" s="504">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="585"/>
-      <c r="F7" s="585"/>
-      <c r="G7" s="585"/>
-      <c r="H7" s="586"/>
-      <c r="I7" s="619" t="s">
+      <c r="E7" s="561"/>
+      <c r="F7" s="561"/>
+      <c r="G7" s="561"/>
+      <c r="H7" s="562"/>
+      <c r="I7" s="596" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="618"/>
-      <c r="K7" s="494">
+      <c r="J7" s="595"/>
+      <c r="K7" s="492">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="495"/>
-      <c r="M7" s="626"/>
-      <c r="N7" s="627"/>
-      <c r="O7" s="627"/>
-      <c r="P7" s="627"/>
-      <c r="Q7" s="627"/>
-      <c r="R7" s="628"/>
+      <c r="L7" s="493"/>
+      <c r="M7" s="625"/>
+      <c r="N7" s="626"/>
+      <c r="O7" s="626"/>
+      <c r="P7" s="626"/>
+      <c r="Q7" s="626"/>
+      <c r="R7" s="627"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14605,12 +14610,12 @@
     </row>
     <row r="21" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78"/>
-      <c r="B21" s="573" t="s">
+      <c r="B21" s="549" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="574"/>
-      <c r="D21" s="574"/>
-      <c r="E21" s="575"/>
+      <c r="C21" s="550"/>
+      <c r="D21" s="550"/>
+      <c r="E21" s="551"/>
       <c r="F21" s="116" t="s">
         <v>16</v>
       </c>
@@ -14655,16 +14660,20 @@
       <c r="B23" s="123"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L24" s="622" t="s">
+      <c r="L24" s="628" t="s">
         <v>140</v>
       </c>
-      <c r="M24" s="622"/>
-      <c r="N24" s="622"/>
+      <c r="M24" s="628"/>
+      <c r="N24" s="628"/>
       <c r="O24" s="469"/>
       <c r="P24" s="469"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="B21:E21"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="M2:R7"/>
     <mergeCell ref="E2:H2"/>
@@ -14681,10 +14690,6 @@
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="B21:E21"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R21">
     <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
@@ -14749,24 +14754,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="591"/>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="B2" s="598"/>
+      <c r="C2" s="599"/>
+      <c r="D2" s="600"/>
+      <c r="E2" s="607" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="608"/>
+      <c r="G2" s="608"/>
+      <c r="H2" s="609"/>
+      <c r="I2" s="613" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="610">
+      <c r="J2" s="614"/>
+      <c r="K2" s="617">
         <f>Данные!B19</f>
         <v>60</v>
       </c>
-      <c r="L2" s="611"/>
+      <c r="L2" s="618"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
@@ -14777,19 +14782,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="601"/>
+      <c r="C3" s="602"/>
+      <c r="D3" s="603"/>
+      <c r="E3" s="610" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="612"/>
-      <c r="L3" s="613"/>
+      <c r="F3" s="611"/>
+      <c r="G3" s="611"/>
+      <c r="H3" s="612"/>
+      <c r="I3" s="615"/>
+      <c r="J3" s="616"/>
+      <c r="K3" s="619"/>
+      <c r="L3" s="620"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -14800,9 +14805,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="604"/>
+      <c r="C4" s="605"/>
+      <c r="D4" s="606"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -14821,22 +14826,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="576" t="s">
+      <c r="B5" s="552" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="614"/>
-      <c r="D5" s="503" t="str">
+      <c r="C5" s="591"/>
+      <c r="D5" s="501" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="504"/>
-      <c r="F5" s="504"/>
-      <c r="G5" s="504"/>
-      <c r="H5" s="505"/>
-      <c r="I5" s="615"/>
-      <c r="J5" s="616"/>
-      <c r="K5" s="617"/>
-      <c r="L5" s="505"/>
+      <c r="E5" s="502"/>
+      <c r="F5" s="502"/>
+      <c r="G5" s="502"/>
+      <c r="H5" s="503"/>
+      <c r="I5" s="592"/>
+      <c r="J5" s="593"/>
+      <c r="K5" s="594"/>
+      <c r="L5" s="503"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -14847,22 +14852,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="576" t="s">
+      <c r="B6" s="552" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="614"/>
-      <c r="D6" s="497" t="str">
+      <c r="C6" s="591"/>
+      <c r="D6" s="495" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="581"/>
-      <c r="F6" s="581"/>
-      <c r="G6" s="581"/>
-      <c r="H6" s="582"/>
-      <c r="I6" s="615"/>
-      <c r="J6" s="616"/>
-      <c r="K6" s="617"/>
-      <c r="L6" s="505"/>
+      <c r="E6" s="557"/>
+      <c r="F6" s="557"/>
+      <c r="G6" s="557"/>
+      <c r="H6" s="558"/>
+      <c r="I6" s="592"/>
+      <c r="J6" s="593"/>
+      <c r="K6" s="594"/>
+      <c r="L6" s="503"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -14873,27 +14878,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="583" t="s">
+      <c r="B7" s="559" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="618"/>
-      <c r="D7" s="506">
+      <c r="C7" s="595"/>
+      <c r="D7" s="504">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="585"/>
-      <c r="F7" s="585"/>
-      <c r="G7" s="585"/>
-      <c r="H7" s="586"/>
-      <c r="I7" s="619" t="s">
+      <c r="E7" s="561"/>
+      <c r="F7" s="561"/>
+      <c r="G7" s="561"/>
+      <c r="H7" s="562"/>
+      <c r="I7" s="596" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="618"/>
-      <c r="K7" s="494">
+      <c r="J7" s="595"/>
+      <c r="K7" s="492">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="495"/>
+      <c r="L7" s="493"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -15156,12 +15161,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="573" t="s">
+      <c r="B16" s="549" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="574"/>
-      <c r="D16" s="574"/>
-      <c r="E16" s="575"/>
+      <c r="C16" s="550"/>
+      <c r="D16" s="550"/>
+      <c r="E16" s="551"/>
       <c r="F16" s="259" t="s">
         <v>16</v>
       </c>
@@ -15206,16 +15211,21 @@
       <c r="B18" s="123"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="K19" s="622" t="s">
+      <c r="K19" s="628" t="s">
         <v>140</v>
       </c>
-      <c r="L19" s="622"/>
-      <c r="M19" s="622"/>
+      <c r="L19" s="628"/>
+      <c r="M19" s="628"/>
       <c r="N19" s="469"/>
       <c r="O19" s="469"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="K19:M19"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B2:D4"/>
@@ -15231,11 +15241,6 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-2.1-500-14 (Брест колоски)/Брест колоски от 13.11.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-2.1-500-14 (Брест колоски)/Брест колоски от 13.11.2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Бутылка\XXI-В-28-2.1-500-14 (Брест колоски)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C334A4-DEBC-421D-9346-317076E3DA99}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3416EE-9D88-41CD-A43E-106B9EC3A3E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Акт приемки'!$A$1:$J$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Горл. кольцо'!$A$1:$S$24</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Паспорт!$A$1:$J$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Паспорт!$A$1:$J$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Плунжер!$A$1:$S$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Финиш. кольцо'!$A$1:$S$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Черн. поддон'!$A$1:$S$16</definedName>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="144">
   <si>
     <t>+ Tol.</t>
   </si>
@@ -2173,7 +2173,7 @@
     <xf numFmtId="164" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="641">
+  <cellXfs count="640">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" shrinkToFit="1"/>
@@ -3472,9 +3472,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3552,9 +3549,6 @@
     <xf numFmtId="14" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3570,9 +3564,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3599,6 +3590,12 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="97" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4019,6 +4016,9 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4029,9 +4029,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -6698,7 +6695,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6710,25 +6707,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="494" t="s">
+      <c r="A1" s="493" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="498"/>
-      <c r="C1" s="498"/>
-      <c r="D1" s="498"/>
-      <c r="E1" s="498"/>
+      <c r="B1" s="497"/>
+      <c r="C1" s="497"/>
+      <c r="D1" s="497"/>
+      <c r="E1" s="497"/>
       <c r="G1" s="371" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="495" t="s">
+      <c r="A2" s="494" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="496"/>
-      <c r="C2" s="496"/>
-      <c r="D2" s="496"/>
-      <c r="E2" s="497"/>
+      <c r="B2" s="495"/>
+      <c r="C2" s="495"/>
+      <c r="D2" s="495"/>
+      <c r="E2" s="496"/>
       <c r="G2" s="370" t="s">
         <v>79</v>
       </c>
@@ -6739,45 +6736,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="499" t="s">
+      <c r="A4" s="498" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="500"/>
-      <c r="C4" s="500"/>
-      <c r="D4" s="500"/>
-      <c r="E4" s="500"/>
+      <c r="B4" s="499"/>
+      <c r="C4" s="499"/>
+      <c r="D4" s="499"/>
+      <c r="E4" s="499"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="501" t="s">
+      <c r="A5" s="500" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="502"/>
-      <c r="C5" s="502"/>
-      <c r="D5" s="502"/>
-      <c r="E5" s="503"/>
+      <c r="B5" s="501"/>
+      <c r="C5" s="501"/>
+      <c r="D5" s="501"/>
+      <c r="E5" s="502"/>
     </row>
     <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="494" t="s">
+      <c r="A7" s="493" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="498"/>
-      <c r="C7" s="498"/>
-      <c r="D7" s="498"/>
-      <c r="E7" s="498"/>
+      <c r="B7" s="497"/>
+      <c r="C7" s="497"/>
+      <c r="D7" s="497"/>
+      <c r="E7" s="497"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="504"/>
-      <c r="B8" s="505"/>
-      <c r="C8" s="505"/>
-      <c r="D8" s="505"/>
-      <c r="E8" s="506"/>
+      <c r="A8" s="503"/>
+      <c r="B8" s="504"/>
+      <c r="C8" s="504"/>
+      <c r="D8" s="504"/>
+      <c r="E8" s="505"/>
     </row>
     <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="494" t="s">
+      <c r="A10" s="493" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="494"/>
+      <c r="B10" s="493"/>
       <c r="C10" s="372"/>
       <c r="D10" s="380" t="s">
         <v>94</v>
@@ -6788,33 +6785,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="492"/>
-      <c r="B11" s="493"/>
+      <c r="A11" s="491"/>
+      <c r="B11" s="492"/>
       <c r="D11" s="379">
         <v>43782</v>
       </c>
-      <c r="F11" s="507" t="s">
+      <c r="F11" s="506" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="507"/>
-      <c r="H11" s="507"/>
-      <c r="I11" s="507"/>
-      <c r="J11" s="508" t="s">
+      <c r="G11" s="506"/>
+      <c r="H11" s="506"/>
+      <c r="I11" s="506"/>
+      <c r="J11" s="507" t="s">
         <v>99</v>
       </c>
-      <c r="K11" s="508"/>
+      <c r="K11" s="507"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F12" s="507" t="s">
+      <c r="F12" s="506" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="507"/>
-      <c r="H12" s="507"/>
-      <c r="I12" s="507"/>
-      <c r="J12" s="508" t="s">
+      <c r="G12" s="506"/>
+      <c r="H12" s="506"/>
+      <c r="I12" s="506"/>
+      <c r="J12" s="507" t="s">
         <v>100</v>
       </c>
-      <c r="K12" s="508"/>
+      <c r="K12" s="507"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="373" t="s">
@@ -6826,16 +6823,16 @@
       <c r="C13" s="384" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="507" t="s">
+      <c r="F13" s="506" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="507"/>
-      <c r="H13" s="507"/>
-      <c r="I13" s="507"/>
-      <c r="J13" s="508" t="s">
+      <c r="G13" s="506"/>
+      <c r="H13" s="506"/>
+      <c r="I13" s="506"/>
+      <c r="J13" s="507" t="s">
         <v>101</v>
       </c>
-      <c r="K13" s="508"/>
+      <c r="K13" s="507"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="375" t="s">
@@ -6987,11 +6984,11 @@
       <c r="A28" s="381"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="491" t="s">
+      <c r="A29" s="490" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="491"/>
-      <c r="C29" s="491"/>
+      <c r="B29" s="490"/>
+      <c r="C29" s="490"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="371" t="s">
@@ -7068,47 +7065,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="170"/>
-      <c r="B2" s="598"/>
-      <c r="C2" s="599"/>
-      <c r="D2" s="600"/>
-      <c r="E2" s="607" t="s">
+      <c r="B2" s="597"/>
+      <c r="C2" s="598"/>
+      <c r="D2" s="599"/>
+      <c r="E2" s="606" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="608"/>
-      <c r="G2" s="608"/>
-      <c r="H2" s="609"/>
-      <c r="I2" s="613" t="s">
+      <c r="F2" s="607"/>
+      <c r="G2" s="607"/>
+      <c r="H2" s="608"/>
+      <c r="I2" s="612" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="614"/>
-      <c r="K2" s="617">
+      <c r="J2" s="613"/>
+      <c r="K2" s="616">
         <f>Данные!B20</f>
         <v>50</v>
       </c>
-      <c r="L2" s="618"/>
+      <c r="L2" s="617"/>
       <c r="M2" s="171"/>
       <c r="N2" s="172"/>
       <c r="O2" s="173"/>
-      <c r="P2" s="630"/>
-      <c r="Q2" s="630"/>
+      <c r="P2" s="629"/>
+      <c r="Q2" s="629"/>
       <c r="R2" s="174"/>
       <c r="S2" s="175"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="170"/>
-      <c r="B3" s="601"/>
-      <c r="C3" s="602"/>
-      <c r="D3" s="603"/>
-      <c r="E3" s="610" t="s">
+      <c r="B3" s="600"/>
+      <c r="C3" s="601"/>
+      <c r="D3" s="602"/>
+      <c r="E3" s="609" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="611"/>
-      <c r="G3" s="611"/>
-      <c r="H3" s="612"/>
-      <c r="I3" s="615"/>
-      <c r="J3" s="616"/>
-      <c r="K3" s="619"/>
-      <c r="L3" s="620"/>
+      <c r="F3" s="610"/>
+      <c r="G3" s="610"/>
+      <c r="H3" s="611"/>
+      <c r="I3" s="614"/>
+      <c r="J3" s="615"/>
+      <c r="K3" s="618"/>
+      <c r="L3" s="619"/>
       <c r="M3" s="176"/>
       <c r="N3" s="177"/>
       <c r="O3" s="177"/>
@@ -7119,9 +7116,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="170"/>
-      <c r="B4" s="604"/>
-      <c r="C4" s="605"/>
-      <c r="D4" s="606"/>
+      <c r="B4" s="603"/>
+      <c r="C4" s="604"/>
+      <c r="D4" s="605"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -7140,22 +7137,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="170"/>
-      <c r="B5" s="552" t="s">
+      <c r="B5" s="551" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="591"/>
-      <c r="D5" s="501" t="str">
+      <c r="C5" s="590"/>
+      <c r="D5" s="500" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="502"/>
-      <c r="F5" s="502"/>
-      <c r="G5" s="502"/>
-      <c r="H5" s="503"/>
-      <c r="I5" s="592"/>
-      <c r="J5" s="593"/>
-      <c r="K5" s="594"/>
-      <c r="L5" s="503"/>
+      <c r="E5" s="501"/>
+      <c r="F5" s="501"/>
+      <c r="G5" s="501"/>
+      <c r="H5" s="502"/>
+      <c r="I5" s="591"/>
+      <c r="J5" s="592"/>
+      <c r="K5" s="593"/>
+      <c r="L5" s="502"/>
       <c r="M5" s="179"/>
       <c r="N5" s="177"/>
       <c r="O5" s="177"/>
@@ -7166,22 +7163,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="170"/>
-      <c r="B6" s="552" t="s">
+      <c r="B6" s="551" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="591"/>
-      <c r="D6" s="495" t="str">
+      <c r="C6" s="590"/>
+      <c r="D6" s="494" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="557"/>
-      <c r="F6" s="557"/>
-      <c r="G6" s="557"/>
-      <c r="H6" s="558"/>
-      <c r="I6" s="592"/>
-      <c r="J6" s="593"/>
-      <c r="K6" s="594"/>
-      <c r="L6" s="503"/>
+      <c r="E6" s="556"/>
+      <c r="F6" s="556"/>
+      <c r="G6" s="556"/>
+      <c r="H6" s="557"/>
+      <c r="I6" s="591"/>
+      <c r="J6" s="592"/>
+      <c r="K6" s="593"/>
+      <c r="L6" s="502"/>
       <c r="M6" s="176"/>
       <c r="N6" s="177"/>
       <c r="O6" s="177"/>
@@ -7192,27 +7189,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="170"/>
-      <c r="B7" s="559" t="s">
+      <c r="B7" s="558" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="595"/>
-      <c r="D7" s="504">
+      <c r="C7" s="594"/>
+      <c r="D7" s="503">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="561"/>
-      <c r="F7" s="561"/>
-      <c r="G7" s="561"/>
-      <c r="H7" s="562"/>
-      <c r="I7" s="596" t="s">
+      <c r="E7" s="560"/>
+      <c r="F7" s="560"/>
+      <c r="G7" s="560"/>
+      <c r="H7" s="561"/>
+      <c r="I7" s="595" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="595"/>
-      <c r="K7" s="492">
+      <c r="J7" s="594"/>
+      <c r="K7" s="491">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="493"/>
+      <c r="L7" s="492"/>
       <c r="M7" s="179"/>
       <c r="N7" s="177"/>
       <c r="O7" s="177"/>
@@ -7597,13 +7594,13 @@
     </row>
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L21" s="628" t="s">
+      <c r="L21" s="627" t="s">
         <v>140</v>
       </c>
-      <c r="M21" s="628"/>
-      <c r="N21" s="628"/>
-      <c r="O21" s="469"/>
-      <c r="P21" s="469"/>
+      <c r="M21" s="627"/>
+      <c r="N21" s="627"/>
+      <c r="O21" s="468"/>
+      <c r="P21" s="468"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -7691,47 +7688,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="209"/>
-      <c r="B2" s="598"/>
-      <c r="C2" s="599"/>
-      <c r="D2" s="600"/>
-      <c r="E2" s="607" t="s">
+      <c r="B2" s="597"/>
+      <c r="C2" s="598"/>
+      <c r="D2" s="599"/>
+      <c r="E2" s="606" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="608"/>
-      <c r="G2" s="608"/>
-      <c r="H2" s="609"/>
-      <c r="I2" s="613" t="s">
+      <c r="F2" s="607"/>
+      <c r="G2" s="607"/>
+      <c r="H2" s="608"/>
+      <c r="I2" s="612" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="614"/>
-      <c r="K2" s="617">
+      <c r="J2" s="613"/>
+      <c r="K2" s="616">
         <f>Данные!B21</f>
         <v>24</v>
       </c>
-      <c r="L2" s="618"/>
+      <c r="L2" s="617"/>
       <c r="M2" s="210"/>
       <c r="N2" s="211"/>
       <c r="O2" s="212"/>
-      <c r="P2" s="634"/>
-      <c r="Q2" s="634"/>
+      <c r="P2" s="633"/>
+      <c r="Q2" s="633"/>
       <c r="R2" s="213"/>
       <c r="S2" s="214"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="209"/>
-      <c r="B3" s="601"/>
-      <c r="C3" s="602"/>
-      <c r="D3" s="603"/>
-      <c r="E3" s="610" t="s">
+      <c r="B3" s="600"/>
+      <c r="C3" s="601"/>
+      <c r="D3" s="602"/>
+      <c r="E3" s="609" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="611"/>
-      <c r="G3" s="611"/>
-      <c r="H3" s="612"/>
-      <c r="I3" s="615"/>
-      <c r="J3" s="616"/>
-      <c r="K3" s="619"/>
-      <c r="L3" s="620"/>
+      <c r="F3" s="610"/>
+      <c r="G3" s="610"/>
+      <c r="H3" s="611"/>
+      <c r="I3" s="614"/>
+      <c r="J3" s="615"/>
+      <c r="K3" s="618"/>
+      <c r="L3" s="619"/>
       <c r="M3" s="215"/>
       <c r="N3" s="216"/>
       <c r="O3" s="216"/>
@@ -7742,9 +7739,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="209"/>
-      <c r="B4" s="604"/>
-      <c r="C4" s="605"/>
-      <c r="D4" s="606"/>
+      <c r="B4" s="603"/>
+      <c r="C4" s="604"/>
+      <c r="D4" s="605"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -7763,22 +7760,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="209"/>
-      <c r="B5" s="552" t="s">
+      <c r="B5" s="551" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="591"/>
-      <c r="D5" s="501" t="str">
+      <c r="C5" s="590"/>
+      <c r="D5" s="500" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="502"/>
-      <c r="F5" s="502"/>
-      <c r="G5" s="502"/>
-      <c r="H5" s="503"/>
-      <c r="I5" s="592"/>
-      <c r="J5" s="593"/>
-      <c r="K5" s="594"/>
-      <c r="L5" s="503"/>
+      <c r="E5" s="501"/>
+      <c r="F5" s="501"/>
+      <c r="G5" s="501"/>
+      <c r="H5" s="502"/>
+      <c r="I5" s="591"/>
+      <c r="J5" s="592"/>
+      <c r="K5" s="593"/>
+      <c r="L5" s="502"/>
       <c r="M5" s="218"/>
       <c r="N5" s="216"/>
       <c r="O5" s="216"/>
@@ -7789,22 +7786,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="209"/>
-      <c r="B6" s="552" t="s">
+      <c r="B6" s="551" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="591"/>
-      <c r="D6" s="495" t="str">
+      <c r="C6" s="590"/>
+      <c r="D6" s="494" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="557"/>
-      <c r="F6" s="557"/>
-      <c r="G6" s="557"/>
-      <c r="H6" s="558"/>
-      <c r="I6" s="592"/>
-      <c r="J6" s="593"/>
-      <c r="K6" s="594"/>
-      <c r="L6" s="503"/>
+      <c r="E6" s="556"/>
+      <c r="F6" s="556"/>
+      <c r="G6" s="556"/>
+      <c r="H6" s="557"/>
+      <c r="I6" s="591"/>
+      <c r="J6" s="592"/>
+      <c r="K6" s="593"/>
+      <c r="L6" s="502"/>
       <c r="M6" s="215"/>
       <c r="N6" s="216"/>
       <c r="O6" s="216"/>
@@ -7815,27 +7812,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="209"/>
-      <c r="B7" s="559" t="s">
+      <c r="B7" s="558" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="595"/>
-      <c r="D7" s="504">
+      <c r="C7" s="594"/>
+      <c r="D7" s="503">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="561"/>
-      <c r="F7" s="561"/>
-      <c r="G7" s="561"/>
-      <c r="H7" s="562"/>
-      <c r="I7" s="596" t="s">
+      <c r="E7" s="560"/>
+      <c r="F7" s="560"/>
+      <c r="G7" s="560"/>
+      <c r="H7" s="561"/>
+      <c r="I7" s="595" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="595"/>
-      <c r="K7" s="492">
+      <c r="J7" s="594"/>
+      <c r="K7" s="491">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="493"/>
+      <c r="L7" s="492"/>
       <c r="M7" s="218"/>
       <c r="N7" s="216"/>
       <c r="O7" s="216"/>
@@ -8164,12 +8161,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="219"/>
-      <c r="B18" s="631" t="s">
+      <c r="B18" s="630" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="632"/>
-      <c r="D18" s="632"/>
-      <c r="E18" s="633"/>
+      <c r="C18" s="631"/>
+      <c r="D18" s="631"/>
+      <c r="E18" s="632"/>
       <c r="F18" s="116" t="s">
         <v>16</v>
       </c>
@@ -8317,47 +8314,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="133"/>
-      <c r="B2" s="598"/>
-      <c r="C2" s="599"/>
-      <c r="D2" s="600"/>
-      <c r="E2" s="607" t="s">
+      <c r="B2" s="597"/>
+      <c r="C2" s="598"/>
+      <c r="D2" s="599"/>
+      <c r="E2" s="606" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="608"/>
-      <c r="G2" s="608"/>
-      <c r="H2" s="609"/>
-      <c r="I2" s="613" t="s">
+      <c r="F2" s="607"/>
+      <c r="G2" s="607"/>
+      <c r="H2" s="608"/>
+      <c r="I2" s="612" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="614"/>
-      <c r="K2" s="617">
+      <c r="J2" s="613"/>
+      <c r="K2" s="616">
         <f>Данные!B26</f>
         <v>22</v>
       </c>
-      <c r="L2" s="618"/>
+      <c r="L2" s="617"/>
       <c r="M2" s="134"/>
       <c r="N2" s="135"/>
       <c r="O2" s="136"/>
-      <c r="P2" s="635"/>
-      <c r="Q2" s="635"/>
+      <c r="P2" s="634"/>
+      <c r="Q2" s="634"/>
       <c r="R2" s="137"/>
       <c r="S2" s="138"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="133"/>
-      <c r="B3" s="601"/>
-      <c r="C3" s="602"/>
-      <c r="D3" s="603"/>
-      <c r="E3" s="610" t="s">
+      <c r="B3" s="600"/>
+      <c r="C3" s="601"/>
+      <c r="D3" s="602"/>
+      <c r="E3" s="609" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="611"/>
-      <c r="G3" s="611"/>
-      <c r="H3" s="612"/>
-      <c r="I3" s="615"/>
-      <c r="J3" s="616"/>
-      <c r="K3" s="619"/>
-      <c r="L3" s="620"/>
+      <c r="F3" s="610"/>
+      <c r="G3" s="610"/>
+      <c r="H3" s="611"/>
+      <c r="I3" s="614"/>
+      <c r="J3" s="615"/>
+      <c r="K3" s="618"/>
+      <c r="L3" s="619"/>
       <c r="M3" s="139"/>
       <c r="N3" s="140"/>
       <c r="O3" s="140"/>
@@ -8368,9 +8365,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="133"/>
-      <c r="B4" s="604"/>
-      <c r="C4" s="605"/>
-      <c r="D4" s="606"/>
+      <c r="B4" s="603"/>
+      <c r="C4" s="604"/>
+      <c r="D4" s="605"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -8389,22 +8386,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="133"/>
-      <c r="B5" s="552" t="s">
+      <c r="B5" s="551" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="591"/>
-      <c r="D5" s="501" t="str">
+      <c r="C5" s="590"/>
+      <c r="D5" s="500" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="502"/>
-      <c r="F5" s="502"/>
-      <c r="G5" s="502"/>
-      <c r="H5" s="503"/>
-      <c r="I5" s="592"/>
-      <c r="J5" s="593"/>
-      <c r="K5" s="594"/>
-      <c r="L5" s="503"/>
+      <c r="E5" s="501"/>
+      <c r="F5" s="501"/>
+      <c r="G5" s="501"/>
+      <c r="H5" s="502"/>
+      <c r="I5" s="591"/>
+      <c r="J5" s="592"/>
+      <c r="K5" s="593"/>
+      <c r="L5" s="502"/>
       <c r="M5" s="142"/>
       <c r="N5" s="140"/>
       <c r="O5" s="140"/>
@@ -8415,22 +8412,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="133"/>
-      <c r="B6" s="552" t="s">
+      <c r="B6" s="551" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="591"/>
-      <c r="D6" s="495" t="str">
+      <c r="C6" s="590"/>
+      <c r="D6" s="494" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="557"/>
-      <c r="F6" s="557"/>
-      <c r="G6" s="557"/>
-      <c r="H6" s="558"/>
-      <c r="I6" s="592"/>
-      <c r="J6" s="593"/>
-      <c r="K6" s="594"/>
-      <c r="L6" s="503"/>
+      <c r="E6" s="556"/>
+      <c r="F6" s="556"/>
+      <c r="G6" s="556"/>
+      <c r="H6" s="557"/>
+      <c r="I6" s="591"/>
+      <c r="J6" s="592"/>
+      <c r="K6" s="593"/>
+      <c r="L6" s="502"/>
       <c r="M6" s="139"/>
       <c r="N6" s="140"/>
       <c r="O6" s="140"/>
@@ -8441,27 +8438,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="133"/>
-      <c r="B7" s="559" t="s">
+      <c r="B7" s="558" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="595"/>
-      <c r="D7" s="504">
+      <c r="C7" s="594"/>
+      <c r="D7" s="503">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="561"/>
-      <c r="F7" s="561"/>
-      <c r="G7" s="561"/>
-      <c r="H7" s="562"/>
-      <c r="I7" s="596" t="s">
+      <c r="E7" s="560"/>
+      <c r="F7" s="560"/>
+      <c r="G7" s="560"/>
+      <c r="H7" s="561"/>
+      <c r="I7" s="595" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="595"/>
-      <c r="K7" s="492">
+      <c r="J7" s="594"/>
+      <c r="K7" s="491">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="493"/>
+      <c r="L7" s="492"/>
       <c r="M7" s="142"/>
       <c r="N7" s="140"/>
       <c r="O7" s="140"/>
@@ -8925,19 +8922,19 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="266"/>
-      <c r="B2" s="598"/>
-      <c r="C2" s="599"/>
-      <c r="D2" s="600"/>
-      <c r="E2" s="607" t="s">
+      <c r="B2" s="597"/>
+      <c r="C2" s="598"/>
+      <c r="D2" s="599"/>
+      <c r="E2" s="606" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="608"/>
-      <c r="G2" s="608"/>
-      <c r="H2" s="609"/>
-      <c r="I2" s="613" t="s">
+      <c r="F2" s="607"/>
+      <c r="G2" s="607"/>
+      <c r="H2" s="608"/>
+      <c r="I2" s="612" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="614"/>
+      <c r="J2" s="613"/>
       <c r="K2" s="636">
         <f>Данные!B23</f>
         <v>20</v>
@@ -8946,24 +8943,24 @@
       <c r="M2" s="267"/>
       <c r="N2" s="268"/>
       <c r="O2" s="269"/>
-      <c r="P2" s="640"/>
-      <c r="Q2" s="640"/>
+      <c r="P2" s="635"/>
+      <c r="Q2" s="635"/>
       <c r="R2" s="270"/>
       <c r="S2" s="271"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="266"/>
-      <c r="B3" s="601"/>
-      <c r="C3" s="602"/>
-      <c r="D3" s="603"/>
-      <c r="E3" s="610" t="s">
+      <c r="B3" s="600"/>
+      <c r="C3" s="601"/>
+      <c r="D3" s="602"/>
+      <c r="E3" s="609" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="611"/>
-      <c r="G3" s="611"/>
-      <c r="H3" s="612"/>
-      <c r="I3" s="615"/>
-      <c r="J3" s="616"/>
+      <c r="F3" s="610"/>
+      <c r="G3" s="610"/>
+      <c r="H3" s="611"/>
+      <c r="I3" s="614"/>
+      <c r="J3" s="615"/>
       <c r="K3" s="638"/>
       <c r="L3" s="639"/>
       <c r="M3" s="272"/>
@@ -8976,9 +8973,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="266"/>
-      <c r="B4" s="604"/>
-      <c r="C4" s="605"/>
-      <c r="D4" s="606"/>
+      <c r="B4" s="603"/>
+      <c r="C4" s="604"/>
+      <c r="D4" s="605"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -8997,22 +8994,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="266"/>
-      <c r="B5" s="552" t="s">
+      <c r="B5" s="551" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="591"/>
-      <c r="D5" s="501" t="str">
+      <c r="C5" s="590"/>
+      <c r="D5" s="500" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="502"/>
-      <c r="F5" s="502"/>
-      <c r="G5" s="502"/>
-      <c r="H5" s="503"/>
-      <c r="I5" s="592"/>
-      <c r="J5" s="593"/>
-      <c r="K5" s="594"/>
-      <c r="L5" s="503"/>
+      <c r="E5" s="501"/>
+      <c r="F5" s="501"/>
+      <c r="G5" s="501"/>
+      <c r="H5" s="502"/>
+      <c r="I5" s="591"/>
+      <c r="J5" s="592"/>
+      <c r="K5" s="593"/>
+      <c r="L5" s="502"/>
       <c r="M5" s="275"/>
       <c r="N5" s="273"/>
       <c r="O5" s="273"/>
@@ -9023,22 +9020,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="266"/>
-      <c r="B6" s="552" t="s">
+      <c r="B6" s="551" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="591"/>
-      <c r="D6" s="495" t="str">
+      <c r="C6" s="590"/>
+      <c r="D6" s="494" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="557"/>
-      <c r="F6" s="557"/>
-      <c r="G6" s="557"/>
-      <c r="H6" s="558"/>
-      <c r="I6" s="592"/>
-      <c r="J6" s="593"/>
-      <c r="K6" s="594"/>
-      <c r="L6" s="503"/>
+      <c r="E6" s="556"/>
+      <c r="F6" s="556"/>
+      <c r="G6" s="556"/>
+      <c r="H6" s="557"/>
+      <c r="I6" s="591"/>
+      <c r="J6" s="592"/>
+      <c r="K6" s="593"/>
+      <c r="L6" s="502"/>
       <c r="M6" s="272"/>
       <c r="N6" s="273"/>
       <c r="O6" s="273"/>
@@ -9049,27 +9046,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="266"/>
-      <c r="B7" s="559" t="s">
+      <c r="B7" s="558" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="595"/>
-      <c r="D7" s="504">
+      <c r="C7" s="594"/>
+      <c r="D7" s="503">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="561"/>
-      <c r="F7" s="561"/>
-      <c r="G7" s="561"/>
-      <c r="H7" s="562"/>
-      <c r="I7" s="596" t="s">
+      <c r="E7" s="560"/>
+      <c r="F7" s="560"/>
+      <c r="G7" s="560"/>
+      <c r="H7" s="561"/>
+      <c r="I7" s="595" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="595"/>
-      <c r="K7" s="492">
+      <c r="J7" s="594"/>
+      <c r="K7" s="491">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="493"/>
+      <c r="L7" s="492"/>
       <c r="M7" s="275"/>
       <c r="N7" s="273"/>
       <c r="O7" s="273"/>
@@ -9342,7 +9339,6 @@
     <row r="17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
@@ -9360,6 +9356,7 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="B2:D4"/>
+    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -9386,10 +9383,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9410,11 +9407,11 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="390"/>
-      <c r="B1" s="468" t="s">
+      <c r="B1" s="467" t="s">
         <v>111</v>
       </c>
       <c r="C1" s="390"/>
-      <c r="D1" s="467" t="str">
+      <c r="D1" s="466" t="str">
         <f>Данные!A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
@@ -9444,17 +9441,17 @@
       <c r="L2" s="391"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="511" t="s">
+      <c r="A3" s="510" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="511"/>
-      <c r="C3" s="511"/>
-      <c r="D3" s="511"/>
-      <c r="E3" s="511"/>
-      <c r="F3" s="511"/>
-      <c r="G3" s="511"/>
-      <c r="H3" s="511"/>
-      <c r="I3" s="511"/>
+      <c r="B3" s="510"/>
+      <c r="C3" s="510"/>
+      <c r="D3" s="510"/>
+      <c r="E3" s="510"/>
+      <c r="F3" s="510"/>
+      <c r="G3" s="510"/>
+      <c r="H3" s="510"/>
+      <c r="I3" s="510"/>
       <c r="K3" s="392"/>
       <c r="L3" s="392"/>
       <c r="M3" s="393"/>
@@ -9518,12 +9515,12 @@
         <v>24</v>
       </c>
       <c r="E6" s="404">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F6" s="405"/>
       <c r="G6" s="404">
         <f>E6-F6</f>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H6" s="406"/>
       <c r="I6" s="407"/>
@@ -9549,12 +9546,12 @@
         <v>24</v>
       </c>
       <c r="E7" s="410">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F7" s="389"/>
       <c r="G7" s="410">
         <f t="shared" ref="G7:G17" si="0">E7-F7</f>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H7" s="411"/>
       <c r="I7" s="407"/>
@@ -9580,12 +9577,12 @@
         <v>32</v>
       </c>
       <c r="E8" s="410">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F8" s="389"/>
       <c r="G8" s="410">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H8" s="412"/>
       <c r="I8" s="407"/>
@@ -9611,12 +9608,12 @@
         <v>32</v>
       </c>
       <c r="E9" s="410">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F9" s="389"/>
       <c r="G9" s="410">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H9" s="412"/>
       <c r="I9" s="407"/>
@@ -9642,12 +9639,12 @@
         <v>60</v>
       </c>
       <c r="E10" s="410">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F10" s="389"/>
       <c r="G10" s="410">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H10" s="412"/>
       <c r="I10" s="413"/>
@@ -9673,12 +9670,12 @@
         <v>60</v>
       </c>
       <c r="E11" s="410">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F11" s="389"/>
       <c r="G11" s="410">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H11" s="412"/>
       <c r="I11" s="407"/>
@@ -9767,7 +9764,7 @@
         <f>Данные!$B22</f>
         <v>нет</v>
       </c>
-      <c r="E14" s="466" t="s">
+      <c r="E14" s="465" t="s">
         <v>93</v>
       </c>
       <c r="F14" s="389"/>
@@ -9801,12 +9798,12 @@
         <v>20</v>
       </c>
       <c r="E15" s="410">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F15" s="414"/>
       <c r="G15" s="410">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H15" s="412"/>
       <c r="I15" s="413"/>
@@ -9832,12 +9829,12 @@
         <v>-</v>
       </c>
       <c r="E16" s="410">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F16" s="389"/>
       <c r="G16" s="410">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H16" s="412"/>
       <c r="I16" s="413"/>
@@ -9851,8 +9848,8 @@
         <v>12</v>
       </c>
       <c r="B17" s="418" t="str">
-        <f>Данные!A25</f>
-        <v>Охладитель плунжера</v>
+        <f>Данные!A26</f>
+        <v>Дутьевая головка</v>
       </c>
       <c r="C17" s="419" t="str">
         <f>Данные!C26</f>
@@ -9863,12 +9860,12 @@
         <v>22</v>
       </c>
       <c r="E17" s="420">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F17" s="421"/>
       <c r="G17" s="420">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H17" s="422"/>
       <c r="I17" s="413"/>
@@ -9948,20 +9945,20 @@
       <c r="B21" s="438">
         <v>43825</v>
       </c>
-      <c r="C21" s="474" t="s">
+      <c r="C21" s="473" t="s">
         <v>142</v>
       </c>
       <c r="D21" s="438">
         <v>43468</v>
       </c>
-      <c r="E21" s="490">
+      <c r="E21" s="487">
         <v>1017372</v>
       </c>
-      <c r="F21" s="490">
+      <c r="F21" s="487">
         <v>1082706</v>
       </c>
       <c r="G21" s="433">
-        <f>F21/A$21</f>
+        <f t="shared" ref="G21:G34" si="2">F21/A$21</f>
         <v>6.444678571428572E-2</v>
       </c>
       <c r="H21" s="434">
@@ -9972,13 +9969,13 @@
         <f>1-G21</f>
         <v>0.93555321428571425</v>
       </c>
-      <c r="J21" s="470"/>
+      <c r="J21" s="469"/>
       <c r="K21" s="413"/>
       <c r="L21" s="413"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="437"/>
-      <c r="B22" s="474" t="s">
+      <c r="B22" s="473" t="s">
         <v>142</v>
       </c>
       <c r="C22" s="438">
@@ -9987,25 +9984,25 @@
       <c r="D22" s="438">
         <v>43857</v>
       </c>
-      <c r="E22" s="490">
+      <c r="E22" s="487">
         <v>532824</v>
       </c>
-      <c r="F22" s="490">
+      <c r="F22" s="487">
         <v>549478</v>
       </c>
       <c r="G22" s="433">
-        <f>F22/A$21</f>
+        <f t="shared" si="2"/>
         <v>3.2707023809523811E-2</v>
       </c>
       <c r="H22" s="439">
-        <f t="shared" ref="H22:I24" si="2">H21-F22</f>
+        <f t="shared" ref="H22:I24" si="3">H21-F22</f>
         <v>15167816</v>
       </c>
       <c r="I22" s="440">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.90284619047619041</v>
       </c>
-      <c r="J22" s="471">
+      <c r="J22" s="470">
         <v>354</v>
       </c>
       <c r="K22" s="393"/>
@@ -10016,31 +10013,31 @@
       <c r="B23" s="442">
         <v>43888</v>
       </c>
-      <c r="C23" s="476" t="s">
+      <c r="C23" s="474" t="s">
         <v>142</v>
       </c>
       <c r="D23" s="442">
         <v>43892</v>
       </c>
-      <c r="E23" s="490">
+      <c r="E23" s="487">
         <v>532824</v>
       </c>
-      <c r="F23" s="490">
+      <c r="F23" s="487">
         <v>549478</v>
       </c>
       <c r="G23" s="433">
-        <f>F23/A$21</f>
+        <f t="shared" si="2"/>
         <v>3.2707023809523811E-2</v>
       </c>
       <c r="H23" s="439">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14618338</v>
       </c>
       <c r="I23" s="440">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.87013916666666657</v>
       </c>
-      <c r="J23" s="472">
+      <c r="J23" s="471">
         <v>351</v>
       </c>
       <c r="K23" s="413"/>
@@ -10048,7 +10045,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="441"/>
-      <c r="B24" s="479" t="s">
+      <c r="B24" s="477" t="s">
         <v>142</v>
       </c>
       <c r="C24" s="442">
@@ -10057,25 +10054,25 @@
       <c r="D24" s="442">
         <v>43900</v>
       </c>
-      <c r="E24" s="486">
+      <c r="E24" s="483">
         <v>899364</v>
       </c>
-      <c r="F24" s="486">
+      <c r="F24" s="483">
         <v>920724</v>
       </c>
       <c r="G24" s="433">
-        <f>F24/A$21</f>
+        <f t="shared" si="2"/>
         <v>5.4805E-2</v>
       </c>
       <c r="H24" s="439">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13697614</v>
       </c>
       <c r="I24" s="440">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.81533416666666658</v>
       </c>
-      <c r="J24" s="480">
+      <c r="J24" s="478">
         <v>351</v>
       </c>
       <c r="K24" s="436"/>
@@ -10089,242 +10086,425 @@
       <c r="C25" s="442">
         <v>43961</v>
       </c>
-      <c r="D25" s="476">
+      <c r="D25" s="474">
         <v>43972</v>
       </c>
-      <c r="E25" s="487">
+      <c r="E25" s="484">
         <v>1553772</v>
       </c>
-      <c r="F25" s="487">
+      <c r="F25" s="484">
         <v>1615753</v>
       </c>
-      <c r="G25" s="444">
-        <f>F25/A$21</f>
+      <c r="G25" s="443">
+        <f t="shared" si="2"/>
         <v>9.6175773809523815E-2</v>
       </c>
       <c r="H25" s="439">
-        <f t="shared" ref="H25" si="3">H24-F25</f>
+        <f t="shared" ref="H25" si="4">H24-F25</f>
         <v>12081861</v>
       </c>
       <c r="I25" s="440">
-        <f t="shared" ref="I25" si="4">I24-G25</f>
+        <f t="shared" ref="I25" si="5">I24-G25</f>
         <v>0.71915839285714278</v>
       </c>
-      <c r="J25" s="472">
+      <c r="J25" s="471">
         <v>351</v>
       </c>
-      <c r="K25" s="445"/>
+      <c r="K25" s="444"/>
       <c r="L25" s="393"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="441"/>
-      <c r="B26" s="442"/>
-      <c r="C26" s="442"/>
-      <c r="D26" s="442"/>
-      <c r="E26" s="487"/>
-      <c r="F26" s="487"/>
-      <c r="G26" s="444"/>
-      <c r="H26" s="439"/>
-      <c r="I26" s="443"/>
-      <c r="J26" s="472"/>
+      <c r="B26" s="442">
+        <v>44006</v>
+      </c>
+      <c r="C26" s="442">
+        <v>44011</v>
+      </c>
+      <c r="D26" s="442">
+        <v>44021</v>
+      </c>
+      <c r="E26" s="484">
+        <v>1054920</v>
+      </c>
+      <c r="F26" s="484">
+        <v>1095588</v>
+      </c>
+      <c r="G26" s="443">
+        <f t="shared" si="2"/>
+        <v>6.5213571428571426E-2</v>
+      </c>
+      <c r="H26" s="439">
+        <f t="shared" ref="H26" si="6">H25-F26</f>
+        <v>10986273</v>
+      </c>
+      <c r="I26" s="440">
+        <f t="shared" ref="I26" si="7">I25-G26</f>
+        <v>0.65394482142857135</v>
+      </c>
+      <c r="J26" s="471">
+        <v>352</v>
+      </c>
       <c r="K26" s="436"/>
       <c r="L26" s="393"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="441"/>
-      <c r="B27" s="442"/>
-      <c r="C27" s="442"/>
-      <c r="D27" s="442"/>
-      <c r="E27" s="487"/>
-      <c r="F27" s="487"/>
-      <c r="G27" s="444"/>
-      <c r="H27" s="439"/>
-      <c r="I27" s="443"/>
-      <c r="J27" s="472"/>
+      <c r="B27" s="442">
+        <v>44039</v>
+      </c>
+      <c r="C27" s="474" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" s="442">
+        <v>44046</v>
+      </c>
+      <c r="E27" s="484">
+        <v>876120</v>
+      </c>
+      <c r="F27" s="484">
+        <v>912319</v>
+      </c>
+      <c r="G27" s="443">
+        <f t="shared" si="2"/>
+        <v>5.4304702380952384E-2</v>
+      </c>
+      <c r="H27" s="439">
+        <f t="shared" ref="H27" si="8">H26-F27</f>
+        <v>10073954</v>
+      </c>
+      <c r="I27" s="440">
+        <f t="shared" ref="I27" si="9">I26-G27</f>
+        <v>0.59964011904761894</v>
+      </c>
+      <c r="J27" s="471">
+        <v>351</v>
+      </c>
       <c r="K27" s="436"/>
       <c r="L27" s="393"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="441"/>
-      <c r="B28" s="442"/>
-      <c r="C28" s="442"/>
-      <c r="D28" s="442"/>
-      <c r="E28" s="487"/>
-      <c r="F28" s="487"/>
-      <c r="G28" s="444"/>
-      <c r="H28" s="439"/>
-      <c r="I28" s="443"/>
-      <c r="J28" s="472"/>
+      <c r="B28" s="442" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" s="442">
+        <v>44049</v>
+      </c>
+      <c r="D28" s="442">
+        <v>44070</v>
+      </c>
+      <c r="E28" s="484">
+        <v>1078164</v>
+      </c>
+      <c r="F28" s="484">
+        <v>1107288</v>
+      </c>
+      <c r="G28" s="443">
+        <f t="shared" si="2"/>
+        <v>6.5909999999999996E-2</v>
+      </c>
+      <c r="H28" s="439">
+        <f t="shared" ref="H28" si="10">H27-F28</f>
+        <v>8966666</v>
+      </c>
+      <c r="I28" s="440">
+        <f t="shared" ref="I28" si="11">I27-G28</f>
+        <v>0.53373011904761891</v>
+      </c>
+      <c r="J28" s="471">
+        <v>351</v>
+      </c>
       <c r="K28" s="436"/>
       <c r="L28" s="393"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="441"/>
-      <c r="B29" s="442"/>
-      <c r="C29" s="442"/>
-      <c r="D29" s="475"/>
-      <c r="E29" s="486"/>
-      <c r="F29" s="487"/>
-      <c r="G29" s="446"/>
-      <c r="H29" s="439"/>
-      <c r="I29" s="481"/>
-      <c r="J29" s="482"/>
+      <c r="B29" s="442">
+        <v>44102</v>
+      </c>
+      <c r="C29" s="474" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" s="442">
+        <v>44105</v>
+      </c>
+      <c r="E29" s="483">
+        <v>514944</v>
+      </c>
+      <c r="F29" s="484">
+        <v>546624</v>
+      </c>
+      <c r="G29" s="445">
+        <f t="shared" si="2"/>
+        <v>3.2537142857142855E-2</v>
+      </c>
+      <c r="H29" s="439">
+        <f t="shared" ref="H29" si="12">H28-F29</f>
+        <v>8420042</v>
+      </c>
+      <c r="I29" s="440">
+        <f t="shared" ref="I29" si="13">I28-G29</f>
+        <v>0.50119297619047609</v>
+      </c>
+      <c r="J29" s="479">
+        <v>352</v>
+      </c>
       <c r="K29" s="436"/>
       <c r="L29" s="393"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="441"/>
-      <c r="B30" s="442"/>
-      <c r="C30" s="442"/>
-      <c r="D30" s="475"/>
-      <c r="E30" s="486"/>
-      <c r="F30" s="487"/>
-      <c r="G30" s="444"/>
-      <c r="H30" s="439"/>
-      <c r="I30" s="481"/>
-      <c r="J30" s="482"/>
+      <c r="B30" s="474" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" s="442">
+        <v>44112</v>
+      </c>
+      <c r="D30" s="442">
+        <v>44137</v>
+      </c>
+      <c r="E30" s="483">
+        <v>1442916</v>
+      </c>
+      <c r="F30" s="484">
+        <v>1475136</v>
+      </c>
+      <c r="G30" s="443">
+        <f t="shared" si="2"/>
+        <v>8.7805714285714292E-2</v>
+      </c>
+      <c r="H30" s="439">
+        <f t="shared" ref="H30" si="14">H29-F30</f>
+        <v>6944906</v>
+      </c>
+      <c r="I30" s="440">
+        <f t="shared" ref="I30" si="15">I29-G30</f>
+        <v>0.41338726190476183</v>
+      </c>
+      <c r="J30" s="479">
+        <v>352</v>
+      </c>
       <c r="K30" s="436"/>
       <c r="L30" s="393"/>
     </row>
-    <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="447"/>
-      <c r="B31" s="448"/>
-      <c r="C31" s="448"/>
-      <c r="D31" s="483"/>
-      <c r="E31" s="488"/>
-      <c r="F31" s="489"/>
-      <c r="G31" s="449"/>
-      <c r="H31" s="439"/>
-      <c r="I31" s="484"/>
-      <c r="J31" s="485"/>
-      <c r="K31" s="393"/>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="446"/>
+      <c r="B31" s="488">
+        <v>44159</v>
+      </c>
+      <c r="C31" s="488" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" s="447">
+        <v>44166</v>
+      </c>
+      <c r="E31" s="485">
+        <v>1246236</v>
+      </c>
+      <c r="F31" s="486">
+        <v>1289995</v>
+      </c>
+      <c r="G31" s="448">
+        <f t="shared" si="2"/>
+        <v>7.6785416666666662E-2</v>
+      </c>
+      <c r="H31" s="439">
+        <f t="shared" ref="H31" si="16">H30-F31</f>
+        <v>5654911</v>
+      </c>
+      <c r="I31" s="440">
+        <f t="shared" ref="I31" si="17">I30-G31</f>
+        <v>0.33660184523809517</v>
+      </c>
+      <c r="J31" s="482">
+        <v>352</v>
+      </c>
+      <c r="K31" s="436"/>
       <c r="L31" s="393"/>
     </row>
-    <row r="32" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="450" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="446"/>
+      <c r="B32" s="488" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" s="447">
+        <v>44171</v>
+      </c>
+      <c r="D32" s="447">
+        <v>44200</v>
+      </c>
+      <c r="E32" s="485">
+        <v>1088892</v>
+      </c>
+      <c r="F32" s="486">
+        <v>1107662</v>
+      </c>
+      <c r="G32" s="448">
+        <f t="shared" si="2"/>
+        <v>6.593226190476191E-2</v>
+      </c>
+      <c r="H32" s="439">
+        <f t="shared" ref="H32" si="18">H31-F32</f>
+        <v>4547249</v>
+      </c>
+      <c r="I32" s="440">
+        <f t="shared" ref="I32" si="19">I31-G32</f>
+        <v>0.27066958333333324</v>
+      </c>
+      <c r="J32" s="482">
+        <v>353</v>
+      </c>
+      <c r="K32" s="436"/>
+      <c r="L32" s="393"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="446"/>
+      <c r="B33" s="488">
+        <v>44271</v>
+      </c>
+      <c r="C33" s="447">
+        <v>44277</v>
+      </c>
+      <c r="D33" s="447">
+        <v>44287</v>
+      </c>
+      <c r="E33" s="485">
+        <v>1264116</v>
+      </c>
+      <c r="F33" s="486">
+        <v>1293084</v>
+      </c>
+      <c r="G33" s="448">
+        <f t="shared" si="2"/>
+        <v>7.6969285714285712E-2</v>
+      </c>
+      <c r="H33" s="439">
+        <f t="shared" ref="H33" si="20">H32-F33</f>
+        <v>3254165</v>
+      </c>
+      <c r="I33" s="440">
+        <f t="shared" ref="I33" si="21">I32-G33</f>
+        <v>0.19370029761904753</v>
+      </c>
+      <c r="J33" s="482">
+        <v>352</v>
+      </c>
+      <c r="K33" s="436"/>
+      <c r="L33" s="393"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="446"/>
+      <c r="B34" s="488">
+        <v>44344</v>
+      </c>
+      <c r="C34" s="488" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" s="447">
+        <v>44349</v>
+      </c>
+      <c r="E34" s="485">
+        <v>704472</v>
+      </c>
+      <c r="F34" s="486">
+        <v>735696</v>
+      </c>
+      <c r="G34" s="448">
+        <f t="shared" si="2"/>
+        <v>4.3791428571428571E-2</v>
+      </c>
+      <c r="H34" s="439">
+        <f t="shared" ref="H34" si="22">H33-F34</f>
+        <v>2518469</v>
+      </c>
+      <c r="I34" s="440">
+        <f t="shared" ref="I34" si="23">I33-G34</f>
+        <v>0.14990886904761896</v>
+      </c>
+      <c r="J34" s="482">
+        <v>352</v>
+      </c>
+      <c r="K34" s="436"/>
+      <c r="L34" s="393"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="446"/>
+      <c r="B35" s="488"/>
+      <c r="C35" s="447"/>
+      <c r="D35" s="447"/>
+      <c r="E35" s="485"/>
+      <c r="F35" s="486"/>
+      <c r="G35" s="448"/>
+      <c r="H35" s="439"/>
+      <c r="I35" s="489"/>
+      <c r="J35" s="482"/>
+      <c r="K35" s="436"/>
+      <c r="L35" s="393"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="446"/>
+      <c r="B36" s="488"/>
+      <c r="C36" s="447"/>
+      <c r="D36" s="447"/>
+      <c r="E36" s="485"/>
+      <c r="F36" s="486"/>
+      <c r="G36" s="448"/>
+      <c r="H36" s="439"/>
+      <c r="I36" s="489"/>
+      <c r="J36" s="482"/>
+      <c r="K36" s="436"/>
+      <c r="L36" s="393"/>
+    </row>
+    <row r="37" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="446"/>
+      <c r="B37" s="447"/>
+      <c r="C37" s="447"/>
+      <c r="D37" s="480"/>
+      <c r="E37" s="485"/>
+      <c r="F37" s="486"/>
+      <c r="G37" s="448"/>
+      <c r="H37" s="439"/>
+      <c r="I37" s="481"/>
+      <c r="J37" s="482"/>
+      <c r="K37" s="393"/>
+      <c r="L37" s="393"/>
+    </row>
+    <row r="38" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="449" t="s">
         <v>131</v>
       </c>
-      <c r="B32" s="451"/>
-      <c r="C32" s="451"/>
-      <c r="D32" s="452"/>
-      <c r="E32" s="477">
-        <f>SUM(E21:E31)</f>
-        <v>4536156</v>
-      </c>
-      <c r="F32" s="478">
-        <f>SUM(F21:F31)</f>
-        <v>4718139</v>
-      </c>
-      <c r="G32" s="453">
-        <f>SUM(G21:G31)</f>
-        <v>0.28084160714285716</v>
-      </c>
-      <c r="H32" s="454">
-        <f>A21-F32</f>
-        <v>12081861</v>
-      </c>
-      <c r="I32" s="455">
-        <f>1-G32</f>
-        <v>0.71915839285714278</v>
-      </c>
-      <c r="J32" s="473"/>
-      <c r="K32" s="456"/>
-      <c r="L32" s="456"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="393"/>
-      <c r="B35" s="393"/>
-      <c r="C35" s="393"/>
-      <c r="D35" s="393"/>
-      <c r="E35" s="393"/>
-      <c r="F35" s="393"/>
-      <c r="G35" s="393"/>
-      <c r="H35" s="393"/>
-      <c r="I35" s="393"/>
-      <c r="J35" s="393"/>
-    </row>
-    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="512" t="s">
-        <v>132</v>
-      </c>
-      <c r="B36" s="512"/>
-      <c r="C36" s="512"/>
-      <c r="D36" s="512"/>
-      <c r="E36" s="393"/>
-      <c r="F36" s="393"/>
-      <c r="G36" s="393"/>
-      <c r="H36" s="393"/>
-      <c r="I36" s="393"/>
-      <c r="J36" s="393"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="513" t="s">
-        <v>133</v>
-      </c>
-      <c r="B37" s="513"/>
-      <c r="C37" s="457" t="s">
-        <v>134</v>
-      </c>
-      <c r="D37" s="457" t="s">
-        <v>135</v>
-      </c>
-      <c r="E37" s="393"/>
-      <c r="F37" s="393"/>
-      <c r="G37" s="393"/>
-      <c r="H37" s="393"/>
-      <c r="I37" s="393"/>
-      <c r="J37" s="393"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="514">
-        <f>A21-F32</f>
-        <v>12081861</v>
-      </c>
-      <c r="B38" s="515"/>
-      <c r="C38" s="458">
-        <f>1-G32</f>
-        <v>0.71915839285714278</v>
-      </c>
-      <c r="D38" s="459">
-        <f>(C38/0.8)*100</f>
-        <v>89.894799107142845</v>
-      </c>
-      <c r="E38" s="460" t="s">
-        <v>136</v>
-      </c>
-      <c r="F38" s="460"/>
-      <c r="G38" s="460"/>
-      <c r="H38" s="460"/>
-      <c r="I38" s="460"/>
-      <c r="J38" s="460"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="393"/>
-      <c r="B39" s="393"/>
-      <c r="C39" s="393"/>
-      <c r="D39" s="393"/>
-      <c r="E39" s="393"/>
-      <c r="F39" s="393"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="393"/>
-      <c r="B40" s="393"/>
-      <c r="C40" s="393"/>
-      <c r="D40" s="393"/>
-      <c r="E40" s="393"/>
-      <c r="F40" s="393"/>
-      <c r="G40" s="393"/>
-      <c r="H40" s="393"/>
-      <c r="I40" s="393"/>
-      <c r="J40" s="393"/>
-      <c r="K40" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="450"/>
+      <c r="C38" s="450"/>
+      <c r="D38" s="451"/>
+      <c r="E38" s="475">
+        <f>SUM(E21:E37)</f>
+        <v>13806936</v>
+      </c>
+      <c r="F38" s="476">
+        <f>SUM(F21:F37)</f>
+        <v>14281531</v>
+      </c>
+      <c r="G38" s="452">
+        <f>SUM(G21:G37)</f>
+        <v>0.85009113095238098</v>
+      </c>
+      <c r="H38" s="453">
+        <f>A21-F38</f>
+        <v>2518469</v>
+      </c>
+      <c r="I38" s="454">
+        <f>1-G38</f>
+        <v>0.14990886904761902</v>
+      </c>
+      <c r="J38" s="472"/>
+      <c r="K38" s="455"/>
+      <c r="L38" s="455"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="393"/>
-      <c r="B41" s="461"/>
-      <c r="C41" s="461"/>
+      <c r="B41" s="393"/>
+      <c r="C41" s="393"/>
       <c r="D41" s="393"/>
       <c r="E41" s="393"/>
       <c r="F41" s="393"/>
@@ -10333,193 +10513,283 @@
       <c r="I41" s="393"/>
       <c r="J41" s="393"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="462"/>
-      <c r="B42" s="462"/>
-      <c r="C42" s="462"/>
-      <c r="D42" s="462"/>
-      <c r="E42" s="462"/>
-      <c r="F42" s="462"/>
-      <c r="G42" s="462"/>
-      <c r="H42" s="462"/>
-      <c r="I42" s="516"/>
-      <c r="J42" s="517"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="463"/>
-      <c r="B43" s="464"/>
-      <c r="C43" s="464"/>
-      <c r="D43" s="393"/>
+    <row r="42" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="511" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" s="511"/>
+      <c r="C42" s="511"/>
+      <c r="D42" s="511"/>
+      <c r="E42" s="393"/>
+      <c r="F42" s="393"/>
+      <c r="G42" s="393"/>
+      <c r="H42" s="393"/>
+      <c r="I42" s="393"/>
+      <c r="J42" s="393"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="512" t="s">
+        <v>133</v>
+      </c>
+      <c r="B43" s="512"/>
+      <c r="C43" s="456" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" s="456" t="s">
+        <v>135</v>
+      </c>
       <c r="E43" s="393"/>
-      <c r="F43" s="464"/>
-      <c r="G43" s="423"/>
-      <c r="H43" s="464"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="463"/>
-      <c r="B44" s="464"/>
-      <c r="C44" s="464"/>
-      <c r="D44" s="464"/>
-      <c r="E44" s="464"/>
-      <c r="F44" s="464"/>
-      <c r="G44" s="423"/>
-      <c r="H44" s="464"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="463"/>
-      <c r="B45" s="464"/>
-      <c r="C45" s="464"/>
+      <c r="F43" s="393"/>
+      <c r="G43" s="393"/>
+      <c r="H43" s="393"/>
+      <c r="I43" s="393"/>
+      <c r="J43" s="393"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="513">
+        <f>A21-F38</f>
+        <v>2518469</v>
+      </c>
+      <c r="B44" s="514"/>
+      <c r="C44" s="457">
+        <f>1-G38</f>
+        <v>0.14990886904761902</v>
+      </c>
+      <c r="D44" s="458">
+        <f>(C44/0.8)*100</f>
+        <v>18.738608630952378</v>
+      </c>
+      <c r="E44" s="459" t="s">
+        <v>136</v>
+      </c>
+      <c r="F44" s="459"/>
+      <c r="G44" s="459"/>
+      <c r="H44" s="459"/>
+      <c r="I44" s="459"/>
+      <c r="J44" s="459"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="393"/>
+      <c r="B45" s="393"/>
+      <c r="C45" s="393"/>
       <c r="D45" s="393"/>
       <c r="E45" s="393"/>
-      <c r="F45" s="464"/>
-      <c r="G45" s="423"/>
-      <c r="H45" s="464"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="463"/>
-      <c r="B46" s="464"/>
-      <c r="C46" s="464"/>
-      <c r="D46" s="464"/>
-      <c r="E46" s="464"/>
-      <c r="F46" s="464"/>
-      <c r="G46" s="423"/>
-      <c r="H46" s="464"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="463"/>
-      <c r="B47" s="464"/>
-      <c r="C47" s="464"/>
+      <c r="F45" s="393"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="393"/>
+      <c r="B46" s="393"/>
+      <c r="C46" s="393"/>
+      <c r="D46" s="393"/>
+      <c r="E46" s="393"/>
+      <c r="F46" s="393"/>
+      <c r="G46" s="393"/>
+      <c r="H46" s="393"/>
+      <c r="I46" s="393"/>
+      <c r="J46" s="393"/>
+      <c r="K46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="393"/>
+      <c r="B47" s="460"/>
+      <c r="C47" s="460"/>
       <c r="D47" s="393"/>
       <c r="E47" s="393"/>
-      <c r="F47" s="464"/>
-      <c r="G47" s="423"/>
-      <c r="H47" s="464"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="463"/>
-      <c r="B48" s="464"/>
-      <c r="C48" s="413"/>
-      <c r="D48" s="465"/>
-      <c r="E48" s="465"/>
-      <c r="F48" s="413"/>
-      <c r="G48" s="413"/>
-      <c r="H48" s="413"/>
+      <c r="F47" s="393"/>
+      <c r="G47" s="393"/>
+      <c r="H47" s="393"/>
+      <c r="I47" s="393"/>
+      <c r="J47" s="393"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="461"/>
+      <c r="B48" s="461"/>
+      <c r="C48" s="461"/>
+      <c r="D48" s="461"/>
+      <c r="E48" s="461"/>
+      <c r="F48" s="461"/>
+      <c r="G48" s="461"/>
+      <c r="H48" s="461"/>
+      <c r="I48" s="515"/>
+      <c r="J48" s="516"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="463"/>
-      <c r="B49" s="464"/>
-      <c r="C49" s="464"/>
-      <c r="D49" s="464"/>
-      <c r="E49" s="464"/>
-      <c r="F49" s="464"/>
+      <c r="A49" s="462"/>
+      <c r="B49" s="463"/>
+      <c r="C49" s="463"/>
+      <c r="D49" s="393"/>
+      <c r="E49" s="393"/>
+      <c r="F49" s="463"/>
       <c r="G49" s="423"/>
-      <c r="H49" s="464"/>
+      <c r="H49" s="463"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="463"/>
-      <c r="B50" s="464"/>
-      <c r="C50" s="464"/>
-      <c r="D50" s="464"/>
-      <c r="E50" s="464"/>
-      <c r="F50" s="464"/>
+      <c r="A50" s="462"/>
+      <c r="B50" s="463"/>
+      <c r="C50" s="463"/>
+      <c r="D50" s="463"/>
+      <c r="E50" s="463"/>
+      <c r="F50" s="463"/>
       <c r="G50" s="423"/>
-      <c r="H50" s="464"/>
+      <c r="H50" s="463"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="463"/>
-      <c r="B51" s="464"/>
-      <c r="C51" s="464"/>
+      <c r="A51" s="462"/>
+      <c r="B51" s="463"/>
+      <c r="C51" s="463"/>
       <c r="D51" s="393"/>
       <c r="E51" s="393"/>
-      <c r="F51" s="464"/>
+      <c r="F51" s="463"/>
       <c r="G51" s="423"/>
-      <c r="H51" s="464"/>
-    </row>
-    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="393"/>
-      <c r="B52" s="509"/>
-      <c r="C52" s="509"/>
-      <c r="D52" s="510"/>
-      <c r="E52" s="460"/>
-      <c r="F52" s="393"/>
-      <c r="G52" s="393"/>
-      <c r="H52" s="393"/>
-      <c r="I52" s="393"/>
-      <c r="J52" s="393"/>
+      <c r="H51" s="463"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="462"/>
+      <c r="B52" s="463"/>
+      <c r="C52" s="463"/>
+      <c r="D52" s="463"/>
+      <c r="E52" s="463"/>
+      <c r="F52" s="463"/>
+      <c r="G52" s="423"/>
+      <c r="H52" s="463"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="462"/>
-      <c r="B53" s="462"/>
-      <c r="C53" s="462"/>
-      <c r="D53" s="462"/>
-      <c r="E53" s="462"/>
-      <c r="F53" s="462"/>
-      <c r="G53" s="462"/>
-      <c r="H53" s="462"/>
-      <c r="I53" s="516"/>
-      <c r="J53" s="517"/>
+      <c r="B53" s="463"/>
+      <c r="C53" s="463"/>
+      <c r="D53" s="393"/>
+      <c r="E53" s="393"/>
+      <c r="F53" s="463"/>
+      <c r="G53" s="423"/>
+      <c r="H53" s="463"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="463"/>
-      <c r="B54" s="393"/>
-      <c r="C54" s="393"/>
-      <c r="D54" s="393"/>
-      <c r="E54" s="393"/>
-      <c r="F54" s="423"/>
-      <c r="G54" s="423"/>
-      <c r="H54" s="464"/>
-      <c r="I54" s="518"/>
-      <c r="J54" s="518"/>
+      <c r="A54" s="462"/>
+      <c r="B54" s="463"/>
+      <c r="C54" s="413"/>
+      <c r="D54" s="464"/>
+      <c r="E54" s="464"/>
+      <c r="F54" s="413"/>
+      <c r="G54" s="413"/>
+      <c r="H54" s="413"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="463"/>
-      <c r="B55" s="393"/>
-      <c r="C55" s="393"/>
-      <c r="D55" s="413"/>
-      <c r="E55" s="413"/>
-      <c r="F55" s="413"/>
-      <c r="G55" s="413"/>
-      <c r="H55" s="413"/>
-      <c r="I55" s="518"/>
-      <c r="J55" s="518"/>
+      <c r="A55" s="462"/>
+      <c r="B55" s="463"/>
+      <c r="C55" s="463"/>
+      <c r="D55" s="463"/>
+      <c r="E55" s="463"/>
+      <c r="F55" s="463"/>
+      <c r="G55" s="423"/>
+      <c r="H55" s="463"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="393"/>
-      <c r="B56" s="393"/>
-      <c r="C56" s="393"/>
-      <c r="D56" s="393"/>
-      <c r="E56" s="393"/>
-      <c r="F56" s="393"/>
-      <c r="G56" s="393"/>
-      <c r="H56" s="393"/>
+      <c r="A56" s="462"/>
+      <c r="B56" s="463"/>
+      <c r="C56" s="463"/>
+      <c r="D56" s="463"/>
+      <c r="E56" s="463"/>
+      <c r="F56" s="463"/>
+      <c r="G56" s="423"/>
+      <c r="H56" s="463"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="462"/>
+      <c r="B57" s="463"/>
+      <c r="C57" s="463"/>
+      <c r="D57" s="393"/>
+      <c r="E57" s="393"/>
+      <c r="F57" s="463"/>
+      <c r="G57" s="423"/>
+      <c r="H57" s="463"/>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="393"/>
+      <c r="B58" s="508"/>
+      <c r="C58" s="508"/>
+      <c r="D58" s="509"/>
+      <c r="E58" s="459"/>
+      <c r="F58" s="393"/>
+      <c r="G58" s="393"/>
+      <c r="H58" s="393"/>
+      <c r="I58" s="393"/>
+      <c r="J58" s="393"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="461"/>
+      <c r="B59" s="461"/>
+      <c r="C59" s="461"/>
+      <c r="D59" s="461"/>
+      <c r="E59" s="461"/>
+      <c r="F59" s="461"/>
+      <c r="G59" s="461"/>
+      <c r="H59" s="461"/>
+      <c r="I59" s="515"/>
+      <c r="J59" s="516"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="462"/>
+      <c r="B60" s="393"/>
+      <c r="C60" s="393"/>
+      <c r="D60" s="393"/>
+      <c r="E60" s="393"/>
+      <c r="F60" s="423"/>
+      <c r="G60" s="423"/>
+      <c r="H60" s="463"/>
+      <c r="I60" s="517"/>
+      <c r="J60" s="517"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="516"/>
-      <c r="C61" s="517"/>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B68" s="516"/>
-      <c r="C68" s="517"/>
+      <c r="A61" s="462"/>
+      <c r="B61" s="393"/>
+      <c r="C61" s="393"/>
+      <c r="D61" s="413"/>
+      <c r="E61" s="413"/>
+      <c r="F61" s="413"/>
+      <c r="G61" s="413"/>
+      <c r="H61" s="413"/>
+      <c r="I61" s="517"/>
+      <c r="J61" s="517"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="393"/>
+      <c r="B62" s="393"/>
+      <c r="C62" s="393"/>
+      <c r="D62" s="393"/>
+      <c r="E62" s="393"/>
+      <c r="F62" s="393"/>
+      <c r="G62" s="393"/>
+      <c r="H62" s="393"/>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B67" s="515"/>
+      <c r="C67" s="516"/>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B74" s="515"/>
+      <c r="C74" s="516"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B58:D58"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="I48:J48"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="38" max="16383" man="1"/>
+    <brk id="44" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -10528,7 +10798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:K57"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B31" sqref="B31:D31"/>
     </sheetView>
   </sheetViews>
@@ -10596,47 +10866,47 @@
       <c r="J8" s="317"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="520" t="s">
+      <c r="A11" s="519" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="520"/>
-      <c r="C11" s="520"/>
-      <c r="D11" s="520"/>
-      <c r="E11" s="520"/>
-      <c r="F11" s="520"/>
-      <c r="G11" s="520"/>
-      <c r="H11" s="520"/>
-      <c r="I11" s="520"/>
-      <c r="J11" s="520"/>
+      <c r="B11" s="519"/>
+      <c r="C11" s="519"/>
+      <c r="D11" s="519"/>
+      <c r="E11" s="519"/>
+      <c r="F11" s="519"/>
+      <c r="G11" s="519"/>
+      <c r="H11" s="519"/>
+      <c r="I11" s="519"/>
+      <c r="J11" s="519"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="519" t="s">
+      <c r="A12" s="518" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="519"/>
-      <c r="C12" s="519"/>
-      <c r="D12" s="519"/>
-      <c r="E12" s="519"/>
-      <c r="F12" s="519"/>
-      <c r="G12" s="519"/>
-      <c r="H12" s="519"/>
-      <c r="I12" s="519"/>
-      <c r="J12" s="519"/>
+      <c r="B12" s="518"/>
+      <c r="C12" s="518"/>
+      <c r="D12" s="518"/>
+      <c r="E12" s="518"/>
+      <c r="F12" s="518"/>
+      <c r="G12" s="518"/>
+      <c r="H12" s="518"/>
+      <c r="I12" s="518"/>
+      <c r="J12" s="518"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="521" t="str">
+      <c r="A13" s="520" t="str">
         <f>Данные!A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="B13" s="520"/>
-      <c r="C13" s="520"/>
-      <c r="D13" s="520"/>
-      <c r="E13" s="520"/>
-      <c r="F13" s="520"/>
-      <c r="G13" s="520"/>
-      <c r="H13" s="520"/>
-      <c r="I13" s="520"/>
-      <c r="J13" s="520"/>
+      <c r="B13" s="519"/>
+      <c r="C13" s="519"/>
+      <c r="D13" s="519"/>
+      <c r="E13" s="519"/>
+      <c r="F13" s="519"/>
+      <c r="G13" s="519"/>
+      <c r="H13" s="519"/>
+      <c r="I13" s="519"/>
+      <c r="J13" s="519"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="311" t="s">
@@ -10761,482 +11031,482 @@
       <c r="J21" s="312"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="525" t="s">
+      <c r="A22" s="524" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="525" t="s">
+      <c r="B22" s="524" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="525"/>
-      <c r="D22" s="525"/>
-      <c r="E22" s="525" t="s">
+      <c r="C22" s="524"/>
+      <c r="D22" s="524"/>
+      <c r="E22" s="524" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="525"/>
-      <c r="G22" s="543" t="s">
+      <c r="F22" s="524"/>
+      <c r="G22" s="542" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="525" t="s">
+      <c r="H22" s="524" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="525"/>
-      <c r="J22" s="525"/>
+      <c r="I22" s="524"/>
+      <c r="J22" s="524"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="525"/>
-      <c r="B23" s="525"/>
-      <c r="C23" s="525"/>
-      <c r="D23" s="525"/>
-      <c r="E23" s="525"/>
-      <c r="F23" s="525"/>
-      <c r="G23" s="543"/>
-      <c r="H23" s="525"/>
-      <c r="I23" s="525"/>
-      <c r="J23" s="525"/>
+      <c r="A23" s="524"/>
+      <c r="B23" s="524"/>
+      <c r="C23" s="524"/>
+      <c r="D23" s="524"/>
+      <c r="E23" s="524"/>
+      <c r="F23" s="524"/>
+      <c r="G23" s="542"/>
+      <c r="H23" s="524"/>
+      <c r="I23" s="524"/>
+      <c r="J23" s="524"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="526">
+      <c r="A24" s="525">
         <v>1</v>
       </c>
-      <c r="B24" s="540" t="s">
+      <c r="B24" s="539" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="541"/>
-      <c r="D24" s="542"/>
-      <c r="E24" s="528" t="str">
+      <c r="C24" s="540"/>
+      <c r="D24" s="541"/>
+      <c r="E24" s="527" t="str">
         <f>Данные!C14</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F24" s="529"/>
-      <c r="G24" s="532">
+      <c r="F24" s="528"/>
+      <c r="G24" s="531">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="H24" s="534"/>
-      <c r="I24" s="535"/>
-      <c r="J24" s="536"/>
+      <c r="H24" s="533"/>
+      <c r="I24" s="534"/>
+      <c r="J24" s="535"/>
     </row>
     <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="527"/>
-      <c r="B25" s="522" t="str">
+      <c r="A25" s="526"/>
+      <c r="B25" s="521" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C25" s="523"/>
-      <c r="D25" s="524"/>
-      <c r="E25" s="530"/>
-      <c r="F25" s="531"/>
-      <c r="G25" s="533"/>
-      <c r="H25" s="537"/>
-      <c r="I25" s="538"/>
-      <c r="J25" s="539"/>
+      <c r="C25" s="522"/>
+      <c r="D25" s="523"/>
+      <c r="E25" s="529"/>
+      <c r="F25" s="530"/>
+      <c r="G25" s="532"/>
+      <c r="H25" s="536"/>
+      <c r="I25" s="537"/>
+      <c r="J25" s="538"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="526">
+      <c r="A26" s="525">
         <v>1</v>
       </c>
-      <c r="B26" s="544" t="s">
+      <c r="B26" s="543" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="545"/>
-      <c r="D26" s="546"/>
-      <c r="E26" s="528" t="str">
+      <c r="C26" s="544"/>
+      <c r="D26" s="545"/>
+      <c r="E26" s="527" t="str">
         <f>Данные!C15</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F26" s="529"/>
-      <c r="G26" s="532">
+      <c r="F26" s="528"/>
+      <c r="G26" s="531">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="H26" s="534"/>
-      <c r="I26" s="535"/>
-      <c r="J26" s="536"/>
+      <c r="H26" s="533"/>
+      <c r="I26" s="534"/>
+      <c r="J26" s="535"/>
     </row>
     <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="527"/>
-      <c r="B27" s="522" t="str">
+      <c r="A27" s="526"/>
+      <c r="B27" s="521" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C27" s="523"/>
-      <c r="D27" s="524"/>
-      <c r="E27" s="530"/>
-      <c r="F27" s="531"/>
-      <c r="G27" s="533"/>
-      <c r="H27" s="537"/>
-      <c r="I27" s="538"/>
-      <c r="J27" s="539"/>
+      <c r="C27" s="522"/>
+      <c r="D27" s="523"/>
+      <c r="E27" s="529"/>
+      <c r="F27" s="530"/>
+      <c r="G27" s="532"/>
+      <c r="H27" s="536"/>
+      <c r="I27" s="537"/>
+      <c r="J27" s="538"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="526">
+      <c r="A28" s="525">
         <v>1</v>
       </c>
-      <c r="B28" s="544" t="s">
+      <c r="B28" s="543" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="545"/>
-      <c r="D28" s="546"/>
-      <c r="E28" s="528" t="str">
+      <c r="C28" s="544"/>
+      <c r="D28" s="545"/>
+      <c r="E28" s="527" t="str">
         <f>Данные!C16</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F28" s="529"/>
-      <c r="G28" s="532">
+      <c r="F28" s="528"/>
+      <c r="G28" s="531">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="H28" s="534"/>
-      <c r="I28" s="535"/>
-      <c r="J28" s="536"/>
+      <c r="H28" s="533"/>
+      <c r="I28" s="534"/>
+      <c r="J28" s="535"/>
     </row>
     <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="527"/>
-      <c r="B29" s="522" t="str">
+      <c r="A29" s="526"/>
+      <c r="B29" s="521" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C29" s="523"/>
-      <c r="D29" s="524"/>
-      <c r="E29" s="530"/>
-      <c r="F29" s="531"/>
-      <c r="G29" s="533"/>
-      <c r="H29" s="537"/>
-      <c r="I29" s="538"/>
-      <c r="J29" s="539"/>
+      <c r="C29" s="522"/>
+      <c r="D29" s="523"/>
+      <c r="E29" s="529"/>
+      <c r="F29" s="530"/>
+      <c r="G29" s="532"/>
+      <c r="H29" s="536"/>
+      <c r="I29" s="537"/>
+      <c r="J29" s="538"/>
     </row>
     <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="526">
+      <c r="A30" s="525">
         <v>1</v>
       </c>
-      <c r="B30" s="544" t="s">
+      <c r="B30" s="543" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="545"/>
-      <c r="D30" s="546"/>
-      <c r="E30" s="528" t="str">
+      <c r="C30" s="544"/>
+      <c r="D30" s="545"/>
+      <c r="E30" s="527" t="str">
         <f>Данные!C17</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F30" s="529"/>
-      <c r="G30" s="532">
+      <c r="F30" s="528"/>
+      <c r="G30" s="531">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="H30" s="534"/>
-      <c r="I30" s="535"/>
-      <c r="J30" s="536"/>
+      <c r="H30" s="533"/>
+      <c r="I30" s="534"/>
+      <c r="J30" s="535"/>
     </row>
     <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="547"/>
-      <c r="B31" s="522" t="str">
+      <c r="A31" s="546"/>
+      <c r="B31" s="521" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C31" s="523"/>
-      <c r="D31" s="524"/>
-      <c r="E31" s="548"/>
-      <c r="F31" s="531"/>
-      <c r="G31" s="533"/>
-      <c r="H31" s="537"/>
-      <c r="I31" s="538"/>
-      <c r="J31" s="539"/>
+      <c r="C31" s="522"/>
+      <c r="D31" s="523"/>
+      <c r="E31" s="547"/>
+      <c r="F31" s="530"/>
+      <c r="G31" s="532"/>
+      <c r="H31" s="536"/>
+      <c r="I31" s="537"/>
+      <c r="J31" s="538"/>
     </row>
     <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="526">
+      <c r="A32" s="525">
         <v>1</v>
       </c>
-      <c r="B32" s="544" t="s">
+      <c r="B32" s="543" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="545"/>
-      <c r="D32" s="546"/>
-      <c r="E32" s="528" t="str">
+      <c r="C32" s="544"/>
+      <c r="D32" s="545"/>
+      <c r="E32" s="527" t="str">
         <f>Данные!C18</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F32" s="529"/>
-      <c r="G32" s="532">
+      <c r="F32" s="528"/>
+      <c r="G32" s="531">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="H32" s="534"/>
-      <c r="I32" s="535"/>
-      <c r="J32" s="536"/>
+      <c r="H32" s="533"/>
+      <c r="I32" s="534"/>
+      <c r="J32" s="535"/>
     </row>
     <row r="33" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="547"/>
-      <c r="B33" s="522" t="str">
+      <c r="A33" s="546"/>
+      <c r="B33" s="521" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C33" s="523"/>
-      <c r="D33" s="524"/>
-      <c r="E33" s="548"/>
-      <c r="F33" s="531"/>
-      <c r="G33" s="533"/>
-      <c r="H33" s="537"/>
-      <c r="I33" s="538"/>
-      <c r="J33" s="539"/>
+      <c r="C33" s="522"/>
+      <c r="D33" s="523"/>
+      <c r="E33" s="547"/>
+      <c r="F33" s="530"/>
+      <c r="G33" s="532"/>
+      <c r="H33" s="536"/>
+      <c r="I33" s="537"/>
+      <c r="J33" s="538"/>
     </row>
     <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="526">
+      <c r="A34" s="525">
         <v>1</v>
       </c>
-      <c r="B34" s="544" t="s">
+      <c r="B34" s="543" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="545"/>
-      <c r="D34" s="546"/>
-      <c r="E34" s="528" t="str">
+      <c r="C34" s="544"/>
+      <c r="D34" s="545"/>
+      <c r="E34" s="527" t="str">
         <f>Данные!C19</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F34" s="529"/>
-      <c r="G34" s="532">
+      <c r="F34" s="528"/>
+      <c r="G34" s="531">
         <f>Данные!B19</f>
         <v>60</v>
       </c>
-      <c r="H34" s="534"/>
-      <c r="I34" s="535"/>
-      <c r="J34" s="536"/>
+      <c r="H34" s="533"/>
+      <c r="I34" s="534"/>
+      <c r="J34" s="535"/>
     </row>
     <row r="35" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="547"/>
-      <c r="B35" s="522" t="str">
+      <c r="A35" s="546"/>
+      <c r="B35" s="521" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C35" s="523"/>
-      <c r="D35" s="524"/>
-      <c r="E35" s="548"/>
-      <c r="F35" s="531"/>
-      <c r="G35" s="533"/>
-      <c r="H35" s="537"/>
-      <c r="I35" s="538"/>
-      <c r="J35" s="539"/>
+      <c r="C35" s="522"/>
+      <c r="D35" s="523"/>
+      <c r="E35" s="547"/>
+      <c r="F35" s="530"/>
+      <c r="G35" s="532"/>
+      <c r="H35" s="536"/>
+      <c r="I35" s="537"/>
+      <c r="J35" s="538"/>
     </row>
     <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="526">
+      <c r="A36" s="525">
         <v>1</v>
       </c>
-      <c r="B36" s="544" t="s">
+      <c r="B36" s="543" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="545"/>
-      <c r="D36" s="546"/>
-      <c r="E36" s="528" t="str">
+      <c r="C36" s="544"/>
+      <c r="D36" s="545"/>
+      <c r="E36" s="527" t="str">
         <f>Данные!C20</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F36" s="529"/>
-      <c r="G36" s="532">
+      <c r="F36" s="528"/>
+      <c r="G36" s="531">
         <f>Данные!B20</f>
         <v>50</v>
       </c>
-      <c r="H36" s="534"/>
-      <c r="I36" s="535"/>
-      <c r="J36" s="536"/>
+      <c r="H36" s="533"/>
+      <c r="I36" s="534"/>
+      <c r="J36" s="535"/>
     </row>
     <row r="37" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="547"/>
-      <c r="B37" s="522" t="str">
+      <c r="A37" s="546"/>
+      <c r="B37" s="521" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C37" s="523"/>
-      <c r="D37" s="524"/>
-      <c r="E37" s="548"/>
-      <c r="F37" s="531"/>
-      <c r="G37" s="533"/>
-      <c r="H37" s="537"/>
-      <c r="I37" s="538"/>
-      <c r="J37" s="539"/>
+      <c r="C37" s="522"/>
+      <c r="D37" s="523"/>
+      <c r="E37" s="547"/>
+      <c r="F37" s="530"/>
+      <c r="G37" s="532"/>
+      <c r="H37" s="536"/>
+      <c r="I37" s="537"/>
+      <c r="J37" s="538"/>
     </row>
     <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="526">
+      <c r="A38" s="525">
         <v>1</v>
       </c>
-      <c r="B38" s="544" t="s">
+      <c r="B38" s="543" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="545"/>
-      <c r="D38" s="546"/>
-      <c r="E38" s="528" t="str">
+      <c r="C38" s="544"/>
+      <c r="D38" s="545"/>
+      <c r="E38" s="527" t="str">
         <f>Данные!C21</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F38" s="529"/>
-      <c r="G38" s="532">
+      <c r="F38" s="528"/>
+      <c r="G38" s="531">
         <f>Данные!B21</f>
         <v>24</v>
       </c>
-      <c r="H38" s="534"/>
-      <c r="I38" s="535"/>
-      <c r="J38" s="536"/>
+      <c r="H38" s="533"/>
+      <c r="I38" s="534"/>
+      <c r="J38" s="535"/>
     </row>
     <row r="39" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="547"/>
-      <c r="B39" s="522" t="str">
+      <c r="A39" s="546"/>
+      <c r="B39" s="521" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C39" s="523"/>
-      <c r="D39" s="524"/>
-      <c r="E39" s="548"/>
-      <c r="F39" s="531"/>
-      <c r="G39" s="533"/>
-      <c r="H39" s="537"/>
-      <c r="I39" s="538"/>
-      <c r="J39" s="539"/>
+      <c r="C39" s="522"/>
+      <c r="D39" s="523"/>
+      <c r="E39" s="547"/>
+      <c r="F39" s="530"/>
+      <c r="G39" s="532"/>
+      <c r="H39" s="536"/>
+      <c r="I39" s="537"/>
+      <c r="J39" s="538"/>
     </row>
     <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="526">
+      <c r="A40" s="525">
         <v>1</v>
       </c>
-      <c r="B40" s="544" t="s">
+      <c r="B40" s="543" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="545"/>
-      <c r="D40" s="546"/>
-      <c r="E40" s="528" t="str">
+      <c r="C40" s="544"/>
+      <c r="D40" s="545"/>
+      <c r="E40" s="527" t="str">
         <f>Данные!C23</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F40" s="529"/>
-      <c r="G40" s="532">
+      <c r="F40" s="528"/>
+      <c r="G40" s="531">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="H40" s="534"/>
-      <c r="I40" s="535"/>
-      <c r="J40" s="536"/>
+      <c r="H40" s="533"/>
+      <c r="I40" s="534"/>
+      <c r="J40" s="535"/>
     </row>
     <row r="41" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="547"/>
-      <c r="B41" s="522" t="str">
+      <c r="A41" s="546"/>
+      <c r="B41" s="521" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C41" s="523"/>
-      <c r="D41" s="524"/>
-      <c r="E41" s="548"/>
-      <c r="F41" s="531"/>
-      <c r="G41" s="533"/>
-      <c r="H41" s="537"/>
-      <c r="I41" s="538"/>
-      <c r="J41" s="539"/>
+      <c r="C41" s="522"/>
+      <c r="D41" s="523"/>
+      <c r="E41" s="547"/>
+      <c r="F41" s="530"/>
+      <c r="G41" s="532"/>
+      <c r="H41" s="536"/>
+      <c r="I41" s="537"/>
+      <c r="J41" s="538"/>
     </row>
     <row r="42" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="526">
+      <c r="A42" s="525">
         <v>1</v>
       </c>
-      <c r="B42" s="544" t="s">
+      <c r="B42" s="543" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="545"/>
-      <c r="D42" s="546"/>
-      <c r="E42" s="528" t="str">
+      <c r="C42" s="544"/>
+      <c r="D42" s="545"/>
+      <c r="E42" s="527" t="str">
         <f>Данные!C26</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F42" s="529"/>
-      <c r="G42" s="532">
+      <c r="F42" s="528"/>
+      <c r="G42" s="531">
         <f>Данные!B26</f>
         <v>22</v>
       </c>
-      <c r="H42" s="534"/>
-      <c r="I42" s="535"/>
-      <c r="J42" s="536"/>
+      <c r="H42" s="533"/>
+      <c r="I42" s="534"/>
+      <c r="J42" s="535"/>
     </row>
     <row r="43" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="547"/>
-      <c r="B43" s="522" t="str">
+      <c r="A43" s="546"/>
+      <c r="B43" s="521" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C43" s="523"/>
-      <c r="D43" s="524"/>
-      <c r="E43" s="548"/>
-      <c r="F43" s="531"/>
-      <c r="G43" s="533"/>
-      <c r="H43" s="537"/>
-      <c r="I43" s="538"/>
-      <c r="J43" s="539"/>
+      <c r="C43" s="522"/>
+      <c r="D43" s="523"/>
+      <c r="E43" s="547"/>
+      <c r="F43" s="530"/>
+      <c r="G43" s="532"/>
+      <c r="H43" s="536"/>
+      <c r="I43" s="537"/>
+      <c r="J43" s="538"/>
     </row>
     <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="526">
+      <c r="A44" s="525">
         <v>1</v>
       </c>
-      <c r="B44" s="544" t="s">
+      <c r="B44" s="543" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="545"/>
-      <c r="D44" s="546"/>
-      <c r="E44" s="528">
+      <c r="C44" s="544"/>
+      <c r="D44" s="545"/>
+      <c r="E44" s="527">
         <f>Данные!C27</f>
         <v>0</v>
       </c>
-      <c r="F44" s="529"/>
-      <c r="G44" s="532">
+      <c r="F44" s="528"/>
+      <c r="G44" s="531">
         <f>Данные!B27</f>
         <v>22</v>
       </c>
-      <c r="H44" s="534"/>
-      <c r="I44" s="535"/>
-      <c r="J44" s="536"/>
+      <c r="H44" s="533"/>
+      <c r="I44" s="534"/>
+      <c r="J44" s="535"/>
     </row>
     <row r="45" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="547"/>
-      <c r="B45" s="522" t="str">
+      <c r="A45" s="546"/>
+      <c r="B45" s="521" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C45" s="523"/>
-      <c r="D45" s="524"/>
-      <c r="E45" s="548"/>
-      <c r="F45" s="531"/>
-      <c r="G45" s="533"/>
-      <c r="H45" s="537"/>
-      <c r="I45" s="538"/>
-      <c r="J45" s="539"/>
+      <c r="C45" s="522"/>
+      <c r="D45" s="523"/>
+      <c r="E45" s="547"/>
+      <c r="F45" s="530"/>
+      <c r="G45" s="532"/>
+      <c r="H45" s="536"/>
+      <c r="I45" s="537"/>
+      <c r="J45" s="538"/>
     </row>
     <row r="46" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="526">
+      <c r="A46" s="525">
         <v>1</v>
       </c>
-      <c r="B46" s="544" t="s">
+      <c r="B46" s="543" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="545"/>
-      <c r="D46" s="546"/>
-      <c r="E46" s="528">
+      <c r="C46" s="544"/>
+      <c r="D46" s="545"/>
+      <c r="E46" s="527">
         <f>Данные!C24</f>
         <v>0</v>
       </c>
-      <c r="F46" s="529"/>
-      <c r="G46" s="532" t="str">
+      <c r="F46" s="528"/>
+      <c r="G46" s="531" t="str">
         <f>Данные!B24</f>
         <v>-</v>
       </c>
-      <c r="H46" s="534"/>
-      <c r="I46" s="535"/>
-      <c r="J46" s="536"/>
+      <c r="H46" s="533"/>
+      <c r="I46" s="534"/>
+      <c r="J46" s="535"/>
     </row>
     <row r="47" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="547"/>
-      <c r="B47" s="522" t="str">
+      <c r="A47" s="546"/>
+      <c r="B47" s="521" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C47" s="523"/>
-      <c r="D47" s="524"/>
-      <c r="E47" s="548"/>
-      <c r="F47" s="531"/>
-      <c r="G47" s="533"/>
-      <c r="H47" s="537"/>
-      <c r="I47" s="538"/>
-      <c r="J47" s="539"/>
+      <c r="C47" s="522"/>
+      <c r="D47" s="523"/>
+      <c r="E47" s="547"/>
+      <c r="F47" s="530"/>
+      <c r="G47" s="532"/>
+      <c r="H47" s="536"/>
+      <c r="I47" s="537"/>
+      <c r="J47" s="538"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="311"/>
@@ -11499,47 +11769,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="567"/>
-      <c r="C2" s="568"/>
-      <c r="D2" s="569"/>
-      <c r="E2" s="576" t="s">
+      <c r="B2" s="566"/>
+      <c r="C2" s="567"/>
+      <c r="D2" s="568"/>
+      <c r="E2" s="575" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="577"/>
-      <c r="G2" s="577"/>
-      <c r="H2" s="578"/>
-      <c r="I2" s="583" t="s">
+      <c r="F2" s="576"/>
+      <c r="G2" s="576"/>
+      <c r="H2" s="577"/>
+      <c r="I2" s="582" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="584"/>
-      <c r="K2" s="587">
+      <c r="J2" s="583"/>
+      <c r="K2" s="586">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="588"/>
+      <c r="L2" s="587"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="579"/>
-      <c r="Q2" s="579"/>
+      <c r="P2" s="578"/>
+      <c r="Q2" s="578"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="570"/>
-      <c r="C3" s="571"/>
-      <c r="D3" s="572"/>
-      <c r="E3" s="580" t="s">
+      <c r="B3" s="569"/>
+      <c r="C3" s="570"/>
+      <c r="D3" s="571"/>
+      <c r="E3" s="579" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="581"/>
-      <c r="G3" s="581"/>
-      <c r="H3" s="582"/>
-      <c r="I3" s="585"/>
-      <c r="J3" s="586"/>
-      <c r="K3" s="589"/>
-      <c r="L3" s="590"/>
+      <c r="F3" s="580"/>
+      <c r="G3" s="580"/>
+      <c r="H3" s="581"/>
+      <c r="I3" s="584"/>
+      <c r="J3" s="585"/>
+      <c r="K3" s="588"/>
+      <c r="L3" s="589"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11550,9 +11820,9 @@
     </row>
     <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="573"/>
-      <c r="C4" s="574"/>
-      <c r="D4" s="575"/>
+      <c r="B4" s="572"/>
+      <c r="C4" s="573"/>
+      <c r="D4" s="574"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11571,22 +11841,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="552" t="s">
+      <c r="B5" s="551" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="553"/>
-      <c r="D5" s="501" t="str">
+      <c r="C5" s="552"/>
+      <c r="D5" s="500" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="502"/>
-      <c r="F5" s="502"/>
-      <c r="G5" s="502"/>
-      <c r="H5" s="503"/>
-      <c r="I5" s="554"/>
-      <c r="J5" s="555"/>
-      <c r="K5" s="502"/>
-      <c r="L5" s="503"/>
+      <c r="E5" s="501"/>
+      <c r="F5" s="501"/>
+      <c r="G5" s="501"/>
+      <c r="H5" s="502"/>
+      <c r="I5" s="553"/>
+      <c r="J5" s="554"/>
+      <c r="K5" s="501"/>
+      <c r="L5" s="502"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11597,22 +11867,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="552" t="s">
+      <c r="B6" s="551" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="556"/>
-      <c r="D6" s="495" t="str">
+      <c r="C6" s="555"/>
+      <c r="D6" s="494" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="557"/>
-      <c r="F6" s="557"/>
-      <c r="G6" s="557"/>
-      <c r="H6" s="558"/>
-      <c r="I6" s="554"/>
-      <c r="J6" s="555"/>
-      <c r="K6" s="502"/>
-      <c r="L6" s="503"/>
+      <c r="E6" s="556"/>
+      <c r="F6" s="556"/>
+      <c r="G6" s="556"/>
+      <c r="H6" s="557"/>
+      <c r="I6" s="553"/>
+      <c r="J6" s="554"/>
+      <c r="K6" s="501"/>
+      <c r="L6" s="502"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11623,27 +11893,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="559" t="s">
+      <c r="B7" s="558" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="560"/>
-      <c r="D7" s="504">
+      <c r="C7" s="559"/>
+      <c r="D7" s="503">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="561"/>
-      <c r="F7" s="561"/>
-      <c r="G7" s="561"/>
-      <c r="H7" s="562"/>
-      <c r="I7" s="559" t="s">
+      <c r="E7" s="560"/>
+      <c r="F7" s="560"/>
+      <c r="G7" s="560"/>
+      <c r="H7" s="561"/>
+      <c r="I7" s="558" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="563"/>
-      <c r="K7" s="492">
+      <c r="J7" s="562"/>
+      <c r="K7" s="491">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="493"/>
+      <c r="L7" s="492"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12137,12 +12407,12 @@
     </row>
     <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
-      <c r="B23" s="564" t="s">
+      <c r="B23" s="563" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="565"/>
-      <c r="D23" s="565"/>
-      <c r="E23" s="566"/>
+      <c r="C23" s="564"/>
+      <c r="D23" s="564"/>
+      <c r="E23" s="565"/>
       <c r="F23" s="116" t="s">
         <v>16</v>
       </c>
@@ -12164,12 +12434,12 @@
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
-      <c r="B24" s="549" t="s">
+      <c r="B24" s="548" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="550"/>
-      <c r="D24" s="550"/>
-      <c r="E24" s="551"/>
+      <c r="C24" s="549"/>
+      <c r="D24" s="549"/>
+      <c r="E24" s="550"/>
       <c r="F24" s="116" t="s">
         <v>16</v>
       </c>
@@ -12298,50 +12568,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="598">
+      <c r="B2" s="597">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="599"/>
-      <c r="D2" s="600"/>
-      <c r="E2" s="607" t="s">
+      <c r="C2" s="598"/>
+      <c r="D2" s="599"/>
+      <c r="E2" s="606" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="608"/>
-      <c r="G2" s="608"/>
-      <c r="H2" s="609"/>
-      <c r="I2" s="613" t="s">
+      <c r="F2" s="607"/>
+      <c r="G2" s="607"/>
+      <c r="H2" s="608"/>
+      <c r="I2" s="612" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="614"/>
-      <c r="K2" s="617">
+      <c r="J2" s="613"/>
+      <c r="K2" s="616">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="618"/>
+      <c r="L2" s="617"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="579"/>
-      <c r="Q2" s="579"/>
+      <c r="P2" s="578"/>
+      <c r="Q2" s="578"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="601"/>
-      <c r="C3" s="602"/>
-      <c r="D3" s="603"/>
-      <c r="E3" s="610" t="s">
+      <c r="B3" s="600"/>
+      <c r="C3" s="601"/>
+      <c r="D3" s="602"/>
+      <c r="E3" s="609" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="611"/>
-      <c r="G3" s="611"/>
-      <c r="H3" s="612"/>
-      <c r="I3" s="615"/>
-      <c r="J3" s="616"/>
-      <c r="K3" s="619"/>
-      <c r="L3" s="620"/>
+      <c r="F3" s="610"/>
+      <c r="G3" s="610"/>
+      <c r="H3" s="611"/>
+      <c r="I3" s="614"/>
+      <c r="J3" s="615"/>
+      <c r="K3" s="618"/>
+      <c r="L3" s="619"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12352,9 +12622,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="604"/>
-      <c r="C4" s="605"/>
-      <c r="D4" s="606"/>
+      <c r="B4" s="603"/>
+      <c r="C4" s="604"/>
+      <c r="D4" s="605"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -12373,22 +12643,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="552" t="s">
+      <c r="B5" s="551" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="591"/>
-      <c r="D5" s="501" t="str">
+      <c r="C5" s="590"/>
+      <c r="D5" s="500" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="502"/>
-      <c r="F5" s="502"/>
-      <c r="G5" s="502"/>
-      <c r="H5" s="503"/>
-      <c r="I5" s="592"/>
-      <c r="J5" s="593"/>
-      <c r="K5" s="594"/>
-      <c r="L5" s="503"/>
+      <c r="E5" s="501"/>
+      <c r="F5" s="501"/>
+      <c r="G5" s="501"/>
+      <c r="H5" s="502"/>
+      <c r="I5" s="591"/>
+      <c r="J5" s="592"/>
+      <c r="K5" s="593"/>
+      <c r="L5" s="502"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12399,22 +12669,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="552" t="s">
+      <c r="B6" s="551" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="591"/>
-      <c r="D6" s="495" t="str">
+      <c r="C6" s="590"/>
+      <c r="D6" s="494" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="557"/>
-      <c r="F6" s="557"/>
-      <c r="G6" s="557"/>
-      <c r="H6" s="558"/>
-      <c r="I6" s="592"/>
-      <c r="J6" s="593"/>
-      <c r="K6" s="594"/>
-      <c r="L6" s="503"/>
+      <c r="E6" s="556"/>
+      <c r="F6" s="556"/>
+      <c r="G6" s="556"/>
+      <c r="H6" s="557"/>
+      <c r="I6" s="591"/>
+      <c r="J6" s="592"/>
+      <c r="K6" s="593"/>
+      <c r="L6" s="502"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12425,27 +12695,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="559" t="s">
+      <c r="B7" s="558" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="595"/>
-      <c r="D7" s="504">
+      <c r="C7" s="594"/>
+      <c r="D7" s="503">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="561"/>
-      <c r="F7" s="561"/>
-      <c r="G7" s="561"/>
-      <c r="H7" s="562"/>
-      <c r="I7" s="596" t="s">
+      <c r="E7" s="560"/>
+      <c r="F7" s="560"/>
+      <c r="G7" s="560"/>
+      <c r="H7" s="561"/>
+      <c r="I7" s="595" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="595"/>
-      <c r="K7" s="492">
+      <c r="J7" s="594"/>
+      <c r="K7" s="491">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="493"/>
+      <c r="L7" s="492"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12642,13 +12912,13 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="564" t="s">
+      <c r="B14" s="563" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="565"/>
-      <c r="D14" s="565"/>
-      <c r="E14" s="565"/>
-      <c r="F14" s="597"/>
+      <c r="C14" s="564"/>
+      <c r="D14" s="564"/>
+      <c r="E14" s="564"/>
+      <c r="F14" s="596"/>
       <c r="G14" s="56" t="s">
         <v>77</v>
       </c>
@@ -12667,12 +12937,12 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="78"/>
-      <c r="B15" s="549" t="s">
+      <c r="B15" s="548" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="550"/>
-      <c r="D15" s="550"/>
-      <c r="E15" s="551"/>
+      <c r="C15" s="549"/>
+      <c r="D15" s="549"/>
+      <c r="E15" s="550"/>
       <c r="F15" s="116" t="s">
         <v>16</v>
       </c>
@@ -12816,47 +13086,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="567"/>
-      <c r="C2" s="568"/>
-      <c r="D2" s="569"/>
-      <c r="E2" s="576" t="s">
+      <c r="B2" s="566"/>
+      <c r="C2" s="567"/>
+      <c r="D2" s="568"/>
+      <c r="E2" s="575" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="577"/>
-      <c r="G2" s="577"/>
-      <c r="H2" s="578"/>
-      <c r="I2" s="583" t="s">
+      <c r="F2" s="576"/>
+      <c r="G2" s="576"/>
+      <c r="H2" s="577"/>
+      <c r="I2" s="582" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="584"/>
-      <c r="K2" s="587">
+      <c r="J2" s="583"/>
+      <c r="K2" s="586">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="L2" s="588"/>
+      <c r="L2" s="587"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="579"/>
-      <c r="Q2" s="579"/>
+      <c r="P2" s="578"/>
+      <c r="Q2" s="578"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="570"/>
-      <c r="C3" s="571"/>
-      <c r="D3" s="572"/>
-      <c r="E3" s="580" t="s">
+      <c r="B3" s="569"/>
+      <c r="C3" s="570"/>
+      <c r="D3" s="571"/>
+      <c r="E3" s="579" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="581"/>
-      <c r="G3" s="581"/>
-      <c r="H3" s="582"/>
-      <c r="I3" s="585"/>
-      <c r="J3" s="586"/>
-      <c r="K3" s="589"/>
-      <c r="L3" s="590"/>
+      <c r="F3" s="580"/>
+      <c r="G3" s="580"/>
+      <c r="H3" s="581"/>
+      <c r="I3" s="584"/>
+      <c r="J3" s="585"/>
+      <c r="K3" s="588"/>
+      <c r="L3" s="589"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12867,9 +13137,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="573"/>
-      <c r="C4" s="574"/>
-      <c r="D4" s="575"/>
+      <c r="B4" s="572"/>
+      <c r="C4" s="573"/>
+      <c r="D4" s="574"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12888,22 +13158,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="552" t="s">
+      <c r="B5" s="551" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="553"/>
-      <c r="D5" s="501" t="str">
+      <c r="C5" s="552"/>
+      <c r="D5" s="500" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="502"/>
-      <c r="F5" s="502"/>
-      <c r="G5" s="502"/>
-      <c r="H5" s="503"/>
-      <c r="I5" s="554"/>
-      <c r="J5" s="555"/>
-      <c r="K5" s="502"/>
-      <c r="L5" s="503"/>
+      <c r="E5" s="501"/>
+      <c r="F5" s="501"/>
+      <c r="G5" s="501"/>
+      <c r="H5" s="502"/>
+      <c r="I5" s="553"/>
+      <c r="J5" s="554"/>
+      <c r="K5" s="501"/>
+      <c r="L5" s="502"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12914,22 +13184,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="552" t="s">
+      <c r="B6" s="551" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="556"/>
-      <c r="D6" s="495" t="str">
+      <c r="C6" s="555"/>
+      <c r="D6" s="494" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="557"/>
-      <c r="F6" s="557"/>
-      <c r="G6" s="557"/>
-      <c r="H6" s="558"/>
-      <c r="I6" s="554"/>
-      <c r="J6" s="555"/>
-      <c r="K6" s="502"/>
-      <c r="L6" s="503"/>
+      <c r="E6" s="556"/>
+      <c r="F6" s="556"/>
+      <c r="G6" s="556"/>
+      <c r="H6" s="557"/>
+      <c r="I6" s="553"/>
+      <c r="J6" s="554"/>
+      <c r="K6" s="501"/>
+      <c r="L6" s="502"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12940,27 +13210,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="559" t="s">
+      <c r="B7" s="558" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="560"/>
-      <c r="D7" s="504">
+      <c r="C7" s="559"/>
+      <c r="D7" s="503">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="561"/>
-      <c r="F7" s="561"/>
-      <c r="G7" s="561"/>
-      <c r="H7" s="562"/>
-      <c r="I7" s="559" t="s">
+      <c r="E7" s="560"/>
+      <c r="F7" s="560"/>
+      <c r="G7" s="560"/>
+      <c r="H7" s="561"/>
+      <c r="I7" s="558" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="563"/>
-      <c r="K7" s="492">
+      <c r="J7" s="562"/>
+      <c r="K7" s="491">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="493"/>
+      <c r="L7" s="492"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -13443,7 +13713,6 @@
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
@@ -13461,6 +13730,7 @@
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -13528,47 +13798,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="567"/>
-      <c r="C2" s="568"/>
-      <c r="D2" s="569"/>
-      <c r="E2" s="576" t="s">
+      <c r="B2" s="566"/>
+      <c r="C2" s="567"/>
+      <c r="D2" s="568"/>
+      <c r="E2" s="575" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="577"/>
-      <c r="G2" s="577"/>
-      <c r="H2" s="578"/>
-      <c r="I2" s="583" t="s">
+      <c r="F2" s="576"/>
+      <c r="G2" s="576"/>
+      <c r="H2" s="577"/>
+      <c r="I2" s="582" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="584"/>
-      <c r="K2" s="587">
+      <c r="J2" s="583"/>
+      <c r="K2" s="586">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="L2" s="588"/>
+      <c r="L2" s="587"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="621"/>
-      <c r="Q2" s="621"/>
+      <c r="P2" s="620"/>
+      <c r="Q2" s="620"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="570"/>
-      <c r="C3" s="571"/>
-      <c r="D3" s="572"/>
-      <c r="E3" s="580" t="s">
+      <c r="B3" s="569"/>
+      <c r="C3" s="570"/>
+      <c r="D3" s="571"/>
+      <c r="E3" s="579" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="581"/>
-      <c r="G3" s="581"/>
-      <c r="H3" s="582"/>
-      <c r="I3" s="585"/>
-      <c r="J3" s="586"/>
-      <c r="K3" s="589"/>
-      <c r="L3" s="590"/>
+      <c r="F3" s="580"/>
+      <c r="G3" s="580"/>
+      <c r="H3" s="581"/>
+      <c r="I3" s="584"/>
+      <c r="J3" s="585"/>
+      <c r="K3" s="588"/>
+      <c r="L3" s="589"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13579,9 +13849,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="573"/>
-      <c r="C4" s="574"/>
-      <c r="D4" s="575"/>
+      <c r="B4" s="572"/>
+      <c r="C4" s="573"/>
+      <c r="D4" s="574"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13600,22 +13870,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="552" t="s">
+      <c r="B5" s="551" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="553"/>
-      <c r="D5" s="501" t="str">
+      <c r="C5" s="552"/>
+      <c r="D5" s="500" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="502"/>
-      <c r="F5" s="502"/>
-      <c r="G5" s="502"/>
-      <c r="H5" s="503"/>
-      <c r="I5" s="554"/>
-      <c r="J5" s="555"/>
-      <c r="K5" s="502"/>
-      <c r="L5" s="503"/>
+      <c r="E5" s="501"/>
+      <c r="F5" s="501"/>
+      <c r="G5" s="501"/>
+      <c r="H5" s="502"/>
+      <c r="I5" s="553"/>
+      <c r="J5" s="554"/>
+      <c r="K5" s="501"/>
+      <c r="L5" s="502"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13626,22 +13896,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="552" t="s">
+      <c r="B6" s="551" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="556"/>
-      <c r="D6" s="495" t="str">
+      <c r="C6" s="555"/>
+      <c r="D6" s="494" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="557"/>
-      <c r="F6" s="557"/>
-      <c r="G6" s="557"/>
-      <c r="H6" s="558"/>
-      <c r="I6" s="554"/>
-      <c r="J6" s="555"/>
-      <c r="K6" s="502"/>
-      <c r="L6" s="503"/>
+      <c r="E6" s="556"/>
+      <c r="F6" s="556"/>
+      <c r="G6" s="556"/>
+      <c r="H6" s="557"/>
+      <c r="I6" s="553"/>
+      <c r="J6" s="554"/>
+      <c r="K6" s="501"/>
+      <c r="L6" s="502"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13652,27 +13922,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="559" t="s">
+      <c r="B7" s="558" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="560"/>
-      <c r="D7" s="504">
+      <c r="C7" s="559"/>
+      <c r="D7" s="503">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="561"/>
-      <c r="F7" s="561"/>
-      <c r="G7" s="561"/>
-      <c r="H7" s="562"/>
-      <c r="I7" s="559" t="s">
+      <c r="E7" s="560"/>
+      <c r="F7" s="560"/>
+      <c r="G7" s="560"/>
+      <c r="H7" s="561"/>
+      <c r="I7" s="558" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="563"/>
-      <c r="K7" s="492">
+      <c r="J7" s="562"/>
+      <c r="K7" s="491">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="493"/>
+      <c r="L7" s="492"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -14046,60 +14316,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="598"/>
-      <c r="C2" s="599"/>
-      <c r="D2" s="600"/>
-      <c r="E2" s="607" t="s">
+      <c r="B2" s="597"/>
+      <c r="C2" s="598"/>
+      <c r="D2" s="599"/>
+      <c r="E2" s="606" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="608"/>
-      <c r="G2" s="608"/>
-      <c r="H2" s="609"/>
-      <c r="I2" s="613" t="s">
+      <c r="F2" s="607"/>
+      <c r="G2" s="607"/>
+      <c r="H2" s="608"/>
+      <c r="I2" s="612" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="614"/>
-      <c r="K2" s="617">
+      <c r="J2" s="613"/>
+      <c r="K2" s="616">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="L2" s="618"/>
-      <c r="M2" s="622"/>
-      <c r="N2" s="623"/>
-      <c r="O2" s="623"/>
-      <c r="P2" s="623"/>
-      <c r="Q2" s="623"/>
-      <c r="R2" s="624"/>
+      <c r="L2" s="617"/>
+      <c r="M2" s="621"/>
+      <c r="N2" s="622"/>
+      <c r="O2" s="622"/>
+      <c r="P2" s="622"/>
+      <c r="Q2" s="622"/>
+      <c r="R2" s="623"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="601"/>
-      <c r="C3" s="602"/>
-      <c r="D3" s="603"/>
-      <c r="E3" s="610" t="s">
+      <c r="B3" s="600"/>
+      <c r="C3" s="601"/>
+      <c r="D3" s="602"/>
+      <c r="E3" s="609" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="611"/>
-      <c r="G3" s="611"/>
-      <c r="H3" s="612"/>
-      <c r="I3" s="615"/>
-      <c r="J3" s="616"/>
-      <c r="K3" s="619"/>
-      <c r="L3" s="620"/>
-      <c r="M3" s="625"/>
-      <c r="N3" s="626"/>
-      <c r="O3" s="626"/>
-      <c r="P3" s="626"/>
-      <c r="Q3" s="626"/>
-      <c r="R3" s="627"/>
+      <c r="F3" s="610"/>
+      <c r="G3" s="610"/>
+      <c r="H3" s="611"/>
+      <c r="I3" s="614"/>
+      <c r="J3" s="615"/>
+      <c r="K3" s="618"/>
+      <c r="L3" s="619"/>
+      <c r="M3" s="624"/>
+      <c r="N3" s="625"/>
+      <c r="O3" s="625"/>
+      <c r="P3" s="625"/>
+      <c r="Q3" s="625"/>
+      <c r="R3" s="626"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="604"/>
-      <c r="C4" s="605"/>
-      <c r="D4" s="606"/>
+      <c r="B4" s="603"/>
+      <c r="C4" s="604"/>
+      <c r="D4" s="605"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -14108,95 +14378,95 @@
       <c r="J4" s="249"/>
       <c r="K4" s="252"/>
       <c r="L4" s="253"/>
-      <c r="M4" s="625"/>
-      <c r="N4" s="626"/>
-      <c r="O4" s="626"/>
-      <c r="P4" s="626"/>
-      <c r="Q4" s="626"/>
-      <c r="R4" s="627"/>
+      <c r="M4" s="624"/>
+      <c r="N4" s="625"/>
+      <c r="O4" s="625"/>
+      <c r="P4" s="625"/>
+      <c r="Q4" s="625"/>
+      <c r="R4" s="626"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="552" t="s">
+      <c r="B5" s="551" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="591"/>
-      <c r="D5" s="501" t="str">
+      <c r="C5" s="590"/>
+      <c r="D5" s="500" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="502"/>
-      <c r="F5" s="502"/>
-      <c r="G5" s="502"/>
-      <c r="H5" s="503"/>
-      <c r="I5" s="592"/>
-      <c r="J5" s="593"/>
-      <c r="K5" s="594"/>
-      <c r="L5" s="503"/>
-      <c r="M5" s="625"/>
-      <c r="N5" s="626"/>
-      <c r="O5" s="626"/>
-      <c r="P5" s="626"/>
-      <c r="Q5" s="626"/>
-      <c r="R5" s="627"/>
+      <c r="E5" s="501"/>
+      <c r="F5" s="501"/>
+      <c r="G5" s="501"/>
+      <c r="H5" s="502"/>
+      <c r="I5" s="591"/>
+      <c r="J5" s="592"/>
+      <c r="K5" s="593"/>
+      <c r="L5" s="502"/>
+      <c r="M5" s="624"/>
+      <c r="N5" s="625"/>
+      <c r="O5" s="625"/>
+      <c r="P5" s="625"/>
+      <c r="Q5" s="625"/>
+      <c r="R5" s="626"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="552" t="s">
+      <c r="B6" s="551" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="591"/>
-      <c r="D6" s="495" t="str">
+      <c r="C6" s="590"/>
+      <c r="D6" s="494" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="557"/>
-      <c r="F6" s="557"/>
-      <c r="G6" s="557"/>
-      <c r="H6" s="558"/>
-      <c r="I6" s="592"/>
-      <c r="J6" s="593"/>
-      <c r="K6" s="594"/>
-      <c r="L6" s="503"/>
-      <c r="M6" s="625"/>
-      <c r="N6" s="626"/>
-      <c r="O6" s="626"/>
-      <c r="P6" s="626"/>
-      <c r="Q6" s="626"/>
-      <c r="R6" s="627"/>
+      <c r="E6" s="556"/>
+      <c r="F6" s="556"/>
+      <c r="G6" s="556"/>
+      <c r="H6" s="557"/>
+      <c r="I6" s="591"/>
+      <c r="J6" s="592"/>
+      <c r="K6" s="593"/>
+      <c r="L6" s="502"/>
+      <c r="M6" s="624"/>
+      <c r="N6" s="625"/>
+      <c r="O6" s="625"/>
+      <c r="P6" s="625"/>
+      <c r="Q6" s="625"/>
+      <c r="R6" s="626"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="559" t="s">
+      <c r="B7" s="558" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="595"/>
-      <c r="D7" s="504">
+      <c r="C7" s="594"/>
+      <c r="D7" s="503">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="561"/>
-      <c r="F7" s="561"/>
-      <c r="G7" s="561"/>
-      <c r="H7" s="562"/>
-      <c r="I7" s="596" t="s">
+      <c r="E7" s="560"/>
+      <c r="F7" s="560"/>
+      <c r="G7" s="560"/>
+      <c r="H7" s="561"/>
+      <c r="I7" s="595" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="595"/>
-      <c r="K7" s="492">
+      <c r="J7" s="594"/>
+      <c r="K7" s="491">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="493"/>
-      <c r="M7" s="625"/>
-      <c r="N7" s="626"/>
-      <c r="O7" s="626"/>
-      <c r="P7" s="626"/>
-      <c r="Q7" s="626"/>
-      <c r="R7" s="627"/>
+      <c r="L7" s="492"/>
+      <c r="M7" s="624"/>
+      <c r="N7" s="625"/>
+      <c r="O7" s="625"/>
+      <c r="P7" s="625"/>
+      <c r="Q7" s="625"/>
+      <c r="R7" s="626"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14610,12 +14880,12 @@
     </row>
     <row r="21" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78"/>
-      <c r="B21" s="549" t="s">
+      <c r="B21" s="548" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="550"/>
-      <c r="D21" s="550"/>
-      <c r="E21" s="551"/>
+      <c r="C21" s="549"/>
+      <c r="D21" s="549"/>
+      <c r="E21" s="550"/>
       <c r="F21" s="116" t="s">
         <v>16</v>
       </c>
@@ -14660,13 +14930,13 @@
       <c r="B23" s="123"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L24" s="628" t="s">
+      <c r="L24" s="627" t="s">
         <v>140</v>
       </c>
-      <c r="M24" s="628"/>
-      <c r="N24" s="628"/>
-      <c r="O24" s="469"/>
-      <c r="P24" s="469"/>
+      <c r="M24" s="627"/>
+      <c r="N24" s="627"/>
+      <c r="O24" s="468"/>
+      <c r="P24" s="468"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -14754,47 +15024,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="598"/>
-      <c r="C2" s="599"/>
-      <c r="D2" s="600"/>
-      <c r="E2" s="607" t="s">
+      <c r="B2" s="597"/>
+      <c r="C2" s="598"/>
+      <c r="D2" s="599"/>
+      <c r="E2" s="606" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="608"/>
-      <c r="G2" s="608"/>
-      <c r="H2" s="609"/>
-      <c r="I2" s="613" t="s">
+      <c r="F2" s="607"/>
+      <c r="G2" s="607"/>
+      <c r="H2" s="608"/>
+      <c r="I2" s="612" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="614"/>
-      <c r="K2" s="617">
+      <c r="J2" s="613"/>
+      <c r="K2" s="616">
         <f>Данные!B19</f>
         <v>60</v>
       </c>
-      <c r="L2" s="618"/>
+      <c r="L2" s="617"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="629"/>
-      <c r="Q2" s="629"/>
+      <c r="P2" s="628"/>
+      <c r="Q2" s="628"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="601"/>
-      <c r="C3" s="602"/>
-      <c r="D3" s="603"/>
-      <c r="E3" s="610" t="s">
+      <c r="B3" s="600"/>
+      <c r="C3" s="601"/>
+      <c r="D3" s="602"/>
+      <c r="E3" s="609" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="611"/>
-      <c r="G3" s="611"/>
-      <c r="H3" s="612"/>
-      <c r="I3" s="615"/>
-      <c r="J3" s="616"/>
-      <c r="K3" s="619"/>
-      <c r="L3" s="620"/>
+      <c r="F3" s="610"/>
+      <c r="G3" s="610"/>
+      <c r="H3" s="611"/>
+      <c r="I3" s="614"/>
+      <c r="J3" s="615"/>
+      <c r="K3" s="618"/>
+      <c r="L3" s="619"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -14805,9 +15075,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="604"/>
-      <c r="C4" s="605"/>
-      <c r="D4" s="606"/>
+      <c r="B4" s="603"/>
+      <c r="C4" s="604"/>
+      <c r="D4" s="605"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -14826,22 +15096,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="552" t="s">
+      <c r="B5" s="551" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="591"/>
-      <c r="D5" s="501" t="str">
+      <c r="C5" s="590"/>
+      <c r="D5" s="500" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="502"/>
-      <c r="F5" s="502"/>
-      <c r="G5" s="502"/>
-      <c r="H5" s="503"/>
-      <c r="I5" s="592"/>
-      <c r="J5" s="593"/>
-      <c r="K5" s="594"/>
-      <c r="L5" s="503"/>
+      <c r="E5" s="501"/>
+      <c r="F5" s="501"/>
+      <c r="G5" s="501"/>
+      <c r="H5" s="502"/>
+      <c r="I5" s="591"/>
+      <c r="J5" s="592"/>
+      <c r="K5" s="593"/>
+      <c r="L5" s="502"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -14852,22 +15122,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="552" t="s">
+      <c r="B6" s="551" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="591"/>
-      <c r="D6" s="495" t="str">
+      <c r="C6" s="590"/>
+      <c r="D6" s="494" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="557"/>
-      <c r="F6" s="557"/>
-      <c r="G6" s="557"/>
-      <c r="H6" s="558"/>
-      <c r="I6" s="592"/>
-      <c r="J6" s="593"/>
-      <c r="K6" s="594"/>
-      <c r="L6" s="503"/>
+      <c r="E6" s="556"/>
+      <c r="F6" s="556"/>
+      <c r="G6" s="556"/>
+      <c r="H6" s="557"/>
+      <c r="I6" s="591"/>
+      <c r="J6" s="592"/>
+      <c r="K6" s="593"/>
+      <c r="L6" s="502"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -14878,27 +15148,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="559" t="s">
+      <c r="B7" s="558" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="595"/>
-      <c r="D7" s="504">
+      <c r="C7" s="594"/>
+      <c r="D7" s="503">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="561"/>
-      <c r="F7" s="561"/>
-      <c r="G7" s="561"/>
-      <c r="H7" s="562"/>
-      <c r="I7" s="596" t="s">
+      <c r="E7" s="560"/>
+      <c r="F7" s="560"/>
+      <c r="G7" s="560"/>
+      <c r="H7" s="561"/>
+      <c r="I7" s="595" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="595"/>
-      <c r="K7" s="492">
+      <c r="J7" s="594"/>
+      <c r="K7" s="491">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="493"/>
+      <c r="L7" s="492"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -15161,12 +15431,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="549" t="s">
+      <c r="B16" s="548" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="550"/>
-      <c r="D16" s="550"/>
-      <c r="E16" s="551"/>
+      <c r="C16" s="549"/>
+      <c r="D16" s="549"/>
+      <c r="E16" s="550"/>
       <c r="F16" s="259" t="s">
         <v>16</v>
       </c>
@@ -15211,13 +15481,13 @@
       <c r="B18" s="123"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="K19" s="628" t="s">
+      <c r="K19" s="627" t="s">
         <v>140</v>
       </c>
-      <c r="L19" s="628"/>
-      <c r="M19" s="628"/>
-      <c r="N19" s="469"/>
-      <c r="O19" s="469"/>
+      <c r="L19" s="627"/>
+      <c r="M19" s="627"/>
+      <c r="N19" s="468"/>
+      <c r="O19" s="468"/>
     </row>
   </sheetData>
   <mergeCells count="20">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-2.1-500-14 (Брест колоски)/Брест колоски от 13.11.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-2.1-500-14 (Брест колоски)/Брест колоски от 13.11.2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Бутылка\XXI-В-28-2.1-500-14 (Брест колоски)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3416EE-9D88-41CD-A43E-106B9EC3A3E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72572B08-E639-4728-B0A0-366B93999C2D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="144">
   <si>
     <t>+ Tol.</t>
   </si>
@@ -3597,6 +3597,12 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="97" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3641,11 +3647,10 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -3664,10 +3669,77 @@
     <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3678,60 +3750,6 @@
     <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -3741,23 +3759,77 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -3809,76 +3881,73 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3902,104 +3971,38 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4010,25 +4013,22 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -6707,25 +6707,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="493" t="s">
+      <c r="A1" s="495" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="497"/>
-      <c r="C1" s="497"/>
-      <c r="D1" s="497"/>
-      <c r="E1" s="497"/>
+      <c r="B1" s="499"/>
+      <c r="C1" s="499"/>
+      <c r="D1" s="499"/>
+      <c r="E1" s="499"/>
       <c r="G1" s="371" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="494" t="s">
+      <c r="A2" s="496" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="495"/>
-      <c r="C2" s="495"/>
-      <c r="D2" s="495"/>
-      <c r="E2" s="496"/>
+      <c r="B2" s="497"/>
+      <c r="C2" s="497"/>
+      <c r="D2" s="497"/>
+      <c r="E2" s="498"/>
       <c r="G2" s="370" t="s">
         <v>79</v>
       </c>
@@ -6736,45 +6736,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="498" t="s">
+      <c r="A4" s="500" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="499"/>
-      <c r="C4" s="499"/>
-      <c r="D4" s="499"/>
-      <c r="E4" s="499"/>
+      <c r="B4" s="501"/>
+      <c r="C4" s="501"/>
+      <c r="D4" s="501"/>
+      <c r="E4" s="501"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="500" t="s">
+      <c r="A5" s="502" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="501"/>
-      <c r="C5" s="501"/>
-      <c r="D5" s="501"/>
-      <c r="E5" s="502"/>
+      <c r="B5" s="503"/>
+      <c r="C5" s="503"/>
+      <c r="D5" s="503"/>
+      <c r="E5" s="504"/>
     </row>
     <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="493" t="s">
+      <c r="A7" s="495" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="497"/>
-      <c r="C7" s="497"/>
-      <c r="D7" s="497"/>
-      <c r="E7" s="497"/>
+      <c r="B7" s="499"/>
+      <c r="C7" s="499"/>
+      <c r="D7" s="499"/>
+      <c r="E7" s="499"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="503"/>
-      <c r="B8" s="504"/>
-      <c r="C8" s="504"/>
-      <c r="D8" s="504"/>
-      <c r="E8" s="505"/>
+      <c r="A8" s="505"/>
+      <c r="B8" s="506"/>
+      <c r="C8" s="506"/>
+      <c r="D8" s="506"/>
+      <c r="E8" s="507"/>
     </row>
     <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="493" t="s">
+      <c r="A10" s="495" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="493"/>
+      <c r="B10" s="495"/>
       <c r="C10" s="372"/>
       <c r="D10" s="380" t="s">
         <v>94</v>
@@ -6785,33 +6785,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="491"/>
-      <c r="B11" s="492"/>
+      <c r="A11" s="493"/>
+      <c r="B11" s="494"/>
       <c r="D11" s="379">
         <v>43782</v>
       </c>
-      <c r="F11" s="506" t="s">
+      <c r="F11" s="490" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="506"/>
-      <c r="H11" s="506"/>
-      <c r="I11" s="506"/>
-      <c r="J11" s="507" t="s">
+      <c r="G11" s="490"/>
+      <c r="H11" s="490"/>
+      <c r="I11" s="490"/>
+      <c r="J11" s="491" t="s">
         <v>99</v>
       </c>
-      <c r="K11" s="507"/>
+      <c r="K11" s="491"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F12" s="506" t="s">
+      <c r="F12" s="490" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="506"/>
-      <c r="H12" s="506"/>
-      <c r="I12" s="506"/>
-      <c r="J12" s="507" t="s">
+      <c r="G12" s="490"/>
+      <c r="H12" s="490"/>
+      <c r="I12" s="490"/>
+      <c r="J12" s="491" t="s">
         <v>100</v>
       </c>
-      <c r="K12" s="507"/>
+      <c r="K12" s="491"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="373" t="s">
@@ -6823,16 +6823,16 @@
       <c r="C13" s="384" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="506" t="s">
+      <c r="F13" s="490" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="506"/>
-      <c r="H13" s="506"/>
-      <c r="I13" s="506"/>
-      <c r="J13" s="507" t="s">
+      <c r="G13" s="490"/>
+      <c r="H13" s="490"/>
+      <c r="I13" s="490"/>
+      <c r="J13" s="491" t="s">
         <v>101</v>
       </c>
-      <c r="K13" s="507"/>
+      <c r="K13" s="491"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="375" t="s">
@@ -6984,11 +6984,11 @@
       <c r="A28" s="381"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="490" t="s">
+      <c r="A29" s="492" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="490"/>
-      <c r="C29" s="490"/>
+      <c r="B29" s="492"/>
+      <c r="C29" s="492"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="371" t="s">
@@ -6997,12 +6997,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -7012,6 +7006,12 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -7065,24 +7065,24 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="170"/>
-      <c r="B2" s="597"/>
-      <c r="C2" s="598"/>
-      <c r="D2" s="599"/>
-      <c r="E2" s="606" t="s">
+      <c r="B2" s="590"/>
+      <c r="C2" s="591"/>
+      <c r="D2" s="592"/>
+      <c r="E2" s="599" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="607"/>
-      <c r="G2" s="607"/>
-      <c r="H2" s="608"/>
-      <c r="I2" s="612" t="s">
+      <c r="F2" s="600"/>
+      <c r="G2" s="600"/>
+      <c r="H2" s="601"/>
+      <c r="I2" s="605" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="613"/>
-      <c r="K2" s="616">
+      <c r="J2" s="606"/>
+      <c r="K2" s="609">
         <f>Данные!B20</f>
         <v>50</v>
       </c>
-      <c r="L2" s="617"/>
+      <c r="L2" s="610"/>
       <c r="M2" s="171"/>
       <c r="N2" s="172"/>
       <c r="O2" s="173"/>
@@ -7093,19 +7093,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="170"/>
-      <c r="B3" s="600"/>
-      <c r="C3" s="601"/>
-      <c r="D3" s="602"/>
-      <c r="E3" s="609" t="s">
+      <c r="B3" s="593"/>
+      <c r="C3" s="594"/>
+      <c r="D3" s="595"/>
+      <c r="E3" s="602" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="610"/>
-      <c r="G3" s="610"/>
-      <c r="H3" s="611"/>
-      <c r="I3" s="614"/>
-      <c r="J3" s="615"/>
-      <c r="K3" s="618"/>
-      <c r="L3" s="619"/>
+      <c r="F3" s="603"/>
+      <c r="G3" s="603"/>
+      <c r="H3" s="604"/>
+      <c r="I3" s="607"/>
+      <c r="J3" s="608"/>
+      <c r="K3" s="611"/>
+      <c r="L3" s="612"/>
       <c r="M3" s="176"/>
       <c r="N3" s="177"/>
       <c r="O3" s="177"/>
@@ -7116,9 +7116,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="170"/>
-      <c r="B4" s="603"/>
-      <c r="C4" s="604"/>
-      <c r="D4" s="605"/>
+      <c r="B4" s="596"/>
+      <c r="C4" s="597"/>
+      <c r="D4" s="598"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -7137,22 +7137,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="170"/>
-      <c r="B5" s="551" t="s">
+      <c r="B5" s="575" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="590"/>
-      <c r="D5" s="500" t="str">
+      <c r="C5" s="613"/>
+      <c r="D5" s="502" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="501"/>
-      <c r="F5" s="501"/>
-      <c r="G5" s="501"/>
-      <c r="H5" s="502"/>
-      <c r="I5" s="591"/>
-      <c r="J5" s="592"/>
-      <c r="K5" s="593"/>
-      <c r="L5" s="502"/>
+      <c r="E5" s="503"/>
+      <c r="F5" s="503"/>
+      <c r="G5" s="503"/>
+      <c r="H5" s="504"/>
+      <c r="I5" s="614"/>
+      <c r="J5" s="615"/>
+      <c r="K5" s="616"/>
+      <c r="L5" s="504"/>
       <c r="M5" s="179"/>
       <c r="N5" s="177"/>
       <c r="O5" s="177"/>
@@ -7163,22 +7163,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="170"/>
-      <c r="B6" s="551" t="s">
+      <c r="B6" s="575" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="590"/>
-      <c r="D6" s="494" t="str">
+      <c r="C6" s="613"/>
+      <c r="D6" s="496" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="556"/>
-      <c r="F6" s="556"/>
-      <c r="G6" s="556"/>
-      <c r="H6" s="557"/>
-      <c r="I6" s="591"/>
-      <c r="J6" s="592"/>
-      <c r="K6" s="593"/>
-      <c r="L6" s="502"/>
+      <c r="E6" s="580"/>
+      <c r="F6" s="580"/>
+      <c r="G6" s="580"/>
+      <c r="H6" s="581"/>
+      <c r="I6" s="614"/>
+      <c r="J6" s="615"/>
+      <c r="K6" s="616"/>
+      <c r="L6" s="504"/>
       <c r="M6" s="176"/>
       <c r="N6" s="177"/>
       <c r="O6" s="177"/>
@@ -7189,27 +7189,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="170"/>
-      <c r="B7" s="558" t="s">
+      <c r="B7" s="582" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="594"/>
-      <c r="D7" s="503">
+      <c r="C7" s="617"/>
+      <c r="D7" s="505">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="560"/>
-      <c r="F7" s="560"/>
-      <c r="G7" s="560"/>
-      <c r="H7" s="561"/>
-      <c r="I7" s="595" t="s">
+      <c r="E7" s="584"/>
+      <c r="F7" s="584"/>
+      <c r="G7" s="584"/>
+      <c r="H7" s="585"/>
+      <c r="I7" s="618" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="594"/>
-      <c r="K7" s="491">
+      <c r="J7" s="617"/>
+      <c r="K7" s="493">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="492"/>
+      <c r="L7" s="494"/>
       <c r="M7" s="179"/>
       <c r="N7" s="177"/>
       <c r="O7" s="177"/>
@@ -7594,16 +7594,24 @@
     </row>
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L21" s="627" t="s">
+      <c r="L21" s="621" t="s">
         <v>140</v>
       </c>
-      <c r="M21" s="627"/>
-      <c r="N21" s="627"/>
+      <c r="M21" s="621"/>
+      <c r="N21" s="621"/>
       <c r="O21" s="468"/>
       <c r="P21" s="468"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -7615,14 +7623,6 @@
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
@@ -7688,47 +7688,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="209"/>
-      <c r="B2" s="597"/>
-      <c r="C2" s="598"/>
-      <c r="D2" s="599"/>
-      <c r="E2" s="606" t="s">
+      <c r="B2" s="590"/>
+      <c r="C2" s="591"/>
+      <c r="D2" s="592"/>
+      <c r="E2" s="599" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="607"/>
-      <c r="G2" s="607"/>
-      <c r="H2" s="608"/>
-      <c r="I2" s="612" t="s">
+      <c r="F2" s="600"/>
+      <c r="G2" s="600"/>
+      <c r="H2" s="601"/>
+      <c r="I2" s="605" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="613"/>
-      <c r="K2" s="616">
+      <c r="J2" s="606"/>
+      <c r="K2" s="609">
         <f>Данные!B21</f>
         <v>24</v>
       </c>
-      <c r="L2" s="617"/>
+      <c r="L2" s="610"/>
       <c r="M2" s="210"/>
       <c r="N2" s="211"/>
       <c r="O2" s="212"/>
-      <c r="P2" s="633"/>
-      <c r="Q2" s="633"/>
+      <c r="P2" s="630"/>
+      <c r="Q2" s="630"/>
       <c r="R2" s="213"/>
       <c r="S2" s="214"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="209"/>
-      <c r="B3" s="600"/>
-      <c r="C3" s="601"/>
-      <c r="D3" s="602"/>
-      <c r="E3" s="609" t="s">
+      <c r="B3" s="593"/>
+      <c r="C3" s="594"/>
+      <c r="D3" s="595"/>
+      <c r="E3" s="602" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="610"/>
-      <c r="G3" s="610"/>
-      <c r="H3" s="611"/>
-      <c r="I3" s="614"/>
-      <c r="J3" s="615"/>
-      <c r="K3" s="618"/>
-      <c r="L3" s="619"/>
+      <c r="F3" s="603"/>
+      <c r="G3" s="603"/>
+      <c r="H3" s="604"/>
+      <c r="I3" s="607"/>
+      <c r="J3" s="608"/>
+      <c r="K3" s="611"/>
+      <c r="L3" s="612"/>
       <c r="M3" s="215"/>
       <c r="N3" s="216"/>
       <c r="O3" s="216"/>
@@ -7739,9 +7739,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="209"/>
-      <c r="B4" s="603"/>
-      <c r="C4" s="604"/>
-      <c r="D4" s="605"/>
+      <c r="B4" s="596"/>
+      <c r="C4" s="597"/>
+      <c r="D4" s="598"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -7760,22 +7760,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="209"/>
-      <c r="B5" s="551" t="s">
+      <c r="B5" s="575" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="590"/>
-      <c r="D5" s="500" t="str">
+      <c r="C5" s="613"/>
+      <c r="D5" s="502" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="501"/>
-      <c r="F5" s="501"/>
-      <c r="G5" s="501"/>
-      <c r="H5" s="502"/>
-      <c r="I5" s="591"/>
-      <c r="J5" s="592"/>
-      <c r="K5" s="593"/>
-      <c r="L5" s="502"/>
+      <c r="E5" s="503"/>
+      <c r="F5" s="503"/>
+      <c r="G5" s="503"/>
+      <c r="H5" s="504"/>
+      <c r="I5" s="614"/>
+      <c r="J5" s="615"/>
+      <c r="K5" s="616"/>
+      <c r="L5" s="504"/>
       <c r="M5" s="218"/>
       <c r="N5" s="216"/>
       <c r="O5" s="216"/>
@@ -7786,22 +7786,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="209"/>
-      <c r="B6" s="551" t="s">
+      <c r="B6" s="575" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="590"/>
-      <c r="D6" s="494" t="str">
+      <c r="C6" s="613"/>
+      <c r="D6" s="496" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="556"/>
-      <c r="F6" s="556"/>
-      <c r="G6" s="556"/>
-      <c r="H6" s="557"/>
-      <c r="I6" s="591"/>
-      <c r="J6" s="592"/>
-      <c r="K6" s="593"/>
-      <c r="L6" s="502"/>
+      <c r="E6" s="580"/>
+      <c r="F6" s="580"/>
+      <c r="G6" s="580"/>
+      <c r="H6" s="581"/>
+      <c r="I6" s="614"/>
+      <c r="J6" s="615"/>
+      <c r="K6" s="616"/>
+      <c r="L6" s="504"/>
       <c r="M6" s="215"/>
       <c r="N6" s="216"/>
       <c r="O6" s="216"/>
@@ -7812,27 +7812,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="209"/>
-      <c r="B7" s="558" t="s">
+      <c r="B7" s="582" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="594"/>
-      <c r="D7" s="503">
+      <c r="C7" s="617"/>
+      <c r="D7" s="505">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="560"/>
-      <c r="F7" s="560"/>
-      <c r="G7" s="560"/>
-      <c r="H7" s="561"/>
-      <c r="I7" s="595" t="s">
+      <c r="E7" s="584"/>
+      <c r="F7" s="584"/>
+      <c r="G7" s="584"/>
+      <c r="H7" s="585"/>
+      <c r="I7" s="618" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="594"/>
-      <c r="K7" s="491">
+      <c r="J7" s="617"/>
+      <c r="K7" s="493">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="492"/>
+      <c r="L7" s="494"/>
       <c r="M7" s="218"/>
       <c r="N7" s="216"/>
       <c r="O7" s="216"/>
@@ -8161,12 +8161,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="219"/>
-      <c r="B18" s="630" t="s">
+      <c r="B18" s="631" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="631"/>
-      <c r="D18" s="631"/>
-      <c r="E18" s="632"/>
+      <c r="C18" s="632"/>
+      <c r="D18" s="632"/>
+      <c r="E18" s="633"/>
       <c r="F18" s="116" t="s">
         <v>16</v>
       </c>
@@ -8210,14 +8210,6 @@
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
@@ -8229,6 +8221,14 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8314,24 +8314,24 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="133"/>
-      <c r="B2" s="597"/>
-      <c r="C2" s="598"/>
-      <c r="D2" s="599"/>
-      <c r="E2" s="606" t="s">
+      <c r="B2" s="590"/>
+      <c r="C2" s="591"/>
+      <c r="D2" s="592"/>
+      <c r="E2" s="599" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="607"/>
-      <c r="G2" s="607"/>
-      <c r="H2" s="608"/>
-      <c r="I2" s="612" t="s">
+      <c r="F2" s="600"/>
+      <c r="G2" s="600"/>
+      <c r="H2" s="601"/>
+      <c r="I2" s="605" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="613"/>
-      <c r="K2" s="616">
+      <c r="J2" s="606"/>
+      <c r="K2" s="609">
         <f>Данные!B26</f>
         <v>22</v>
       </c>
-      <c r="L2" s="617"/>
+      <c r="L2" s="610"/>
       <c r="M2" s="134"/>
       <c r="N2" s="135"/>
       <c r="O2" s="136"/>
@@ -8342,19 +8342,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="133"/>
-      <c r="B3" s="600"/>
-      <c r="C3" s="601"/>
-      <c r="D3" s="602"/>
-      <c r="E3" s="609" t="s">
+      <c r="B3" s="593"/>
+      <c r="C3" s="594"/>
+      <c r="D3" s="595"/>
+      <c r="E3" s="602" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="610"/>
-      <c r="G3" s="610"/>
-      <c r="H3" s="611"/>
-      <c r="I3" s="614"/>
-      <c r="J3" s="615"/>
-      <c r="K3" s="618"/>
-      <c r="L3" s="619"/>
+      <c r="F3" s="603"/>
+      <c r="G3" s="603"/>
+      <c r="H3" s="604"/>
+      <c r="I3" s="607"/>
+      <c r="J3" s="608"/>
+      <c r="K3" s="611"/>
+      <c r="L3" s="612"/>
       <c r="M3" s="139"/>
       <c r="N3" s="140"/>
       <c r="O3" s="140"/>
@@ -8365,9 +8365,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="133"/>
-      <c r="B4" s="603"/>
-      <c r="C4" s="604"/>
-      <c r="D4" s="605"/>
+      <c r="B4" s="596"/>
+      <c r="C4" s="597"/>
+      <c r="D4" s="598"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -8386,22 +8386,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="133"/>
-      <c r="B5" s="551" t="s">
+      <c r="B5" s="575" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="590"/>
-      <c r="D5" s="500" t="str">
+      <c r="C5" s="613"/>
+      <c r="D5" s="502" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="501"/>
-      <c r="F5" s="501"/>
-      <c r="G5" s="501"/>
-      <c r="H5" s="502"/>
-      <c r="I5" s="591"/>
-      <c r="J5" s="592"/>
-      <c r="K5" s="593"/>
-      <c r="L5" s="502"/>
+      <c r="E5" s="503"/>
+      <c r="F5" s="503"/>
+      <c r="G5" s="503"/>
+      <c r="H5" s="504"/>
+      <c r="I5" s="614"/>
+      <c r="J5" s="615"/>
+      <c r="K5" s="616"/>
+      <c r="L5" s="504"/>
       <c r="M5" s="142"/>
       <c r="N5" s="140"/>
       <c r="O5" s="140"/>
@@ -8412,22 +8412,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="133"/>
-      <c r="B6" s="551" t="s">
+      <c r="B6" s="575" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="590"/>
-      <c r="D6" s="494" t="str">
+      <c r="C6" s="613"/>
+      <c r="D6" s="496" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="556"/>
-      <c r="F6" s="556"/>
-      <c r="G6" s="556"/>
-      <c r="H6" s="557"/>
-      <c r="I6" s="591"/>
-      <c r="J6" s="592"/>
-      <c r="K6" s="593"/>
-      <c r="L6" s="502"/>
+      <c r="E6" s="580"/>
+      <c r="F6" s="580"/>
+      <c r="G6" s="580"/>
+      <c r="H6" s="581"/>
+      <c r="I6" s="614"/>
+      <c r="J6" s="615"/>
+      <c r="K6" s="616"/>
+      <c r="L6" s="504"/>
       <c r="M6" s="139"/>
       <c r="N6" s="140"/>
       <c r="O6" s="140"/>
@@ -8438,27 +8438,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="133"/>
-      <c r="B7" s="558" t="s">
+      <c r="B7" s="582" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="594"/>
-      <c r="D7" s="503">
+      <c r="C7" s="617"/>
+      <c r="D7" s="505">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="560"/>
-      <c r="F7" s="560"/>
-      <c r="G7" s="560"/>
-      <c r="H7" s="561"/>
-      <c r="I7" s="595" t="s">
+      <c r="E7" s="584"/>
+      <c r="F7" s="584"/>
+      <c r="G7" s="584"/>
+      <c r="H7" s="585"/>
+      <c r="I7" s="618" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="594"/>
-      <c r="K7" s="491">
+      <c r="J7" s="617"/>
+      <c r="K7" s="493">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="492"/>
+      <c r="L7" s="494"/>
       <c r="M7" s="142"/>
       <c r="N7" s="140"/>
       <c r="O7" s="140"/>
@@ -8839,6 +8839,17 @@
     <row r="21" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -8846,17 +8857,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H17:R19">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -8922,47 +8922,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="266"/>
-      <c r="B2" s="597"/>
-      <c r="C2" s="598"/>
-      <c r="D2" s="599"/>
-      <c r="E2" s="606" t="s">
+      <c r="B2" s="590"/>
+      <c r="C2" s="591"/>
+      <c r="D2" s="592"/>
+      <c r="E2" s="599" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="607"/>
-      <c r="G2" s="607"/>
-      <c r="H2" s="608"/>
-      <c r="I2" s="612" t="s">
+      <c r="F2" s="600"/>
+      <c r="G2" s="600"/>
+      <c r="H2" s="601"/>
+      <c r="I2" s="605" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="613"/>
-      <c r="K2" s="636">
+      <c r="J2" s="606"/>
+      <c r="K2" s="635">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="L2" s="637"/>
+      <c r="L2" s="636"/>
       <c r="M2" s="267"/>
       <c r="N2" s="268"/>
       <c r="O2" s="269"/>
-      <c r="P2" s="635"/>
-      <c r="Q2" s="635"/>
+      <c r="P2" s="639"/>
+      <c r="Q2" s="639"/>
       <c r="R2" s="270"/>
       <c r="S2" s="271"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="266"/>
-      <c r="B3" s="600"/>
-      <c r="C3" s="601"/>
-      <c r="D3" s="602"/>
-      <c r="E3" s="609" t="s">
+      <c r="B3" s="593"/>
+      <c r="C3" s="594"/>
+      <c r="D3" s="595"/>
+      <c r="E3" s="602" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="610"/>
-      <c r="G3" s="610"/>
-      <c r="H3" s="611"/>
-      <c r="I3" s="614"/>
-      <c r="J3" s="615"/>
-      <c r="K3" s="638"/>
-      <c r="L3" s="639"/>
+      <c r="F3" s="603"/>
+      <c r="G3" s="603"/>
+      <c r="H3" s="604"/>
+      <c r="I3" s="607"/>
+      <c r="J3" s="608"/>
+      <c r="K3" s="637"/>
+      <c r="L3" s="638"/>
       <c r="M3" s="272"/>
       <c r="N3" s="273"/>
       <c r="O3" s="273"/>
@@ -8973,9 +8973,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="266"/>
-      <c r="B4" s="603"/>
-      <c r="C4" s="604"/>
-      <c r="D4" s="605"/>
+      <c r="B4" s="596"/>
+      <c r="C4" s="597"/>
+      <c r="D4" s="598"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -8994,22 +8994,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="266"/>
-      <c r="B5" s="551" t="s">
+      <c r="B5" s="575" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="590"/>
-      <c r="D5" s="500" t="str">
+      <c r="C5" s="613"/>
+      <c r="D5" s="502" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="501"/>
-      <c r="F5" s="501"/>
-      <c r="G5" s="501"/>
-      <c r="H5" s="502"/>
-      <c r="I5" s="591"/>
-      <c r="J5" s="592"/>
-      <c r="K5" s="593"/>
-      <c r="L5" s="502"/>
+      <c r="E5" s="503"/>
+      <c r="F5" s="503"/>
+      <c r="G5" s="503"/>
+      <c r="H5" s="504"/>
+      <c r="I5" s="614"/>
+      <c r="J5" s="615"/>
+      <c r="K5" s="616"/>
+      <c r="L5" s="504"/>
       <c r="M5" s="275"/>
       <c r="N5" s="273"/>
       <c r="O5" s="273"/>
@@ -9020,22 +9020,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="266"/>
-      <c r="B6" s="551" t="s">
+      <c r="B6" s="575" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="590"/>
-      <c r="D6" s="494" t="str">
+      <c r="C6" s="613"/>
+      <c r="D6" s="496" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="556"/>
-      <c r="F6" s="556"/>
-      <c r="G6" s="556"/>
-      <c r="H6" s="557"/>
-      <c r="I6" s="591"/>
-      <c r="J6" s="592"/>
-      <c r="K6" s="593"/>
-      <c r="L6" s="502"/>
+      <c r="E6" s="580"/>
+      <c r="F6" s="580"/>
+      <c r="G6" s="580"/>
+      <c r="H6" s="581"/>
+      <c r="I6" s="614"/>
+      <c r="J6" s="615"/>
+      <c r="K6" s="616"/>
+      <c r="L6" s="504"/>
       <c r="M6" s="272"/>
       <c r="N6" s="273"/>
       <c r="O6" s="273"/>
@@ -9046,27 +9046,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="266"/>
-      <c r="B7" s="558" t="s">
+      <c r="B7" s="582" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="594"/>
-      <c r="D7" s="503">
+      <c r="C7" s="617"/>
+      <c r="D7" s="505">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="560"/>
-      <c r="F7" s="560"/>
-      <c r="G7" s="560"/>
-      <c r="H7" s="561"/>
-      <c r="I7" s="595" t="s">
+      <c r="E7" s="584"/>
+      <c r="F7" s="584"/>
+      <c r="G7" s="584"/>
+      <c r="H7" s="585"/>
+      <c r="I7" s="618" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="594"/>
-      <c r="K7" s="491">
+      <c r="J7" s="617"/>
+      <c r="K7" s="493">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="492"/>
+      <c r="L7" s="494"/>
       <c r="M7" s="275"/>
       <c r="N7" s="273"/>
       <c r="O7" s="273"/>
@@ -9339,6 +9339,8 @@
     <row r="17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
@@ -9355,8 +9357,6 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -9385,8 +9385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9441,17 +9441,17 @@
       <c r="L2" s="391"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="510" t="s">
+      <c r="A3" s="513" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="510"/>
-      <c r="C3" s="510"/>
-      <c r="D3" s="510"/>
-      <c r="E3" s="510"/>
-      <c r="F3" s="510"/>
-      <c r="G3" s="510"/>
-      <c r="H3" s="510"/>
-      <c r="I3" s="510"/>
+      <c r="B3" s="513"/>
+      <c r="C3" s="513"/>
+      <c r="D3" s="513"/>
+      <c r="E3" s="513"/>
+      <c r="F3" s="513"/>
+      <c r="G3" s="513"/>
+      <c r="H3" s="513"/>
+      <c r="I3" s="513"/>
       <c r="K3" s="392"/>
       <c r="L3" s="392"/>
       <c r="M3" s="393"/>
@@ -9958,7 +9958,7 @@
         <v>1082706</v>
       </c>
       <c r="G21" s="433">
-        <f t="shared" ref="G21:G34" si="2">F21/A$21</f>
+        <f t="shared" ref="G21:G35" si="2">F21/A$21</f>
         <v>6.444678571428572E-2</v>
       </c>
       <c r="H21" s="434">
@@ -10430,15 +10430,36 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="446"/>
-      <c r="B35" s="488"/>
-      <c r="C35" s="447"/>
-      <c r="D35" s="447"/>
-      <c r="E35" s="485"/>
-      <c r="F35" s="486"/>
-      <c r="G35" s="448"/>
-      <c r="H35" s="439"/>
-      <c r="I35" s="489"/>
-      <c r="J35" s="482"/>
+      <c r="B35" s="488" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" s="447">
+        <v>44350</v>
+      </c>
+      <c r="D35" s="447">
+        <v>44378</v>
+      </c>
+      <c r="E35" s="485">
+        <v>536400</v>
+      </c>
+      <c r="F35" s="486">
+        <v>552989</v>
+      </c>
+      <c r="G35" s="448">
+        <f t="shared" si="2"/>
+        <v>3.2916011904761906E-2</v>
+      </c>
+      <c r="H35" s="439">
+        <f t="shared" ref="H35" si="24">H34-F35</f>
+        <v>1965480</v>
+      </c>
+      <c r="I35" s="440">
+        <f t="shared" ref="I35" si="25">I34-G35</f>
+        <v>0.11699285714285707</v>
+      </c>
+      <c r="J35" s="482">
+        <v>352</v>
+      </c>
       <c r="K35" s="436"/>
       <c r="L35" s="393"/>
     </row>
@@ -10479,23 +10500,23 @@
       <c r="D38" s="451"/>
       <c r="E38" s="475">
         <f>SUM(E21:E37)</f>
-        <v>13806936</v>
+        <v>14343336</v>
       </c>
       <c r="F38" s="476">
         <f>SUM(F21:F37)</f>
-        <v>14281531</v>
+        <v>14834520</v>
       </c>
       <c r="G38" s="452">
         <f>SUM(G21:G37)</f>
-        <v>0.85009113095238098</v>
+        <v>0.88300714285714288</v>
       </c>
       <c r="H38" s="453">
         <f>A21-F38</f>
-        <v>2518469</v>
+        <v>1965480</v>
       </c>
       <c r="I38" s="454">
         <f>1-G38</f>
-        <v>0.14990886904761902</v>
+        <v>0.11699285714285712</v>
       </c>
       <c r="J38" s="472"/>
       <c r="K38" s="455"/>
@@ -10514,12 +10535,12 @@
       <c r="J41" s="393"/>
     </row>
     <row r="42" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="511" t="s">
+      <c r="A42" s="514" t="s">
         <v>132</v>
       </c>
-      <c r="B42" s="511"/>
-      <c r="C42" s="511"/>
-      <c r="D42" s="511"/>
+      <c r="B42" s="514"/>
+      <c r="C42" s="514"/>
+      <c r="D42" s="514"/>
       <c r="E42" s="393"/>
       <c r="F42" s="393"/>
       <c r="G42" s="393"/>
@@ -10528,10 +10549,10 @@
       <c r="J42" s="393"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="512" t="s">
+      <c r="A43" s="515" t="s">
         <v>133</v>
       </c>
-      <c r="B43" s="512"/>
+      <c r="B43" s="515"/>
       <c r="C43" s="456" t="s">
         <v>134</v>
       </c>
@@ -10546,18 +10567,18 @@
       <c r="J43" s="393"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="513">
+      <c r="A44" s="516">
         <f>A21-F38</f>
-        <v>2518469</v>
-      </c>
-      <c r="B44" s="514"/>
+        <v>1965480</v>
+      </c>
+      <c r="B44" s="517"/>
       <c r="C44" s="457">
         <f>1-G38</f>
-        <v>0.14990886904761902</v>
+        <v>0.11699285714285712</v>
       </c>
       <c r="D44" s="458">
         <f>(C44/0.8)*100</f>
-        <v>18.738608630952378</v>
+        <v>14.62410714285714</v>
       </c>
       <c r="E44" s="459" t="s">
         <v>136</v>
@@ -10612,8 +10633,8 @@
       <c r="F48" s="461"/>
       <c r="G48" s="461"/>
       <c r="H48" s="461"/>
-      <c r="I48" s="515"/>
-      <c r="J48" s="516"/>
+      <c r="I48" s="508"/>
+      <c r="J48" s="509"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="462"/>
@@ -10707,9 +10728,9 @@
     </row>
     <row r="58" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="393"/>
-      <c r="B58" s="508"/>
-      <c r="C58" s="508"/>
-      <c r="D58" s="509"/>
+      <c r="B58" s="511"/>
+      <c r="C58" s="511"/>
+      <c r="D58" s="512"/>
       <c r="E58" s="459"/>
       <c r="F58" s="393"/>
       <c r="G58" s="393"/>
@@ -10726,8 +10747,8 @@
       <c r="F59" s="461"/>
       <c r="G59" s="461"/>
       <c r="H59" s="461"/>
-      <c r="I59" s="515"/>
-      <c r="J59" s="516"/>
+      <c r="I59" s="508"/>
+      <c r="J59" s="509"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="462"/>
@@ -10738,8 +10759,8 @@
       <c r="F60" s="423"/>
       <c r="G60" s="423"/>
       <c r="H60" s="463"/>
-      <c r="I60" s="517"/>
-      <c r="J60" s="517"/>
+      <c r="I60" s="510"/>
+      <c r="J60" s="510"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="462"/>
@@ -10750,8 +10771,8 @@
       <c r="F61" s="413"/>
       <c r="G61" s="413"/>
       <c r="H61" s="413"/>
-      <c r="I61" s="517"/>
-      <c r="J61" s="517"/>
+      <c r="I61" s="510"/>
+      <c r="J61" s="510"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="393"/>
@@ -10764,30 +10785,30 @@
       <c r="H62" s="393"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B67" s="515"/>
-      <c r="C67" s="516"/>
+      <c r="B67" s="508"/>
+      <c r="C67" s="509"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B74" s="515"/>
-      <c r="C74" s="516"/>
+      <c r="B74" s="508"/>
+      <c r="C74" s="509"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B74:C74"/>
     <mergeCell ref="B58:D58"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B74:C74"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="44" max="16383" man="1"/>
   </rowBreaks>
@@ -10866,47 +10887,47 @@
       <c r="J8" s="317"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="519" t="s">
+      <c r="A11" s="543" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="519"/>
-      <c r="C11" s="519"/>
-      <c r="D11" s="519"/>
-      <c r="E11" s="519"/>
-      <c r="F11" s="519"/>
-      <c r="G11" s="519"/>
-      <c r="H11" s="519"/>
-      <c r="I11" s="519"/>
-      <c r="J11" s="519"/>
+      <c r="B11" s="543"/>
+      <c r="C11" s="543"/>
+      <c r="D11" s="543"/>
+      <c r="E11" s="543"/>
+      <c r="F11" s="543"/>
+      <c r="G11" s="543"/>
+      <c r="H11" s="543"/>
+      <c r="I11" s="543"/>
+      <c r="J11" s="543"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="518" t="s">
+      <c r="A12" s="542" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="518"/>
-      <c r="C12" s="518"/>
-      <c r="D12" s="518"/>
-      <c r="E12" s="518"/>
-      <c r="F12" s="518"/>
-      <c r="G12" s="518"/>
-      <c r="H12" s="518"/>
-      <c r="I12" s="518"/>
-      <c r="J12" s="518"/>
+      <c r="B12" s="542"/>
+      <c r="C12" s="542"/>
+      <c r="D12" s="542"/>
+      <c r="E12" s="542"/>
+      <c r="F12" s="542"/>
+      <c r="G12" s="542"/>
+      <c r="H12" s="542"/>
+      <c r="I12" s="542"/>
+      <c r="J12" s="542"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="520" t="str">
+      <c r="A13" s="544" t="str">
         <f>Данные!A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="B13" s="519"/>
-      <c r="C13" s="519"/>
-      <c r="D13" s="519"/>
-      <c r="E13" s="519"/>
-      <c r="F13" s="519"/>
-      <c r="G13" s="519"/>
-      <c r="H13" s="519"/>
-      <c r="I13" s="519"/>
-      <c r="J13" s="519"/>
+      <c r="B13" s="543"/>
+      <c r="C13" s="543"/>
+      <c r="D13" s="543"/>
+      <c r="E13" s="543"/>
+      <c r="F13" s="543"/>
+      <c r="G13" s="543"/>
+      <c r="H13" s="543"/>
+      <c r="I13" s="543"/>
+      <c r="J13" s="543"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="311" t="s">
@@ -11031,482 +11052,482 @@
       <c r="J21" s="312"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="524" t="s">
+      <c r="A22" s="540" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="524" t="s">
+      <c r="B22" s="540" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="524"/>
-      <c r="D22" s="524"/>
-      <c r="E22" s="524" t="s">
+      <c r="C22" s="540"/>
+      <c r="D22" s="540"/>
+      <c r="E22" s="540" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="524"/>
-      <c r="G22" s="542" t="s">
+      <c r="F22" s="540"/>
+      <c r="G22" s="541" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="524" t="s">
+      <c r="H22" s="540" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="524"/>
-      <c r="J22" s="524"/>
+      <c r="I22" s="540"/>
+      <c r="J22" s="540"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="524"/>
-      <c r="B23" s="524"/>
-      <c r="C23" s="524"/>
-      <c r="D23" s="524"/>
-      <c r="E23" s="524"/>
-      <c r="F23" s="524"/>
-      <c r="G23" s="542"/>
-      <c r="H23" s="524"/>
-      <c r="I23" s="524"/>
-      <c r="J23" s="524"/>
+      <c r="A23" s="540"/>
+      <c r="B23" s="540"/>
+      <c r="C23" s="540"/>
+      <c r="D23" s="540"/>
+      <c r="E23" s="540"/>
+      <c r="F23" s="540"/>
+      <c r="G23" s="541"/>
+      <c r="H23" s="540"/>
+      <c r="I23" s="540"/>
+      <c r="J23" s="540"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="525">
+      <c r="A24" s="518">
         <v>1</v>
       </c>
-      <c r="B24" s="539" t="s">
+      <c r="B24" s="545" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="540"/>
-      <c r="D24" s="541"/>
-      <c r="E24" s="527" t="str">
+      <c r="C24" s="546"/>
+      <c r="D24" s="547"/>
+      <c r="E24" s="523" t="str">
         <f>Данные!C14</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F24" s="528"/>
-      <c r="G24" s="531">
+      <c r="F24" s="524"/>
+      <c r="G24" s="527">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="H24" s="533"/>
-      <c r="I24" s="534"/>
-      <c r="J24" s="535"/>
+      <c r="H24" s="529"/>
+      <c r="I24" s="530"/>
+      <c r="J24" s="531"/>
     </row>
     <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="526"/>
-      <c r="B25" s="521" t="str">
+      <c r="A25" s="538"/>
+      <c r="B25" s="535" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C25" s="522"/>
-      <c r="D25" s="523"/>
-      <c r="E25" s="529"/>
-      <c r="F25" s="530"/>
-      <c r="G25" s="532"/>
-      <c r="H25" s="536"/>
-      <c r="I25" s="537"/>
-      <c r="J25" s="538"/>
+      <c r="C25" s="536"/>
+      <c r="D25" s="537"/>
+      <c r="E25" s="539"/>
+      <c r="F25" s="526"/>
+      <c r="G25" s="528"/>
+      <c r="H25" s="532"/>
+      <c r="I25" s="533"/>
+      <c r="J25" s="534"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="525">
+      <c r="A26" s="518">
         <v>1</v>
       </c>
-      <c r="B26" s="543" t="s">
+      <c r="B26" s="520" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="544"/>
-      <c r="D26" s="545"/>
-      <c r="E26" s="527" t="str">
+      <c r="C26" s="521"/>
+      <c r="D26" s="522"/>
+      <c r="E26" s="523" t="str">
         <f>Данные!C15</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F26" s="528"/>
-      <c r="G26" s="531">
+      <c r="F26" s="524"/>
+      <c r="G26" s="527">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="H26" s="533"/>
-      <c r="I26" s="534"/>
-      <c r="J26" s="535"/>
+      <c r="H26" s="529"/>
+      <c r="I26" s="530"/>
+      <c r="J26" s="531"/>
     </row>
     <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="526"/>
-      <c r="B27" s="521" t="str">
+      <c r="A27" s="538"/>
+      <c r="B27" s="535" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C27" s="522"/>
-      <c r="D27" s="523"/>
-      <c r="E27" s="529"/>
-      <c r="F27" s="530"/>
-      <c r="G27" s="532"/>
-      <c r="H27" s="536"/>
-      <c r="I27" s="537"/>
-      <c r="J27" s="538"/>
+      <c r="C27" s="536"/>
+      <c r="D27" s="537"/>
+      <c r="E27" s="539"/>
+      <c r="F27" s="526"/>
+      <c r="G27" s="528"/>
+      <c r="H27" s="532"/>
+      <c r="I27" s="533"/>
+      <c r="J27" s="534"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="525">
+      <c r="A28" s="518">
         <v>1</v>
       </c>
-      <c r="B28" s="543" t="s">
+      <c r="B28" s="520" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="544"/>
-      <c r="D28" s="545"/>
-      <c r="E28" s="527" t="str">
+      <c r="C28" s="521"/>
+      <c r="D28" s="522"/>
+      <c r="E28" s="523" t="str">
         <f>Данные!C16</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F28" s="528"/>
-      <c r="G28" s="531">
+      <c r="F28" s="524"/>
+      <c r="G28" s="527">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="H28" s="533"/>
-      <c r="I28" s="534"/>
-      <c r="J28" s="535"/>
+      <c r="H28" s="529"/>
+      <c r="I28" s="530"/>
+      <c r="J28" s="531"/>
     </row>
     <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="526"/>
-      <c r="B29" s="521" t="str">
+      <c r="A29" s="538"/>
+      <c r="B29" s="535" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C29" s="522"/>
-      <c r="D29" s="523"/>
-      <c r="E29" s="529"/>
-      <c r="F29" s="530"/>
-      <c r="G29" s="532"/>
-      <c r="H29" s="536"/>
-      <c r="I29" s="537"/>
-      <c r="J29" s="538"/>
+      <c r="C29" s="536"/>
+      <c r="D29" s="537"/>
+      <c r="E29" s="539"/>
+      <c r="F29" s="526"/>
+      <c r="G29" s="528"/>
+      <c r="H29" s="532"/>
+      <c r="I29" s="533"/>
+      <c r="J29" s="534"/>
     </row>
     <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="525">
+      <c r="A30" s="518">
         <v>1</v>
       </c>
-      <c r="B30" s="543" t="s">
+      <c r="B30" s="520" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="544"/>
-      <c r="D30" s="545"/>
-      <c r="E30" s="527" t="str">
+      <c r="C30" s="521"/>
+      <c r="D30" s="522"/>
+      <c r="E30" s="523" t="str">
         <f>Данные!C17</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F30" s="528"/>
-      <c r="G30" s="531">
+      <c r="F30" s="524"/>
+      <c r="G30" s="527">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="H30" s="533"/>
-      <c r="I30" s="534"/>
-      <c r="J30" s="535"/>
+      <c r="H30" s="529"/>
+      <c r="I30" s="530"/>
+      <c r="J30" s="531"/>
     </row>
     <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="546"/>
-      <c r="B31" s="521" t="str">
+      <c r="A31" s="519"/>
+      <c r="B31" s="535" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C31" s="522"/>
-      <c r="D31" s="523"/>
-      <c r="E31" s="547"/>
-      <c r="F31" s="530"/>
-      <c r="G31" s="532"/>
-      <c r="H31" s="536"/>
-      <c r="I31" s="537"/>
-      <c r="J31" s="538"/>
+      <c r="C31" s="536"/>
+      <c r="D31" s="537"/>
+      <c r="E31" s="525"/>
+      <c r="F31" s="526"/>
+      <c r="G31" s="528"/>
+      <c r="H31" s="532"/>
+      <c r="I31" s="533"/>
+      <c r="J31" s="534"/>
     </row>
     <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="525">
+      <c r="A32" s="518">
         <v>1</v>
       </c>
-      <c r="B32" s="543" t="s">
+      <c r="B32" s="520" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="544"/>
-      <c r="D32" s="545"/>
-      <c r="E32" s="527" t="str">
+      <c r="C32" s="521"/>
+      <c r="D32" s="522"/>
+      <c r="E32" s="523" t="str">
         <f>Данные!C18</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F32" s="528"/>
-      <c r="G32" s="531">
+      <c r="F32" s="524"/>
+      <c r="G32" s="527">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="H32" s="533"/>
-      <c r="I32" s="534"/>
-      <c r="J32" s="535"/>
+      <c r="H32" s="529"/>
+      <c r="I32" s="530"/>
+      <c r="J32" s="531"/>
     </row>
     <row r="33" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="546"/>
-      <c r="B33" s="521" t="str">
+      <c r="A33" s="519"/>
+      <c r="B33" s="535" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C33" s="522"/>
-      <c r="D33" s="523"/>
-      <c r="E33" s="547"/>
-      <c r="F33" s="530"/>
-      <c r="G33" s="532"/>
-      <c r="H33" s="536"/>
-      <c r="I33" s="537"/>
-      <c r="J33" s="538"/>
+      <c r="C33" s="536"/>
+      <c r="D33" s="537"/>
+      <c r="E33" s="525"/>
+      <c r="F33" s="526"/>
+      <c r="G33" s="528"/>
+      <c r="H33" s="532"/>
+      <c r="I33" s="533"/>
+      <c r="J33" s="534"/>
     </row>
     <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="525">
+      <c r="A34" s="518">
         <v>1</v>
       </c>
-      <c r="B34" s="543" t="s">
+      <c r="B34" s="520" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="544"/>
-      <c r="D34" s="545"/>
-      <c r="E34" s="527" t="str">
+      <c r="C34" s="521"/>
+      <c r="D34" s="522"/>
+      <c r="E34" s="523" t="str">
         <f>Данные!C19</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F34" s="528"/>
-      <c r="G34" s="531">
+      <c r="F34" s="524"/>
+      <c r="G34" s="527">
         <f>Данные!B19</f>
         <v>60</v>
       </c>
-      <c r="H34" s="533"/>
-      <c r="I34" s="534"/>
-      <c r="J34" s="535"/>
+      <c r="H34" s="529"/>
+      <c r="I34" s="530"/>
+      <c r="J34" s="531"/>
     </row>
     <row r="35" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="546"/>
-      <c r="B35" s="521" t="str">
+      <c r="A35" s="519"/>
+      <c r="B35" s="535" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C35" s="522"/>
-      <c r="D35" s="523"/>
-      <c r="E35" s="547"/>
-      <c r="F35" s="530"/>
-      <c r="G35" s="532"/>
-      <c r="H35" s="536"/>
-      <c r="I35" s="537"/>
-      <c r="J35" s="538"/>
+      <c r="C35" s="536"/>
+      <c r="D35" s="537"/>
+      <c r="E35" s="525"/>
+      <c r="F35" s="526"/>
+      <c r="G35" s="528"/>
+      <c r="H35" s="532"/>
+      <c r="I35" s="533"/>
+      <c r="J35" s="534"/>
     </row>
     <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="525">
+      <c r="A36" s="518">
         <v>1</v>
       </c>
-      <c r="B36" s="543" t="s">
+      <c r="B36" s="520" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="544"/>
-      <c r="D36" s="545"/>
-      <c r="E36" s="527" t="str">
+      <c r="C36" s="521"/>
+      <c r="D36" s="522"/>
+      <c r="E36" s="523" t="str">
         <f>Данные!C20</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F36" s="528"/>
-      <c r="G36" s="531">
+      <c r="F36" s="524"/>
+      <c r="G36" s="527">
         <f>Данные!B20</f>
         <v>50</v>
       </c>
-      <c r="H36" s="533"/>
-      <c r="I36" s="534"/>
-      <c r="J36" s="535"/>
+      <c r="H36" s="529"/>
+      <c r="I36" s="530"/>
+      <c r="J36" s="531"/>
     </row>
     <row r="37" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="546"/>
-      <c r="B37" s="521" t="str">
+      <c r="A37" s="519"/>
+      <c r="B37" s="535" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C37" s="522"/>
-      <c r="D37" s="523"/>
-      <c r="E37" s="547"/>
-      <c r="F37" s="530"/>
-      <c r="G37" s="532"/>
-      <c r="H37" s="536"/>
-      <c r="I37" s="537"/>
-      <c r="J37" s="538"/>
+      <c r="C37" s="536"/>
+      <c r="D37" s="537"/>
+      <c r="E37" s="525"/>
+      <c r="F37" s="526"/>
+      <c r="G37" s="528"/>
+      <c r="H37" s="532"/>
+      <c r="I37" s="533"/>
+      <c r="J37" s="534"/>
     </row>
     <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="525">
+      <c r="A38" s="518">
         <v>1</v>
       </c>
-      <c r="B38" s="543" t="s">
+      <c r="B38" s="520" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="544"/>
-      <c r="D38" s="545"/>
-      <c r="E38" s="527" t="str">
+      <c r="C38" s="521"/>
+      <c r="D38" s="522"/>
+      <c r="E38" s="523" t="str">
         <f>Данные!C21</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F38" s="528"/>
-      <c r="G38" s="531">
+      <c r="F38" s="524"/>
+      <c r="G38" s="527">
         <f>Данные!B21</f>
         <v>24</v>
       </c>
-      <c r="H38" s="533"/>
-      <c r="I38" s="534"/>
-      <c r="J38" s="535"/>
+      <c r="H38" s="529"/>
+      <c r="I38" s="530"/>
+      <c r="J38" s="531"/>
     </row>
     <row r="39" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="546"/>
-      <c r="B39" s="521" t="str">
+      <c r="A39" s="519"/>
+      <c r="B39" s="535" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C39" s="522"/>
-      <c r="D39" s="523"/>
-      <c r="E39" s="547"/>
-      <c r="F39" s="530"/>
-      <c r="G39" s="532"/>
-      <c r="H39" s="536"/>
-      <c r="I39" s="537"/>
-      <c r="J39" s="538"/>
+      <c r="C39" s="536"/>
+      <c r="D39" s="537"/>
+      <c r="E39" s="525"/>
+      <c r="F39" s="526"/>
+      <c r="G39" s="528"/>
+      <c r="H39" s="532"/>
+      <c r="I39" s="533"/>
+      <c r="J39" s="534"/>
     </row>
     <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="525">
+      <c r="A40" s="518">
         <v>1</v>
       </c>
-      <c r="B40" s="543" t="s">
+      <c r="B40" s="520" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="544"/>
-      <c r="D40" s="545"/>
-      <c r="E40" s="527" t="str">
+      <c r="C40" s="521"/>
+      <c r="D40" s="522"/>
+      <c r="E40" s="523" t="str">
         <f>Данные!C23</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F40" s="528"/>
-      <c r="G40" s="531">
+      <c r="F40" s="524"/>
+      <c r="G40" s="527">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="H40" s="533"/>
-      <c r="I40" s="534"/>
-      <c r="J40" s="535"/>
+      <c r="H40" s="529"/>
+      <c r="I40" s="530"/>
+      <c r="J40" s="531"/>
     </row>
     <row r="41" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="546"/>
-      <c r="B41" s="521" t="str">
+      <c r="A41" s="519"/>
+      <c r="B41" s="535" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C41" s="522"/>
-      <c r="D41" s="523"/>
-      <c r="E41" s="547"/>
-      <c r="F41" s="530"/>
-      <c r="G41" s="532"/>
-      <c r="H41" s="536"/>
-      <c r="I41" s="537"/>
-      <c r="J41" s="538"/>
+      <c r="C41" s="536"/>
+      <c r="D41" s="537"/>
+      <c r="E41" s="525"/>
+      <c r="F41" s="526"/>
+      <c r="G41" s="528"/>
+      <c r="H41" s="532"/>
+      <c r="I41" s="533"/>
+      <c r="J41" s="534"/>
     </row>
     <row r="42" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="525">
+      <c r="A42" s="518">
         <v>1</v>
       </c>
-      <c r="B42" s="543" t="s">
+      <c r="B42" s="520" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="544"/>
-      <c r="D42" s="545"/>
-      <c r="E42" s="527" t="str">
+      <c r="C42" s="521"/>
+      <c r="D42" s="522"/>
+      <c r="E42" s="523" t="str">
         <f>Данные!C26</f>
         <v>ХXI-В-28-2.1-500-14</v>
       </c>
-      <c r="F42" s="528"/>
-      <c r="G42" s="531">
+      <c r="F42" s="524"/>
+      <c r="G42" s="527">
         <f>Данные!B26</f>
         <v>22</v>
       </c>
-      <c r="H42" s="533"/>
-      <c r="I42" s="534"/>
-      <c r="J42" s="535"/>
+      <c r="H42" s="529"/>
+      <c r="I42" s="530"/>
+      <c r="J42" s="531"/>
     </row>
     <row r="43" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="546"/>
-      <c r="B43" s="521" t="str">
+      <c r="A43" s="519"/>
+      <c r="B43" s="535" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C43" s="522"/>
-      <c r="D43" s="523"/>
-      <c r="E43" s="547"/>
-      <c r="F43" s="530"/>
-      <c r="G43" s="532"/>
-      <c r="H43" s="536"/>
-      <c r="I43" s="537"/>
-      <c r="J43" s="538"/>
+      <c r="C43" s="536"/>
+      <c r="D43" s="537"/>
+      <c r="E43" s="525"/>
+      <c r="F43" s="526"/>
+      <c r="G43" s="528"/>
+      <c r="H43" s="532"/>
+      <c r="I43" s="533"/>
+      <c r="J43" s="534"/>
     </row>
     <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="525">
+      <c r="A44" s="518">
         <v>1</v>
       </c>
-      <c r="B44" s="543" t="s">
+      <c r="B44" s="520" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="544"/>
-      <c r="D44" s="545"/>
-      <c r="E44" s="527">
+      <c r="C44" s="521"/>
+      <c r="D44" s="522"/>
+      <c r="E44" s="523">
         <f>Данные!C27</f>
         <v>0</v>
       </c>
-      <c r="F44" s="528"/>
-      <c r="G44" s="531">
+      <c r="F44" s="524"/>
+      <c r="G44" s="527">
         <f>Данные!B27</f>
         <v>22</v>
       </c>
-      <c r="H44" s="533"/>
-      <c r="I44" s="534"/>
-      <c r="J44" s="535"/>
+      <c r="H44" s="529"/>
+      <c r="I44" s="530"/>
+      <c r="J44" s="531"/>
     </row>
     <row r="45" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="546"/>
-      <c r="B45" s="521" t="str">
+      <c r="A45" s="519"/>
+      <c r="B45" s="535" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C45" s="522"/>
-      <c r="D45" s="523"/>
-      <c r="E45" s="547"/>
-      <c r="F45" s="530"/>
-      <c r="G45" s="532"/>
-      <c r="H45" s="536"/>
-      <c r="I45" s="537"/>
-      <c r="J45" s="538"/>
+      <c r="C45" s="536"/>
+      <c r="D45" s="537"/>
+      <c r="E45" s="525"/>
+      <c r="F45" s="526"/>
+      <c r="G45" s="528"/>
+      <c r="H45" s="532"/>
+      <c r="I45" s="533"/>
+      <c r="J45" s="534"/>
     </row>
     <row r="46" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="525">
+      <c r="A46" s="518">
         <v>1</v>
       </c>
-      <c r="B46" s="543" t="s">
+      <c r="B46" s="520" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="544"/>
-      <c r="D46" s="545"/>
-      <c r="E46" s="527">
+      <c r="C46" s="521"/>
+      <c r="D46" s="522"/>
+      <c r="E46" s="523">
         <f>Данные!C24</f>
         <v>0</v>
       </c>
-      <c r="F46" s="528"/>
-      <c r="G46" s="531" t="str">
+      <c r="F46" s="524"/>
+      <c r="G46" s="527" t="str">
         <f>Данные!B24</f>
         <v>-</v>
       </c>
-      <c r="H46" s="533"/>
-      <c r="I46" s="534"/>
-      <c r="J46" s="535"/>
+      <c r="H46" s="529"/>
+      <c r="I46" s="530"/>
+      <c r="J46" s="531"/>
     </row>
     <row r="47" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="546"/>
-      <c r="B47" s="521" t="str">
+      <c r="A47" s="519"/>
+      <c r="B47" s="535" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-В-28-2.1-500-14)</v>
       </c>
-      <c r="C47" s="522"/>
-      <c r="D47" s="523"/>
-      <c r="E47" s="547"/>
-      <c r="F47" s="530"/>
-      <c r="G47" s="532"/>
-      <c r="H47" s="536"/>
-      <c r="I47" s="537"/>
-      <c r="J47" s="538"/>
+      <c r="C47" s="536"/>
+      <c r="D47" s="537"/>
+      <c r="E47" s="525"/>
+      <c r="F47" s="526"/>
+      <c r="G47" s="528"/>
+      <c r="H47" s="532"/>
+      <c r="I47" s="533"/>
+      <c r="J47" s="534"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="311"/>
@@ -11635,70 +11656,6 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -11715,6 +11672,70 @@
     <mergeCell ref="H24:J25"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11769,47 +11790,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="566"/>
-      <c r="C2" s="567"/>
-      <c r="D2" s="568"/>
-      <c r="E2" s="575" t="s">
+      <c r="B2" s="548"/>
+      <c r="C2" s="549"/>
+      <c r="D2" s="550"/>
+      <c r="E2" s="557" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="576"/>
-      <c r="G2" s="576"/>
-      <c r="H2" s="577"/>
-      <c r="I2" s="582" t="s">
+      <c r="F2" s="558"/>
+      <c r="G2" s="558"/>
+      <c r="H2" s="559"/>
+      <c r="I2" s="564" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="583"/>
-      <c r="K2" s="586">
+      <c r="J2" s="565"/>
+      <c r="K2" s="568">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="587"/>
+      <c r="L2" s="569"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="578"/>
-      <c r="Q2" s="578"/>
+      <c r="P2" s="560"/>
+      <c r="Q2" s="560"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="569"/>
-      <c r="C3" s="570"/>
-      <c r="D3" s="571"/>
-      <c r="E3" s="579" t="s">
+      <c r="B3" s="551"/>
+      <c r="C3" s="552"/>
+      <c r="D3" s="553"/>
+      <c r="E3" s="561" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="580"/>
-      <c r="G3" s="580"/>
-      <c r="H3" s="581"/>
-      <c r="I3" s="584"/>
-      <c r="J3" s="585"/>
-      <c r="K3" s="588"/>
-      <c r="L3" s="589"/>
+      <c r="F3" s="562"/>
+      <c r="G3" s="562"/>
+      <c r="H3" s="563"/>
+      <c r="I3" s="566"/>
+      <c r="J3" s="567"/>
+      <c r="K3" s="570"/>
+      <c r="L3" s="571"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11820,9 +11841,9 @@
     </row>
     <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="572"/>
-      <c r="C4" s="573"/>
-      <c r="D4" s="574"/>
+      <c r="B4" s="554"/>
+      <c r="C4" s="555"/>
+      <c r="D4" s="556"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11841,22 +11862,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="551" t="s">
+      <c r="B5" s="575" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="552"/>
-      <c r="D5" s="500" t="str">
+      <c r="C5" s="576"/>
+      <c r="D5" s="502" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="501"/>
-      <c r="F5" s="501"/>
-      <c r="G5" s="501"/>
-      <c r="H5" s="502"/>
-      <c r="I5" s="553"/>
-      <c r="J5" s="554"/>
-      <c r="K5" s="501"/>
-      <c r="L5" s="502"/>
+      <c r="E5" s="503"/>
+      <c r="F5" s="503"/>
+      <c r="G5" s="503"/>
+      <c r="H5" s="504"/>
+      <c r="I5" s="577"/>
+      <c r="J5" s="578"/>
+      <c r="K5" s="503"/>
+      <c r="L5" s="504"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11867,22 +11888,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="551" t="s">
+      <c r="B6" s="575" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="555"/>
-      <c r="D6" s="494" t="str">
+      <c r="C6" s="579"/>
+      <c r="D6" s="496" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="556"/>
-      <c r="F6" s="556"/>
-      <c r="G6" s="556"/>
-      <c r="H6" s="557"/>
-      <c r="I6" s="553"/>
-      <c r="J6" s="554"/>
-      <c r="K6" s="501"/>
-      <c r="L6" s="502"/>
+      <c r="E6" s="580"/>
+      <c r="F6" s="580"/>
+      <c r="G6" s="580"/>
+      <c r="H6" s="581"/>
+      <c r="I6" s="577"/>
+      <c r="J6" s="578"/>
+      <c r="K6" s="503"/>
+      <c r="L6" s="504"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11893,27 +11914,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="558" t="s">
+      <c r="B7" s="582" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="559"/>
-      <c r="D7" s="503">
+      <c r="C7" s="583"/>
+      <c r="D7" s="505">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="560"/>
-      <c r="F7" s="560"/>
-      <c r="G7" s="560"/>
-      <c r="H7" s="561"/>
-      <c r="I7" s="558" t="s">
+      <c r="E7" s="584"/>
+      <c r="F7" s="584"/>
+      <c r="G7" s="584"/>
+      <c r="H7" s="585"/>
+      <c r="I7" s="582" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="562"/>
-      <c r="K7" s="491">
+      <c r="J7" s="586"/>
+      <c r="K7" s="493">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="492"/>
+      <c r="L7" s="494"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12407,12 +12428,12 @@
     </row>
     <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
-      <c r="B23" s="563" t="s">
+      <c r="B23" s="587" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="564"/>
-      <c r="D23" s="564"/>
-      <c r="E23" s="565"/>
+      <c r="C23" s="588"/>
+      <c r="D23" s="588"/>
+      <c r="E23" s="589"/>
       <c r="F23" s="116" t="s">
         <v>16</v>
       </c>
@@ -12434,12 +12455,12 @@
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
-      <c r="B24" s="548" t="s">
+      <c r="B24" s="572" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="549"/>
-      <c r="D24" s="549"/>
-      <c r="E24" s="550"/>
+      <c r="C24" s="573"/>
+      <c r="D24" s="573"/>
+      <c r="E24" s="574"/>
       <c r="F24" s="116" t="s">
         <v>16</v>
       </c>
@@ -12483,12 +12504,6 @@
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -12503,6 +12518,12 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
@@ -12568,50 +12589,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="597">
+      <c r="B2" s="590">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="598"/>
-      <c r="D2" s="599"/>
-      <c r="E2" s="606" t="s">
+      <c r="C2" s="591"/>
+      <c r="D2" s="592"/>
+      <c r="E2" s="599" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="607"/>
-      <c r="G2" s="607"/>
-      <c r="H2" s="608"/>
-      <c r="I2" s="612" t="s">
+      <c r="F2" s="600"/>
+      <c r="G2" s="600"/>
+      <c r="H2" s="601"/>
+      <c r="I2" s="605" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="613"/>
-      <c r="K2" s="616">
+      <c r="J2" s="606"/>
+      <c r="K2" s="609">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="617"/>
+      <c r="L2" s="610"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="578"/>
-      <c r="Q2" s="578"/>
+      <c r="P2" s="560"/>
+      <c r="Q2" s="560"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="600"/>
-      <c r="C3" s="601"/>
-      <c r="D3" s="602"/>
-      <c r="E3" s="609" t="s">
+      <c r="B3" s="593"/>
+      <c r="C3" s="594"/>
+      <c r="D3" s="595"/>
+      <c r="E3" s="602" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="610"/>
-      <c r="G3" s="610"/>
-      <c r="H3" s="611"/>
-      <c r="I3" s="614"/>
-      <c r="J3" s="615"/>
-      <c r="K3" s="618"/>
-      <c r="L3" s="619"/>
+      <c r="F3" s="603"/>
+      <c r="G3" s="603"/>
+      <c r="H3" s="604"/>
+      <c r="I3" s="607"/>
+      <c r="J3" s="608"/>
+      <c r="K3" s="611"/>
+      <c r="L3" s="612"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12622,9 +12643,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="603"/>
-      <c r="C4" s="604"/>
-      <c r="D4" s="605"/>
+      <c r="B4" s="596"/>
+      <c r="C4" s="597"/>
+      <c r="D4" s="598"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -12643,22 +12664,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="551" t="s">
+      <c r="B5" s="575" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="590"/>
-      <c r="D5" s="500" t="str">
+      <c r="C5" s="613"/>
+      <c r="D5" s="502" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="501"/>
-      <c r="F5" s="501"/>
-      <c r="G5" s="501"/>
-      <c r="H5" s="502"/>
-      <c r="I5" s="591"/>
-      <c r="J5" s="592"/>
-      <c r="K5" s="593"/>
-      <c r="L5" s="502"/>
+      <c r="E5" s="503"/>
+      <c r="F5" s="503"/>
+      <c r="G5" s="503"/>
+      <c r="H5" s="504"/>
+      <c r="I5" s="614"/>
+      <c r="J5" s="615"/>
+      <c r="K5" s="616"/>
+      <c r="L5" s="504"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12669,22 +12690,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="551" t="s">
+      <c r="B6" s="575" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="590"/>
-      <c r="D6" s="494" t="str">
+      <c r="C6" s="613"/>
+      <c r="D6" s="496" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="556"/>
-      <c r="F6" s="556"/>
-      <c r="G6" s="556"/>
-      <c r="H6" s="557"/>
-      <c r="I6" s="591"/>
-      <c r="J6" s="592"/>
-      <c r="K6" s="593"/>
-      <c r="L6" s="502"/>
+      <c r="E6" s="580"/>
+      <c r="F6" s="580"/>
+      <c r="G6" s="580"/>
+      <c r="H6" s="581"/>
+      <c r="I6" s="614"/>
+      <c r="J6" s="615"/>
+      <c r="K6" s="616"/>
+      <c r="L6" s="504"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12695,27 +12716,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="558" t="s">
+      <c r="B7" s="582" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="594"/>
-      <c r="D7" s="503">
+      <c r="C7" s="617"/>
+      <c r="D7" s="505">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="560"/>
-      <c r="F7" s="560"/>
-      <c r="G7" s="560"/>
-      <c r="H7" s="561"/>
-      <c r="I7" s="595" t="s">
+      <c r="E7" s="584"/>
+      <c r="F7" s="584"/>
+      <c r="G7" s="584"/>
+      <c r="H7" s="585"/>
+      <c r="I7" s="618" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="594"/>
-      <c r="K7" s="491">
+      <c r="J7" s="617"/>
+      <c r="K7" s="493">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="492"/>
+      <c r="L7" s="494"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12912,13 +12933,13 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="563" t="s">
+      <c r="B14" s="587" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="564"/>
-      <c r="D14" s="564"/>
-      <c r="E14" s="564"/>
-      <c r="F14" s="596"/>
+      <c r="C14" s="588"/>
+      <c r="D14" s="588"/>
+      <c r="E14" s="588"/>
+      <c r="F14" s="619"/>
       <c r="G14" s="56" t="s">
         <v>77</v>
       </c>
@@ -12937,12 +12958,12 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="78"/>
-      <c r="B15" s="548" t="s">
+      <c r="B15" s="572" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="549"/>
-      <c r="D15" s="549"/>
-      <c r="E15" s="550"/>
+      <c r="C15" s="573"/>
+      <c r="D15" s="573"/>
+      <c r="E15" s="574"/>
       <c r="F15" s="116" t="s">
         <v>16</v>
       </c>
@@ -12993,12 +13014,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -13013,6 +13028,12 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="notBetween">
@@ -13086,47 +13107,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="566"/>
-      <c r="C2" s="567"/>
-      <c r="D2" s="568"/>
-      <c r="E2" s="575" t="s">
+      <c r="B2" s="548"/>
+      <c r="C2" s="549"/>
+      <c r="D2" s="550"/>
+      <c r="E2" s="557" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="576"/>
-      <c r="G2" s="576"/>
-      <c r="H2" s="577"/>
-      <c r="I2" s="582" t="s">
+      <c r="F2" s="558"/>
+      <c r="G2" s="558"/>
+      <c r="H2" s="559"/>
+      <c r="I2" s="564" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="583"/>
-      <c r="K2" s="586">
+      <c r="J2" s="565"/>
+      <c r="K2" s="568">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="L2" s="587"/>
+      <c r="L2" s="569"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="578"/>
-      <c r="Q2" s="578"/>
+      <c r="P2" s="560"/>
+      <c r="Q2" s="560"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="569"/>
-      <c r="C3" s="570"/>
-      <c r="D3" s="571"/>
-      <c r="E3" s="579" t="s">
+      <c r="B3" s="551"/>
+      <c r="C3" s="552"/>
+      <c r="D3" s="553"/>
+      <c r="E3" s="561" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="580"/>
-      <c r="G3" s="580"/>
-      <c r="H3" s="581"/>
-      <c r="I3" s="584"/>
-      <c r="J3" s="585"/>
-      <c r="K3" s="588"/>
-      <c r="L3" s="589"/>
+      <c r="F3" s="562"/>
+      <c r="G3" s="562"/>
+      <c r="H3" s="563"/>
+      <c r="I3" s="566"/>
+      <c r="J3" s="567"/>
+      <c r="K3" s="570"/>
+      <c r="L3" s="571"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -13137,9 +13158,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="572"/>
-      <c r="C4" s="573"/>
-      <c r="D4" s="574"/>
+      <c r="B4" s="554"/>
+      <c r="C4" s="555"/>
+      <c r="D4" s="556"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13158,22 +13179,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="551" t="s">
+      <c r="B5" s="575" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="552"/>
-      <c r="D5" s="500" t="str">
+      <c r="C5" s="576"/>
+      <c r="D5" s="502" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="501"/>
-      <c r="F5" s="501"/>
-      <c r="G5" s="501"/>
-      <c r="H5" s="502"/>
-      <c r="I5" s="553"/>
-      <c r="J5" s="554"/>
-      <c r="K5" s="501"/>
-      <c r="L5" s="502"/>
+      <c r="E5" s="503"/>
+      <c r="F5" s="503"/>
+      <c r="G5" s="503"/>
+      <c r="H5" s="504"/>
+      <c r="I5" s="577"/>
+      <c r="J5" s="578"/>
+      <c r="K5" s="503"/>
+      <c r="L5" s="504"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -13184,22 +13205,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="551" t="s">
+      <c r="B6" s="575" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="555"/>
-      <c r="D6" s="494" t="str">
+      <c r="C6" s="579"/>
+      <c r="D6" s="496" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="556"/>
-      <c r="F6" s="556"/>
-      <c r="G6" s="556"/>
-      <c r="H6" s="557"/>
-      <c r="I6" s="553"/>
-      <c r="J6" s="554"/>
-      <c r="K6" s="501"/>
-      <c r="L6" s="502"/>
+      <c r="E6" s="580"/>
+      <c r="F6" s="580"/>
+      <c r="G6" s="580"/>
+      <c r="H6" s="581"/>
+      <c r="I6" s="577"/>
+      <c r="J6" s="578"/>
+      <c r="K6" s="503"/>
+      <c r="L6" s="504"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -13210,27 +13231,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="558" t="s">
+      <c r="B7" s="582" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="559"/>
-      <c r="D7" s="503">
+      <c r="C7" s="583"/>
+      <c r="D7" s="505">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="560"/>
-      <c r="F7" s="560"/>
-      <c r="G7" s="560"/>
-      <c r="H7" s="561"/>
-      <c r="I7" s="558" t="s">
+      <c r="E7" s="584"/>
+      <c r="F7" s="584"/>
+      <c r="G7" s="584"/>
+      <c r="H7" s="585"/>
+      <c r="I7" s="582" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="562"/>
-      <c r="K7" s="491">
+      <c r="J7" s="586"/>
+      <c r="K7" s="493">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="492"/>
+      <c r="L7" s="494"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -13713,6 +13734,8 @@
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
@@ -13729,8 +13752,6 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -13798,24 +13819,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="566"/>
-      <c r="C2" s="567"/>
-      <c r="D2" s="568"/>
-      <c r="E2" s="575" t="s">
+      <c r="B2" s="548"/>
+      <c r="C2" s="549"/>
+      <c r="D2" s="550"/>
+      <c r="E2" s="557" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="576"/>
-      <c r="G2" s="576"/>
-      <c r="H2" s="577"/>
-      <c r="I2" s="582" t="s">
+      <c r="F2" s="558"/>
+      <c r="G2" s="558"/>
+      <c r="H2" s="559"/>
+      <c r="I2" s="564" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="583"/>
-      <c r="K2" s="586">
+      <c r="J2" s="565"/>
+      <c r="K2" s="568">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="L2" s="587"/>
+      <c r="L2" s="569"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
@@ -13826,19 +13847,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="569"/>
-      <c r="C3" s="570"/>
-      <c r="D3" s="571"/>
-      <c r="E3" s="579" t="s">
+      <c r="B3" s="551"/>
+      <c r="C3" s="552"/>
+      <c r="D3" s="553"/>
+      <c r="E3" s="561" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="580"/>
-      <c r="G3" s="580"/>
-      <c r="H3" s="581"/>
-      <c r="I3" s="584"/>
-      <c r="J3" s="585"/>
-      <c r="K3" s="588"/>
-      <c r="L3" s="589"/>
+      <c r="F3" s="562"/>
+      <c r="G3" s="562"/>
+      <c r="H3" s="563"/>
+      <c r="I3" s="566"/>
+      <c r="J3" s="567"/>
+      <c r="K3" s="570"/>
+      <c r="L3" s="571"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13849,9 +13870,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="572"/>
-      <c r="C4" s="573"/>
-      <c r="D4" s="574"/>
+      <c r="B4" s="554"/>
+      <c r="C4" s="555"/>
+      <c r="D4" s="556"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13870,22 +13891,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="551" t="s">
+      <c r="B5" s="575" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="552"/>
-      <c r="D5" s="500" t="str">
+      <c r="C5" s="576"/>
+      <c r="D5" s="502" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="501"/>
-      <c r="F5" s="501"/>
-      <c r="G5" s="501"/>
-      <c r="H5" s="502"/>
-      <c r="I5" s="553"/>
-      <c r="J5" s="554"/>
-      <c r="K5" s="501"/>
-      <c r="L5" s="502"/>
+      <c r="E5" s="503"/>
+      <c r="F5" s="503"/>
+      <c r="G5" s="503"/>
+      <c r="H5" s="504"/>
+      <c r="I5" s="577"/>
+      <c r="J5" s="578"/>
+      <c r="K5" s="503"/>
+      <c r="L5" s="504"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13896,22 +13917,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="551" t="s">
+      <c r="B6" s="575" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="555"/>
-      <c r="D6" s="494" t="str">
+      <c r="C6" s="579"/>
+      <c r="D6" s="496" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="556"/>
-      <c r="F6" s="556"/>
-      <c r="G6" s="556"/>
-      <c r="H6" s="557"/>
-      <c r="I6" s="553"/>
-      <c r="J6" s="554"/>
-      <c r="K6" s="501"/>
-      <c r="L6" s="502"/>
+      <c r="E6" s="580"/>
+      <c r="F6" s="580"/>
+      <c r="G6" s="580"/>
+      <c r="H6" s="581"/>
+      <c r="I6" s="577"/>
+      <c r="J6" s="578"/>
+      <c r="K6" s="503"/>
+      <c r="L6" s="504"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13922,27 +13943,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="558" t="s">
+      <c r="B7" s="582" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="559"/>
-      <c r="D7" s="503">
+      <c r="C7" s="583"/>
+      <c r="D7" s="505">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="560"/>
-      <c r="F7" s="560"/>
-      <c r="G7" s="560"/>
-      <c r="H7" s="561"/>
-      <c r="I7" s="558" t="s">
+      <c r="E7" s="584"/>
+      <c r="F7" s="584"/>
+      <c r="G7" s="584"/>
+      <c r="H7" s="585"/>
+      <c r="I7" s="582" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="562"/>
-      <c r="K7" s="491">
+      <c r="J7" s="586"/>
+      <c r="K7" s="493">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="492"/>
+      <c r="L7" s="494"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -14227,17 +14248,6 @@
     <row r="17" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -14245,6 +14255,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="B2:D4"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -14316,60 +14337,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="597"/>
-      <c r="C2" s="598"/>
-      <c r="D2" s="599"/>
-      <c r="E2" s="606" t="s">
+      <c r="B2" s="590"/>
+      <c r="C2" s="591"/>
+      <c r="D2" s="592"/>
+      <c r="E2" s="599" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="607"/>
-      <c r="G2" s="607"/>
-      <c r="H2" s="608"/>
-      <c r="I2" s="612" t="s">
+      <c r="F2" s="600"/>
+      <c r="G2" s="600"/>
+      <c r="H2" s="601"/>
+      <c r="I2" s="605" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="613"/>
-      <c r="K2" s="616">
+      <c r="J2" s="606"/>
+      <c r="K2" s="609">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="L2" s="617"/>
-      <c r="M2" s="621"/>
-      <c r="N2" s="622"/>
-      <c r="O2" s="622"/>
-      <c r="P2" s="622"/>
-      <c r="Q2" s="622"/>
-      <c r="R2" s="623"/>
+      <c r="L2" s="610"/>
+      <c r="M2" s="622"/>
+      <c r="N2" s="623"/>
+      <c r="O2" s="623"/>
+      <c r="P2" s="623"/>
+      <c r="Q2" s="623"/>
+      <c r="R2" s="624"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="600"/>
-      <c r="C3" s="601"/>
-      <c r="D3" s="602"/>
-      <c r="E3" s="609" t="s">
+      <c r="B3" s="593"/>
+      <c r="C3" s="594"/>
+      <c r="D3" s="595"/>
+      <c r="E3" s="602" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="610"/>
-      <c r="G3" s="610"/>
-      <c r="H3" s="611"/>
-      <c r="I3" s="614"/>
-      <c r="J3" s="615"/>
-      <c r="K3" s="618"/>
-      <c r="L3" s="619"/>
-      <c r="M3" s="624"/>
-      <c r="N3" s="625"/>
-      <c r="O3" s="625"/>
-      <c r="P3" s="625"/>
-      <c r="Q3" s="625"/>
-      <c r="R3" s="626"/>
+      <c r="F3" s="603"/>
+      <c r="G3" s="603"/>
+      <c r="H3" s="604"/>
+      <c r="I3" s="607"/>
+      <c r="J3" s="608"/>
+      <c r="K3" s="611"/>
+      <c r="L3" s="612"/>
+      <c r="M3" s="625"/>
+      <c r="N3" s="626"/>
+      <c r="O3" s="626"/>
+      <c r="P3" s="626"/>
+      <c r="Q3" s="626"/>
+      <c r="R3" s="627"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="603"/>
-      <c r="C4" s="604"/>
-      <c r="D4" s="605"/>
+      <c r="B4" s="596"/>
+      <c r="C4" s="597"/>
+      <c r="D4" s="598"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -14378,95 +14399,95 @@
       <c r="J4" s="249"/>
       <c r="K4" s="252"/>
       <c r="L4" s="253"/>
-      <c r="M4" s="624"/>
-      <c r="N4" s="625"/>
-      <c r="O4" s="625"/>
-      <c r="P4" s="625"/>
-      <c r="Q4" s="625"/>
-      <c r="R4" s="626"/>
+      <c r="M4" s="625"/>
+      <c r="N4" s="626"/>
+      <c r="O4" s="626"/>
+      <c r="P4" s="626"/>
+      <c r="Q4" s="626"/>
+      <c r="R4" s="627"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="551" t="s">
+      <c r="B5" s="575" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="590"/>
-      <c r="D5" s="500" t="str">
+      <c r="C5" s="613"/>
+      <c r="D5" s="502" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="501"/>
-      <c r="F5" s="501"/>
-      <c r="G5" s="501"/>
-      <c r="H5" s="502"/>
-      <c r="I5" s="591"/>
-      <c r="J5" s="592"/>
-      <c r="K5" s="593"/>
-      <c r="L5" s="502"/>
-      <c r="M5" s="624"/>
-      <c r="N5" s="625"/>
-      <c r="O5" s="625"/>
-      <c r="P5" s="625"/>
-      <c r="Q5" s="625"/>
-      <c r="R5" s="626"/>
+      <c r="E5" s="503"/>
+      <c r="F5" s="503"/>
+      <c r="G5" s="503"/>
+      <c r="H5" s="504"/>
+      <c r="I5" s="614"/>
+      <c r="J5" s="615"/>
+      <c r="K5" s="616"/>
+      <c r="L5" s="504"/>
+      <c r="M5" s="625"/>
+      <c r="N5" s="626"/>
+      <c r="O5" s="626"/>
+      <c r="P5" s="626"/>
+      <c r="Q5" s="626"/>
+      <c r="R5" s="627"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="551" t="s">
+      <c r="B6" s="575" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="590"/>
-      <c r="D6" s="494" t="str">
+      <c r="C6" s="613"/>
+      <c r="D6" s="496" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="556"/>
-      <c r="F6" s="556"/>
-      <c r="G6" s="556"/>
-      <c r="H6" s="557"/>
-      <c r="I6" s="591"/>
-      <c r="J6" s="592"/>
-      <c r="K6" s="593"/>
-      <c r="L6" s="502"/>
-      <c r="M6" s="624"/>
-      <c r="N6" s="625"/>
-      <c r="O6" s="625"/>
-      <c r="P6" s="625"/>
-      <c r="Q6" s="625"/>
-      <c r="R6" s="626"/>
+      <c r="E6" s="580"/>
+      <c r="F6" s="580"/>
+      <c r="G6" s="580"/>
+      <c r="H6" s="581"/>
+      <c r="I6" s="614"/>
+      <c r="J6" s="615"/>
+      <c r="K6" s="616"/>
+      <c r="L6" s="504"/>
+      <c r="M6" s="625"/>
+      <c r="N6" s="626"/>
+      <c r="O6" s="626"/>
+      <c r="P6" s="626"/>
+      <c r="Q6" s="626"/>
+      <c r="R6" s="627"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="558" t="s">
+      <c r="B7" s="582" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="594"/>
-      <c r="D7" s="503">
+      <c r="C7" s="617"/>
+      <c r="D7" s="505">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="560"/>
-      <c r="F7" s="560"/>
-      <c r="G7" s="560"/>
-      <c r="H7" s="561"/>
-      <c r="I7" s="595" t="s">
+      <c r="E7" s="584"/>
+      <c r="F7" s="584"/>
+      <c r="G7" s="584"/>
+      <c r="H7" s="585"/>
+      <c r="I7" s="618" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="594"/>
-      <c r="K7" s="491">
+      <c r="J7" s="617"/>
+      <c r="K7" s="493">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="492"/>
-      <c r="M7" s="624"/>
-      <c r="N7" s="625"/>
-      <c r="O7" s="625"/>
-      <c r="P7" s="625"/>
-      <c r="Q7" s="625"/>
-      <c r="R7" s="626"/>
+      <c r="L7" s="494"/>
+      <c r="M7" s="625"/>
+      <c r="N7" s="626"/>
+      <c r="O7" s="626"/>
+      <c r="P7" s="626"/>
+      <c r="Q7" s="626"/>
+      <c r="R7" s="627"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14880,12 +14901,12 @@
     </row>
     <row r="21" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78"/>
-      <c r="B21" s="548" t="s">
+      <c r="B21" s="572" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="549"/>
-      <c r="D21" s="549"/>
-      <c r="E21" s="550"/>
+      <c r="C21" s="573"/>
+      <c r="D21" s="573"/>
+      <c r="E21" s="574"/>
       <c r="F21" s="116" t="s">
         <v>16</v>
       </c>
@@ -14930,16 +14951,20 @@
       <c r="B23" s="123"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L24" s="627" t="s">
+      <c r="L24" s="621" t="s">
         <v>140</v>
       </c>
-      <c r="M24" s="627"/>
-      <c r="N24" s="627"/>
+      <c r="M24" s="621"/>
+      <c r="N24" s="621"/>
       <c r="O24" s="468"/>
       <c r="P24" s="468"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="L24:N24"/>
@@ -14956,10 +14981,6 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R21">
     <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
@@ -15024,24 +15045,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="597"/>
-      <c r="C2" s="598"/>
-      <c r="D2" s="599"/>
-      <c r="E2" s="606" t="s">
+      <c r="B2" s="590"/>
+      <c r="C2" s="591"/>
+      <c r="D2" s="592"/>
+      <c r="E2" s="599" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="607"/>
-      <c r="G2" s="607"/>
-      <c r="H2" s="608"/>
-      <c r="I2" s="612" t="s">
+      <c r="F2" s="600"/>
+      <c r="G2" s="600"/>
+      <c r="H2" s="601"/>
+      <c r="I2" s="605" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="613"/>
-      <c r="K2" s="616">
+      <c r="J2" s="606"/>
+      <c r="K2" s="609">
         <f>Данные!B19</f>
         <v>60</v>
       </c>
-      <c r="L2" s="617"/>
+      <c r="L2" s="610"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
@@ -15052,19 +15073,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="600"/>
-      <c r="C3" s="601"/>
-      <c r="D3" s="602"/>
-      <c r="E3" s="609" t="s">
+      <c r="B3" s="593"/>
+      <c r="C3" s="594"/>
+      <c r="D3" s="595"/>
+      <c r="E3" s="602" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="610"/>
-      <c r="G3" s="610"/>
-      <c r="H3" s="611"/>
-      <c r="I3" s="614"/>
-      <c r="J3" s="615"/>
-      <c r="K3" s="618"/>
-      <c r="L3" s="619"/>
+      <c r="F3" s="603"/>
+      <c r="G3" s="603"/>
+      <c r="H3" s="604"/>
+      <c r="I3" s="607"/>
+      <c r="J3" s="608"/>
+      <c r="K3" s="611"/>
+      <c r="L3" s="612"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -15075,9 +15096,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="603"/>
-      <c r="C4" s="604"/>
-      <c r="D4" s="605"/>
+      <c r="B4" s="596"/>
+      <c r="C4" s="597"/>
+      <c r="D4" s="598"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -15096,22 +15117,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="551" t="s">
+      <c r="B5" s="575" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="590"/>
-      <c r="D5" s="500" t="str">
+      <c r="C5" s="613"/>
+      <c r="D5" s="502" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="501"/>
-      <c r="F5" s="501"/>
-      <c r="G5" s="501"/>
-      <c r="H5" s="502"/>
-      <c r="I5" s="591"/>
-      <c r="J5" s="592"/>
-      <c r="K5" s="593"/>
-      <c r="L5" s="502"/>
+      <c r="E5" s="503"/>
+      <c r="F5" s="503"/>
+      <c r="G5" s="503"/>
+      <c r="H5" s="504"/>
+      <c r="I5" s="614"/>
+      <c r="J5" s="615"/>
+      <c r="K5" s="616"/>
+      <c r="L5" s="504"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -15122,22 +15143,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="551" t="s">
+      <c r="B6" s="575" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="590"/>
-      <c r="D6" s="494" t="str">
+      <c r="C6" s="613"/>
+      <c r="D6" s="496" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2.1-500-14 (Брест колоски 0.5 л.)</v>
       </c>
-      <c r="E6" s="556"/>
-      <c r="F6" s="556"/>
-      <c r="G6" s="556"/>
-      <c r="H6" s="557"/>
-      <c r="I6" s="591"/>
-      <c r="J6" s="592"/>
-      <c r="K6" s="593"/>
-      <c r="L6" s="502"/>
+      <c r="E6" s="580"/>
+      <c r="F6" s="580"/>
+      <c r="G6" s="580"/>
+      <c r="H6" s="581"/>
+      <c r="I6" s="614"/>
+      <c r="J6" s="615"/>
+      <c r="K6" s="616"/>
+      <c r="L6" s="504"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -15148,27 +15169,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="558" t="s">
+      <c r="B7" s="582" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="594"/>
-      <c r="D7" s="503">
+      <c r="C7" s="617"/>
+      <c r="D7" s="505">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="560"/>
-      <c r="F7" s="560"/>
-      <c r="G7" s="560"/>
-      <c r="H7" s="561"/>
-      <c r="I7" s="595" t="s">
+      <c r="E7" s="584"/>
+      <c r="F7" s="584"/>
+      <c r="G7" s="584"/>
+      <c r="H7" s="585"/>
+      <c r="I7" s="618" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="594"/>
-      <c r="K7" s="491">
+      <c r="J7" s="617"/>
+      <c r="K7" s="493">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="492"/>
+      <c r="L7" s="494"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -15431,12 +15452,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="548" t="s">
+      <c r="B16" s="572" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="549"/>
-      <c r="D16" s="549"/>
-      <c r="E16" s="550"/>
+      <c r="C16" s="573"/>
+      <c r="D16" s="573"/>
+      <c r="E16" s="574"/>
       <c r="F16" s="259" t="s">
         <v>16</v>
       </c>
@@ -15481,21 +15502,16 @@
       <c r="B18" s="123"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="K19" s="627" t="s">
+      <c r="K19" s="621" t="s">
         <v>140</v>
       </c>
-      <c r="L19" s="627"/>
-      <c r="M19" s="627"/>
+      <c r="L19" s="621"/>
+      <c r="M19" s="621"/>
       <c r="N19" s="468"/>
       <c r="O19" s="468"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="K19:M19"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B2:D4"/>
@@ -15511,6 +15527,11 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
